--- a/GPT_4_1/Holistic and Linguistic Data Human GPT-4.1.xlsx
+++ b/GPT_4_1/Holistic and Linguistic Data Human GPT-4.1.xlsx
@@ -468,12 +468,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Hier ist Ihr Text in Deutscher Leichter Sprache: --- **Die Pille** Du möchtest etwas über die Pille wissen. Hier gibt es Informationen in Leichter Sprache: **Was ist die Pille?** Die Pille ist ein Medikament. Die Pille hilft, dass Frauen nicht schwanger werden. Es gibt verschiedene Pillen: - Es gibt die Mikropille. Sie hat 2 Hormone: Gestagen und Östrogen. - Es gibt die Minipille. Sie hat 1 Hormon: Gestagen. **Wie wirkt die Pille?** Frauen haben jeden Monat ihre Periode. Dabei wird die Schleimhaut in der Gebärmutter dick. Nach dem Eisprung kommt manchmal ein Baby. Wenn kein Baby entsteht, geht die Schleimhaut und die Frau bekommt ihre Periode. Die Pille hat Hormone. Diese Hormone ändern den Zyklus. Mit der Pille hat die Frau keinen Eisprung. Die Schleimhaut wird nicht dick. Die Frau kann nicht schwanger werden, solange sie die Pille nimmt. **Was musst du bei der Einnahme beachten?** Du musst die Pille jeden Tag nehmen. Immer zur selben Uhrzeit. Wenn du die Pille vergisst, kann sie nicht mehr gut schützen. Dann kann die Frau vielleicht schwanger werden. Es gibt verschiedene Pillen. Sprich mit deinem Frauenarzt oder deiner Frauenärztin. Sie helfen dir, die richtige Pille zu finden. Die Pille ist ein Medikament. Lies immer den Beipackzettel. **Welche Vorteile hat die Pille?** Die Pille schützt sehr sicher vor einer Schwangerschaft. Die Pille ist einfach zu nehmen. Die Monatsblutung kommt meistens regelmäßig. Die Blutung ist oft schwächer und kürzer. Manche Pillen helfen gegen Akne. Die Minipille kann auch Vorteile haben: - Sie hat kein Östrogen. Das ist gut für manche Frauen. - Frauen dürfen die Minipille beim Stillen nehmen. **Welche Nebenwirkungen sind möglich?** Die Pille kann Nebenwirkungen machen. Viele Nebenwirkungen stehen im Beipackzettel. Häufige Nebenwirkungen sind: - Übelkeit - Gewichtszunahme - Stimmungsschwankungen - Zwischenblutung - Kopfschmerzen - Weniger Lust auf Sex - Thrombose (Blutgerinnsel) - Mehr Risiko für Brustkrebs - Mehr Risiko für Gebärmutterhals-Krebs Manche Frauen fühlen sich traurig oder müde. Du hast Nebenwirkungen? Sprich mit deiner Frauenärztin oder deinem Frauenarzt. Vielleicht gibt es eine bessere Pille für dich. Achtung: Frauen ab 35 Jahren haben ein höheres Risiko für Herzinfarkt oder Schlaganfall mit der Pille. Auch Rauchen, Übergewicht oder Bluthochdruck sind Risiken. Sprich mit deinem Arzt. **Welche Wechselwirkungen sind möglich?** Du nimmst andere Medikamente? Sprich mit deinem Arzt. Manche Medikamente schwächen die Pille, zum Beispiel: - Antibiotika - Medikamente gegen Epilepsie - Johanniskraut Auch Durchfall und Erbrechen können die Pille schwächen. **Wer sollte die Pille nicht nehmen?** Nicht alle Frauen dürfen die Pille nehmen. Frauen dürfen die Pille NICHT nehmen, wenn sie: - schwanger sind - eine Leberkrankheit haben - Diabetes haben - starken Bluthochdruck haben - schon mal einen Herzinfarkt oder Thrombose hatten - in den letzten 5 Jahren Brustkrebs hatten **Wo bekommst du mehr Informationen?** Du möchtest noch mehr wissen? Sprich mit einer Frauenärztin oder einem Frauenarzt. Oder lese den Beipackzettel von der Pille. --- Hinweis: Bei weiteren Fragen zur Gesundheit sprich bitte immer mit einem Arzt oder Apotheker.</t>
+          <t>Hier ist Ihr Text in Leichter Sprache übersetzt: --- **Die Pille – Informationen in Leichter Sprache** **Was ist die Pille?** Die Pille ist ein Mittel zur Verhütung. Die Pille schützt davor, schwanger zu werden. Es gibt verschiedene Pillen. Zum Beispiel: Mikro-Pille und Mini-Pille. Die Pillen sind verschieden. Die Mikro-Pille hat zwei Hormone: Gestagen und Östrogen. Die Mini-Pille hat nur ein Hormon: Gestagen. **Wie wirkt die Pille?** Jeden Monat bildet sich Schleimhaut in der Gebärmutter von der Frau. Eine befruchtete Eizelle kann sich dort festmachen. Kommt keine Schwangerschaft? Dann löst sich die Schleimhaut. Die Schleimhaut verlässt den Körper mit der Monats-Blutung. Im Körper gibt es Hormone. Das sind: Östrogen und Gestagen. Die Pille hat künstliche Hormone. Wenn Sie die Pille nehmen, hat Ihr Körper einen anderen Zyklus. Sie bekommen keinen Eisprung mehr und keine neue Schleimhaut wächst. Sie können nicht schwanger werden. **Was müssen Sie beachten?** Nehmen Sie die Pille jeden Tag zur gleichen Uhrzeit. Vergessen Sie die Pille? Oder nehmen Sie sie zu spät? Die Pille wirkt dann nicht sicher. Es gibt verschiedene Pillen mit unterschiedlichen Regeln. Ihr Frauenarzt hilft Ihnen, die richtige Pille zu finden und erklärt, wie Sie sie nehmen müssen. Wichtig: Dieser Text ersetzt nicht den Beipackzettel. Sprechen Sie mit Ihrem Arzt, wenn Sie die Pille nehmen möchten. **Welche Vorteile hat die Pille?** Es gibt viele Vorteile: - Die Pille schützt gut vor Schwangerschaft. - Die Pille ist leicht einzunehmen. - Die Monats-Blutung kommt meistens regelmäßig. - Die Monats-Blutung kann kürzer und schwächer werden. - Manche Pillen helfen gegen Akne. Minipille: - Hat kein Östrogen. - Kann von stillenden Frauen genommen werden. - Gut für Frauen, die Östrogen nicht vertragen. **Welche Nebenwirkungen kann es geben?** Die Pille kann Nebenwirkungen machen. Das steht im Beipackzettel. Die wichtigsten Nebenwirkungen sind zum Beispiel: - Übelkeit - Gewichtszunahme - Stimmungsschwankungen - Blutungen außerhalb der Monats-Blutung - Kopfschmerzen - Weniger Lust auf Sex - Thrombose - Höheres Risiko für Brustkrebs - Höheres Risiko für Gebärmutterhals-Krebs Manche Frauen fühlen sich traurig oder erschöpft. Bei manchen werden die Nebenwirkungen nach langer Einnahme besser. Wichtig: Haben Sie Nebenwirkungen? Gehen Sie zum Arzt. Vielleicht gibt es eine andere Pille, die besser für Sie ist. Achtung: Sind Sie 35 Jahre oder älter und nehmen die Pille? Dann haben Sie ein höheres Risiko für Herz-Krankheiten und Schlaganfälle. Rauchen, Übergewicht oder hoher Blutdruck erhöhen das Risiko. Sprechen Sie mit Ihrem Arzt darüber. **Welche Wechselwirkungen kann es geben?** Nehmen Sie andere Medikamente? Manche Medikamente schwächen die Wirkung der Pille. Zum Beispiel Antibiotika, Medikamente gegen Epilepsie und Johanniskraut. Auch bei Durchfall und Erbrechen kann die Pille nicht sicher wirken. Fragen Sie immer Ihren Arzt, wenn Sie andere Medikamente nehmen. **Wer sollte die Pille nicht nehmen?** Manche Frauen dürfen die Pille nicht nehmen: - Schwangere Frauen - Frauen mit Leber-Krankheiten - Frauen mit Diabetes - Frauen mit hohem Blutdruck - Frauen, die einen Herzinfarkt oder eine Thrombose hatten - Frauen, die in den letzten 5 Jahren Brustkrebs hatten **Wo gibt es mehr Informationen?** Sie möchten mehr wissen? Informations-Links zur Pille finden Sie hier (Link steht im Originaltext). --- Falls Sie noch Fragen haben, fragen Sie Ihren Arzt oder Ihre Ärztin. Jeder Körper ist anders!</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Hier ist Ihr Text in Deutscher Leichter Sprache: --- **Die Pille** Du möchtest etwas über die Pille wissen. Hier gibt es Informationen in Leichter Sprache: **Was ist die Pille?** Die Pille ist ein Medikament. Die Pille hilft, dass Frauen nicht schwanger werden. Es gibt verschiedene Pillen: - Es gibt die Mikropille. Sie hat 2 Hormone: Gestagen und Östrogen. - Es gibt die Minipille. Sie hat 1 Hormon: Gestagen. **Wie wirkt die Pille?** Frauen haben jeden Monat ihre Periode. Dabei wird die Schleimhaut in der Gebärmutter dick. Nach dem Eisprung kommt manchmal ein Baby. Wenn kein Baby entsteht, geht die Schleimhaut und die Frau bekommt ihre Periode. Die Pille hat Hormone. Diese Hormone ändern den Zyklus. Mit der Pille hat die Frau keinen Eisprung. Die Schleimhaut wird nicht dick. Die Frau kann nicht schwanger werden, solange sie die Pille nimmt. **Was musst du bei der Einnahme beachten?** Du musst die Pille jeden Tag nehmen. Immer zur selben Uhrzeit. Wenn du die Pille vergisst, kann sie nicht mehr gut schützen. Dann kann die Frau vielleicht schwanger werden. Es gibt verschiedene Pillen. Sprich mit deinem Frauenarzt oder deiner Frauenärztin. Sie helfen dir, die richtige Pille zu finden. Die Pille ist ein Medikament. Lies immer den Beipackzettel. **Welche Vorteile hat die Pille?** Die Pille schützt sehr sicher vor einer Schwangerschaft. Die Pille ist einfach zu nehmen. Die Monatsblutung kommt meistens regelmäßig. Die Blutung ist oft schwächer und kürzer. Manche Pillen helfen gegen Akne. Die Minipille kann auch Vorteile haben: - Sie hat kein Östrogen. Das ist gut für manche Frauen. - Frauen dürfen die Minipille beim Stillen nehmen. **Welche Nebenwirkungen sind möglich?** Die Pille kann Nebenwirkungen machen. Viele Nebenwirkungen stehen im Beipackzettel. Häufige Nebenwirkungen sind: - Übelkeit - Gewichtszunahme - Stimmungsschwankungen - Zwischenblutung - Kopfschmerzen - Weniger Lust auf Sex - Thrombose (Blutgerinnsel) - Mehr Risiko für Brustkrebs - Mehr Risiko für Gebärmutterhals-Krebs Manche Frauen fühlen sich traurig oder müde. Du hast Nebenwirkungen? Sprich mit deiner Frauenärztin oder deinem Frauenarzt. Vielleicht gibt es eine bessere Pille für dich. Achtung: Frauen ab 35 Jahren haben ein höheres Risiko für Herzinfarkt oder Schlaganfall mit der Pille. Auch Rauchen, Übergewicht oder Bluthochdruck sind Risiken. Sprich mit deinem Arzt. **Welche Wechselwirkungen sind möglich?** Du nimmst andere Medikamente? Sprich mit deinem Arzt. Manche Medikamente schwächen die Pille, zum Beispiel: - Antibiotika - Medikamente gegen Epilepsie - Johanniskraut Auch Durchfall und Erbrechen können die Pille schwächen. **Wer sollte die Pille nicht nehmen?** Nicht alle Frauen dürfen die Pille nehmen. Frauen dürfen die Pille NICHT nehmen, wenn sie: - schwanger sind - eine Leberkrankheit haben - Diabetes haben - starken Bluthochdruck haben - schon mal einen Herzinfarkt oder Thrombose hatten - in den letzten 5 Jahren Brustkrebs hatten **Wo bekommst du mehr Informationen?** Du möchtest noch mehr wissen? Sprich mit einer Frauenärztin oder einem Frauenarzt. Oder lese den Beipackzettel von der Pille. --- Hinweis: Bei weiteren Fragen zur Gesundheit sprich bitte immer mit einem Arzt oder Apotheker.</t>
+          <t>Hier ist der Text, vereinfacht nach den drei Ebenen: --- **Pille – Informationen in sehr einfacher Sprache** --- **Was ist die Pille?** Die Pille ist ein Mittel zur Verhütung. Verhütung bedeutet: Sie bekommen kein Baby. Es gibt verschiedene Pillen. Die Mikropille hat zwei Hormone. Hormone sind Stoffe im Körper, die wichtige Aufgaben haben. Die Minipille hat nur ein Hormon. --- **Wie wirkt die Pille?** Im Körper gibt es einen Zyklus. Zyklus bedeutet: Eine Abfolge von Vorgängen, die sich jeden Monat wiederholt. Ohne Pille gibt es einmal im Monat einen Eisprung. Eisprung heißt: Eine Eizelle verlässt den Eierstock. Die Pille stoppt den Eisprung. Die Pille sorgt dafür, dass keine Schwangerschaft entsteht. --- **Was müssen Sie beachten?** Sie müssen die Pille jeden Tag nehmen. Nehmen Sie die Pille immer zur gleichen Uhrzeit. Vergessen Sie die Pille? Die Wirkung ist dann schwächer. --- **Vorteile der Pille** Die Pille schützt zuverlässig vor einer Schwangerschaft. Die Einnahme ist einfach. Die Monatsblutung (periodisches Blut, das Frauen bekommen) kann leichter werden. Manchmal wird die Akne (Pickel auf der Haut) besser. Minipille: Keine Nebenwirkungen vom Hormon Östrogen. Die Minipille ist für Frauen beim Stillen geeignet. --- **Nebenwirkungen der Pille** Nebenwirkung bedeutet: Ein Effekt, den man nicht will. Sie können zum Beispiel bekommen: - Übelkeit (Ihnen ist schlecht) - Gewichtszunahme (Sie nehmen zu) - Kopfschmerzen - Schwankende Stimmung (Ihre Gefühle ändern sich schnell) - Unregelmäßige Blutungen - Weniger Lust auf Sex - Thrombose (Ein Blutgerinnsel entsteht in einem Blutgefäß. Das kann gefährlich sein.) - Höheres Risiko für bestimmte Krebsarten Manche Frauen bekommen Depressionen (Sie fühlen sich lange sehr traurig). Haben Sie Nebenwirkungen? Gehen Sie zum Arzt. --- **Risiko bei älteren Frauen** Sind Sie älter als 35? Das Risiko für Herzinfarkt (Herz wird plötzlich schlecht durch Blutmangel) oder Schlaganfall (Gehirn bekommt plötzlich zu wenig Blut) ist höher. Rauchen und Übergewicht (sehr schwer sein) erhöhen das Risiko. Sprechen Sie mit Ihrem Arzt. --- **Wechselwirkungen** Wechselwirkung heißt: Zwei Mittel beeinflussen sich gegenseitig. Andere Medikamente können die Wirkung der Pille schwächen. Zum Beispiel: Antibiotika (Mittel gegen Bakterien), Medikamente gegen Epilepsie (Krankheit mit Krampfanfällen), Johanniskraut (Pflanze als Heilmittel). Durchfall oder Erbrechen kann die Wirkung schwächen. --- **Wer darf die Pille nicht nehmen?** - Schwangere Frauen - Frauen mit Leber-Krankheit (Leber ist ein Organ im Bauch) - Frauen mit Diabetes (Krankheit mit zu viel Zucker im Blut) - Frauen mit starkem Bluthochdruck (zu hoher Blutdruck) - Frauen mit Herzinfarkt oder Thrombose - Frauen mit Brustkrebs in den letzten 5 Jahren --- **Mehr Informationen?** Sprechen Sie mit Ihrem Arzt. Lassen Sie sich beraten. --- Bei medizinischen Fragen fragen Sie bitte Ihre Ärztin oder Ihren Arzt.</t>
         </is>
       </c>
     </row>
@@ -490,12 +490,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Hier ist eine Übersetzung des Textes in Deutsche Leichte Sprache: --- **Impfungen für Kinder und Erwachsene** Impfungen sind wichtig für Kinder und Erwachsene. **Was ist eine Impfung?** Bei einer Impfung bekommt Ihr Körper Hilfe, damit er Krankheiten besser abwehren kann. Krankheiten kommen von kleinen Lebewesen, zum Beispiel Bakterien oder Viren. Nach einer Impfung kann Ihr Körper diese Lebewesen besser bekämpfen. So bleiben Sie gesund. **Was passiert bei einer Impfung?** Sie bekommen einen Impfstoff. Der Arzt gibt Ihnen den Impfstoff mit einer Spritze. Manchmal kann man den Impfstoff auch trinken. Durch den Impfstoff bildet Ihr Körper einen Schutz gegen Krankheitserreger. Diese Abwehrstoffe heißen: Antikörper. Wenn Sie später mit einem Krankheitserreger in Kontakt kommen, erkennt Ihr Körper ihn. Die Abwehrstoffe helfen Ihrem Körper, den Krankheitserreger zu besiegen. So werden Sie meist nicht krank. **Welche Impfstoffe gibt es?** Es gibt zwei Arten von Impfstoffen. 1. **Totimpfstoffe:** Diese Impfstoffe enthalten tote oder Teile von Krankheitserregern. Der Körper reagiert auf diese Impfstoffe nicht sehr stark. Deshalb muss man diese Impfung manchmal wiederholen. Beispiele sind: Tetanus, Hepatitis B, Keuchhusten, Covid-19. 2. **Lebendimpfstoffe:** Diese Impfstoffe enthalten wenige, abgeschwächte Krankheitserreger. Sie können sich im Körper vermehren, machen aber nicht krank. Manchmal fühlt man sich nach der Impfung kurz krank. Das geht schnell wieder weg. Beispiele sind: Masern, Mumps, Röteln, Windpocken. **Welche Impfungen brauche ich?** In Deutschland gibt es eine Gruppe von Fachleuten, die Impfungen empfiehlt. Sie heißt: STIKO (Ständige Impfkommission) beim RKI (Robert Koch-Institut). Die Empfehlungen stehen im Impfkalender. Sprechen Sie mit Ihrem Arzt. Der Arzt sagt Ihnen, welche Impfungen für Sie wichtig sind. **Warum sind Impfungen wichtig?** Es gibt zwei Gründe: 1. Sie schützen sich selbst vor Krankheiten. 2. Sie schützen andere. Geimpfte Menschen können andere nicht anstecken. Manche Menschen können keine Impfung bekommen, zum Beispiel weil sie krank sind. Deshalb ist es wichtig, dass möglichst viele Menschen geimpft sind. **Wie wird ein Impfstoff geprüft?** Bevor ein Impfstoff erlaubt wird, wird er genau geprüft. Die Prüfung hat vier Schritte: 1. Der Impfstoff wird an Tieren getestet. 2. Der Impfstoff wird an wenigen Menschen getestet. 3. Der Impfstoff wird an mehr Menschen getestet. 4. Der Impfstoff wird an vielen Menschen getestet. Erst wenn er in allen Tests sicher ist, bekommt er eine Zulassung. Dann können alle Menschen ihn bekommen. **Welche Nebenwirkungen kann eine Impfung haben?** Nach einer Impfung kann Ihr Körper reagieren. Zum Beispiel: - Schmerzen oder rote Stelle, wo geimpft wurde - Müdigkeit - Kopfschmerzen oder Fieber - Durchfall - Hautausschlag Die Beschwerden gehen meistens nach ein paar Tagen weg. Nur selten gibt es schwere Nebenwirkungen. Wenn das passiert, muss der Arzt das melden. Sehr selten gibt es schwere Impfschäden. Wenn Sie einen Impfschaden haben, hilft Ihnen das Gesundheitsamt. **Wer darf sich nicht impfen lassen?** Manche Menschen sollen bestimmte Impfungen nicht bekommen: - Schwangere Frauen - Menschen mit schwachem Immunsystem - Menschen, die allergisch sind gegen Inhaltsstoffe im Impfstoff - Menschen, die gerade schwer krank sind Wenn Sie unsicher sind, sprechen Sie mit Ihrem Arzt. **Wo bekomme ich mehr Informationen?** Mehr Informationen über Impfungen bekommen Sie beim Arzt oder im Internet. Link: [RKI - Impfungen](https://www.rki.de/) --- Hinweis: Diese Übersetzung ist in Leichter Sprache und enthält nur die wichtigsten Informationen. Bitte sprechen Sie mit Ihrem Arzt, wenn Sie noch Fragen haben.</t>
+          <t>Hier ist der Text in Deutscher Leichter Sprache: **Impfungen für Kinder und Erwachsene** **Was ist eine Impfung?** Eine Impfung hilft, dass Sie nicht krank werden. Krankheiten kommen von kleinen Lebewesen. Diese heißen: Krankheitserreger. Krankheitserreger sind zum Beispiel: - Bakterien - Viren Sie bekommen eine Impfung gegen eine Krankheit. Dann kann Ihr Körper die Krankheitserreger besser bekämpfen. Sie bleiben meist gesund. **Was passiert bei einer Impfung?** Sie bekommen die Impfung von einem Arzt. Die Impfung ist ein Impfstoff. Den Impfstoff bekommen Sie meistens mit einer Spritze. Manchmal trinken Sie den Impfstoff. Nach der Impfung macht Ihr Körper Abwehrstoffe. Abwehrstoffe heißen auch: Antikörper. Die Antikörper schützen Sie vor Krankheiten. Wenn Sie später Krankheitserreger bekommen, erkennt Ihr Körper sie. Dann können Sie gesund bleiben. **Welche Arten von Impfstoffen gibt es?** Es gibt zwei Arten von Impfstoffen: 1. **Totimpfstoffe:** Diese enthalten tote Krankheitserreger. Die sind nicht gefährlich. Manchmal muss die Impfung wiederholt werden. Beispiele: Tetanus, Hepatitis B, Keuchhusten, Covid-19 2. **Lebendimpfstoffe:** Diese enthalten sehr schwache, lebende Krankheitserreger. Sie machen nicht krank, aber das Immunsystem arbeitet stark. Davon kann man sich kurz krank fühlen. Das geht nach ein paar Tagen vorbei. Beispiele: Masern, Mumps, Röteln, Windpocken **Welche Impfungen sind wichtig?** Eine Gruppe von Experten prüft, welche Impfungen für Deutschland wichtig sind. Die Gruppe heißt STIKO. Sie können den Impf-Kalender von STIKO schauen. Sprechen Sie mit Ihrem Hausarzt, welche Impfungen Sie brauchen. Ihr Arzt schaut auch in Ihren Impfausweis. **Warum sind Impfungen wichtig?** Impfungen sind wichtig, weil Sie sich schützen. Sie sind auch wichtig, weil Sie andere Menschen schützen. Wenn viele Menschen geimpft sind, wird niemand krank oder steckt andere an. Manche Menschen dürfen keine Impfung bekommen. Sie sind darauf angewiesen, dass andere geimpft sind. **Wie wird ein Impfstoff geprüft?** Ein Impfstoff wird sehr genau getestet. Die Prüfung hat vier Schritte: 1. Test an Tieren: Bilden Tiere Antikörper? 2. Test an wenigen Menschen: Wie reagieren die Menschen? Gibt es Nebenwirkungen? 3. Test an vielen Menschen: Bilden Menschen Antikörper? Wie viel Impfstoff braucht man? 4. Test an sehr vielen Menschen: Schützt der Impfstoff gut? Wie lange hält der Schutz? Alle Tests bestanden? Dann dürfen alle Menschen die Impfung bekommen. **Welche Nebenwirkungen gibt es?** Nach einer Impfung können Sie: - Schmerzen oder rote Stelle am Arm haben - Müde sein - Fieber bekommen - Kopfschmerzen haben - Probleme mit dem Magen haben - Hautausschlag bekommen Das geht meist schnell wieder weg. Sehr selten können schlimme Nebenwirkungen auftreten. Dann sprechen Sie mit einem Arzt und dem Gesundheitsamt. **Wer sollte keine Impfung bekommen?** Manche Menschen sollten manche Impfstoffe nicht bekommen. Das sind zum Beispiel: - Schwangere Frauen - Menschen mit einer schweren Krankheit - Menschen mit einer Allergie gegen den Impfstoff Sprechen Sie mit Ihrem Arzt, wenn Sie unsicher sind. **Wo bekommen Sie mehr Informationen?** Sie wollen mehr über Impfungen wissen? Sie finden die Informationen zum Beispiel beim Robert Koch Institut im Internet. --- Falls Sie einzelne Abschnitte noch einfacher wünschen, können Sie mir Bescheid geben!</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Hier ist eine Übersetzung des Textes in Deutsche Leichte Sprache: --- **Impfungen für Kinder und Erwachsene** Impfungen sind wichtig für Kinder und Erwachsene. **Was ist eine Impfung?** Bei einer Impfung bekommt Ihr Körper Hilfe, damit er Krankheiten besser abwehren kann. Krankheiten kommen von kleinen Lebewesen, zum Beispiel Bakterien oder Viren. Nach einer Impfung kann Ihr Körper diese Lebewesen besser bekämpfen. So bleiben Sie gesund. **Was passiert bei einer Impfung?** Sie bekommen einen Impfstoff. Der Arzt gibt Ihnen den Impfstoff mit einer Spritze. Manchmal kann man den Impfstoff auch trinken. Durch den Impfstoff bildet Ihr Körper einen Schutz gegen Krankheitserreger. Diese Abwehrstoffe heißen: Antikörper. Wenn Sie später mit einem Krankheitserreger in Kontakt kommen, erkennt Ihr Körper ihn. Die Abwehrstoffe helfen Ihrem Körper, den Krankheitserreger zu besiegen. So werden Sie meist nicht krank. **Welche Impfstoffe gibt es?** Es gibt zwei Arten von Impfstoffen. 1. **Totimpfstoffe:** Diese Impfstoffe enthalten tote oder Teile von Krankheitserregern. Der Körper reagiert auf diese Impfstoffe nicht sehr stark. Deshalb muss man diese Impfung manchmal wiederholen. Beispiele sind: Tetanus, Hepatitis B, Keuchhusten, Covid-19. 2. **Lebendimpfstoffe:** Diese Impfstoffe enthalten wenige, abgeschwächte Krankheitserreger. Sie können sich im Körper vermehren, machen aber nicht krank. Manchmal fühlt man sich nach der Impfung kurz krank. Das geht schnell wieder weg. Beispiele sind: Masern, Mumps, Röteln, Windpocken. **Welche Impfungen brauche ich?** In Deutschland gibt es eine Gruppe von Fachleuten, die Impfungen empfiehlt. Sie heißt: STIKO (Ständige Impfkommission) beim RKI (Robert Koch-Institut). Die Empfehlungen stehen im Impfkalender. Sprechen Sie mit Ihrem Arzt. Der Arzt sagt Ihnen, welche Impfungen für Sie wichtig sind. **Warum sind Impfungen wichtig?** Es gibt zwei Gründe: 1. Sie schützen sich selbst vor Krankheiten. 2. Sie schützen andere. Geimpfte Menschen können andere nicht anstecken. Manche Menschen können keine Impfung bekommen, zum Beispiel weil sie krank sind. Deshalb ist es wichtig, dass möglichst viele Menschen geimpft sind. **Wie wird ein Impfstoff geprüft?** Bevor ein Impfstoff erlaubt wird, wird er genau geprüft. Die Prüfung hat vier Schritte: 1. Der Impfstoff wird an Tieren getestet. 2. Der Impfstoff wird an wenigen Menschen getestet. 3. Der Impfstoff wird an mehr Menschen getestet. 4. Der Impfstoff wird an vielen Menschen getestet. Erst wenn er in allen Tests sicher ist, bekommt er eine Zulassung. Dann können alle Menschen ihn bekommen. **Welche Nebenwirkungen kann eine Impfung haben?** Nach einer Impfung kann Ihr Körper reagieren. Zum Beispiel: - Schmerzen oder rote Stelle, wo geimpft wurde - Müdigkeit - Kopfschmerzen oder Fieber - Durchfall - Hautausschlag Die Beschwerden gehen meistens nach ein paar Tagen weg. Nur selten gibt es schwere Nebenwirkungen. Wenn das passiert, muss der Arzt das melden. Sehr selten gibt es schwere Impfschäden. Wenn Sie einen Impfschaden haben, hilft Ihnen das Gesundheitsamt. **Wer darf sich nicht impfen lassen?** Manche Menschen sollen bestimmte Impfungen nicht bekommen: - Schwangere Frauen - Menschen mit schwachem Immunsystem - Menschen, die allergisch sind gegen Inhaltsstoffe im Impfstoff - Menschen, die gerade schwer krank sind Wenn Sie unsicher sind, sprechen Sie mit Ihrem Arzt. **Wo bekomme ich mehr Informationen?** Mehr Informationen über Impfungen bekommen Sie beim Arzt oder im Internet. Link: [RKI - Impfungen](https://www.rki.de/) --- Hinweis: Diese Übersetzung ist in Leichter Sprache und enthält nur die wichtigsten Informationen. Bitte sprechen Sie mit Ihrem Arzt, wenn Sie noch Fragen haben.</t>
+          <t>Hier ist der Text nach Ihrem linguistischen Ansatz. Ich habe unwichtige Infos entfernt, sehr einfache Sätze gebildet und schwierige Wörter erklärt. --- **Impfungen für Kinder und Erwachsene** **Was ist eine Impfung?** Eine Impfung ist ein Schutz vor Krankheiten. Eine Krankheit kann durch Bakterien oder Viren kommen. Bakterien sind kleine Lebewesen. Viren sind winzige Krankheitserreger. Nach einer Impfung wird man meist nicht krank. **Was passiert bei einer Impfung?** Sie bekommen einen Impfstoff. Ein Impfstoff ist ein Mittel gegen Krankheiten. Sie bekommen den Impfstoff als Spritze oder als Tropfen zum Trinken. Ihr Körper macht dann Abwehrstoffe. Abwehrstoffe heißen auch Antikörper. Antikörper helfen, Krankheitserreger zu bekämpfen. **Welche Arten von Impfstoff gibt es?** Es gibt Totimpfstoffe und Lebendimpfstoffe. Totimpfstoff enthält tote Krankheitserreger. Tot heißt: Der Krankheitserreger kann keine Krankheit machen. Beispiele: Tetanus, Hepatitis B, Keuchhusten, Covid-19 Lebendimpfstoff enthält sehr schwache Krankheitserreger. Schwach heißt: Der Krankheitserreger kann keine Krankheit auslösen. Beispiele: Masern, Mumps, Röteln, Windpocken **Welche Impfungen sind wichtig?** Eine Liste mit wichtigen Impfungen gibt es bei der STIKO. STIKO heißt: Ständige Impfkommission. Sprechen Sie mit Ihrem Arzt. Ihr Arzt sagt Ihnen, welche Impfungen Sie brauchen. **Warum sind Impfungen wichtig?** Impfungen schützen Sie. Impfungen schützen andere Menschen. Viele Menschen sind geimpft. Dann gibt es weniger Krankheiten. **Wie wird ein Impfstoff geprüft?** Vor der Zulassung muss ein Impfstoff getestet werden. Zulassung heißt: Der Impfstoff darf benutzt werden. Es gibt vier Schritte: 1. Test an Tieren. 2. Test an wenigen Menschen. 3. Test an vielen Menschen. 4. Test an sehr vielen Menschen. Ist alles geprüft? Dann darf der Impfstoff benutzt werden. **Welche Nebenwirkungen kann es geben?** Nach einer Impfung kann Ihr Körper reagieren. Mögliche Beschwerden: - Schmerzen oder Rötung am Arm - Müdigkeit - Fieber - Kopfschmerzen - Ausschlag (Hautveränderung) Beschwerden gehen oft schnell weg. Gut zu wissen: Sehr selten gibt es große Probleme. Diese heißen Impfschaden. Bei einem Impfschaden hilft das Gesundheitsamt. **Wer sollte keine Impfung bekommen?** Manche Menschen dürfen keine Impfung bekommen. Zum Beispiel: - Schwangere Frauen - Menschen mit Allergie gegen Stoffe im Impfstoff - Menschen mit einer großen Krankheit Fragen Sie Ihren Arzt, wenn Sie unsicher sind. **Wo gibt es mehr Informationen?** Mehr Infos gibt es im Internet beim Robert Koch Institut. --- Wenn Sie noch weitere Anpassungen brauchen, lassen Sie es mich wissen!</t>
         </is>
       </c>
     </row>
@@ -512,12 +512,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Gerne, hier ist der Text in Leichter Sprache: Antibiotika richtig einnehmen Dieser Text erklärt in Leichter Sprache, wie man Antibiotika richtig nimmt. Was sind Antibiotika? Antibiotika sind spezielle Medikamente. Sie helfen gegen Bakterien. Bakterien sind winzige Lebewesen. Sie können Krankheiten machen. Manche Krankheiten nennt man Entzündungen. Wenn eine Entzündung durch Bakterien kommt, verschreibt der Arzt oft Antibiotika. Antibiotika helfen zum Beispiel bei: - Blasen-Entzündung, - Lungen-Entzündung, - Mandel-Entzündung. Wichtig: Antibiotika helfen nur, wenn Bakterien krank machen. Antibiotika helfen nicht bei Viren. Zum Beispiel: Eine Erkältung kommt oft durch Viren. Dann helfen Antibiotika nicht. Man kann Antibiotika als Tabletten, als Salbe oder als Tropfen bekommen. Warum ist es wichtig, Antibiotika richtig zu nehmen? Sie sollen Antibiotika immer so nehmen, wie der Arzt es sagt. Dann wirkt das Medikament gut. Dann werden Sie gesund. Wenn Sie das Medikament falsch nehmen, kann es nicht richtig helfen. Bakterien können dann stärker werden und das Medikament hilft nicht mehr. Wie nimmt man Antibiotika richtig? Wie Sie das Medikament nehmen, sagt Ihnen Ihr Arzt. Es kommt zum Beispiel darauf an: - welches Antibiotikum Sie bekommen, - ob es Tabletten, Salbe oder Tropfen sind, - wie viel Sie genau nehmen sollen, - wie es Ihrer Gesundheit geht. Fragen Sie immer Ihren Arzt, wie Sie Ihr Medikament richtig nehmen sollen. Allgemeine Hinweise für die Einnahme Für viele Antibiotika gibt es ähnliche Regeln. Sie müssen aber auch auf die genauen Angaben vom Arzt achten. 1. Wie oft soll ich Antibiotika nehmen? Ihr Arzt oder Apotheker schreibt Ihnen auf, wie Sie das Medikament nehmen sollen. - 1x1 täglich: Sie nehmen das Medikament einmal am Tag, immer zur gleichen Zeit. - 2x1 täglich: Sie nehmen das Medikament zweimal am Tag, zum Beispiel morgens um 8 Uhr und abends um 20 Uhr. Wenn Sie nicht wissen, - wie oft Sie das Medikament nehmen sollen, - wie viele Tabletten Sie nehmen sollen, - wie viele Tage Sie das Medikament nehmen müssen, fragen Sie immer Ihren Arzt oder Apotheker. 2. Antibiotika und Essen Manchmal soll man Antibiotika mit Essen nehmen, manchmal ohne Essen. Ihr Arzt oder Apotheker sagt Ihnen das. - Vor dem Essen: Tablette nehmen, dann 30 Minuten warten, dann essen. - Zum Essen: Tablette nehmen, dann gleich essen. Manche Getränke sind nicht gut für Antibiotika. Nehmen Sie Tabletten nicht mit Milch, Tee oder Kaffee. Besser ist: ein großes</t>
+          <t>Hier ist Ihre Übersetzung in Leichte Sprache: **Antibiotika richtig einnehmen** In diesem Text steht: Wie nimmt man Antibiotika richtig ein? **Was sind Antibiotika?** Antibiotika sind Medikamente gegen Bakterien. Bakterien sind kleine Lebewesen. Sie können den Menschen krank machen. Zum Beispiel machen Bakterien Entzündungen. Ein Arzt verschreibt Antibiotika, wenn eine Krankheit durch Bakterien kommt. Antibiotika helfen zum Beispiel bei: - Blasenentzündung - Lungenentzündung - Mandelentzündung Wichtig: Antibiotika helfen nur, wenn Bakterien eine Krankheit machen. Viele Krankheiten kommen aber durch Viren. Gegen Viren helfen Antibiotika nicht. Antibiotika gibt es in verschiedenen Formen: - Tabletten - Salben - Tropfen **Warum ist die richtige Einnahme wichtig?** Antibiotika helfen nur, wenn man sie richtig nimmt. Wenn man sie falsch nimmt, kann das gefährlich sein. Dann werden manche Bakterien stark. Das heißt: Antibiotika helfen später nicht mehr. **Wie nimmt man Antibiotika richtig ein?** Die richtige Einnahme ist bei jedem Menschen anders. Es kommt zum Beispiel darauf an: - Welches Medikament ist es? - Welche Form hat das Medikament? - Wie viel muss man nehmen? - Wie krank ist der Patient? Deshalb sagt der Arzt, wie Sie Ihr Antibiotikum nehmen müssen. Fragen Sie Ihren Arzt oder Apotheker, wenn Sie etwas nicht wissen. **Allgemeine Hinweise für die Einnahme** Jeder Mensch ist anders. Aber es gibt wichtige Regeln für alle: 1. **Wie oft sollen Sie das Medikament nehmen?** Auf dem Medikament steht, was Sie tun sollen. Manchmal sagt der Arzt: 1x1 täglich. Das bedeutet: Sie nehmen das Medikament 1 Mal am Tag. Nehmen Sie das Medikament immer zur gleichen Zeit. Bei 2x1 täglich nehmen Sie das Medikament 2 Mal am Tag, zum Beispiel morgens und abends. Wichtig: Fragen Sie immer Ihren Arzt oder Apotheker, wenn Sie unsicher sind: - Wie oft muss ich das Medikament nehmen? - Wie viele Tabletten muss ich nehmen? - Wie viele Tage muss ich das Medikament nehmen? 2. **Antibiotika und Essen** Essen kann manchmal die Wirkung von Antibiotika stören. Das ist bei manchen Antibiotika so. - **Vor dem Essen:** Manchmal müssen Sie Antibiotika nehmen, bevor Sie essen. Dann warten Sie eine halbe Stunde mit dem Essen. - **Zum Essen:** Manchmal nehmen Sie das Medikament beim Essen. Fragen Sie immer nach, wie Sie Ihr Medikament nehmen müssen. Trinken Sie Antibiotika-Tabletten am besten mit viel Wasser. Milch, Tee oder Kaffee sind nicht gut, weil sie die Wirkung stören. 3. **Andere Medikamente** Nehmen Sie noch andere Medikamente? Das kann sich gegenseitig stören. Sprechen Sie mit Ihrem Arzt oder Apotheker. 4. **Nebenwirkungen** Manche Menschen haben Probleme mit Antibiotika. Zum Beispiel: - Allergien - Ausschlag auf der Haut - Durchfall Manche Menschen bekommen einen Sonnenbrand, wenn sie Antibiotika nehmen. Frauen bekommen manchmal Pilz in der Scheide. Fragen Sie Ihren Arzt oder Apotheker, wenn Sie Fragen haben. **Wo gibt es mehr Informationen?** Sie möchten noch mehr wissen? Sprechen Sie mit Ihrem Arzt oder Apotheker. Lesen Sie immer den Zettel, der beim Medikament dabei ist. **Wichtig:** Dieser Text ist nur zur Information. Fragen Sie Ihren Arzt oder Apotheker, bevor Sie ein Medikament nehmen.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Gerne, hier ist der Text in Leichter Sprache: Antibiotika richtig einnehmen Dieser Text erklärt in Leichter Sprache, wie man Antibiotika richtig nimmt. Was sind Antibiotika? Antibiotika sind spezielle Medikamente. Sie helfen gegen Bakterien. Bakterien sind winzige Lebewesen. Sie können Krankheiten machen. Manche Krankheiten nennt man Entzündungen. Wenn eine Entzündung durch Bakterien kommt, verschreibt der Arzt oft Antibiotika. Antibiotika helfen zum Beispiel bei: - Blasen-Entzündung, - Lungen-Entzündung, - Mandel-Entzündung. Wichtig: Antibiotika helfen nur, wenn Bakterien krank machen. Antibiotika helfen nicht bei Viren. Zum Beispiel: Eine Erkältung kommt oft durch Viren. Dann helfen Antibiotika nicht. Man kann Antibiotika als Tabletten, als Salbe oder als Tropfen bekommen. Warum ist es wichtig, Antibiotika richtig zu nehmen? Sie sollen Antibiotika immer so nehmen, wie der Arzt es sagt. Dann wirkt das Medikament gut. Dann werden Sie gesund. Wenn Sie das Medikament falsch nehmen, kann es nicht richtig helfen. Bakterien können dann stärker werden und das Medikament hilft nicht mehr. Wie nimmt man Antibiotika richtig? Wie Sie das Medikament nehmen, sagt Ihnen Ihr Arzt. Es kommt zum Beispiel darauf an: - welches Antibiotikum Sie bekommen, - ob es Tabletten, Salbe oder Tropfen sind, - wie viel Sie genau nehmen sollen, - wie es Ihrer Gesundheit geht. Fragen Sie immer Ihren Arzt, wie Sie Ihr Medikament richtig nehmen sollen. Allgemeine Hinweise für die Einnahme Für viele Antibiotika gibt es ähnliche Regeln. Sie müssen aber auch auf die genauen Angaben vom Arzt achten. 1. Wie oft soll ich Antibiotika nehmen? Ihr Arzt oder Apotheker schreibt Ihnen auf, wie Sie das Medikament nehmen sollen. - 1x1 täglich: Sie nehmen das Medikament einmal am Tag, immer zur gleichen Zeit. - 2x1 täglich: Sie nehmen das Medikament zweimal am Tag, zum Beispiel morgens um 8 Uhr und abends um 20 Uhr. Wenn Sie nicht wissen, - wie oft Sie das Medikament nehmen sollen, - wie viele Tabletten Sie nehmen sollen, - wie viele Tage Sie das Medikament nehmen müssen, fragen Sie immer Ihren Arzt oder Apotheker. 2. Antibiotika und Essen Manchmal soll man Antibiotika mit Essen nehmen, manchmal ohne Essen. Ihr Arzt oder Apotheker sagt Ihnen das. - Vor dem Essen: Tablette nehmen, dann 30 Minuten warten, dann essen. - Zum Essen: Tablette nehmen, dann gleich essen. Manche Getränke sind nicht gut für Antibiotika. Nehmen Sie Tabletten nicht mit Milch, Tee oder Kaffee. Besser ist: ein großes</t>
+          <t>Gerne! Hier ist der Text entsprechend Ihrer Vorgaben (reduzierte Textebene, einfache Sätze, Erklärungen zu schwierigen Wörtern): --- **Antibiotika richtig einnehmen** **Was sind Antibiotika?** Antibiotika sind Medikamente. Sie helfen gegen Bakterien. Bakterien sind kleine Lebewesen. Sie machen Menschen manchmal krank. Antibiotika helfen nicht gegen Viren. Viren sind noch kleinere Krankheitserreger als Bakterien. Gegen Erkältung helfen Antibiotika nicht. Der Arzt kann Antibiotika als Tabletten, Salben oder Tropfen geben. **Warum muss ich Antibiotika richtig nehmen?** Antibiotika helfen nur, wenn ich sie richtig nehme. Falsche Einnahme bedeutet: das Medikament wirkt nicht mehr. Bakterien werden stärker, wenn ich falsch nehme. Dann hilft das Antibiotikum nicht mehr bei Krankheiten. **Wie nehme ich Antibiotika richtig ein?** Jeder Mensch nimmt Antibiotika anders ein. Das sagt der Arzt. Wichtige Regeln: - **1x täglich:** Einmal am Tag. Zum Beispiel eine Tablette morgens. - **2x täglich:** Zweimal am Tag. Zum Beispiel eine Tablette morgens und eine abends. Täglich bedeutet: jeden Tag. Immer zur gleichen Zeit einnehmen. Wenn ich nicht weiß, wie oft oder wie viel, frage ich den Arzt oder Apotheker. Ein Apotheker ist eine Person, die Medikamente verkauft. **Antibiotika und Essen** Manche Antibiotika nehme ich vor dem Essen. Dann warte ich eine halbe Stunde, bis ich esse. Manche Antibiotika nehme ich beim Essen. Das sagt der Arzt. Ich nehme Antibiotika am besten mit Wasser. Milch, Tee oder Kaffee sind nicht gut. Sie können das Medikament schwächen. **Andere Medikamente gleichzeitig nehmen** Ich nehme viele Medikamente? Dann frage ich den Arzt. Manchmal stören Medikamente sich gegenseitig. Das nennt man Wechselwirkungen. Wechselwirkungen bedeutet: zwei Medikamente zusammen wirken anders. **Mögliche Probleme mit Antibiotika** Manche Menschen bekommen Nebenwirkungen. Nebenwirkungen sind unerwünschte Wirkungen von einem Medikament. Zum Beispiel: Ausschlag, Durchfall oder Allergien. Manchmal bekommt man schneller Sonnenbrand. Frauen bekommen manchmal Pilzinfektionen. **Wo bekomme ich Hilfe oder Infos?** Ich frage immer den Arzt oder Apotheker. Ich lese den Beipackzettel. Der Beipackzettel ist ein Informationsblatt im Medikament. --- Schwierige Wörter und Erklärungen: - Bakterien: Kleine Lebewesen, machen manchmal krank. - Viren: Sehr kleine Erreger, oft bei Erkältungen. - Nebenwirkungen: Unerwünschte oder schlechte Wirkungen. - Wechselwirkungen: Zwei Medikamente zusammen verändern ihre Wirkung. - Apotheker: Person, die Medikamente verkauft. - Beipackzettel: Papier mit Infos zum Medikament. Bitte beachten Sie: Dieser Text ersetzt nicht die Beratung durch Arzt oder Apotheker.</t>
         </is>
       </c>
     </row>
@@ -534,12 +534,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Hausmittel bei Husten (Leichte Sprache) Dieser Text gibt Ihnen Informationen in Leichter Sprache: Was hilft gegen Husten? **Warum husten Menschen?** Husten ist keine Krankheit. Husten ist ein Zeichen vom Körper. Zum Beispiel: Wenn man eine Erkältung hat. Durch Husten gehen Viren oder Bakterien aus dem Körper. Es gibt auch andere Gründe für Husten. Achtung: Manchmal zeigt Husten eine Krankheit. Zum Beispiel Corona. Sie haben Husten und auch noch: - Fieber - starkes Krankheitsgefühl - Nachtschweiß - Schleim beim Husten? Dann gehen Sie zum Hausarzt. Kinder und Babys mit Husten: Sprechen Sie sofort mit dem Kinderarzt. **Helfen Hausmittel gegen Husten?** Bei einer Erkältung geht Husten oft von allein weg. Arzt oder Apotheker können Ihnen Medikamente geben. Sie helfen zum Beispiel gegen den Hustenreiz oder lösen Schleim. Es gibt auch Hausmittel gegen Husten. Wissenschaftler wissen oft nicht zu 100%, ob Hausmittel helfen. Aber viele Menschen fühlen sich durch Hausmittel besser. Auch Ärzte empfehlen Hausmittel. Im nächsten Text stehen viele Hausmittel gegen Husten. --- **1. Viel trinken** Wasser oder Tee trinken ist wichtig. Viel trinken hält den Hals feucht. So wird Hustenreiz weniger. Auch Schleim geht besser weg. Achtung: Menschen mit Herz- oder Nierenkrankheiten dürfen oft nicht viel trinken. Sprechen Sie mit Ihrem Arzt. --- **2. Husten-Tees** Sie können Husten-Tee aus der Apotheke trinken. In Husten-Tees sind Pflanzen. Zum Beispiel: - Thymian - Schlüsselblume - Eibisch - Spitzwegerich - Efeu Die Pflanzen helfen gegen Schleim und Hustenreiz. Fragen Sie den Apotheker. --- **3. Inhalieren** Inhalieren heißt: Dampf einatmen. So befeuchten Sie Nase, Mund und Hals. Das hilft gegen Hustenreiz und löst Schleim. So inhalieren Sie: 1. Gießen Sie sehr warmes Wasser in eine Schüssel. 2. Beugen Sie sich über die Schüssel. 3. Legen Sie ein Handtuch über Kopf und Schüssel. 4. Atmen Sie den Dampf ein. Machen Sie das mehrmals am Tag. Achtung: - Wasser ist sehr heiß! Verbrennen Sie sich nicht. - Am besten nehmen Sie einen Inhalator. Das ist ein Gerät aus der Apotheke. - Kinder: Sprechen Sie vorher mit dem Arzt. - Sie können Salbei oder bestimmte Öle ins Wasser geben. Fragen Sie vorher den Arzt oder Apotheker. - Achtung: Kinder und Menschen mit Asthma dürfen keine ätherischen Öle inhalieren. --- **4. Hustensaft selber machen** Sie können Hustensaft aus Zwiebeln und Zucker machen. So geht es: 1. Zwiebel klein schneiden. 2. Zwiebel und Kandiszucker in einen Topf geben. 3. Bei wenig Hitze kochen. 4. Abkühlen lassen. 5. Die Masse durch ein Tuch drücken. 6. Den Saft auffangen und mehrmals am Tag einen Teelöffel nehmen. Sie können auch Honig nehmen statt Zucker. Achtung: Kinder unter 1 Jahr dürfen keinen Honig bekommen. Das ist gefährlich. --- **5. Kartoffelwickel** Manche Menschen machen Kartoffelwickel bei Husten. So machen Sie einen Kartoffelwickel: 1. 5 Kartoffeln kochen. 2. Kartoffeln zerdrücken und auf ein Tuch legen. 3. Kartoffeln im Tuch abkühlen lassen, sie sollen noch warm sein. 4. Das Tuch auf die Brust legen. 5. Warten, bis die Kartoffeln kalt sind. --- **Wo finden Sie mehr Informationen?** Achtung: - Husten und Fieber? Gehen Sie zum Arzt. - Husten geht nicht weg (über eine Woche)? Gehen Sie zum Arzt. - Sie bekommen schlecht Luft? Rufen Sie den Notarzt. Mehr Informationen bekommen Sie beim Arzt. Im Internet gibt es auch mehr Informationen. Aber: Dieser Text ist nur ein allgemeiner Hinweis. Gehen Sie immer zum Arzt, wenn Sie sich krank fühlen oder Fragen haben. --- **Hinweis:** Diese Übersetzung ist in Leichter Sprache und ersetzt keine Untersuchung beim Arzt.</t>
+          <t>Hier ist Ihr Text übersetzt in Leichte Sprache: Hausmittel bei Husten Dieser Text informiert in Leichter Sprache über Hausmittel bei Husten. Stand: 23.06.2022 Was steht in diesem Text? - Warum husten Menschen? - Helfen Hausmittel gegen Husten? - Viel trinken bei Husten - Husten-Tee - Inhalieren bei Husten - Hustensaft selber machen - Kartoffelwickel bei Husten - Wo gibt es mehr Informationen? ### Warum husten Menschen? Husten ist keine Krankheit. Husten ist eine Reaktion vom Körper. Zum Beispiel hustet man oft, wenn man eine Erkältung hat. Husten hilft: So kann der Körper Krankheitserreger, wie Viren und Bakterien, loswerden. Es gibt aber auch andere Gründe für Husten. Achtung: Husten kann manchmal ein Zeichen für eine Krankheit sein. Zum Beispiel kann Husten ein Zeichen für eine Corona-Infektion sein. Wenn Sie Husten haben und dazu auch noch: - Fieber - Nachts sehr schwitzen - Sich sehr krank fühlen - Schleim aushusten Dann sprechen Sie bitte mit Ihrem Hausarzt. Hat ein Baby oder Kind Husten? Dann gehen Sie sofort zum Kinderarzt. --- ### Helfen Hausmittel gegen Husten? Bei einer Erkältung geht Husten oft von alleine wieder weg. Manchmal hilft aber eine Behandlung vom Arzt oder Apotheker. Sie können helfen, dass der Hustenreiz weniger wird. Oder sie helfen, Schleim aus Hals oder Lunge zu lösen. Es gibt Hausmittel gegen Husten. Wissenschaftler wissen oft nicht genau, ob sie wirklich helfen. Aber viele Menschen glauben, dass sie helfen. Auch der Glaube kann helfen. Deshalb empfehlen Ärzte manchmal Hausmittel. Im Text stellen wir verschiedene Hausmittel gegen Husten vor. --- ### Viel trinken bei Husten Viel trinken hilft gegen Husten. Dann sind die Schleimhäute feucht. Das ist wichtig und hilft gegen das Husten-Gefühl. Außerdem wird der Schleim dünner und kann besser abgehustet werden. Achtung: Manche Leute mit Herzkrankheiten oder Nierenkrankheiten dürfen nur wenig trinken. Fragen Sie vorher Ihren Arzt. --- ### Husten-Tee Sie können Husten-Tee aus der Apotheke trinken. In Husten-Tee sind besondere Pflanzen, zum Beispiel: - Thymian - Schlüsselblume Diese helfen, Schleim zu lösen. Andere Tees beinhalten Pflanzen wie: - Eibisch - Spitzwegerich - Efeu Diese helfen beim Hustenreiz. Fragen Sie Ihren Apotheker, welche Tees es gibt. --- ### Inhalieren bei Husten Inhalieren heißt: warmen Dampf einatmen. So geht es: 1. Machen Sie sehr warmes Wasser in eine Schüssel. 2. Beugen Sie sich über die Schüssel. 3. Legen Sie ein Handtuch über Ihren Kopf und die Schüssel. 4. Atmen Sie den Dampf ein und aus. 5. Machen Sie das mehrmals am Tag. Achtung: Der Dampf ist sehr warm! Verbrennen Sie sich nicht. Benutzen Sie am besten einen Inhalator aus der Apotheke. Das ist ein Gerät zum Inhalieren. In den Inhalator füllt man das warme Wasser. Man kann durch den Aufsatz den Dampf einatmen. Sie können auch Salbei oder manche ätherische Öle ins Wasser tun, zum Beispiel Menthol. Aber: Sprechen Sie immer erst mit einem Arzt oder Apotheker. Achtung: Kinder dürfen nicht mit ätherischen Ölen inhalieren! Ätherische Öle sind für Kinder gefährlich, sie können schwere Atem-Probleme machen. Auch Menschen mit Asthma müssen vorsichtig sein. --- ### Hustensaft selber machen Sie können Hustensaft mit Zwiebeln machen. Sie brauchen: - 1 Zwiebel - Kandiszucker oder Honig So geht es: 1. Schneiden Sie die Zwiebel klein. 2. Mischen Sie Zwiebel und Zucker (oder Honig) in einen Topf. 3. Erhitzen Sie die Mischung bei wenig Hitze. 4. Lassen Sie alles abkühlen. 5. Gießen Sie die Mischung durch ein Tuch oder einen Kaffeefilter. 6. Fangen Sie den Saft auf. Von dem Saft können Sie mehrmals am Tag einen Teelöffel nehmen. Achtung: Kein Honig für Kinder unter einem Jahr! Honig ist für kleine Kinder gefährlich. --- ### Kartoffelwickel bei Husten Manche Menschen benutzen Kartoffelwickel gegen Husten. Sie brauchen: - 5 Kartoffeln - ein Tuch So geht es: 1. Kochen Sie die Kartoffeln weich. 2. Zerdrücken Sie sie auf dem Tuch. 3. Lassen Sie sie abkühlen (vorsicht, nicht zu heiß!). 4. Legen Sie das Tuch mit den warmen Kartoffeln auf die Brust. 5. Lassen Sie das Tuch dort liegen, bis es kalt ist. --- ### Wo gibt es mehr Informationen? Achtung: Sie haben Husten und Fieber? Oder Ihr Husten wird nach einer Woche nicht besser? Dann gehen Sie zum Arzt. Bekommen Sie schlecht oder gar keine Luft? Oder haben Sie Atemnot? Dann rufen Sie sofort den Notarzt (112). Mehr Infos finden Sie im Internet. Aber: Dieser Text ersetzt nicht den Besuch beim Arzt. Nur ein Arzt kann genau sagen, was Ihnen hilft. Fühlen Sie sich krank? Oder haben Sie Fragen? Gehen Sie zum Arzt. --- **Hinweis:** Diese Informationen sind allgemein. Bei Unsicherheit oder starken Beschwerden holen Sie sich immer ärztlichen Rat.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Hausmittel bei Husten (Leichte Sprache) Dieser Text gibt Ihnen Informationen in Leichter Sprache: Was hilft gegen Husten? **Warum husten Menschen?** Husten ist keine Krankheit. Husten ist ein Zeichen vom Körper. Zum Beispiel: Wenn man eine Erkältung hat. Durch Husten gehen Viren oder Bakterien aus dem Körper. Es gibt auch andere Gründe für Husten. Achtung: Manchmal zeigt Husten eine Krankheit. Zum Beispiel Corona. Sie haben Husten und auch noch: - Fieber - starkes Krankheitsgefühl - Nachtschweiß - Schleim beim Husten? Dann gehen Sie zum Hausarzt. Kinder und Babys mit Husten: Sprechen Sie sofort mit dem Kinderarzt. **Helfen Hausmittel gegen Husten?** Bei einer Erkältung geht Husten oft von allein weg. Arzt oder Apotheker können Ihnen Medikamente geben. Sie helfen zum Beispiel gegen den Hustenreiz oder lösen Schleim. Es gibt auch Hausmittel gegen Husten. Wissenschaftler wissen oft nicht zu 100%, ob Hausmittel helfen. Aber viele Menschen fühlen sich durch Hausmittel besser. Auch Ärzte empfehlen Hausmittel. Im nächsten Text stehen viele Hausmittel gegen Husten. --- **1. Viel trinken** Wasser oder Tee trinken ist wichtig. Viel trinken hält den Hals feucht. So wird Hustenreiz weniger. Auch Schleim geht besser weg. Achtung: Menschen mit Herz- oder Nierenkrankheiten dürfen oft nicht viel trinken. Sprechen Sie mit Ihrem Arzt. --- **2. Husten-Tees** Sie können Husten-Tee aus der Apotheke trinken. In Husten-Tees sind Pflanzen. Zum Beispiel: - Thymian - Schlüsselblume - Eibisch - Spitzwegerich - Efeu Die Pflanzen helfen gegen Schleim und Hustenreiz. Fragen Sie den Apotheker. --- **3. Inhalieren** Inhalieren heißt: Dampf einatmen. So befeuchten Sie Nase, Mund und Hals. Das hilft gegen Hustenreiz und löst Schleim. So inhalieren Sie: 1. Gießen Sie sehr warmes Wasser in eine Schüssel. 2. Beugen Sie sich über die Schüssel. 3. Legen Sie ein Handtuch über Kopf und Schüssel. 4. Atmen Sie den Dampf ein. Machen Sie das mehrmals am Tag. Achtung: - Wasser ist sehr heiß! Verbrennen Sie sich nicht. - Am besten nehmen Sie einen Inhalator. Das ist ein Gerät aus der Apotheke. - Kinder: Sprechen Sie vorher mit dem Arzt. - Sie können Salbei oder bestimmte Öle ins Wasser geben. Fragen Sie vorher den Arzt oder Apotheker. - Achtung: Kinder und Menschen mit Asthma dürfen keine ätherischen Öle inhalieren. --- **4. Hustensaft selber machen** Sie können Hustensaft aus Zwiebeln und Zucker machen. So geht es: 1. Zwiebel klein schneiden. 2. Zwiebel und Kandiszucker in einen Topf geben. 3. Bei wenig Hitze kochen. 4. Abkühlen lassen. 5. Die Masse durch ein Tuch drücken. 6. Den Saft auffangen und mehrmals am Tag einen Teelöffel nehmen. Sie können auch Honig nehmen statt Zucker. Achtung: Kinder unter 1 Jahr dürfen keinen Honig bekommen. Das ist gefährlich. --- **5. Kartoffelwickel** Manche Menschen machen Kartoffelwickel bei Husten. So machen Sie einen Kartoffelwickel: 1. 5 Kartoffeln kochen. 2. Kartoffeln zerdrücken und auf ein Tuch legen. 3. Kartoffeln im Tuch abkühlen lassen, sie sollen noch warm sein. 4. Das Tuch auf die Brust legen. 5. Warten, bis die Kartoffeln kalt sind. --- **Wo finden Sie mehr Informationen?** Achtung: - Husten und Fieber? Gehen Sie zum Arzt. - Husten geht nicht weg (über eine Woche)? Gehen Sie zum Arzt. - Sie bekommen schlecht Luft? Rufen Sie den Notarzt. Mehr Informationen bekommen Sie beim Arzt. Im Internet gibt es auch mehr Informationen. Aber: Dieser Text ist nur ein allgemeiner Hinweis. Gehen Sie immer zum Arzt, wenn Sie sich krank fühlen oder Fragen haben. --- **Hinweis:** Diese Übersetzung ist in Leichter Sprache und ersetzt keine Untersuchung beim Arzt.</t>
+          <t>Hier ein stark vereinfachter und gekürzter Text mit kurzen Sätzen und Erklärungen zu schwierigen Wörtern (in Klammern): --- **Hausmittel bei Husten** **1. Warum hustet man?** Husten ist keine Krankheit. Husten ist ein Schutz. Wenn man hustet, gehen Viren (das sind sehr kleine Krankmacher) oder Bakterien (das sind kleine Lebewesen, die krank machen können) aus dem Körper. Husten kann viele Gründe haben. Achtung: Manchmal ist Husten ein Zeichen für eine schlimmere Krankheit. Zum Beispiel Corona (das ist eine Virus-Krankheit). Wer Husten und Fieber (wenn der Körper sehr warm ist) hat, muss zum Arzt gehen. **2. Helfen Hausmittel?** Manchmal wird Husten von allein besser. Manche Leute nutzen Hausmittel (Dinge aus dem Haushalt zum Gesundbleiben). Wissenschaftler wissen nicht, ob sie immer helfen. Viele Menschen glauben an Hausmittel. **3. Viel trinken** Viel trinken ist wichtig. Trinken hält die Schleimhäute (das ist die feuchte Haut in Mund oder Nase) feucht. Das hilft beim Husten. Wer eine Herzkrankheit (das ist eine Krankheit am Herz) oder Nierenkrankheit (Niere ist ein Organ im Körper) hat, fragt vorher den Arzt. **4. Husten-Tee** Husten-Tee ist Tee aus Pflanzen. Beispiel: Thymian (eine Gewürzpflanze), Eibisch, Spitzwegerich, Efeu. Diese Pflanzen können den Schleim (das ist das dicke Wasser im Hals) lösen. In der Apotheke (das ist ein Laden für Medikamente) bekommt man Tee. **5. Inhalieren** Inhalieren heißt: warmen Dampf (Wasser, das zu Gas wird) einatmen. Das hilft beim Schleim-Lösen. So geht das: Warmes Wasser in eine Schüssel geben. Den Kopf über die Schüssel halten. Ein Handtuch über Kopf und Schüssel legen. Dampf einatmen. Achtung: Das Wasser kann heiß sein. Nicht verbrennen! Ein Inhalator (Gerät zum Dampf-Einatmen) ist noch besser. Man kann Wasser oder Salbei (eine Heilpflanze) nehmen. Manche tun Öl in das Wasser, zum Beispiel Menthol (riecht stark nach Minze). Kinder sollen keine Öle einatmen. Auch Menschen mit Asthma (Krankheit der Lunge) nicht. **6. Hustensaft selber machen** Man kann Hustensaft aus Zwiebel und Zucker machen. Zwiebel klein schneiden, mit Zucker mischen, warm machen, abkühlen lassen, durch ein Tuch drücken und den Saft trinken. Achtung: Kinder unter 1 Jahr dürfen keinen Honig essen (Honig ist süßer Stoff von Bienen). **7. Kartoffelwickel** Kartoffeln weich kochen. Zerdrücken und in ein Tuch geben. Das warme Tuch auf die Brust legen. Achtung: Nicht zu heiß! **Wann zum Arzt?** Bei Husten UND Fieber, langer Husten (über eine Woche), Atemnot (schwierig zu atmen): Zum Arzt gehen. **Wichtiger Hinweis:** Text ist nur ein Hinweis. Wenn man unsicher ist: Immer zum Arzt gehen.</t>
         </is>
       </c>
     </row>
@@ -556,12 +556,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Hier ist der angefragte Text in **Leichter Sprache**: --- **Schmerzmittel – Was hilft wann?** Dieser Text erklärt in Leichter Sprache: Was sind Schmerzmittel? Wie wirken sie? Welche Schmerzmittel gibt es? **1. Was sind Schmerzmittel?** Schmerzmittel sind Medikamente. Sie helfen gegen Schmerzen. Zum Beispiel bei: - Kopfschmerzen - Erkältung - Fieber Manche Schmerzmittel können Sie ohne Rezept in der Apotheke kaufen. Zum Beispiel: - Paracetamol - Acetylsalicylsäure (kurz: ASS) - Ibuprofen - Diclofenac Manche Schmerzmittel sind sehr stark. Diese bekommen Sie nur mit einem Rezept vom Arzt. Diese heißen: Opioide. Wichtig: Jedes Schmerzmittel hat andere Wirkstoffe. Deshalb hilft nicht jedes Schmerzmittel bei allen Schmerzen. Fragen Sie dazu in der Apotheke oder beim Arzt. --- **2. Wie wirken Schmerzmittel?** Wenn Sie sich verletzen, kann etwas im Körper kaputt gehen. Auch Entzündungen können Schmerzen machen. Der Körper gibt dann Botenstoffe ab. Die Botenstoffe heißen: Prostaglandine. Sie leiten den Schmerz an das Gehirn weiter. So spüren wir den Schmerz. Schmerzmittel verhindern, dass diese Botenstoffe gebildet werden. Dann kommt der Schmerz nicht oder weniger im Gehirn an. Aber: Die Botenstoffe haben auch andere Aufgaben im Körper. Deshalb haben viele Schmerzmittel Nebenwirkungen. --- **3. Was ist Acetylsalicylsäure (ASS)?** Acetylsalicylsäure nennt man oft einfach ASS. ASS hilft vor allem bei starken Kopfschmerzen. ASS hilft auch bei Erkältung und Fieber. Es hilft auch gegen Entzündung. Aber: Bei Zahnschmerzen sollten Sie kein ASS nehmen. Auch bei Regelschmerzen für Frauen ist ASS nicht geeignet. ASS beeinflusst das Blut. Das Blut gerinnt nicht mehr so gut. Wichtig: - Schwangere sollten zuerst mit dem Arzt sprechen. - Kinder und Jugendliche dürfen kein ASS nehmen. - ASS kann bei Kindern eine gefährliche Krankheit auslösen: Das Reye-Syndrom. --- **4. Was ist Ibuprofen?** Ibuprofen ist ein Schmerzmittel. Es hilft zum Beispiel bei: - Rheuma - Mittelohr-Entzündung - Mandel-Entzündung - Kopfschmerzen - Erkältungsschmerzen Ibuprofen beeinflusst das Blut weniger als ASS. Es hilft besser gegen Entzündung als ASS. Kinder können Ibuprofen bekommen. Wichtig: Die richtige Menge beachten. Fragen Sie immer Ihren Apotheker. Schwangere sollten immer zuerst mit dem Arzt sprechen. In den ersten Monaten kann Ibuprofen helfen. Ab der 28. Schwangerschaftswoche sollten Schwangere kein Ibuprofen mehr nehmen. --- **5. Was ist Diclofenac?** Diclofenac ist auch ein Schmerzmittel. Es ist ähnlich wie Ibuprofen. Manche Menschen vertragen Diclofenac besser. Diclofenac hilft zum Beispiel bei: - Gelenkschmerzen - Rückenschmerzen - Verstauchungen - Zerrungen - Prellungen - Rheumatische Beschwerden Diclofenac gibt es auch als Salbe. Nicht alle Menschen vertragen diese Salbe. Fragen Sie einen Arzt vor der Anwendung. --- **6. Was ist Paracetamol?** Paracetamol ist ein Schmerzmittel. Es hilft bei: - Zahnschmerzen - Kopfschmerzen - Regelschmerzen Paracetamol senkt auch das Fieber. Es ist deshalb bei Grippe nützlich. Paracetamol macht keine Probleme mit dem Magen. Es beeinflusst die Blutgerinnung nicht. Schwangere können Paracetamol nehmen. Auch Kinder können es nehmen. Aber immer zuerst mit dem Arzt sprechen! Achtung: Zu viel Paracetamol ist gefährlich. Es kann die Leber schädigen. Deshalb immer genau die Menge beachten. --- **7. Welche Nebenwirkungen kann es geben?** Schmerzmittel können Nebenwirkungen machen. Manche Nebenwirkungen sind gefährlich. Deshalb: - Lesen Sie, wie das Schmerzmittel wirkt. - Nehmen Sie nicht mehr als erlaubt. - Nehmen Sie Schmerzmittel nur, wenn es nötig ist. - Gehen Sie zum Arzt, wenn Sie länger Schmerzen haben. --- **8. Wo bekommen Sie noch mehr Informationen?** Sie möchten mehr wissen? Fragen Sie den Arzt oder die Apotheke. Oder lesen Sie auf sicheren Internetseiten nach. Wichtig: Dieser Text ist nur eine allgemeine Information. Nur der Arzt kann Ihnen genau helfen. Bei Krankheit gehen Sie bitte immer zum Arzt. --- Falls Sie noch Fragen zum Text haben, helfe ich gern weiter.</t>
+          <t>Hier ist der Text in Leichter Sprache übersetzt: --- **Schmerzmittel – Was hilft wann?** Dieser Text erklärt Schmerzmittel in Leichter Sprache. **Was sind Schmerzmittel?** Schmerzmittel sind Medikamente. Sie helfen bei Schmerzen. Zum Beispiel bei: - Kopfschmerzen - Erkältung - Fieber Manche Schmerzmittel können Sie ohne Rezept in der Apotheke kaufen. Diese Schmerzmittel heißen zum Beispiel: - Paracetamol - Acetylsalicylsäure (ASS) - Ibuprofen - Diclofenac Manche Schmerzmittel gibt es nur mit Rezept vom Arzt. Diese Medikamente sind sehr stark. Sie heißen Opioide. Wichtig: Jedes Schmerzmittel hat andere Wirkstoffe. Jedes Schmerzmittel wirkt anders. Ein Schmerzmittel hilft oft nicht bei allen Schmerzen. Lassen Sie sich in der Apotheke beraten oder fragen Sie Ihren Arzt. **Wie wirken Schmerzmittel?** Wenn Sie eine Verletzung oder Entzündung haben, ist Gewebe im Körper beschädigt. Der Körper macht dann Botenstoffe. Diese Stoffe heißen Prostaglandine. Sie senden den Schmerz ins Gehirn. Dann fühlen Sie den Schmerz. Schmerzmittel stoppen diese Botenstoffe. So fühlen Sie für eine Zeit keinen Schmerz. Aber diese Botenstoffe sind auch für andere Dinge im Körper wichtig. Darum können Schmerzmittel Nebenwirkungen haben. **Was ist Acetylsalicylsäure (ASS)?** Acetylsalicylsäure nennt man kurz ASS. ASS hilft gut bei starken Kopfschmerzen und Erkältung. ASS vermindert Fieber und hilft bei Entzündungen. Bei Zahnschmerzen und Regelschmerzen soll ASS nicht genommen werden. ASS sorgt dafür, dass das Blut nicht mehr so gut gerinnt. Wichtig: Wenn Sie schwanger sind, sprechen Sie zuerst mit dem Arzt. Kinder und Jugendliche sollen kein ASS nehmen. Sonst können sie eine schlimme Krankheit bekommen. Diese heißt Reye-Syndrom. Diese Krankheit ist sehr selten, aber gefährlich. **Was ist Ibuprofen?** Ibuprofen ist auch ein Schmerzmittel. Ibuprofen hilft bei: - Gelenk-Entzündungen (rheumatoide Arthritis) - Ohr-Entzündung - Mandel-Entzündung - Kopfschmerzen - Erkältungs-Schmerzen Ibuprofen ist besser bei Entzündungen als ASS und beeinflusst das Blut weniger. Auch Kinder können Ibuprofen bekommen. Die richtige Menge ist wichtig. Fragen Sie in der Apotheke nach. Schwangere Frauen sollen vor der Einnahme mit ihrem Arzt sprechen. In den letzten Monaten der Schwangerschaft soll Ibuprofen nicht genommen werden. **Was ist Diclofenac?** Diclofenac ist ein weiteres Schmerzmittel. Es wirkt ähnlich wie Ibuprofen, hat aber andere Inhaltsstoffe. Manche Menschen vertragen Diclofenac besser. Diclofenac hilft bei: - Gelenkschmerzen - Rückenschmerzen - Verstauchungen oder Prellungen Diclofenac gibt es auch als Salbe. Nicht alle vertragen die Salbe auf der Haut. Fragen Sie vorher einen Arzt. **Was ist Paracetamol?** Paracetamol ist ein Schmerzmittel. Es hilft bei: - Zahnschmerzen - Regelschmerzen - Kopfschmerzen Paracetamol senkt Fieber und schädigt die Magenschleimhaut nicht. Paracetamol beeinflusst das Blut nicht. Schwangere und Kinder dürfen Paracetamol nehmen. Trotzdem sollten Sie vorher mit einem Arzt sprechen. Wichtig: Zu viel Paracetamol kann der Leber schaden. Achten Sie auf die richtige Menge. **Welche Nebenwirkungen kann es geben?** Schmerzmittel können Nebenwirkungen machen. Die können gefährlich sein. Deshalb: - Informieren Sie sich vor der Einnahme. - Nehmen Sie die richtige Menge. - Nehmen Sie Schmerzmittel nur, wenn es nötig ist. - Gehen Sie zum Arzt, wenn Sie lange Schmerzen haben. **Wo bekommen Sie noch mehr Informationen?** Mehr Informationen zu Schmerzmitteln finden Sie im Internet oder fragen Sie Ihren Arzt oder Apotheker. Wichtig: Dieser Text gibt nur allgemeine Informationen. Er ersetzt keinen Arztbesuch. Nur ein Arzt kann Sie genau beraten. Fühlen Sie sich krank? Dann gehen Sie bitte zum Arzt. --- Gerne passe ich den Text noch weiter an, wenn Sie möchten!</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Hier ist der angefragte Text in **Leichter Sprache**: --- **Schmerzmittel – Was hilft wann?** Dieser Text erklärt in Leichter Sprache: Was sind Schmerzmittel? Wie wirken sie? Welche Schmerzmittel gibt es? **1. Was sind Schmerzmittel?** Schmerzmittel sind Medikamente. Sie helfen gegen Schmerzen. Zum Beispiel bei: - Kopfschmerzen - Erkältung - Fieber Manche Schmerzmittel können Sie ohne Rezept in der Apotheke kaufen. Zum Beispiel: - Paracetamol - Acetylsalicylsäure (kurz: ASS) - Ibuprofen - Diclofenac Manche Schmerzmittel sind sehr stark. Diese bekommen Sie nur mit einem Rezept vom Arzt. Diese heißen: Opioide. Wichtig: Jedes Schmerzmittel hat andere Wirkstoffe. Deshalb hilft nicht jedes Schmerzmittel bei allen Schmerzen. Fragen Sie dazu in der Apotheke oder beim Arzt. --- **2. Wie wirken Schmerzmittel?** Wenn Sie sich verletzen, kann etwas im Körper kaputt gehen. Auch Entzündungen können Schmerzen machen. Der Körper gibt dann Botenstoffe ab. Die Botenstoffe heißen: Prostaglandine. Sie leiten den Schmerz an das Gehirn weiter. So spüren wir den Schmerz. Schmerzmittel verhindern, dass diese Botenstoffe gebildet werden. Dann kommt der Schmerz nicht oder weniger im Gehirn an. Aber: Die Botenstoffe haben auch andere Aufgaben im Körper. Deshalb haben viele Schmerzmittel Nebenwirkungen. --- **3. Was ist Acetylsalicylsäure (ASS)?** Acetylsalicylsäure nennt man oft einfach ASS. ASS hilft vor allem bei starken Kopfschmerzen. ASS hilft auch bei Erkältung und Fieber. Es hilft auch gegen Entzündung. Aber: Bei Zahnschmerzen sollten Sie kein ASS nehmen. Auch bei Regelschmerzen für Frauen ist ASS nicht geeignet. ASS beeinflusst das Blut. Das Blut gerinnt nicht mehr so gut. Wichtig: - Schwangere sollten zuerst mit dem Arzt sprechen. - Kinder und Jugendliche dürfen kein ASS nehmen. - ASS kann bei Kindern eine gefährliche Krankheit auslösen: Das Reye-Syndrom. --- **4. Was ist Ibuprofen?** Ibuprofen ist ein Schmerzmittel. Es hilft zum Beispiel bei: - Rheuma - Mittelohr-Entzündung - Mandel-Entzündung - Kopfschmerzen - Erkältungsschmerzen Ibuprofen beeinflusst das Blut weniger als ASS. Es hilft besser gegen Entzündung als ASS. Kinder können Ibuprofen bekommen. Wichtig: Die richtige Menge beachten. Fragen Sie immer Ihren Apotheker. Schwangere sollten immer zuerst mit dem Arzt sprechen. In den ersten Monaten kann Ibuprofen helfen. Ab der 28. Schwangerschaftswoche sollten Schwangere kein Ibuprofen mehr nehmen. --- **5. Was ist Diclofenac?** Diclofenac ist auch ein Schmerzmittel. Es ist ähnlich wie Ibuprofen. Manche Menschen vertragen Diclofenac besser. Diclofenac hilft zum Beispiel bei: - Gelenkschmerzen - Rückenschmerzen - Verstauchungen - Zerrungen - Prellungen - Rheumatische Beschwerden Diclofenac gibt es auch als Salbe. Nicht alle Menschen vertragen diese Salbe. Fragen Sie einen Arzt vor der Anwendung. --- **6. Was ist Paracetamol?** Paracetamol ist ein Schmerzmittel. Es hilft bei: - Zahnschmerzen - Kopfschmerzen - Regelschmerzen Paracetamol senkt auch das Fieber. Es ist deshalb bei Grippe nützlich. Paracetamol macht keine Probleme mit dem Magen. Es beeinflusst die Blutgerinnung nicht. Schwangere können Paracetamol nehmen. Auch Kinder können es nehmen. Aber immer zuerst mit dem Arzt sprechen! Achtung: Zu viel Paracetamol ist gefährlich. Es kann die Leber schädigen. Deshalb immer genau die Menge beachten. --- **7. Welche Nebenwirkungen kann es geben?** Schmerzmittel können Nebenwirkungen machen. Manche Nebenwirkungen sind gefährlich. Deshalb: - Lesen Sie, wie das Schmerzmittel wirkt. - Nehmen Sie nicht mehr als erlaubt. - Nehmen Sie Schmerzmittel nur, wenn es nötig ist. - Gehen Sie zum Arzt, wenn Sie länger Schmerzen haben. --- **8. Wo bekommen Sie noch mehr Informationen?** Sie möchten mehr wissen? Fragen Sie den Arzt oder die Apotheke. Oder lesen Sie auf sicheren Internetseiten nach. Wichtig: Dieser Text ist nur eine allgemeine Information. Nur der Arzt kann Ihnen genau helfen. Bei Krankheit gehen Sie bitte immer zum Arzt. --- Falls Sie noch Fragen zum Text haben, helfe ich gern weiter.</t>
+          <t>Hier ist der Text nach Ihrem linguistischen Ansatz umformuliert: --- **Schmerzmittel – Welches hilft wann?** **Was sind Schmerzmittel?** Schmerzmittel sind Medikamente. Medikamente sind Mittel gegen Krankheiten oder Schmerzen. Schmerzmittel helfen gegen Schmerzen. Beispiele für Schmerzen sind: Kopfschmerzen, Fieber und Erkältung. Einige Schmerzmittel kann man ohne Rezept in der Apotheke kaufen. Rezept heißt: Sie brauchen kein Papier vom Arzt. Beispiele für diese Schmerzmittel sind: Paracetamol, Ibuprofen, Diclofenac, ASS. Es gibt auch starke Schmerzmittel. Diese heißen Opioide. Ein Opioid ist ein sehr starkes Schmerzmittel. Opioide bekommen Sie nur mit Rezept. Jedes Schmerzmittel wirkt anders. Nicht jedes Mittel hilft bei allen Schmerzen. Fragen Sie in der Apotheke oder beim Arzt. **Wie wirken Schmerzmittel?** Wenn der Körper verletzt ist, entstehen Botenstoffe. Botenstoffe sind kleine Teile im Körper. Sie senden den Schmerz zum Gehirn. Das Gehirn ist der Denk-Teil im Kopf. So spüren wir Schmerz. Schmerzmittel blockieren die Botenstoffe. Dann fühlt man weniger oder keinen Schmerz. Aber: Botenstoffe sind auch für andere Vorgänge im Körper da. Darum können Schmerzmittel Nebenwirkungen machen. Nebenwirkungen sind unerwünschte Wirkungen. **Acetylsalicylsäure (ASS)** ASS ist ein anderes Wort für Acetylsalicylsäure. ASS hilft bei starken Kopfschmerzen und Fieber. ASS hilft auch bei Entzündungen. Entzündung ist: Der Körper ist gerötet, geschwollen oder warm. ASS passt nicht bei Zahnschmerzen und Regelschmerzen. Regel ist: Die monatlichen Blutungen bei Frauen. ASS sorgt dafür, dass das Blut nicht schnell gerinnt. Gerinnen ist: Das Blut wird fest. Schwangere und Kinder dürfen kein ASS nehmen. ASS kann gefährlich für das Gehirn oder die Leber sein (Reye-Syndrom). **Ibuprofen** Ibuprofen ist auch ein Schmerzmittel. Ibuprofen hilft bei Entzündungen und Schmerzen. Ibuprofen hilft zum Beispiel gegen Gelenkschmerzen, Ohrenschmerzen, Halsentzündungen, Kopfschmerzen. Ibuprofen verändert das Blut weniger als ASS. Auch Kinder können Ibuprofen nehmen. Sie müssen aber die richtige Menge nehmen. Fragen Sie beim Arzt oder Apotheker. Schwangere sollten Ibuprofen nur nach Absprache mit dem Arzt nehmen. **Diclofenac** Diclofenac ist ein Schmerzmittel. Es wirkt wie Ibuprofen. Manche Menschen vertragen Diclofenac besser. Diclofenac hilft bei Rückenschmerzen, Gelenkschmerzen, Verstauchungen und Prellungen. Diclofenac gibt es als Tablette und als Salbe. Eine Salbe ist eine Creme für die Haut. **Paracetamol** Paracetamol ist ein Schmerzmittel. Paracetamol hilft bei Zahnschmerzen, Regelschmerzen und Kopfschmerzen. Paracetamol senkt auch das Fieber. Paracetamol beeinflusst das Blut nicht. Paracetamol ist meist gut für den Magen. Schwangere und Kinder können Paracetamol nehmen. Sprechen Sie vorher mit dem Arzt. Achtung: Zu viel Paracetamol kann die Leber schädigen. Die Leber ist ein Organ im Bauch. Nehmen Sie nicht zu viel Paracetamol. **Nebenwirkungen** Nebenwirkungen sind unerwünschte Wirkungen. Schmerzmittel können Nebenwirkungen machen. Fragen Sie immer vorher in der Apotheke oder beim Arzt. Nehmen Sie Schmerzmittel nur, wenn Sie sie wirklich brauchen. Nehmen Sie die kleine, richtige Menge. Gehen Sie zum Arzt, wenn die Schmerzen stark sind oder nicht weggehen. **Wo bekommen Sie mehr Informationen?** Mehr Informationen bekommen Sie beim Arzt oder in der Apotheke. Wichtig: Dieser Text ist nur eine kurze Erklärung. Fragen Sie immer einen Arzt, wenn Sie krank sind. --- Wenn Sie noch spezifischere Erklärungen für weitere schwierige Wörter möchten, schreiben Sie mir gerne!</t>
         </is>
       </c>
     </row>
@@ -578,12 +578,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Hier ist der Text in Leichter Sprache: **Medikamente: Beipackzettel verstehen** **Was ist ein Beipackzettel?** Zu jedem Medikament gibt es einen Beipackzettel. Ein Beipackzettel ist ein Zettel in der Medikamenten-Packung. Ein Beipackzettel ist ein Text mit wichtigen Informationen über das Medikament. Der Beipackzettel heißt auch: Gebrauchsinformation. Viele Menschen finden den Beipackzettel schwierig. Der Beipackzettel ist für viele Personen gemacht: - für Patienten - für Ärzte - für Apotheker **Was steht im Beipackzettel?** Der Inhalt vom Beipackzettel ist vom Gesetz vorgeschrieben. Auf dem Beipackzettel stehen meistens diese Informationen: 1. **Anwendungsgebiete:** Hier steht: Wofür ist das Medikament? Gegen welche Krankheiten hilft das Medikament? 2. **Warnhinweise:** Hier steht: Wer darf das Medikament nicht nehmen? Zum Beispiel - bei einer Allergie, - in der Schwangerschaft, - in der Stillzeit. Hier stehen auch Hinweise zu Wechselwirkungen. Das heißt: Was passiert, wenn Sie noch andere Medikamente nehmen? 3. **Anwendung:** Hier steht: Wie nehmen Sie das Medikament richtig ein? Zum Beispiel: - Wie viel müssen Sie einnehmen? - Wann müssen Sie es einnehmen? - Wie lange sollen Sie es nehmen? Tipp: Ihr Arzt hat vielleicht eine andere Einnahme empfohlen. Dann hören Sie auf den Arzt oder fragen Sie in der Apotheke. 4. **Nebenwirkungen:** Hier steht: Welche Probleme oder Beschwerden kann das Medikament machen? Hier lesen Sie auch, wie oft Nebenwirkungen vorkommen. 5. **Aufbewahrung:** Hier steht: Wie bewahrt man das Medikament richtig auf? Meistens sollen Medikamente: - trocken, - dunkel, - und bei Zimmertemperatur gelagert werden. Tipp: Manche Medikamente müssen anders gelagert werden. Lesen Sie deshalb immer den Beipackzettel. 6. **Weitere Hinweise:** Hier steht: Wo gibt es noch mehr Informationen? Zum Beispiel über: - das Aussehen, - die Menge, - die Inhaltsstoffe. **Haben Sie Fragen zum Beipackzettel?** Sie wissen nicht, ob das Medikament für Sie richtig ist? Oder Sie haben andere Fragen? Dann fragen Sie Ihren Arzt oder Apotheker. Sie haben den Beipackzettel verloren? Im Internet können Sie oft einen neuen Beipackzettel finden. **Wo gibt es noch mehr Informationen?** Sie möchten noch mehr wissen? Im Internet finden Sie weitere Informationen zum Beipackzettel. Achtung: Diese Informationen sind dann nicht mehr in Leichter Sprache. **Achtung:** Dieser Text gibt nur allgemeine Informationen. Sie wollen ein Medikament nehmen? Dann sprechen Sie immer zuerst mit Ihrem Arzt oder Apotheker. Und lesen Sie den Beipackzettel. Nehmen Sie das Medikament erst danach.</t>
+          <t>Natürlich! Hier ist der Text in Deutscher Leichter Sprache: --- **Medikamente: Den Beipackzettel verstehen (Leichte Sprache)** **Was ist ein Beipackzettel?** Jedes Medikament hat einen Beipackzettel. Der Beipackzettel ist ein Zettel im Medikament. Im Beipackzettel stehen wichtige Informationen über das Medikament. Beipackzettel heißt auch: Gebrauchsinformation. Manchmal ist der Beipackzettel schwer zu verstehen. Er ist für viele Menschen geschrieben, zum Beispiel für: - Patienten - Ärzte - Apotheker **Was steht im Beipackzettel?** Jeder Beipackzettel muss bestimmte Informationen enthalten. Meistens steht Folgendes im Beipackzettel: **1. Wofür ist das Medikament?** Hier steht, gegen welche Krankheiten das Medikament hilft. **2. Warnungen:** Hier steht, wann Sie das Medikament nicht nehmen dürfen. Zum Beispiel: - Wenn Sie allergisch sind - Wenn Sie schwanger sind - Wenn Sie ein Baby stillen Hier stehen auch Informationen dazu, ob das Medikament sich mit anderen Medikamenten nicht verträgt. **3. Wie nehme ich das Medikament?** Hier steht: - Wie viel Sie nehmen sollen - Wann Sie es nehmen sollen - Wie lange Sie es nehmen sollen Wichtig: Wenn Ihr Arzt etwas anderes gesagt hat, halten Sie sich an die Anweisung vom Arzt. Sie können auch in der Apotheke fragen. **4. Gibt es Nebenwirkungen?** Hier steht, ob Sie vielleicht Nebenwirkungen bekommen können. Es steht auch da, wie oft Nebenwirkungen vorkommen. **5. Wie bewahre ich das Medikament auf?** Meistens sollen Sie Medikamente so aufbewahren: - trocken - dunkel - bei Raumtemperatur Manche Medikamente müssen anders aufbewahrt werden. Lesen Sie deshalb den Beipackzettel. **6. Noch mehr Hinweise** Hier steht zum Beispiel: - Wie sieht das Medikament aus? - Was sind die Inhaltsstoffe? - Wo gibt es noch weitere Informationen? **Haben Sie Fragen zum Beipackzettel?** Sind Sie unsicher, ob das Medikament für Sie richtig ist? Oder haben Sie andere Fragen? Fragen Sie Ihren Arzt oder Apotheker. Haben Sie den Beipackzettel verloren? Dann gibt es im Internet oft eine digitale Version. **Wo gibt es mehr Informationen?** Möchten Sie mehr über Beipackzettel wissen? Im Internet gibt es weitere Informationen. Achtung: Die Informationen sind dann vielleicht nicht in Leichter Sprache. **Wichtiger Hinweis:** Dieser Text ist nur eine allgemeine Information. Fragen Sie immer Ihren Arzt oder Apotheker, bevor Sie ein Medikament nehmen. Lesen Sie immer den Beipackzettel, bevor Sie das Medikament nehmen. ---</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Hier ist der Text in Leichter Sprache: **Medikamente: Beipackzettel verstehen** **Was ist ein Beipackzettel?** Zu jedem Medikament gibt es einen Beipackzettel. Ein Beipackzettel ist ein Zettel in der Medikamenten-Packung. Ein Beipackzettel ist ein Text mit wichtigen Informationen über das Medikament. Der Beipackzettel heißt auch: Gebrauchsinformation. Viele Menschen finden den Beipackzettel schwierig. Der Beipackzettel ist für viele Personen gemacht: - für Patienten - für Ärzte - für Apotheker **Was steht im Beipackzettel?** Der Inhalt vom Beipackzettel ist vom Gesetz vorgeschrieben. Auf dem Beipackzettel stehen meistens diese Informationen: 1. **Anwendungsgebiete:** Hier steht: Wofür ist das Medikament? Gegen welche Krankheiten hilft das Medikament? 2. **Warnhinweise:** Hier steht: Wer darf das Medikament nicht nehmen? Zum Beispiel - bei einer Allergie, - in der Schwangerschaft, - in der Stillzeit. Hier stehen auch Hinweise zu Wechselwirkungen. Das heißt: Was passiert, wenn Sie noch andere Medikamente nehmen? 3. **Anwendung:** Hier steht: Wie nehmen Sie das Medikament richtig ein? Zum Beispiel: - Wie viel müssen Sie einnehmen? - Wann müssen Sie es einnehmen? - Wie lange sollen Sie es nehmen? Tipp: Ihr Arzt hat vielleicht eine andere Einnahme empfohlen. Dann hören Sie auf den Arzt oder fragen Sie in der Apotheke. 4. **Nebenwirkungen:** Hier steht: Welche Probleme oder Beschwerden kann das Medikament machen? Hier lesen Sie auch, wie oft Nebenwirkungen vorkommen. 5. **Aufbewahrung:** Hier steht: Wie bewahrt man das Medikament richtig auf? Meistens sollen Medikamente: - trocken, - dunkel, - und bei Zimmertemperatur gelagert werden. Tipp: Manche Medikamente müssen anders gelagert werden. Lesen Sie deshalb immer den Beipackzettel. 6. **Weitere Hinweise:** Hier steht: Wo gibt es noch mehr Informationen? Zum Beispiel über: - das Aussehen, - die Menge, - die Inhaltsstoffe. **Haben Sie Fragen zum Beipackzettel?** Sie wissen nicht, ob das Medikament für Sie richtig ist? Oder Sie haben andere Fragen? Dann fragen Sie Ihren Arzt oder Apotheker. Sie haben den Beipackzettel verloren? Im Internet können Sie oft einen neuen Beipackzettel finden. **Wo gibt es noch mehr Informationen?** Sie möchten noch mehr wissen? Im Internet finden Sie weitere Informationen zum Beipackzettel. Achtung: Diese Informationen sind dann nicht mehr in Leichter Sprache. **Achtung:** Dieser Text gibt nur allgemeine Informationen. Sie wollen ein Medikament nehmen? Dann sprechen Sie immer zuerst mit Ihrem Arzt oder Apotheker. Und lesen Sie den Beipackzettel. Nehmen Sie das Medikament erst danach.</t>
+          <t>Natürlich! Hier ist die vereinfachte Fassung nach Ihren Vorgaben (ohne Nebensätze, einfache Strukturen, Erklärungen für schwierige Wörter): --- **Medikamente: Beipackzettel verstehen** **Was ist ein Beipackzettel?** Jedes Medikament hat einen Zettel. Dieser Zettel heißt Beipackzettel. Ein anderes Wort ist: Gebrauchsinformation. Im Beipackzettel stehen wichtige Sachen über das Medikament. **Für wen ist der Beipackzettel?** Der Beipackzettel ist für viele Menschen. Zum Beispiel für Patienten (das sind Kranke), für Ärzte (das sind Medizin-Fachleute), und für Apotheker (das sind Menschen, die Medikamente verkaufen). **Was steht im Beipackzettel?** 1. **Anwendungsgebiete** Hier steht, bei welchen Krankheiten das Medikament hilft. Krankheiten sind: Wenn ein Mensch nicht gesund ist. 2. **Warnhinweise** Hier steht, wann man das Medikament nicht nehmen darf. Beispiele sind: - Allergie (Körper verträgt das Medikament nicht) - Schwangerschaft (eine Frau bekommt ein Baby) - Stillzeit (eine Frau gibt dem Baby Milch) Hier steht auch etwas zu Wechselwirkungen. Wechselwirkungen heißt: Zwei Medikamente passen nicht zusammen. 3. **Anwendung** Hier steht, wie man das Medikament nimmt. Zum Beispiel: - Wie viel (Menge) - Wie oft am Tag - Wie lange 4. **Nebenwirkungen** Hier steht, was für Probleme es nach der Einnahme geben kann. Nebenwirkungen sind: Das Medikament macht auch etwas, was nicht gut ist. Hier steht auch, wie oft das passiert. 5. **Aufbewahrung** Hier steht, wie man das Medikament lagern muss. Zum Beispiel: - trocken (kein Wasser) - dunkel (ohne Licht) - bei Raumtemperatur (wie es im Zimmer ist) Manche Medikamente brauchen eine andere Lagerung. Dann steht es im Beipackzettel. 6. **Weitere Hinweise** Hier steht noch mehr. Zum Beispiel: - Wie das Medikament aussieht - Was im Medikament drin ist (Inhaltsstoffe) - Wo es mehr Informationen gibt **Haben Sie Fragen?** Fragen Sie Ihren Arzt. Arzt ist der Fachmann für Gesundheit. Oder fragen Sie den Apotheker. Apotheker verkauft Medikamente. --- **Wichtiger Hinweis:** Dieser Text ist allgemein. Für Ihre Gesundheit fragen Sie bitte immer einen Arzt oder Apotheker. Lesen Sie den Beipackzettel, bevor Sie das Medikament nehmen. ---</t>
         </is>
       </c>
     </row>
@@ -600,12 +600,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Hier ist der Text in Leichter Sprache: --- Pfefferminze Dieser Text informiert in Leichter Sprache über das Thema Pfefferminze. **Was ist Pfefferminze?** Pfefferminze ist eine Heilpflanze. Eine Heilpflanze ist eine Pflanze, die bei Krankheiten helfen kann. Der Fachbegriff für Pfefferminze ist: Mentha x piperita. In den Blättern der Pfefferminze sind zwei wichtige Öle: Menthon und Menthol. Menthol riecht sehr stark und gibt der Pfefferminze ihren besonderen Geruch. Pfefferminze gibt es zum Beispiel als Tee oder als Öl. **Wie wirkt Pfefferminze?** Pfefferminze kann bei verschiedenen Beschwerden helfen, zum Beispiel: - Bei Problemen mit dem Magen oder Darm - Bei Schmerzen im Bauch - Bei Kopfschmerzen - Bei Erkältung - Bei Muskelschmerzen **Pfefferminze bei Magenproblemen** Pfefferminztee kann helfen, wenn Sie ein Völlegefühl haben, Bauchschmerzen oder Blähungen. **Pfefferminze bei Reizdarm** Reizdarm ist eine Krankheit im Bauch. Der Darm arbeitet nicht richtig und man hat oft Schmerzen. Pfefferminze kann helfen, weil sie die Muskeln im Darm entspannt. **Pfefferminze bei Spannungskopfschmerzen** Wenn Sie Kopfschmerzen haben, kann Pfefferminzöl helfen. Das Öl macht die Haut an der Stirn kühl. Dazu verrühren Sie das Pfefferminzöl mit Wasser. Reiben Sie das Öl vorsichtig auf die Schläfen. Aber: Das Öl darf nicht in die Augen kommen. **Pfefferminze bei Erkältung** Wenn Sie erkältet sind, kann Pfefferminzöl helfen. Sie können es zum Beispiel einatmen (inhalieren). Das Öl hilft, Schleim aus der Lunge zu lösen. Sie können Pfefferminzöl als Balsam auf die Haut reiben. Es hilft auch als Nasenspray, wenn die Nase verstopft ist. **Pfefferminze bei Muskelschmerzen** Wenn Sie Muskelschmerzen haben, können Sie Pfefferminzöl mit Wasser mischen und auf die Haut reiben. **Was müssen Sie beachten?** - Pfefferminzöl immer mit Wasser vermischen. Benutzen Sie das Öl nie pur! Sonst kann es zu Problemen kommen: Die Haut kann sich röten, der Magen kann wehtun, Sie können schwer atmen. - Wenn Sie Pfefferminzöl einnehmen möchten (zum Beispiel bei Reizdarm), kaufen Sie ein fertiges Medikament in der Apotheke. Lassen Sie sich beraten. - Wenn Sie nicht wissen, wie Sie Pfefferminze anwenden, fragen Sie einen Arzt oder einen Apotheker. **Welche Probleme kann es geben, wenn Sie Pfefferminze nehmen und andere Mittel zusammen einnehmen?** Manchmal kann es zu Problemen kommen, wenn man verschiedene Mittel beides nimmt. Diese Probleme nennt man Wechselwirkungen. Bei Pfefferminze kann es zum Beispiel passieren: - Übelkeit (Ihnen ist schlecht) - Sodbrennen (ein brennendes Gefühl im Magen) - Brennen am Po - Trockener Mund **Wer darf Pfefferminze nicht benutzen?** Manche Menschen sollen keine Pfefferminze verwenden. - Babys und kleine Kinder: Für sie ist Menthol gefährlich. Sie können schlecht Luft bekommen. - Menschen mit Problemen mit der Galle: Sie sollen keine Pfefferminze nehmen. - Menschen mit Asthma: Sie sollen Pfefferminzöl nicht einatmen, weil sie davon einen Asthmaanfall bekommen können. **Wo bekommen Sie mehr Informationen?** Wenn Sie mehr wissen wollen, können Sie im Internet weitere Informationen suchen. Aber Achtung: Die Informationen im Internet sind oft nicht in Leichter Sprache. ---</t>
+          <t>**Pfefferminze – Text in Leichter Sprache** **Was ist Pfefferminze?** Pfefferminze ist eine Heilpflanze. Heilpflanzen sind besondere Pflanzen. Sie können beim Gesundwerden helfen. Der Fachbegriff für Pfefferminze ist: Mentha x piperita. In den Blättern von Pfefferminze sind besondere Stoffe. Diese heißen: Menthon und Menthol. Menthol riecht stark. Pfefferminze riecht deshalb typisch. Man bekommt Pfefferminze als Tee oder als Öl. **Wie wirkt Pfefferminze?** Pfefferminze kann bei vielen Problemen helfen. Zum Beispiel bei: - Problemen mit dem Bauch oder der Verdauung - Reizdarm - Spannungskopfschmerzen - Erkältung - Muskelschmerzen **Pfefferminze bei Problemen mit dem Bauch oder der Verdauung** Pfefferminztee hilft manchmal bei leichten Bauchschmerzen, Völlegefühl oder Blähungen. **Pfefferminze bei Reizdarm** Reizdarm ist eine Krankheit. Dann ist der Darm oft gereizt. Pfefferminze kann die Muskeln im Darm beruhigen. **Pfefferminze bei Spannungskopfschmerzen** Pfefferminzöl kann bei Kopfschmerzen helfen. Das Öl kühlt die Haut, wenn man es auf die Schläfen reibt. Dadurch können die Schmerzen schwächer werden. Achtung: Pfefferminzöl darf nicht in die Augen kommen! **Pfefferminze bei Erkältung** Sie können Pfefferminzöl einatmen, um den Schleim in den Bronchien zu lösen. Die Bronchien gehören zu den Atemwegen. Pfefferminzöl hilft auch als Nasenspray bei verstopfter Nase. Oder als Balsam, den man auf die Haut reibt. **Pfefferminze bei Muskelschmerzen** Sie können Pfefferminzöl mit Wasser mischen und auf verspannte Muskeln reiben. **Was müssen Sie bei der Anwendung von Pfefferminze beachten?** Achtung: Pfefferminzöl immer mit Wasser mischen! Reines Pfefferminzöl kann Probleme machen, zum Beispiel: - Gereizte Haut - Bauchprobleme - Atemprobleme Sie möchten Pfefferminzöl einnehmen? Holen Sie sich das fertige Arzneimittel aus der Apotheke. Fragen Sie in der Apotheke nach. Sie möchten Pfefferminzöl auf die Haut reiben? Mischen Sie das Öl zuerst mit Wasser. Reiben Sie es dann auf die Haut. Sie wissen nicht genau, wie Sie Pfefferminze anwenden sollen? Fragen Sie einen Arzt oder Apotheker. **Welche Wechselwirkungen sind möglich?** Manchmal gibt es Wechselwirkungen, wenn Sie mehrere Medikamente oder Stoffe zusammen nehmen. Durch Pfefferminztee oder Pfefferminzöl können Nebenwirkungen auftreten, zum Beispiel: - Übelkeit - Sodbrennen - Brennen am Po - Trockener Mund **Wer darf Pfefferminze nicht anwenden?** Manche Personen sollen Pfefferminze nicht nehmen: - Babys und kleine Kinder: Sie könnten Atemnot bekommen. - Menschen mit Problemen an der Galle. - Menschen mit Asthma dürfen kein Pfefferminzöl einatmen. Das Öl könnte einen Asthma-Anfall auslösen. **Wo bekommen Sie noch mehr Informationen?** Sie wollen mehr wissen? Mehr Informationen zu Pfefferminze finden Sie im Internet. Achtung: Diese Informationen sind nicht in Leichter Sprache. --- **Hinweis:** Bei Fragen zu Ihrer Gesundheit fragen Sie immer Ihren Arzt oder Apotheker.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Hier ist der Text in Leichter Sprache: --- Pfefferminze Dieser Text informiert in Leichter Sprache über das Thema Pfefferminze. **Was ist Pfefferminze?** Pfefferminze ist eine Heilpflanze. Eine Heilpflanze ist eine Pflanze, die bei Krankheiten helfen kann. Der Fachbegriff für Pfefferminze ist: Mentha x piperita. In den Blättern der Pfefferminze sind zwei wichtige Öle: Menthon und Menthol. Menthol riecht sehr stark und gibt der Pfefferminze ihren besonderen Geruch. Pfefferminze gibt es zum Beispiel als Tee oder als Öl. **Wie wirkt Pfefferminze?** Pfefferminze kann bei verschiedenen Beschwerden helfen, zum Beispiel: - Bei Problemen mit dem Magen oder Darm - Bei Schmerzen im Bauch - Bei Kopfschmerzen - Bei Erkältung - Bei Muskelschmerzen **Pfefferminze bei Magenproblemen** Pfefferminztee kann helfen, wenn Sie ein Völlegefühl haben, Bauchschmerzen oder Blähungen. **Pfefferminze bei Reizdarm** Reizdarm ist eine Krankheit im Bauch. Der Darm arbeitet nicht richtig und man hat oft Schmerzen. Pfefferminze kann helfen, weil sie die Muskeln im Darm entspannt. **Pfefferminze bei Spannungskopfschmerzen** Wenn Sie Kopfschmerzen haben, kann Pfefferminzöl helfen. Das Öl macht die Haut an der Stirn kühl. Dazu verrühren Sie das Pfefferminzöl mit Wasser. Reiben Sie das Öl vorsichtig auf die Schläfen. Aber: Das Öl darf nicht in die Augen kommen. **Pfefferminze bei Erkältung** Wenn Sie erkältet sind, kann Pfefferminzöl helfen. Sie können es zum Beispiel einatmen (inhalieren). Das Öl hilft, Schleim aus der Lunge zu lösen. Sie können Pfefferminzöl als Balsam auf die Haut reiben. Es hilft auch als Nasenspray, wenn die Nase verstopft ist. **Pfefferminze bei Muskelschmerzen** Wenn Sie Muskelschmerzen haben, können Sie Pfefferminzöl mit Wasser mischen und auf die Haut reiben. **Was müssen Sie beachten?** - Pfefferminzöl immer mit Wasser vermischen. Benutzen Sie das Öl nie pur! Sonst kann es zu Problemen kommen: Die Haut kann sich röten, der Magen kann wehtun, Sie können schwer atmen. - Wenn Sie Pfefferminzöl einnehmen möchten (zum Beispiel bei Reizdarm), kaufen Sie ein fertiges Medikament in der Apotheke. Lassen Sie sich beraten. - Wenn Sie nicht wissen, wie Sie Pfefferminze anwenden, fragen Sie einen Arzt oder einen Apotheker. **Welche Probleme kann es geben, wenn Sie Pfefferminze nehmen und andere Mittel zusammen einnehmen?** Manchmal kann es zu Problemen kommen, wenn man verschiedene Mittel beides nimmt. Diese Probleme nennt man Wechselwirkungen. Bei Pfefferminze kann es zum Beispiel passieren: - Übelkeit (Ihnen ist schlecht) - Sodbrennen (ein brennendes Gefühl im Magen) - Brennen am Po - Trockener Mund **Wer darf Pfefferminze nicht benutzen?** Manche Menschen sollen keine Pfefferminze verwenden. - Babys und kleine Kinder: Für sie ist Menthol gefährlich. Sie können schlecht Luft bekommen. - Menschen mit Problemen mit der Galle: Sie sollen keine Pfefferminze nehmen. - Menschen mit Asthma: Sie sollen Pfefferminzöl nicht einatmen, weil sie davon einen Asthmaanfall bekommen können. **Wo bekommen Sie mehr Informationen?** Wenn Sie mehr wissen wollen, können Sie im Internet weitere Informationen suchen. Aber Achtung: Die Informationen im Internet sind oft nicht in Leichter Sprache. ---</t>
+          <t>Hier ist der Text entsprechend Ihrer Vorgaben reformuliert: --- **Pfefferminze** **Was ist Pfefferminze?** Pfefferminze ist eine Heilpflanze. Eine Heilpflanze ist eine Pflanze, die krank machen kann oder beim Gesundwerden hilft. Das Fachwort für Pfefferminze ist Mentha x piperita. Pfefferminze hat ätherische Öle. Ätherische Öle sind besondere Stoffe aus Pflanzen, die stark riechen. Die wichtigsten Öle in der Pfefferminze heißen Menthon und Menthol. Menthol macht den typischen Geruch der Pfefferminze. Pfefferminze gibt es als Tee und als Öl. **Wie wirkt Pfefferminze?** Pfefferminze kann helfen bei: - Problemen mit der Verdauung (Verdauung = Essen wird im Körper verarbeitet) - Reizdarm (Reizdarm = Krankheit vom Darm mit Schmerzen) - Spannungskopfschmerzen (Spannungskopfschmerzen = Schmerzen am Kopf) - Erkältung (Erkältung = Husten, Schnupfen oder Halsschmerzen) - Muskelschmerzen (Muskelschmerzen = Schmerzen in den Muskeln) **Verdauungsprobleme** Pfefferminztee hilft bei leichten Bauchschmerzen, Völlegefühl (Völlegefühl = Bauch fühlt sich voll an) und Blähungen (Blähungen = Luft im Bauch). **Reizdarm** Reizdarm ist eine Krankheit vom Darm. Pfefferminze macht den Darm ruhiger und kann Krämpfe (Krämpfe = Schmerzen durch starke Bewegung im Bauch) lösen. **Spannungskopfschmerzen** Pfefferminzöl kühlt die Haut auf dem Kopf. Die Kühlung hilft gegen Schmerzen. Sie müssen das Öl mit Wasser mischen, bevor Sie es auf die Schläfen reiben. Schläfen = links und rechts neben der Stirn oben am Kopf. Achtung: Öl soll nicht in die Augen kommen. **Erkältung** Pfefferminzöl hilft bei Husten und verstopfter Nase. Sie können das Öl einatmen (= inhalieren) und als Balsam (Balsam = etwas, das man auf die Haut streicht) auf die Haut reiben. **Muskelschmerzen** Mischen Sie Pfefferminzöl mit Wasser. Reiben Sie das Öl auf die schmerzenden Muskeln. **Was müssen Sie beachten?** Nehmen Sie Pfefferminzöl immer nur gemischt mit Wasser. Unverdünntes Öl macht Probleme: - Die Haut kann rot werden. - Sie können Bauchschmerzen bekommen. - Sie können schlecht Luft holen. Wollen Sie Pfefferminzöl einnehmen? Kaufen Sie ein fertiges Arzneimittel in der Apotheke. Wollen Sie Pfefferminze als Medizin benutzen? Fragen Sie einen Arzt. Arzt = jemand, der bei Krankheiten hilft. Oder fragen Sie einen Apotheker. Apotheker = jemand, der Medizin verkauft und erklärt. **Wechselwirkungen** Wechselwirkung heißt: Zwei Mittel wirken zusammen und machen andere Wirkungen. Folgende Probleme kann es geben: - Übelkeit (Übelkeit = Ihnen ist schlecht) - Sodbrennen (Sodbrennen = Brennen in der Speiseröhre) - Brennen am Po - Mund ist trocken **Wer darf Pfefferminze nicht benutzen?** Diese Gruppen sollten vorsichtig sein: - Babys und kleine Kinder: Menthol im Pfefferminzöl kann ihnen das Atmen schwer machen. - Menschen mit Gallen-Problemen: Diese Menschen sollten Pfefferminze nicht nehmen. - Menschen mit Asthma: Asthma ist eine Krankheit der Lunge. Pfefferminzöl kann einen Asthmaanfall machen. **Wo gibt es mehr Informationen?** Mehr Informationen stehen im Internet. Manche Texte sind schwierig. Bei Fragen fragen Sie bitte einen Arzt oder Apotheker. --- Möchten Sie eine noch kürzere Zusammenfassung?</t>
         </is>
       </c>
     </row>
@@ -622,12 +622,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Hier ist der Text in Leichter Sprache: --- **Altersbedingte Makula-Degeneration** Letzte Änderung am 15.03.2023 1. WAS IST EINE MAKULA-DEGENERATION? 2. WAS PASSIERT BEI EINER MAKULA-DEGENERATION? 3. WAS SIND DIE URSACHEN FÜR EINE MAKULA-DEGENERATION? 4. WORAN MERKEN SIE EINE MAKULA-DEGENERATION? 5. WAS KÖNNEN SIE GEGEN EINE MAKULA-DEGENERATION MACHEN? 6. WIE KÖNNEN SIE EINE MAKULA-DEGENERATION VERHINDERN? 7. WO GIBT ES MEHR INFORMATIONEN? --- **Was ist eine Makula-Degeneration?** Die altersbedingte Makula-Degeneration ist eine Krankheit der Augen. Dabei kann man immer schlechter sehen. Die Makula ist ein Teil im hinteren Bereich des Auges. Mit der Makula sieht man besonders scharf und erkennt Farben. Vor allem ältere Menschen, oft ab 60 Jahren, bekommen diese Krankheit. Man sagt dann auch: Degeneration. Das heißt: Ein Teil vom Auge wird schwächer. --- **Was passiert bei einer Makula-Degeneration?** Bei dieser Krankheit sterben in der Makula wichtige Sehzellen ab. Es gibt zwei Formen der Makula-Degeneration: - Die feuchte Makula-Degeneration. - Die trockene Makula-Degeneration. Bei der feuchten Makula-Degeneration wachsen neue Blutgefäße unter der Makula. Diese Gefäße sind schwach und können bluten. Dann kann die Makula anschwellen oder sich ablösen. Personen mit dieser Krankheit können dann nicht mehr scharf und nicht mehr farbig sehen. Bei der trockenen Makula-Degeneration lagern sich kleine Teilchen, sogenannte Drusen, auf der Makula ab. Durch diese Teilchen werden die Sehzellen geschädigt. Dann kann man immer schlechter sehen. --- **Was sind die Ursachen einer Makula-Degeneration?** Es gibt verschiedene Ursachen: - Rauchen - Bluthochdruck - Wenn jemand aus der Familie diese Krankheit hat, ist das Risiko höher. - Oft ohne Sonnenbrille in die Sonne schauen. --- **Woran merken Sie eine Makula-Degeneration?** Anzeichen für die feuchte Form: - Gerade Linien sehen krumm aus. - Ein dunkler Fleck in der Mitte vom Sehen. Anzeichen für die trockene Form: - In der Mitte sieht man unscharf. - Dunkler Fleck in der Mitte vom Sehen. - Lesen wird schwieriger. - Man braucht mehr Licht. - Man erkennt Menschen auf der Straße schlechter. Wenn die Krankheit schlimmer wird, kann man viele Dinge im Alltag schlechter machen. Zum Beispiel Lesen oder Auto fahren. Glauben Sie, Sie haben vielleicht eine Makula-Degeneration? Gehen Sie zum Augenarzt. Nur ein Arzt kann sicher sagen, was Ihnen fehlt. --- **Was können Sie gegen eine Makula-Degeneration machen?** Folgende Hilfen können das Sehen verbessern: - Spezielle Brillen - Lupen (Vergrößerungsgläser) - Kleine Teleskope - Sprachcomputer - Lesegeräte für den Bildschirm Die feuchte Makula-Degeneration kann nicht geheilt werden. Es gibt aber Behandlungen, damit die Krankheit langsamer wird oder stoppt. Sie heißt Anti-VEGF-Therapie. Fragen Sie dazu Ihren Augenarzt. Gegen die trockene Makula-Degeneration können Sie: - Sich viel bewegen - Gesund essen - Nahrungsergänzungsmittel nehmen (nur nach Rücksprache mit Arzt oder Apotheker) --- **Wie können Sie eine Makula-Degeneration verhindern?** - Lassen Sie regelmäßig Ihre Augen beim Augenarzt kontrollieren. - Machen Sie den Amsler-Gitter-Test. - Schauen Sie nie ohne Sonnenbrille in die Sonne. - Essen Sie gesund. - Rauchen Sie nicht. --- **Wo gibt es mehr Informationen?** Mehr Informationen finden Sie zum Beispiel auf der Webseite der Deutschen Apotheker Zeitung oder auf speziellen Gesundheitsseiten. Achtung: Manche Informationen sind nicht in Leichter Sprache. Wichtig: Dieser Text ist nur eine allgemeine Information. Er ersetzt keinen Termin beim Arzt. Wenn Sie Fragen haben oder sich krank fühlen, gehen Sie bitte immer zum Arzt. --- Falls Sie möchten, kann ich einzelne Abschnitte weiter vereinfachen oder für ein bestimmtes Publikum (zum Beispiel Senioren) anpassen.</t>
+          <t>Hier ist der Text in Leichter Sprache: --- Altersbedingte Makula-Degeneration Dieser Text erklärt: Was ist altersbedingte Makula-Degeneration? **Stand:** 15.03.2023 **Die Themen:** - Was ist eine Makula-Degeneration? - Was passiert bei einer Makula-Degeneration? - Was sind die Ursachen? - Wie bemerkt man eine Makula-Degeneration? - Was können Sie tun? - Wie kann man vorbeugen? - Wo gibt es mehr Informationen? --- ## Was ist eine Makula-Degeneration? Die Makula ist ein kleiner Bereich im Auge. Sie ist Teil der Netzhaut. Mit der Makula kann man besonders gut sehen. Wer eine Makula-Degeneration hat, sieht immer schlechter. Oft sind ältere Menschen davon betroffen, meistens ab 60 Jahren. Deshalb nennt man es: altersbedingte Makula-Degeneration. Das Wort "Degeneration" heißt: Die Makula funktioniert nicht mehr richtig. --- ## Was passiert bei einer Makula-Degeneration? Bei dieser Krankheit sterben Zellen in der Makula ab. Dann kann man nicht mehr gut sehen. Es gibt zwei Formen: - Feuchte Makula-Degeneration: Unter der Makula wachsen neue, kranke Blutgefäße. Sie können undicht sein. Es tritt Flüssigkeit oder Blut aus. Die Makula schwillt an. Dann sterben Zellen ab und die Makula vernarbt. Man kann in der Mitte nicht mehr scharf oder bunt sehen. - Trockene Makula-Degeneration: In der Makula lagern sich kleine helle Teilchen ab. Sie heißen Drusen. Sie entstehen oft bei Menschen, denen ein bestimmtes Eiweiß fehlt. Wenn es viele Drusen gibt, sterben die Sehzellen ab. Man sieht dann nicht mehr so gut. Man kann trotzdem noch Umrisse, Bewegungen und den Unterschied zwischen Hell und Dunkel sehen. Das liegt daran, dass andere Teile der Netzhaut noch funktionieren. --- ## Was sind die Ursachen? Eine Makula-Degeneration kann verschiedene Ursachen haben: - Rauchen - Zu hoher Blutdruck - Es gibt Fälle in der Familie - Oft ohne Sonnenbrille in die Sonne schauen --- ## Wie bemerkt man eine Makula-Degeneration? Warnzeichen sind zum Beispiel: - Gerade Linien sehen krumm aus - Dunkler Fleck in der Mitte beim Sehen - In der Mitte sieht man unscharf - Lesen fällt schwer - Man braucht mehr Licht als früher - Bekannte Gesichter erkennt man nicht mehr Wenn Sie glauben, dass Sie schlecht sehen oder einen Fleck in der Mitte sehen, gehen Sie zum Augenarzt. Nur der Arzt kann die Krankheit erkennen. --- ## Was kann man tun? Die Makula-Degeneration kann nicht geheilt werden. Bei der feuchten Makula-Degeneration gibt es aber eine Spritze ins Auge (Anti-VEGF-Therapie). Die Spritze hilft, dass keine neuen kranken Gefäße wachsen. Es gibt Hilfsmittel, zum Beispiel: - Spezielle Brillen - Lupen - Bildschirmlupe - Geräte, die Text vorlesen Auch gesunde Ernährung und Bewegung helfen. Nahrungsergänzungsmittel können manchmal helfen. Fragen Sie Ihren Arzt. --- ## Wie kann man vorbeugen? - Gehen Sie regelmäßig zum Augenarzt. - Machen Sie ab und zu einen Sehtest (Amsler-Gitter-Test). - Tragen Sie eine Sonnenbrille, wenn Sie in die Sonne schauen. - Rauchen Sie nicht. - Essen Sie gesund. --- ## Wo gibt es mehr Informationen? Sie können mehr im Internet über die Krankheit lesen. Achtung: Nur ein Arzt kann Ihnen genau sagen, was Sie haben. Wenn Sie Probleme mit den Augen haben, gehen Sie immer zum Augenarzt. --- **Hinweis:** Dieser Text informiert allgemein. Er ist kein Ersatz für einen Arztbesuch. --- Gerne passe ich den Text nach Ihren Wünschen weiter an!</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Hier ist der Text in Leichter Sprache: --- **Altersbedingte Makula-Degeneration** Letzte Änderung am 15.03.2023 1. WAS IST EINE MAKULA-DEGENERATION? 2. WAS PASSIERT BEI EINER MAKULA-DEGENERATION? 3. WAS SIND DIE URSACHEN FÜR EINE MAKULA-DEGENERATION? 4. WORAN MERKEN SIE EINE MAKULA-DEGENERATION? 5. WAS KÖNNEN SIE GEGEN EINE MAKULA-DEGENERATION MACHEN? 6. WIE KÖNNEN SIE EINE MAKULA-DEGENERATION VERHINDERN? 7. WO GIBT ES MEHR INFORMATIONEN? --- **Was ist eine Makula-Degeneration?** Die altersbedingte Makula-Degeneration ist eine Krankheit der Augen. Dabei kann man immer schlechter sehen. Die Makula ist ein Teil im hinteren Bereich des Auges. Mit der Makula sieht man besonders scharf und erkennt Farben. Vor allem ältere Menschen, oft ab 60 Jahren, bekommen diese Krankheit. Man sagt dann auch: Degeneration. Das heißt: Ein Teil vom Auge wird schwächer. --- **Was passiert bei einer Makula-Degeneration?** Bei dieser Krankheit sterben in der Makula wichtige Sehzellen ab. Es gibt zwei Formen der Makula-Degeneration: - Die feuchte Makula-Degeneration. - Die trockene Makula-Degeneration. Bei der feuchten Makula-Degeneration wachsen neue Blutgefäße unter der Makula. Diese Gefäße sind schwach und können bluten. Dann kann die Makula anschwellen oder sich ablösen. Personen mit dieser Krankheit können dann nicht mehr scharf und nicht mehr farbig sehen. Bei der trockenen Makula-Degeneration lagern sich kleine Teilchen, sogenannte Drusen, auf der Makula ab. Durch diese Teilchen werden die Sehzellen geschädigt. Dann kann man immer schlechter sehen. --- **Was sind die Ursachen einer Makula-Degeneration?** Es gibt verschiedene Ursachen: - Rauchen - Bluthochdruck - Wenn jemand aus der Familie diese Krankheit hat, ist das Risiko höher. - Oft ohne Sonnenbrille in die Sonne schauen. --- **Woran merken Sie eine Makula-Degeneration?** Anzeichen für die feuchte Form: - Gerade Linien sehen krumm aus. - Ein dunkler Fleck in der Mitte vom Sehen. Anzeichen für die trockene Form: - In der Mitte sieht man unscharf. - Dunkler Fleck in der Mitte vom Sehen. - Lesen wird schwieriger. - Man braucht mehr Licht. - Man erkennt Menschen auf der Straße schlechter. Wenn die Krankheit schlimmer wird, kann man viele Dinge im Alltag schlechter machen. Zum Beispiel Lesen oder Auto fahren. Glauben Sie, Sie haben vielleicht eine Makula-Degeneration? Gehen Sie zum Augenarzt. Nur ein Arzt kann sicher sagen, was Ihnen fehlt. --- **Was können Sie gegen eine Makula-Degeneration machen?** Folgende Hilfen können das Sehen verbessern: - Spezielle Brillen - Lupen (Vergrößerungsgläser) - Kleine Teleskope - Sprachcomputer - Lesegeräte für den Bildschirm Die feuchte Makula-Degeneration kann nicht geheilt werden. Es gibt aber Behandlungen, damit die Krankheit langsamer wird oder stoppt. Sie heißt Anti-VEGF-Therapie. Fragen Sie dazu Ihren Augenarzt. Gegen die trockene Makula-Degeneration können Sie: - Sich viel bewegen - Gesund essen - Nahrungsergänzungsmittel nehmen (nur nach Rücksprache mit Arzt oder Apotheker) --- **Wie können Sie eine Makula-Degeneration verhindern?** - Lassen Sie regelmäßig Ihre Augen beim Augenarzt kontrollieren. - Machen Sie den Amsler-Gitter-Test. - Schauen Sie nie ohne Sonnenbrille in die Sonne. - Essen Sie gesund. - Rauchen Sie nicht. --- **Wo gibt es mehr Informationen?** Mehr Informationen finden Sie zum Beispiel auf der Webseite der Deutschen Apotheker Zeitung oder auf speziellen Gesundheitsseiten. Achtung: Manche Informationen sind nicht in Leichter Sprache. Wichtig: Dieser Text ist nur eine allgemeine Information. Er ersetzt keinen Termin beim Arzt. Wenn Sie Fragen haben oder sich krank fühlen, gehen Sie bitte immer zum Arzt. --- Falls Sie möchten, kann ich einzelne Abschnitte weiter vereinfachen oder für ein bestimmtes Publikum (zum Beispiel Senioren) anpassen.</t>
+          <t>Gern, hier ist eine stark vereinfachte Version des Textes nach Ihren Vorgaben (Textebene: nur wichtige Infos; Satzebene: keine Nebensätze, einfache Sätze; Wortebene: schwierige Wörter werden erklärt): --- **Altersbedingte Makula-Degeneration** **Was ist Makula-Degeneration?** Die Makula ist ein kleiner Teil im Auge. Sie liegt in der Netzhaut, also im Inneren vom Auge. Die Makula hilft beim scharfen Sehen. Bei der Krankheit „Makula-Degeneration“ wird die Makula langsam schlechter. Das Wort „Degeneration“ bedeutet, dass etwas immer weniger gut funktioniert. Oft bekommen ältere Menschen diese Krankheit. **Was passiert bei Makula-Degeneration?** In der Makula sterben Zellen ab. Dann kann man schlechter sehen. Es gibt zwei Formen: - Feuchte Form: Unter der Makula wachsen neue, kranke Blutgefäße. Das Wort „Gefäße“ bedeutet kleine Röhren für Blut. Sie können platzen. Blut läuft heraus. Die Makula wird dick, dann werden Zellen zerstört. Man sieht in der Mitte schlecht oder gar nicht. - Trockene Form: In der Makula sammeln sich kleine, helle Teilchen. Sie heißen Drusen. Das Wort „Drusen“ heißt kleine Ablagerungen. Viele Drusen machen die Zellen kaputt. Man sieht dann immer unschärfer. Die dunkle Mitte beim Sehen nennt man „zentraler Bereich“. **Was sind die Ursachen?** Es gibt verschiedene Ursachen: - Rauchen (Tabak benutzen) - Hoher Blutdruck (Blutdruck = Druck des Blutes im Körper) - Gene (Das heißt: Krankheit ist in der Familie) - Viel Sonne ohne Sonnenbrille **Wie erkennt man die Krankheit?** Menschen mit Makula-Degeneration sehen oft: - Gerade Linien sind krumm. - Ein dunkler Fleck in der Mitte. - Die Mitte ist unscharf. - Lesen ist schwierig. - Mehr Licht ist nötig. - Bekannte Gesichter sind schwer zu erkennen. Denken Sie, dass Sie betroffen sind? Gehen Sie zum Augenarzt. Nur der Facharzt kann helfen. **Was kann helfen?** Es gibt Hilfsmittel: - Brillen - Lupen (Lupen vergrößern Dinge) - Lesemaschinen Die feuchte Form kann mit einer Spritze behandelt werden. Sie heißt „Anti-VEGF-Therapie“. Diese Behandlung stoppt das Wachstum der kranken Gefäße. Sport, gesunde Ernährung und Nahrungsergänzungsmittel (Zusatz zum Essen) sind auch wichtig. Fragen Sie Ihren Arzt oder Apotheker. **Wie kann man vorbeugen?** - Gehen Sie regelmäßig zum Augenarzt. - Machen Sie einen Sehtest. - Benutzen Sie Sonnenbrillen bei Sonne. - Essen Sie gesund. - Rauchen Sie nicht. **Hinweis:** Dieser Text ist eine Information. Er ersetzt keinen Arztbesuch. Nur ein Arzt kann sicher feststellen, ob Sie Makula-Degeneration haben. --- Wenn Sie weitere Vereinfachungen oder Erklärungen von bestimmten Wörtern wünschen, ergänze ich sie gerne!</t>
         </is>
       </c>
     </row>
@@ -644,12 +644,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Alzheimer Krankheit Hier lesen Sie eine Information über die Alzheimer Krankheit in Leichter Sprache. Was ist die Alzheimer Krankheit? Bei der Alzheimer Krankheit werden bestimmte Teile im Gehirn krank. Das Gehirn kann dann nicht mehr richtig arbeiten. Menschen mit Alzheimer vergessen viele Dinge. Sie finden sich oft nicht zurecht. Sie können manchmal schwer sprechen. Die Alzheimer Krankheit kommt meistens bei älteren Menschen, oft nach 60 Jahren. Durch die Alzheimer Krankheit bekommen Menschen meistens Demenz. Das heißt: Sie vergessen viel und sind oft verwirrt. Die Krankheit kann nicht geheilt werden. Woran erkennen Sie die Alzheimer Krankheit? Die Anzeichen bei Alzheimer sind bei jedem Menschen anders. Typische Anzeichen sind: - Vieles vergessen - Probleme bei einfachen Aufgaben - Schwierigkeiten beim Sprechen - Sich nicht gut orientieren können - Sich schwer konzentrieren können - Nicht logisch denken können - Dinge verwechseln - Verhalten verändert sich - Keine Lust etwas zu machen Die Alzheimer Krankheit hat drei Stadien: 1. Frühes Stadium 2. Mittleres Stadium 3. Spätes Stadium Mit der Zeit werden die Beschwerden stärker. Was sind die Ursachen der Alzheimer Krankheit? Das Gehirn von Menschen mit Alzheimer verändert sich. Zum Beispiel lagern sich besondere Stoffe (Beta-Amyloid und Tau-Protein) im Gehirn ab. Im Gehirn gibt es Entzündungen. Es gibt weniger wichtige Stoffe, die Nachrichten im Gehirn weitergeben. Dadurch sterben Zellen im Gehirn. Das Gehirn kann dann weniger Informationen speichern. Die Adern im Gehirn bekommen weniger Sauerstoff. Man weiß noch nicht ganz genau, warum diese Veränderungen passieren. Manchmal ist die Krankheit erblich. Das heißt: Die Krankheit kann in der Familie vorkommen. Wenn jemand in der Familie Alzheimer hat, ist das Risiko für andere Familienmitglieder höher. Sehr selten ist die Krankheit in den Genen festgelegt. Dann kann sie von den Eltern zu den Kindern weitergegeben werden. In solchen Fällen kann die Krankheit schon bei jungen Menschen auftreten. Was können Sie gegen die Alzheimer Krankheit tun? Die Alzheimer Krankheit kann nicht geheilt werden. Aber es gibt verschiedene Möglichkeiten, die Beschwerden zu lindern und den Krankheitsverlauf zu verlangsamen. Ein Arzt kann sagen, welche Therapien helfen können: - Ergotherapie: Übungen für den Alltag. - Logopädie: Übungen zum Sprechen. - Physiotherapie: Übungen für die Muskeln und Bewegung. - Gedächtnistraining: Das Gedächtnis wird geübt. - Erinnerungstherapie, Musiktherapie, Kunsttherapie. - Körperliche Übungen. Auch Medikamente können helfen. Haben Sie Beschwerden oder denken, Sie oder ein Familienmitglied könnten Alzheimer haben? Sprechen Sie immer mit einem Arzt. Wie können Sie Alzheimer vermeiden? Man kann Alzheimer nicht sicher verhindern. Aber Sie können das Risiko verringern: - Machen Sie regelmäßig Bewegung. - Essen Sie gesund. - Treffen Sie andere Menschen. - Rauchen Sie nicht. - Bleiben Sie normalgewichtig. - Vermeiden Sie hohen Blutzucker. - Vermeiden Sie hohen Blutdruck. Wo bekommen Sie mehr Informationen? Sie möchten mehr wissen? Es gibt viele Webseiten mit Infos über Alzheimer. Achtung: Die Infos sind oft nicht in Leichter Sprache. Wichtig: Dieser Text ersetzt nicht ein Gespräch mit einem Arzt. Bei Fragen oder Beschwerden sprechen Sie immer mit Ihrem Arzt oder rufen Sie die Arztpraxis an.</t>
+          <t>Hier ist der Text in Leichter Sprache: **Alzheimer-Krankheit** Dieser Text erklärt wichtige Dinge über die Alzheimer-Krankheit in Leichter Sprache. **Was ist die Alzheimer-Krankheit?** Bei der Alzheimer-Krankheit gehen wichtige Nervenzellen im Gehirn kaputt. Menschen mit Alzheimer vergessen viel. Sie kommen im Alltag schlechter zurecht. Typische Probleme sind: - Sachen vergessen (Gedächtnisprobleme) - sich nicht mehr zurechtfinden (Orientierungsprobleme) - Schwierigkeiten beim Sprechen Die Krankheit kommt meistens bei älteren Menschen, die über 60 Jahre alt sind. Alzheimer ist eine Form von Demenz. Das heißt: Das Gehirn funktioniert nicht mehr richtig. Die Krankheit kann nicht geheilt werden. **Woran erkennt man die Alzheimer-Krankheit?** Menschen mit Alzheimer haben oft ganz verschiedene Probleme. Häufige Zeichen sind: - Viel vergessen - Probleme im Alltag haben - Schwierigkeiten beim Sprechen - Sich schlecht orientieren - Sich schlecht konzentrieren können - Schwierige Aufgaben nicht mehr schaffen - Sachen falsch zuordnen - Verhalten verändert sich - Keine Lust, etwas zu machen Die Alzheimer-Krankheit hat drei Phasen: 1. Frühe Phase 2. Mittlere Phase 3. Späte Phase Mit jeder Phase werden die Probleme schlimmer. Jede Phase dauert unterschiedlich lang. **Warum bekommt man Alzheimer?** Das Gehirn verändert sich bei Alzheimer. Dabei passieren verschiedene Dinge: - Bestimmte Stoffe sammeln sich im Gehirn (Beta-Amyloid, Tau-Protein) - Botenstoffe, die im Gehirn helfen, verändern sich - Es gibt kleine Entzündungen im Gehirn Durch diese Veränderungen sterben Zellen im Gehirn ab. Das Gehirn funktioniert immer schlechter. Die genauen Gründe für diese Veränderungen kennt man noch nicht. Manchmal wird Alzheimer von den Eltern an die Kinder weitergegeben. Dann ist das Risiko für Alzheimer höher. Nur sehr selten bekommt man Alzheimer schon mit 30 Jahren wegen der eigenen Gene. **Was kann man gegen Alzheimer tun?** Alzheimer kann nicht geheilt werden. Aber es gibt Therapien und Medikamente, die helfen können. Sie machen die Probleme weniger schlimm und verlangsamen die Krankheit. Der Arzt kann helfen und informieren. Therapien sind zum Beispiel: - Ergotherapie: Übungen für den Alltag - Logopädie: Übungen für das Sprechen - Physiotherapie: Übungen für die Muskeln und Bewegung - Gedächtnistraining - Musiktherapie - Kunsttherapie Der Arzt kann auch Medikamente geben. Sie denken, Sie könnten Alzheimer haben? Oder jemand in Ihrer Familie? Dann gehen Sie zum Arzt. **Wie kann man Alzheimer vermeiden?** Sie können Alzheimer nicht sicher vermeiden. Aber Sie können etwas tun, damit das Risiko kleiner wird: - Bewegen Sie sich viel und machen Sie Sport - Essen Sie gesund - Treffen Sie sich mit anderen Menschen - Rauchen Sie nicht - Haben Sie ein gesundes Gewicht - Achten Sie auf niedrigen Blutdruck und keinen Diabetes **Wo findet man mehr Informationen?** Sie möchten mehr wissen? Es gibt noch weitere Informationen über Alzheimer im Internet. Achtung: Die meisten Infos sind nicht in Leichter Sprache. Wichtig: Dieser Text ist nur eine einfache Information. Er ersetzt nicht den Besuch beim Arzt. Wenn Sie sich krank fühlen oder Fragen haben, sprechen Sie immer mit Ihrem Arzt. Rufen Sie in der Arztpraxis an.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Alzheimer Krankheit Hier lesen Sie eine Information über die Alzheimer Krankheit in Leichter Sprache. Was ist die Alzheimer Krankheit? Bei der Alzheimer Krankheit werden bestimmte Teile im Gehirn krank. Das Gehirn kann dann nicht mehr richtig arbeiten. Menschen mit Alzheimer vergessen viele Dinge. Sie finden sich oft nicht zurecht. Sie können manchmal schwer sprechen. Die Alzheimer Krankheit kommt meistens bei älteren Menschen, oft nach 60 Jahren. Durch die Alzheimer Krankheit bekommen Menschen meistens Demenz. Das heißt: Sie vergessen viel und sind oft verwirrt. Die Krankheit kann nicht geheilt werden. Woran erkennen Sie die Alzheimer Krankheit? Die Anzeichen bei Alzheimer sind bei jedem Menschen anders. Typische Anzeichen sind: - Vieles vergessen - Probleme bei einfachen Aufgaben - Schwierigkeiten beim Sprechen - Sich nicht gut orientieren können - Sich schwer konzentrieren können - Nicht logisch denken können - Dinge verwechseln - Verhalten verändert sich - Keine Lust etwas zu machen Die Alzheimer Krankheit hat drei Stadien: 1. Frühes Stadium 2. Mittleres Stadium 3. Spätes Stadium Mit der Zeit werden die Beschwerden stärker. Was sind die Ursachen der Alzheimer Krankheit? Das Gehirn von Menschen mit Alzheimer verändert sich. Zum Beispiel lagern sich besondere Stoffe (Beta-Amyloid und Tau-Protein) im Gehirn ab. Im Gehirn gibt es Entzündungen. Es gibt weniger wichtige Stoffe, die Nachrichten im Gehirn weitergeben. Dadurch sterben Zellen im Gehirn. Das Gehirn kann dann weniger Informationen speichern. Die Adern im Gehirn bekommen weniger Sauerstoff. Man weiß noch nicht ganz genau, warum diese Veränderungen passieren. Manchmal ist die Krankheit erblich. Das heißt: Die Krankheit kann in der Familie vorkommen. Wenn jemand in der Familie Alzheimer hat, ist das Risiko für andere Familienmitglieder höher. Sehr selten ist die Krankheit in den Genen festgelegt. Dann kann sie von den Eltern zu den Kindern weitergegeben werden. In solchen Fällen kann die Krankheit schon bei jungen Menschen auftreten. Was können Sie gegen die Alzheimer Krankheit tun? Die Alzheimer Krankheit kann nicht geheilt werden. Aber es gibt verschiedene Möglichkeiten, die Beschwerden zu lindern und den Krankheitsverlauf zu verlangsamen. Ein Arzt kann sagen, welche Therapien helfen können: - Ergotherapie: Übungen für den Alltag. - Logopädie: Übungen zum Sprechen. - Physiotherapie: Übungen für die Muskeln und Bewegung. - Gedächtnistraining: Das Gedächtnis wird geübt. - Erinnerungstherapie, Musiktherapie, Kunsttherapie. - Körperliche Übungen. Auch Medikamente können helfen. Haben Sie Beschwerden oder denken, Sie oder ein Familienmitglied könnten Alzheimer haben? Sprechen Sie immer mit einem Arzt. Wie können Sie Alzheimer vermeiden? Man kann Alzheimer nicht sicher verhindern. Aber Sie können das Risiko verringern: - Machen Sie regelmäßig Bewegung. - Essen Sie gesund. - Treffen Sie andere Menschen. - Rauchen Sie nicht. - Bleiben Sie normalgewichtig. - Vermeiden Sie hohen Blutzucker. - Vermeiden Sie hohen Blutdruck. Wo bekommen Sie mehr Informationen? Sie möchten mehr wissen? Es gibt viele Webseiten mit Infos über Alzheimer. Achtung: Die Infos sind oft nicht in Leichter Sprache. Wichtig: Dieser Text ersetzt nicht ein Gespräch mit einem Arzt. Bei Fragen oder Beschwerden sprechen Sie immer mit Ihrem Arzt oder rufen Sie die Arztpraxis an.</t>
+          <t>Hier ist eine Reformulierung nach Ihrem linguistischen Ansatz: --- **Alzheimer-Krankheit** Alzheimer ist eine Krankheit. Sie betrifft das Gehirn. Gehirn ist das Organ im Kopf, das Denken und Erinnern möglich macht. Bei Alzheimer sterben Nervenzellen. Nervenzellen sind kleine Bausteine im Gehirn. Sie helfen beim Denken und Erinnern. Menschen mit Alzheimer vergessen viel. Sie haben Probleme im Alltag. Sie können sich schlecht orientieren. Sie verstehen Wörter manchmal nicht gut. Alzheimer kommt meist bei älteren Menschen. Älter bedeutet: über 60 Jahre. Die Krankheit ist eine Form von Demenz. Demenz heißt: Das Gehirn funktioniert schlechter. Die Krankheit kann nicht geheilt werden. **Anzeichen für Alzheimer** Vergesslichkeit ist häufig. Vergesslichkeit bedeutet: Man erinnert sich nicht mehr gut. Menschen mit Alzheimer haben Probleme beim Sprechen. Sie finden sich oft nicht mehr zurecht. Sie können sich schlecht konzentrieren. Ihr Verhalten verändert sich. Sie wollen weniger machen. **Verlauf der Krankheit** Alzheimer hat drei Phasen. Am Anfang sind die Symptome schwach. Später werden die Probleme stärker. Ganz am Ende ist der Alltag sehr schwierig. **Wie entsteht Alzheimer?** Alzheimer kommt durch Veränderungen im Gehirn. Im Gehirn lagern sich Eiweiße ab. Eiweiße sind kleine Teilchen. Diese Teilchen heißen Beta-Amyloid und Tau-Protein. Es gibt auch Entzündungen. Entzündungen bedeuten: Das Gewebe ist gereizt. Botenstoffe ändern sich. Botenstoffe sind Stoffe im Gehirn, die Nachrichten schicken. Das Gehirn arbeitet immer schlechter. Die genauen Gründe kennt man noch nicht. Manchmal ist die Krankheit vererbt. Vererbt heißt: Eltern geben eine Krankheit an Kinder weiter. Das passiert nur selten. **Was kann man tun?** Alzheimer kann man nicht heilen. Es gibt Therapien. Therapien sind verschiedene Behandlungen: - Ergotherapie: Sie lernen, den Alltag besser zu schaffen. - Logopädie: Sie üben Sprechen. - Physiotherapie: Sie machen Übungen für Ihren Körper. - Gedächtnistraining: Sie üben Ihr Gedächtnis. - Musiktherapie und Kunsttherapie: Musik und Kunst helfen beim Wohlfühlen. Manchmal gibt es auch Medikamente. Medikamente sind Tabletten oder Tropfen, die helfen können. Sprechen Sie mit einem Arzt. Arzt ist eine Person, die bei Krankheit hilft. **Kann man Alzheimer verhindern?** Man kann Alzheimer nicht sicher verhindern. Einige Dinge helfen aber, das Risiko zu verringern. Risiko heißt: Die Wahrscheinlichkeit für eine Krankheit wird kleiner. - Treiben Sie Sport. - Essen Sie gesund. - Treffen Sie andere Menschen. - Rauchen Sie nicht. - Vermeiden Sie Übergewicht. - Vermeiden Sie Bluthochdruck. Bluthochdruck bedeutet: Der Druck in den Blutgefäßen ist zu hoch. - Vermeiden Sie Diabetes. Diabetes ist eine Krankheit mit hohem Zucker im Blut. **Wo gibt es mehr Informationen?** Wenn Sie mehr wissen wollen, schauen Sie ins Internet. Vorsicht: Viele Texte sind schwierig. Achtung: Sprechen Sie immer mit einem Arzt, wenn Sie krank sind oder Fragen haben. --- Möchten Sie Erklärungen für weitere schwierige Wörter?</t>
         </is>
       </c>
     </row>
@@ -666,12 +666,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Hier ist der Text in **Leichter Sprache** auf Deutsch: --- **Schlaganfall** Diese Informationen sind in Leichter Sprache. **Was ist ein Schlaganfall?** Ein Schlaganfall ist eine Krankheit. Ein Schlaganfall kommt plötzlich. Bei einem Schlaganfall bekommt das Gehirn nicht genug Blut. Das ist sehr gefährlich. Man muss schnell die Notrufnummer 112 anrufen. **Was passiert bei einem Schlaganfall?** Blut bringt Sauerstoff und Nährstoffe in den Körper. Wenn das Gehirn kein Blut bekommt, fehlen Sauerstoff und Nährstoffe. Dann können Teile vom Gehirn kaputtgehen. Das heißt: Gehirnzellen sterben. Ein Teil vom Gehirn arbeitet dann nicht mehr richtig. Menschen mit Schlaganfall können zum Beispiel nicht mehr sprechen oder einen Arm nicht mehr bewegen. Ein Schlaganfall kann viele Folgen haben. **Wie erkennt man einen Schlaganfall?** Bei einem Schlaganfall gibt es diese Anzeichen: - Ein Arm, ein Bein oder ein Teil vom Körper ist gelähmt. Man kann ihn nicht mehr bewegen. - Ein Körperteil fühlt sich taub an. - Ein Teil vom Gesicht ist gelähmt. Man kann zum Beispiel nicht mehr richtig lächeln. - Probleme mit den Augen. Man sieht nicht mehr richtig. - Man kann nicht mehr richtig sprechen. - Man ist sehr schwindelig. Achtung: Wenn Sie glauben, jemand hat einen Schlaganfall, rufen Sie sofort den Notruf: 112. **Erste Hilfe bei einem Schlaganfall** - Rufen Sie sofort den Notruf: 112. - Bleiben Sie bei der betroffenen Person. - Reden Sie mit der Person. - Machen Sie enge Kleidung locker und nehmen Sie Zahnersatz heraus. - Geben Sie der Person nichts zu essen oder zu trinken. - Legen Sie die Person mit Kissen unter den Rücken leicht erhöht (etwa 30 Grad). - Ist die Person bewusstlos oder muss sie brechen: Legen Sie die Person in die stabile Seitenlage. - Atmet die Person nicht mehr: Machen Sie sofort Wiederbelebung (Herzdruckmassage). - Merken Sie sich, wann die Krankheitszeichen angefangen haben. Das ist wichtig für die Ärzte. Wichtige Fragen für den Notdienst: - Wann haben die Anzeichen angefangen? - Welche Krankheiten hat die Person? - Welche Medikamente nimmt die Person? - Welche Familienangehörigen können die Ärzte erreichen? **Was sind die Ursachen für einen Schlaganfall?** Ein Schlaganfall hat verschiedene Ursachen: - Ein Blutgefäß ist verstopft. Dann kommt kein Blut mehr ins Gehirn. - Eine Blutung im Gehirn. Dann ist ein Blutgefäß kaputt und das Blut läuft ins Gehirn. Es gibt Dinge, die machen einen Schlaganfall wahrscheinlicher: - Rauchen - Alkohol - älter sein - Diabetes (Zuckerkrankheit) - Bluthochdruck - Herz-Krankheiten - Übergewicht - wenig Bewegung - Bestimmte Gene im Körper: Manche Menschen bekommen deshalb leichter einen Schlaganfall. **Wie wird ein Schlaganfall behandelt?** Eine Person mit Schlaganfall muss schnell ins Krankenhaus. Im Krankenhaus wird der Schlaganfall behandelt. Es gibt besondere Stationen für Schlaganfall. Sie heißen Stroke-Unit. Auf der Stroke-Unit kümmern sich besonders ausgebildete Ärzte und Pflegende um die Patienten. Bei der Behandlung helfen viele Berufe: - Physiotherapeuten: Sie helfen, Bewegung wieder zu üben. - Logopäden: Sie helfen, das Sprechen und Schlucken zu üben. - Ergotherapeuten: Sie helfen, Aufgaben im Alltag wieder zu können. **Mehr Informationen** Sie wollen mehr wissen? Es gibt mehr Informationen. Die sind aber nicht mehr in Leichter Sprache. Wichtig: Dieser Text gibt nur allgemeine Infos. Er ersetzt nicht den Arzt. Sie fühlen sich krank? Oder Sie haben Fragen? Dann gehen Sie zum Arzt. ---</t>
+          <t>Hier ist der Text in Leichter Sprache: --- **Schlaganfall** Dieses Informationsblatt ist in Leichter Sprache geschrieben. Es geht um das Thema Schlaganfall. **Was ist ein Schlaganfall?** Ein Schlaganfall ist eine Krankheit. Sie kommt plötzlich. Das Gehirn bekommt dann nicht genug Blut. Das ist sehr gefährlich. Rufen Sie sofort den Rettungsdienst. Die Nummer ist: 112. **Was passiert bei einem Schlaganfall?** Blut bringt Sauerstoff und Nährstoffe in den Körper und ins Gehirn. Wenn das Gehirn kein Blut mehr bekommt, fehlen Sauerstoff und Nährstoffe. Dann können Teile vom Gehirn kaputtgehen. Zum Beispiel kann eine Person nach dem Schlaganfall nicht mehr richtig sprechen oder den Arm nicht mehr bewegen. Ein Schlaganfall kann viele verschiedene Folgen haben. **Wie merkt man einen Schlaganfall?** Es gibt verschiedene Anzeichen für einen Schlaganfall: - Ein Arm, eine Hand oder ein Bein kann nicht mehr bewegt werden. - Ein Körperteil fühlt sich taub an. - Ein Teil vom Gesicht ist schief oder kann nicht mehr bewegt werden. - Man sieht schlecht oder hat Doppelbilder. - Man kann nicht mehr gut sprechen. - Man ist plötzlich sehr schwindelig. Wichtig: Sie glauben, jemand hat einen Schlaganfall? Rufen Sie sofort 112! **Was tun bei einem Schlaganfall?** Rufen Sie sofort 112. Bleiben Sie bei der Person und sprechen Sie mit ihr. Machen Sie enge Kleidung locker. Geben Sie der Person nichts zu essen oder zu trinken. Die Person könnte sich verschlucken. Legen Sie den Oberkörper mit einem Kissen ein bisschen hoch, etwa 30 Grad. Ist die Person bewusstlos oder muss sie sich übergeben? Dann bringen Sie sie in die stabile Seitenlage. Atmet die Person nicht mehr? Dann starten Sie sofort die Wiederbelebung. Wichtig: Merken Sie sich, wann die Anzeichen angefangen haben. Diese Zeit ist wichtig für die Ärzte. **Was fragt der Rettungsdienst?** Der Rettungsdienst kann Sie fragen: - Wann haben die Anzeichen angefangen? - Hat die Person andere Krankheiten? - Nimmt die Person Medikamente? Welche? - Gibt es eine Telefonnummer von Verwandten? **Warum bekommt man einen Schlaganfall?** Die häufigsten Gründe sind: - Ein Blutgefäß ist verstopft. Dann kommt kein Blut und kein Sauerstoff mehr ins Gehirn. - Oder es gibt eine Blutung im Gehirn. Bestimmte Dinge machen einen Schlaganfall wahrscheinlicher. Zum Beispiel: - Rauchen - Alkoholkonsum - Älter sein - Zuckerkrankheit (Diabetes) - Hoher Blutdruck - Herzprobleme - Übergewicht - Wenig Bewegung - Veranlagung: Manche Menschen haben ein höheres Risiko durch ihre Gene. **Wie wird ein Schlaganfall behandelt?** Nach einem Schlaganfall muss man schnell ins Krankenhaus. Dort gibt es oft besondere Schlaganfall-Stationen. Dort arbeiten Ärzte und Pfleger, die sich sehr gut mit Schlaganfall auskennen. Im Krankenhaus bekommt man Hilfe, damit man wieder besser sprechen und sich bewegen kann. Es gibt verschiedene Fachleute: - Physiotherapeuten helfen beim Bewegen und bei Übungen. - Logopäden helfen beim Sprechen. - Ergotherapeuten helfen im Alltag. **Wo gibt es noch mehr Informationen?** Wenn Sie noch mehr wissen möchten, können Sie weitere Informationen im Internet finden. Diese sind dann meist nicht in Leichter Sprache. Achtung: Dieser Text ist nur eine Information. Er kann keinen Arztbesuch ersetzen. Wenn Sie sich krank fühlen oder Fragen haben, gehen Sie bitte zum Arzt. --- Möchten Sie den Text noch kürzer oder mit Bildern erklärt haben?</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Hier ist der Text in **Leichter Sprache** auf Deutsch: --- **Schlaganfall** Diese Informationen sind in Leichter Sprache. **Was ist ein Schlaganfall?** Ein Schlaganfall ist eine Krankheit. Ein Schlaganfall kommt plötzlich. Bei einem Schlaganfall bekommt das Gehirn nicht genug Blut. Das ist sehr gefährlich. Man muss schnell die Notrufnummer 112 anrufen. **Was passiert bei einem Schlaganfall?** Blut bringt Sauerstoff und Nährstoffe in den Körper. Wenn das Gehirn kein Blut bekommt, fehlen Sauerstoff und Nährstoffe. Dann können Teile vom Gehirn kaputtgehen. Das heißt: Gehirnzellen sterben. Ein Teil vom Gehirn arbeitet dann nicht mehr richtig. Menschen mit Schlaganfall können zum Beispiel nicht mehr sprechen oder einen Arm nicht mehr bewegen. Ein Schlaganfall kann viele Folgen haben. **Wie erkennt man einen Schlaganfall?** Bei einem Schlaganfall gibt es diese Anzeichen: - Ein Arm, ein Bein oder ein Teil vom Körper ist gelähmt. Man kann ihn nicht mehr bewegen. - Ein Körperteil fühlt sich taub an. - Ein Teil vom Gesicht ist gelähmt. Man kann zum Beispiel nicht mehr richtig lächeln. - Probleme mit den Augen. Man sieht nicht mehr richtig. - Man kann nicht mehr richtig sprechen. - Man ist sehr schwindelig. Achtung: Wenn Sie glauben, jemand hat einen Schlaganfall, rufen Sie sofort den Notruf: 112. **Erste Hilfe bei einem Schlaganfall** - Rufen Sie sofort den Notruf: 112. - Bleiben Sie bei der betroffenen Person. - Reden Sie mit der Person. - Machen Sie enge Kleidung locker und nehmen Sie Zahnersatz heraus. - Geben Sie der Person nichts zu essen oder zu trinken. - Legen Sie die Person mit Kissen unter den Rücken leicht erhöht (etwa 30 Grad). - Ist die Person bewusstlos oder muss sie brechen: Legen Sie die Person in die stabile Seitenlage. - Atmet die Person nicht mehr: Machen Sie sofort Wiederbelebung (Herzdruckmassage). - Merken Sie sich, wann die Krankheitszeichen angefangen haben. Das ist wichtig für die Ärzte. Wichtige Fragen für den Notdienst: - Wann haben die Anzeichen angefangen? - Welche Krankheiten hat die Person? - Welche Medikamente nimmt die Person? - Welche Familienangehörigen können die Ärzte erreichen? **Was sind die Ursachen für einen Schlaganfall?** Ein Schlaganfall hat verschiedene Ursachen: - Ein Blutgefäß ist verstopft. Dann kommt kein Blut mehr ins Gehirn. - Eine Blutung im Gehirn. Dann ist ein Blutgefäß kaputt und das Blut läuft ins Gehirn. Es gibt Dinge, die machen einen Schlaganfall wahrscheinlicher: - Rauchen - Alkohol - älter sein - Diabetes (Zuckerkrankheit) - Bluthochdruck - Herz-Krankheiten - Übergewicht - wenig Bewegung - Bestimmte Gene im Körper: Manche Menschen bekommen deshalb leichter einen Schlaganfall. **Wie wird ein Schlaganfall behandelt?** Eine Person mit Schlaganfall muss schnell ins Krankenhaus. Im Krankenhaus wird der Schlaganfall behandelt. Es gibt besondere Stationen für Schlaganfall. Sie heißen Stroke-Unit. Auf der Stroke-Unit kümmern sich besonders ausgebildete Ärzte und Pflegende um die Patienten. Bei der Behandlung helfen viele Berufe: - Physiotherapeuten: Sie helfen, Bewegung wieder zu üben. - Logopäden: Sie helfen, das Sprechen und Schlucken zu üben. - Ergotherapeuten: Sie helfen, Aufgaben im Alltag wieder zu können. **Mehr Informationen** Sie wollen mehr wissen? Es gibt mehr Informationen. Die sind aber nicht mehr in Leichter Sprache. Wichtig: Dieser Text gibt nur allgemeine Infos. Er ersetzt nicht den Arzt. Sie fühlen sich krank? Oder Sie haben Fragen? Dann gehen Sie zum Arzt. ---</t>
+          <t>Hier ist der Text reformuliert für Leichte Sprache mit Fokus auf einfache Satzstrukturen, Weglassen unwichtiger Informationen und Erklärungen zu schwierigen Wörtern: --- **Schlaganfall** Ein Schlaganfall ist eine Krankheit. Die Krankheit kommt plötzlich. Das Gehirn bekommt dann kein Blut. Gehirn ist das Organ im Kopf, das denkt und alles im Körper steuert. Ein Schlaganfall ist sehr gefährlich. Rufen Sie sofort 112. **Was passiert bei einem Schlaganfall?** Das Blut transportiert Sauerstoff. Sauerstoff ist ein Stoff in der Luft, den der Körper braucht. Kommt kein Blut ins Gehirn, sterben Teile vom Gehirn. Dann kann die Person zum Beispiel nicht sprechen oder den Arm nicht bewegen. **Wie erkennt man einen Schlaganfall?** Es gibt Anzeichen: - Ein Arm, Bein oder eine Gesichtshälfte bewegt sich nicht mehr. - Ein Körperteil ist taub. Taub heißt: Man spürt nichts mehr. - Man sieht schlecht. - Man spricht undeutlich. - Man ist schwindelig. Schwindelig heißt: Alles dreht sich. **Was tun bei einem Schlaganfall?** Rufen Sie sofort 112. Bleiben Sie bei der Person. Sprechen Sie mit der Person. Machen Sie die Kleidung locker. Geben Sie nichts zu essen oder zu trinken. Die Person könnte sich verschlucken. Verschlucken heißt: Das Essen kommt in die Lunge. Setzen Sie die Person etwas auf. Ist die Person bewusstlos? Legen Sie sie auf die Seite. Atmet sie nicht? Machen Sie Wiederbelebung. Wiederbelebung heißt: Sie helfen der Person beim Atmen. **Ursachen für einen Schlaganfall** Ein Blutgefäß ist verstopft. Blutgefäß ist ein langer, dünner Kanal im Körper für das Blut. Dann kommt kein Blut und kein Sauerstoff ins Gehirn. Oder es gibt eine Blutung im Gehirn. Blutung heißt: Blut läuft aus einem Gefäß ins Gehirn. Risiko-Faktoren (Risiko heißt: Es passiert leichter): - Rauchen - Alkohol trinken - Älter sein - Diabetes. Diabetes heißt: Zucker-Krankheit. - Bluthochdruck. Bluthochdruck heißt: zu hoher Druck im Blut. - Herzkrankheit - Übergewicht. Übergewicht heißt: zu viel Gewicht. - Wenig Bewegung. - Gene in der Familie erhöhen das Risiko. **Wie wird ein Schlaganfall behandelt?** Die Person muss sofort ins Krankenhaus. Manche Krankenhäuser haben eine besondere Station für Schlaganfall. Dort hilft ein Team: - Physiotherapeut: hilft beim Bewegen. - Logopäde: hilft beim Sprechen. - Ergotherapeut: hilft im Alltag. **Wichtiger Hinweis** Dieser Text ist nur zur Information. Gehen Sie zum Arzt, wenn Sie krank sind oder Fragen haben. --- Haben Sie Wünsche für noch mehr Erklärungen oder weitere Kürzungen?</t>
         </is>
       </c>
     </row>
@@ -688,12 +688,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Hier ist der Text in Deutscher Leichter Sprache: **Arthrose in der Hand und in den Fingern** Dieser Text erklärt in Leichter Sprache das Thema Arthrose in der Hand und in den Fingern. **Was ist Arthrose in der Hand und in den Fingern?** Arthrose ist eine Krankheit in den Gelenken. Die Gelenke sind die Stellen, wo zwei Knochen aufeinander treffen und sich bewegen. Zwischen den Knochen liegt Knorpel. Der Knorpel schützt die Knochen. Die Knochen reiben nicht direkt aneinander. Bei Arthrose wird der Knorpel dünner oder geht kaputt. Dann reiben die Knochen aneinander. Das tut weh. Das Gelenk kann nicht mehr gut bewegt werden. **Wo gibt es Arthrose in der Hand?** Arthrose kann an verschiedenen Stellen in der Hand und in den Fingern sein: - An den Finger-Enden - In der Mitte der Finger - Am Daumen - Am Handgelenk **Warum bekommt man Arthrose?** Die genauen Gründe für Arthrose sind oft nicht bekannt. Es gibt aber einige mögliche Ursachen: - Gelenke werden falsch oder zu stark benutzt - Die Gelenke wurden verletzt - Andere Krankheiten, zum Beispiel Rheuma oder Gicht Frauen bekommen öfter Arthrose in den Fingern als Männer, besonders nach den Wechseljahren. Das liegt wahrscheinlich an den Hormonen. Wenn Ihre Mutter oder Großmutter Arthrose hatte, können Sie auch ein höheres Risiko haben. **Wie erkennt man Arthrose?** Es gibt Anzeichen für Arthrose: - Die Gelenke tun weh, wenn man sie bewegt - Die Gelenke sind manchmal dick oder geschwollen - Man kann die Gelenke nicht richtig bewegen - Andere Personen in Ihrer Familie haben Arthrose - Die Gelenke wurden oft stark benutzt oder waren verletzt Wenn Sie denken, Sie haben Arthrose, gehen Sie bitte zum Arzt. Der Arzt untersucht Sie. Nur der Arzt kann sicher sagen, ob Sie Arthrose haben. **Was kann man gegen Arthrose tun?** Sprechen Sie mit Ihrem Arzt. Der Arzt kann Ihnen helfen und wichtige Tipps geben. - Die betroffenen Gelenke nicht zu stark belasten - Ein Ergotherapeut kann zeigen, wie Sie die Gelenke schonen - Die Beweglichkeit der Gelenke kann oft durch Übungen verbessert werden - Es gibt Medikamente gegen Schmerzen Wichtig: Sprechen Sie immer erst mit Ihrem Arzt, bevor Sie Medikamente nehmen. **Wo gibt es mehr Informationen?** Wenn Sie mehr wissen möchten, fragen Sie Ihren Arzt. Sie können auch Texte über Arthrose im Internet lesen. Aber: Der Besuch beim Arzt ist immer wichtig. Dieser Text ist allgemein. Er ersetzt nicht den Besuch beim Arzt. Wenn Sie sich krank fühlen oder Fragen haben, gehen Sie zum Arzt.</t>
+          <t>Hier ist der Text in Leichter Sprache: Arthrose in den Händen und Fingern Dieser Text erklärt: Was ist Arthrose in den Händen und Fingern? Was ist Arthrose? Arthrose ist eine Krankheit in den Gelenken. Das Gelenk verbindet zwei Knochen. Zwischen den Knochen ist Knorpel. Der Knorpel schützt die Knochen. Wenn man Arthrose hat, dann wird der Knorpel dünn. Die Knochen reiben aufeinander. Das tut weh und das Gelenk kann sich schlecht bewegen. Warum bekommt man Arthrose? Es gibt verschiedene Gründe für Arthrose: - Die Gelenke werden falsch oder zu viel benutzt. - Die Gelenke wurden verletzt. - Andere Krankheiten, wie Gicht oder Rheuma. Frauen bekommen öfter Arthrose in den Fingern als Männer. Das passiert meist nach den Wechseljahren, weil sich die Hormone verändern. Wenn schon Mama oder Oma Arthrose in den Fingern hatten, dann hat man ein größeres Risiko. Wie merkt man Arthrose? Man kann Arthrose an verschiedenen Zeichen erkennen: - Die Finger oder Hände tun weh, wenn man sie bewegt. - Die Gelenke sind manchmal dick oder geschwollen. - Die Gelenke lassen sich schlecht bewegen. - Andere Familienmitglieder haben Arthrose. - Die Gelenke wurden oft belastet oder verletzt. Haben Sie solche Zeichen? Dann kann es Arthrose sein. Sprechen Sie mit einem Arzt, wenn Sie denken, dass Sie Arthrose haben. Was kann man gegen Arthrose tun? Reden Sie mit einem Arzt. Der Arzt hilft Ihnen. Sie können: - Die Gelenke schonen. Das heißt: Nicht zu viel und nicht falsch benutzen. - Ein Ergotherapeut zeigt Ihnen, wie Sie die Gelenke entlasten. - Versuchen Sie, die Gelenke zu bewegen. Medikamente können helfen, wenn Sie Schmerzen haben. Sprechen Sie zuerst mit Ihrem Arzt, bevor Sie Medikamente nehmen. Wo bekommen Sie mehr Informationen? Für mehr Infos über Arthrose fragen Sie einen Arzt. Im Internet gibt es mehr Informationen, aber oft nicht in Leichter Sprache. Wichtig: Dieser Text ersetzt nicht den Arzt. Gehen Sie immer zum Arzt, wenn Sie Fragen haben oder sich nicht gut fühlen.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Hier ist der Text in Deutscher Leichter Sprache: **Arthrose in der Hand und in den Fingern** Dieser Text erklärt in Leichter Sprache das Thema Arthrose in der Hand und in den Fingern. **Was ist Arthrose in der Hand und in den Fingern?** Arthrose ist eine Krankheit in den Gelenken. Die Gelenke sind die Stellen, wo zwei Knochen aufeinander treffen und sich bewegen. Zwischen den Knochen liegt Knorpel. Der Knorpel schützt die Knochen. Die Knochen reiben nicht direkt aneinander. Bei Arthrose wird der Knorpel dünner oder geht kaputt. Dann reiben die Knochen aneinander. Das tut weh. Das Gelenk kann nicht mehr gut bewegt werden. **Wo gibt es Arthrose in der Hand?** Arthrose kann an verschiedenen Stellen in der Hand und in den Fingern sein: - An den Finger-Enden - In der Mitte der Finger - Am Daumen - Am Handgelenk **Warum bekommt man Arthrose?** Die genauen Gründe für Arthrose sind oft nicht bekannt. Es gibt aber einige mögliche Ursachen: - Gelenke werden falsch oder zu stark benutzt - Die Gelenke wurden verletzt - Andere Krankheiten, zum Beispiel Rheuma oder Gicht Frauen bekommen öfter Arthrose in den Fingern als Männer, besonders nach den Wechseljahren. Das liegt wahrscheinlich an den Hormonen. Wenn Ihre Mutter oder Großmutter Arthrose hatte, können Sie auch ein höheres Risiko haben. **Wie erkennt man Arthrose?** Es gibt Anzeichen für Arthrose: - Die Gelenke tun weh, wenn man sie bewegt - Die Gelenke sind manchmal dick oder geschwollen - Man kann die Gelenke nicht richtig bewegen - Andere Personen in Ihrer Familie haben Arthrose - Die Gelenke wurden oft stark benutzt oder waren verletzt Wenn Sie denken, Sie haben Arthrose, gehen Sie bitte zum Arzt. Der Arzt untersucht Sie. Nur der Arzt kann sicher sagen, ob Sie Arthrose haben. **Was kann man gegen Arthrose tun?** Sprechen Sie mit Ihrem Arzt. Der Arzt kann Ihnen helfen und wichtige Tipps geben. - Die betroffenen Gelenke nicht zu stark belasten - Ein Ergotherapeut kann zeigen, wie Sie die Gelenke schonen - Die Beweglichkeit der Gelenke kann oft durch Übungen verbessert werden - Es gibt Medikamente gegen Schmerzen Wichtig: Sprechen Sie immer erst mit Ihrem Arzt, bevor Sie Medikamente nehmen. **Wo gibt es mehr Informationen?** Wenn Sie mehr wissen möchten, fragen Sie Ihren Arzt. Sie können auch Texte über Arthrose im Internet lesen. Aber: Der Besuch beim Arzt ist immer wichtig. Dieser Text ist allgemein. Er ersetzt nicht den Besuch beim Arzt. Wenn Sie sich krank fühlen oder Fragen haben, gehen Sie zum Arzt.</t>
+          <t>Gerne, hier ist der Text nach den angegebenen Kriterien überarbeitet: --- **Arthrose der Hand und Finger** **Was ist Arthrose?** Arthrose ist eine Krankheit. Sie betrifft die Gelenke. Ein Gelenk verbindet zwei Knochen. Zwischen den Knochen ist Knorpel. Knorpel ist ein weiches, glattes Material. Er schützt die Knochen. Bei Arthrose wird der Knorpel dünn. Die Knochen reiben aufeinander. Das tut weh. Man kann das Gelenk schlecht bewegen. **Wo tritt Arthrose auf?** Arthrose kann in den Fingern und Händen sein. Die Finger haben viele kleine Gelenke. Die Hand hat ein großes Gelenk am Handgelenk. **Was sind die Ursachen?** Man weiß nicht immer, warum Arthrose entsteht. Es gibt aber Gründe: - Falsche oder zu starke Belastung. Belastung bedeutet: Ein Gelenk muss viel arbeiten. - Verletzung. Das Gelenk wurde geschädigt. - Andere Krankheiten, zum Beispiel Gicht (eine Gelenkkrankheit) oder Rheuma (eine Entzündungskrankheit). - Frauen bekommen öfter Arthrose, besonders ab etwa 50 Jahren. Grund sind die Hormone. Hormone sind Stoffe im Körper, die vieles steuern. - Arthrose kommt manchmal in Familien vor. **Wie merkt man Arthrose?** Anzeichen für Arthrose sind: - Schmerzen bei Bewegung. - Das Gelenk ist dick oder geschwollen. Geschwollen heißt: Es ist größer als normal. - Das Gelenk lässt sich schlecht bewegen. - Andere Familienmitglieder haben Arthrose. - Man hat das Gelenk oft stark benutzt oder verletzt. **Was kann man tun?** Gehen Sie zum Arzt, wenn Sie denken, Sie haben Arthrose. Der Arzt untersucht Sie. Der Arzt erklärt die Krankheit. Sie sollten das Gelenk schonen. Das heißt: Nicht zu viel benutzen. Manchmal hilft ein Ergotherapeut. Ein Ergotherapeut ist ein Spezialist für Bewegung. Man kann Übungen machen. Die Übungen helfen, das Gelenk zu bewegen. Man kann Medikamente gegen Schmerzen nehmen. Medikamente sind Tabletten oder Salben. Sprechen Sie vorher mit dem Arzt. **Wo gibt es mehr Informationen?** Fragen Sie immer Ihren Arzt, wenn Sie mehr wissen wollen. Im Internet gibt es Informationen. Aber die Texte sind oft schwer zu verstehen. --- **Erklärungen für schwierige Wörter:** - Gelenk: Verbindung zwischen zwei Knochen, damit man sich bewegen kann. - Knorpel: Weiches, glattes Material zwischen den Knochen. - Ergotherapeut: Fachkraft, die bei Bewegung hilft. - Hormone: Stoffe im Körper, die Vorgänge steuern. - Medikamente: Mittel gegen Schmerzen oder Krankheiten. - Rheuma, Gicht: Krankheiten, die die Gelenke betreffen. --- Hinweis: Dieser Text ersetzt keinen Arztbesuch. Bei Beschwerden gehen Sie bitte zum Arzt.</t>
         </is>
       </c>
     </row>
@@ -710,12 +710,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Hier ist der Text in Deutscher Leichter Sprache: **Blasenentzündung – Einfache Erklärung in Leichter Sprache** **1. Was ist eine Blasenentzündung?** Die Blase ist ein Organ im unteren Bauch. In der Blase sammelt sich der Urin. Wenn die Blase voll ist, müssen Sie auf die Toilette gehen und urinieren. Beim Mann und bei der Frau gibt es eine Harnröhre. Durch die Harnröhre fließt der Urin aus dem Körper. Die Blase kann sich entzünden. Das nennt man Blasenentzündung. Frauen bekommen öfter eine Blasenentzündung als Männer. Aber bei Männern ist die Blasenentzündung manchmal schlimmer. Darum sollen Männer immer zum Arzt gehen, wenn sie eine Blasenentzündung haben. **2. Warum bekommt man eine Blasenentzündung?** Eine Blasenentzündung kommt oft durch Bakterien. Bakterien sind kleine, für unser Auge unsichtbare Lebewesen. Meistens sind es Bakterien aus dem Darm. Diese Bakterien heißen: Escherichia coli. Im Darm helfen die Bakterien und sind nicht schlecht. Aber wenn sie in die Blase kommen, machen sie eine Entzündung. Frauen bekommen oft eine Blasenentzündung, weil der Ausgang vom Darm nah an der Harnröhre liegt. **3. Woran merken Sie eine Blasenentzündung?** Typische Anzeichen sind: - Sie müssen oft auf die Toilette. - Es tut beim Wasserlassen weh, oder es brennt. - Sie haben Schmerzen im unteren Bauch. Andere Anzeichen sind: - Der Urin sieht trübe aus oder riecht anders. - Es kann Blut im Urin sein. **4. Was können Sie tun bei einer Blasenentzündung?** Oft verschwindet die Blasenentzündung bei gesunden Menschen von alleine wieder. - Trinken Sie viel Wasser oder Tee. - Halten Sie sich warm. - Es gibt besondere Tees wie Blasen- oder Nierentee aus der Apotheke. Manchmal kann eine Blasenentzündung gefährlich werden. Vor allem für: - Schwangere Frauen, - Menschen mit schwachem Immunsystem, - Menschen mit bestimmten anderen Krankheiten, - und Männer. Diese Menschen sollen schon bei ersten Anzeichen zum Arzt gehen. Wenn Sie oft Blasenentzündungen haben, sprechen Sie mit Ihrem Arzt. Dann gibt es vielleicht spezielle Medikamente, zum Beispiel Antibiotika. **5. Wie können Sie eine Blasenentzündung vermeiden?** Tipps: - Trinken Sie jeden Tag genug Wasser. - Gehen Sie regelmäßig auf die Toilette. - Wischen Sie beim Toilettengang immer von vorne nach hinten. - Tragen Sie Unterwäsche aus Baumwolle. - Waschen Sie Ihre Unterwäsche bei 60 Grad. - Halten Sie sich warm. - Ziehen Sie nach dem Baden oder Schwimmen sofort trockene Sachen an. **6. Wo bekommen Sie mehr Informationen?** Wenn Sie denken, dass Sie eine Blasenentzündung haben, gehen Sie bitte zum Arzt. Er kann Sie untersuchen und Ihnen helfen. Dieser Text gibt nur allgemeine Infos. Er ersetzt nicht den Besuch beim Arzt. Wenn Sie krank sind oder eine Frage zu einer Krankheit haben, gehen Sie bitte immer zum Arzt. --- Möchten Sie den Text noch kürzer oder leichter?</t>
+          <t>Gerne, hier ist der Text in Leichter Sprache. Ich habe die Sätze verkürzt, Fremdwörter erklärt und die Struktur angepasst: --- **Blasenentzündung** Dieser Text erklärt das Thema Blasenentzündung in Leichter Sprache. **Was ist eine Blasenentzündung?** Blase ist ein Organ im Bauch. Die Blase sammelt Urin. Urin ist das, was wir als Wasser lassen. Wenn die Blase voll ist, müssen wir zur Toilette. Die Blase ist mit einem kleinen Rohr verbunden. Dieses Rohr heißt Harnröhre. Der Urin geht durch die Harnröhre nach draußen. Bei der Frau ist die Harnröhre bei der Scheide. Beim Mann ist die Harnröhre bei seinem Penis. Manchmal werden Blase oder Harnröhre krank. Sie bekommen dann eine Entzündung. Das heißt Blasenentzündung. Männer haben selten eine Blasenentzündung. Bei Männern ist sie aber oft schlimmer. Männer sollen dann immer zum Arzt gehen. **Was sind die Ursachen für eine Blasenentzündung?** Es gibt viele Gründe für eine Blasenentzündung. Die meisten Blasenentzündungen kommen durch Bakterien. Bakterien sind sehr kleine Lebewesen. Ein Bakterium heißt Escherichia coli. Das spricht man: Escherichia Koli. Dieses Bakterium lebt im Darm. Im Darm hilft das Bakterium. Im Darm ist es nicht gefährlich. Manchmal kommt das Bakterium vom Darm zur Harnröhre. Von dort kommt das Bakterium in die Blase. In der Blase macht das Bakterium krank. Bei Frauen ist der Weg vom Darm zur Harnröhre sehr kurz. Darum bekommen Frauen öfter eine Blasenentzündung. **Woran merken Sie, dass Sie eine Blasenentzündung haben?** Manche Menschen merken diese Dinge bei einer Blasenentzündung: - Sie müssen oft auf die Toilette. - Sie haben Schmerzen oder es brennt beim Wasserlassen. - Sie haben Schmerzen im unteren Bauch. - Der Urin ist trüb oder riecht komisch. - Es ist manchmal Blut im Urin. **Was hilft bei einer Blasenentzündung?** Manchmal geht eine Blasenentzündung von alleine weg. Trinken Sie viel Wasser. So werden die Bakterien aus der Blase gespült. Halten Sie sich warm. Das hilft dem Körper. Es gibt spezielle Tees in der Apotheke. Diese Tees können helfen, zum Beispiel Blasentee. **Achtung:** Eine schlimme Blasenentzündung kann gefährlich sein. Dann können andere Teile vom Körper krank werden. Besonders bei diesen Menschen ist die Blasenentzündung gefährlich: - bei schwangeren Frauen, - bei Menschen mit schwacher Abwehr (schwaches Immunsystem), - bei Menschen mit anderen Krankheiten, - und bei Männern. Diese Menschen sollen immer zum Arzt gehen. Manche Menschen bekommen oft eine Blasenentzündung. Auch dann hilft der Arzt. Der Arzt kann Medikamente geben. Diese heißen Antibiotika. **Wie können Sie eine Blasenentzündung vermeiden?** Sie können sich selbst helfen, damit Sie keine Blasenentzündung bekommen: - Trinken Sie genug Wasser. - Gehen Sie mehrmals am Tag zur Toilette. - Nach dem Toilettengang: Wischen Sie von vorne nach hinten, niemals andersrum. - Tragen Sie Baumwoll-Unterwäsche. - Waschen Sie Ihre Unterwäsche bei 60 Grad. - Halten Sie sich warm. - Nach dem Schwimmen: Ziehen Sie schnell trockene Sachen an. **Wo bekommen Sie mehr Informationen?** Wenn Sie denken, Sie haben eine Blasenentzündung oder starke Schmerzen, gehen Sie immer zum Arzt. Der Arzt untersucht Sie und gibt Ihnen wichtige Informationen. Sie möchten mehr lesen? Im Internet gibt es weitere Informationen. Aber: Diese Infos sind vielleicht nicht in Leichter Sprache. **Wichtig:** Dieser Text ist nur eine Hilfe. Er ersetzt nicht den Arztbesuch. Wenn Sie krank sind, gehen Sie immer zum Arzt. Nur der Arzt kann genau sagen, was Sie tun müssen. --- **Hinweis:** Ich darf keine medizinische Beratung geben. Für genaue Fragen gehen Sie bitte immer zu einem Arzt oder fragen Sie eine Ärztin.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Hier ist der Text in Deutscher Leichter Sprache: **Blasenentzündung – Einfache Erklärung in Leichter Sprache** **1. Was ist eine Blasenentzündung?** Die Blase ist ein Organ im unteren Bauch. In der Blase sammelt sich der Urin. Wenn die Blase voll ist, müssen Sie auf die Toilette gehen und urinieren. Beim Mann und bei der Frau gibt es eine Harnröhre. Durch die Harnröhre fließt der Urin aus dem Körper. Die Blase kann sich entzünden. Das nennt man Blasenentzündung. Frauen bekommen öfter eine Blasenentzündung als Männer. Aber bei Männern ist die Blasenentzündung manchmal schlimmer. Darum sollen Männer immer zum Arzt gehen, wenn sie eine Blasenentzündung haben. **2. Warum bekommt man eine Blasenentzündung?** Eine Blasenentzündung kommt oft durch Bakterien. Bakterien sind kleine, für unser Auge unsichtbare Lebewesen. Meistens sind es Bakterien aus dem Darm. Diese Bakterien heißen: Escherichia coli. Im Darm helfen die Bakterien und sind nicht schlecht. Aber wenn sie in die Blase kommen, machen sie eine Entzündung. Frauen bekommen oft eine Blasenentzündung, weil der Ausgang vom Darm nah an der Harnröhre liegt. **3. Woran merken Sie eine Blasenentzündung?** Typische Anzeichen sind: - Sie müssen oft auf die Toilette. - Es tut beim Wasserlassen weh, oder es brennt. - Sie haben Schmerzen im unteren Bauch. Andere Anzeichen sind: - Der Urin sieht trübe aus oder riecht anders. - Es kann Blut im Urin sein. **4. Was können Sie tun bei einer Blasenentzündung?** Oft verschwindet die Blasenentzündung bei gesunden Menschen von alleine wieder. - Trinken Sie viel Wasser oder Tee. - Halten Sie sich warm. - Es gibt besondere Tees wie Blasen- oder Nierentee aus der Apotheke. Manchmal kann eine Blasenentzündung gefährlich werden. Vor allem für: - Schwangere Frauen, - Menschen mit schwachem Immunsystem, - Menschen mit bestimmten anderen Krankheiten, - und Männer. Diese Menschen sollen schon bei ersten Anzeichen zum Arzt gehen. Wenn Sie oft Blasenentzündungen haben, sprechen Sie mit Ihrem Arzt. Dann gibt es vielleicht spezielle Medikamente, zum Beispiel Antibiotika. **5. Wie können Sie eine Blasenentzündung vermeiden?** Tipps: - Trinken Sie jeden Tag genug Wasser. - Gehen Sie regelmäßig auf die Toilette. - Wischen Sie beim Toilettengang immer von vorne nach hinten. - Tragen Sie Unterwäsche aus Baumwolle. - Waschen Sie Ihre Unterwäsche bei 60 Grad. - Halten Sie sich warm. - Ziehen Sie nach dem Baden oder Schwimmen sofort trockene Sachen an. **6. Wo bekommen Sie mehr Informationen?** Wenn Sie denken, dass Sie eine Blasenentzündung haben, gehen Sie bitte zum Arzt. Er kann Sie untersuchen und Ihnen helfen. Dieser Text gibt nur allgemeine Infos. Er ersetzt nicht den Besuch beim Arzt. Wenn Sie krank sind oder eine Frage zu einer Krankheit haben, gehen Sie bitte immer zum Arzt. --- Möchten Sie den Text noch kürzer oder leichter?</t>
+          <t>Hier eine sprachwissenschaftlich vereinfachte, strukturierte und gekürzte Version des Textes nach deinen Vorgaben (Text-, Satz- und Wortebene): --- **Blasenentzündung** Eine Blasenentzündung ist eine Krankheit in der Blase. Blase: Ein Organ im Unterbauch. Dort wird Urin gesammelt. Urin: Flüssigkeit, die als „Pipi“ aus dem Körper kommt. Der Urin kommt durch die Harnröhre nach draußen. Harnröhre: Ein kleiner Kanal für Urin. Bei einer Frau geht die Harnröhre zur Scheide. Bei einem Mann geht die Harnröhre durch den Penis. Blase und Harnröhre können krank werden. Dann spricht man von einer Blasenentzündung. Entzündung: Eine Krankheit durch Bakterien. Männer bekommen selten eine Blasenentzündung. Für Männer ist sie oft gefährlicher. Deshalb sollen Männer immer zum Arzt gehen. **Ursachen (Gründe) für Blasenentzündung** Meistens machen Bakterien die Blase krank. Bakterien: Sehr kleine Lebewesen. Man kann sie nicht sehen. Ein Beispiel dafür sind Escherichia-coli-Bakterien. Diese Bakterien leben im Darm. Darm: Teil des Verdauungssystems. Im Darm sind die Bakterien gut. In der Blase machen sie krank. Bei Frauen ist der Weg vom Darm zur Harnröhre kurz. Frauen haben deshalb öfter eine Blasenentzündung als Männer. **Anzeichen für eine Blasenentzündung** - Sie müssen oft auf die Toilette. - Es kann beim Wasserlassen weh tun oder brennen. - Der Unterbauch tut weh. - Der Urin sieht trüb aus. Trüb bedeutet: nicht klar. - Der Urin riecht stark. - Es ist manchmal Blut im Urin. **Was tun bei Blasenentzündung?** Trinken Sie viel. Halten Sie sich warm. So werden Bakterien ausgespült. Es gibt Tees aus der Apotheke, zum Beispiel Blasen- oder Nierentee. Bei starken Schmerzen gehen Sie zum Arzt. Manche Menschen haben oft Blasenentzündung. Der Arzt gibt dann Medikamente. Medikamente: Mittel zum Heilen. Antibiotika: Medikamente gegen Bakterien. Für Schwangere, Menschen mit schwacher Abwehr und Männer ist eine Blasenentzündung immer gefährlich. **Vorbeugung (Schutz)** - Trinken Sie viel Wasser. - Gehen Sie regelmäßig zur Toilette. - Wischen Sie bei Frauen immer von vorne nach hinten. - Tragen Sie Baumwoll-Unterwäsche. Baumwolle: Ein Stoff aus Pflanzen. - Waschen Sie Unterwäsche heiß, zum Beispiel bei 60 Grad. - Halten Sie Ihren Körper warm. - Nach dem Schwimmen: ziehen Sie sich schnell trocken an. **Mehr Informationen** Gehen Sie zum Arzt, wenn Sie starke Beschwerden haben. Der Arzt kann Ihnen helfen und gibt Informationen. Dieser Text ersetzt nicht den Arztbesuch. --- Wenn du noch weitere Vereinfachungen oder Erklärungen brauchst, sag gern Bescheid!</t>
         </is>
       </c>
     </row>
@@ -732,12 +732,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Hier ist der Text in Deutsche Leichte Sprache übersetzt: --- **Fersensporn** Dieser Text informiert über das Thema Fersensporn in Leichter Sprache. **Was ist ein Fersensporn?** Im Fuß gibt es viele Knochen. Einer dieser Knochen heißt Fersenbein. Das Fersenbein ist in der Ferse. Manchmal wird das Fersenbein stark belastet. Dann kann sich ein Stück Knochen am Fersenbein bilden. Dieses Stück nennt man Fersensporn. Der Fersensporn entsteht oft dort, wo die Sehnen am Knochen festgemacht sind. Wenn der Fuß zu viel belastet wird, können dort kleine Verletzungen entstehen. Diese Stellen können sich entzünden und weh tun. Frauen bekommen öfter einen Fersensporn als Männer. Viele Menschen bekommen einen Fersensporn, wenn sie zwischen 50 und 60 Jahre alt sind. **Es gibt zwei Arten von Fersensporn:** 1. **Unterer Fersensporn:** - Er ist öfter als der obere Fersensporn. - Er entsteht an der Unterseite vom Fersenbein. - Die Stelle, die betroffen ist, liegt unter dem Fuß. - Das harte Stück Knochen zeigt in Richtung der Zehen. 2. **Oberer Fersensporn:** - Er ist seltener. - Er entsteht an der Rückseite vom Fersenbein. - Die Stelle ist dort, wo die Achillessehne ist. Manchmal tut ein Fersensporn nicht weh. Dann muss man ihn oft nicht behandeln. **Wie erkennt man einen Fersensporn?** Ein Fersensporn macht oft Schmerzen an der Ferse. Die Schmerzen können stechend oder brennend sein. Betroffene Menschen haben den Fuß oft zu stark belastet, zum Beispiel durch viel Laufen. Die Schmerzen sind meistens morgens schlimmer, wenn man aufsteht. Nach einer Weile werden die Schmerzen oft weniger. Auch Druck auf die Ferse tut weh. - Tut es unten an der Ferse weh? Dann ist es wahrscheinlich ein unterer Fersensporn. - Tut es hinten oben an der Ferse weh? Dann ist es wahrscheinlich ein oberer Fersensporn. Die Stelle kann auch dick und rot werden. Manche Menschen merken den Fersensporn gar nicht. Dann entdeckt vielleicht ein Arzt den Fersensporn, zum Beispiel bei einer Röntgenaufnahme. Wenn der Fersensporn keine Schmerzen macht, muss er meistens nicht behandelt werden. **Was verursacht einen Fersensporn?** Wenn man älter wird, wird das Fußgewölbe oft flacher. Das macht mehr Spannung für die Sehnen unter dem Fuß. An den Stellen können Reizungen entstehen. Der Körper lagert Kalk an diesen Stellen ab, um sie zu stärken. Bei zu viel Belastung entstehen Entzündungen und Schmerzen. **Das belastet die Füße:** - Übergewicht - Schwache Muskeln - Fehlstellungen der Wirbelsäule oder des Beckens - Falsche Schuhe - Viel Sport - Viel Stehen oder Gehen **Was kann man bei einem Fersensporn tun?** Der Arzt hat festgestellt, dass Sie einen Fersensporn haben? Dann sollten Sie Ihren Fuß für eine Weile schonen. Machen Sie keinen schweren Sport und gehen Sie keine langen Strecken zu Fuß. Weiche Fersenkissen können helfen. Manchmal hilft auch ein etwas höherer Absatz am Schuh. Wenn Sie starke Schmerzen haben, können Schmerzmittel helfen. **Wichtig:** Lassen Sie sich vom Arzt beraten! **Langfristige Tipps:** - Ihr Arzt kann Ihnen vielleicht Schuh-Einlagen geben. Sie werden für Sie gemacht und helfen Ihrem Fuß. - Versuchen Sie abzunehmen, wenn Sie Übergewicht haben. So werden die Füße weniger belastet. - Lassen Sie sich vom Arzt untersuchen, wenn Sie Schmerzen haben. Vielleicht liegt es an der Wirbelsäule oder am Becken. - Wärmen Sie die Füße vor dem Sport auf. - Machen Sie Pausen für die Füße. - Tragen Sie bequeme, gut gepolsterte Schuhe. Keine harten oder ganz flachen Schuhe. - Ein Physiotherapeut kann Ihnen Übungen zeigen. Die helfen Ihren Füßen und machen die Muskeln und Sehnen stärker. **Wo bekommen Sie noch mehr Informationen?** Sie wollen mehr über Fersensporn wissen? Mehr Informationen finden Sie [hier]. Achtung: Der Link ist nicht in Leichter Sprache. **Hinweis:** Die Informationen in diesem Text sind allgemein. Ein Arztbesuch wird dadurch nicht ersetzt. Wenn Sie sich krank fühlen oder Fragen zu Ihrer Gesundheit haben, gehen Sie bitte immer zum Arzt. --- Wenn Sie weitere Anpassungen für Leichte Sprache brauchen, sagen Sie gern Bescheid!</t>
+          <t>Hier ist der Text in Deutscher Leichter Sprache: --- **Fersensporn** Dieser Text erklärt den Fersensporn in Leichter Sprache. **Was ist ein Fersensporn?** Im Fuß sind viele Knochen. An der Ferse gibt es einen Knochen, das ist das Fersenbein. Manchmal wird das Fersenbein zu stark benutzt. Dann kann dort ein kleiner Knochenauswuchs entstehen. Das nennt man Fersensporn. Der Fersensporn tut oft weh. Er entsteht oft, wenn die Sehnen am Fersenbein verletzt sind. Viele Frauen bekommen einen Fersensporn. Vor allem zwischen 50 und 60 Jahren. **Arten von Fersensporn:** Es gibt zwei Arten von Fersensporn: - Den unteren Fersensporn: Er ist unter der Ferse. Das passiert meist bei Überlastung unter dem Fuß. - Den oberen Fersensporn: Er ist an der Rückseite der Ferse, wo die Achillessehne ist. Manchmal tut der Fersensporn nicht weh. Dann muss man nichts machen. **Wie erkennt man einen Fersensporn?** Ein Fersensporn macht meist Schmerzen. Die Schmerzen sind oft stechend oder brennend. Viele Menschen haben Schmerzen nach langem Gehen oder besonders morgens beim Aufstehen. - Sind die Schmerzen unter der Ferse? Dann ist es meist der untere Fersensporn. - Sind die Schmerzen hinten oben an der Ferse? Dann ist es meist der obere Fersensporn. Manchmal ist die Stelle dick und rot. Manchmal merkt man gar nichts vom Fersensporn. Dann wird er nur zufällig durch den Arzt entdeckt, zum Beispiel bei einem Röntgenbild. **Was sind die Ursachen für einen Fersensporn?** Bei älteren Menschen wird das Fußgewölbe flacher. Dadurch werden bestimmte Sehnen im Fuß stärker belastet. Der Körper lagert dann Kalk an diesen Stellen ein. Wenn die Stelle weiter belastet wird, kommt es zu Entzündungen und Schmerzen. Das belastet die Füße: - Übergewicht - Schwache Muskeln - Schiefe Wirbelsäule oder Becken - Falsche Schuhe - Viel Sport - Viele Stunden gehen oder stehen **Was kann man bei Fersensporn tun?** Wenn der Arzt sagt, Sie haben einen Fersensporn: - Schonen Sie den Fuß. - Machen Sie erstmal keinen Sport. - Gehen Sie nicht lange. Gepolsterte Fersenkissen helfen oft. Manchmal hilft ein etwas höherer Absatz am Schuh. Das nimmt den Druck von der Ferse. Bei starken Schmerzen können Medikamente helfen. Bitte fragen Sie Ihren Arzt! Sie können auch längerfristig etwas machen: - Vielleicht bekommen Sie Einlagen vom Arzt. - Weniger Gewicht hilft den Füßen. - Achten Sie auf Ihre Haltung und lassen Sie das vom Arzt prüfen. - Warm-ups vor Sport machen. - Pausen für die Füße einlegen. - Bequeme, gut gepolsterte Schuhe tragen. - Lassen Sie sich Übungen von einem Physiotherapeuten zeigen. **Wo bekommen Sie noch mehr Informationen?** Sie möchten mehr wissen? Im Internet gibt es weitere Informationen zum Fersensporn. Achtung: Die Infos sind dann nicht mehr in Leichter Sprache. Hinweis: Dieser Text ist allgemein und kein Ersatz für einen Arztbesuch. Haben Sie Beschwerden oder Fragen? Gehen Sie zum Arzt. --- Falls Sie weitere Vereinfachungen oder Kürzungen wünschen, sagen Sie bitte Bescheid!</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Hier ist der Text in Deutsche Leichte Sprache übersetzt: --- **Fersensporn** Dieser Text informiert über das Thema Fersensporn in Leichter Sprache. **Was ist ein Fersensporn?** Im Fuß gibt es viele Knochen. Einer dieser Knochen heißt Fersenbein. Das Fersenbein ist in der Ferse. Manchmal wird das Fersenbein stark belastet. Dann kann sich ein Stück Knochen am Fersenbein bilden. Dieses Stück nennt man Fersensporn. Der Fersensporn entsteht oft dort, wo die Sehnen am Knochen festgemacht sind. Wenn der Fuß zu viel belastet wird, können dort kleine Verletzungen entstehen. Diese Stellen können sich entzünden und weh tun. Frauen bekommen öfter einen Fersensporn als Männer. Viele Menschen bekommen einen Fersensporn, wenn sie zwischen 50 und 60 Jahre alt sind. **Es gibt zwei Arten von Fersensporn:** 1. **Unterer Fersensporn:** - Er ist öfter als der obere Fersensporn. - Er entsteht an der Unterseite vom Fersenbein. - Die Stelle, die betroffen ist, liegt unter dem Fuß. - Das harte Stück Knochen zeigt in Richtung der Zehen. 2. **Oberer Fersensporn:** - Er ist seltener. - Er entsteht an der Rückseite vom Fersenbein. - Die Stelle ist dort, wo die Achillessehne ist. Manchmal tut ein Fersensporn nicht weh. Dann muss man ihn oft nicht behandeln. **Wie erkennt man einen Fersensporn?** Ein Fersensporn macht oft Schmerzen an der Ferse. Die Schmerzen können stechend oder brennend sein. Betroffene Menschen haben den Fuß oft zu stark belastet, zum Beispiel durch viel Laufen. Die Schmerzen sind meistens morgens schlimmer, wenn man aufsteht. Nach einer Weile werden die Schmerzen oft weniger. Auch Druck auf die Ferse tut weh. - Tut es unten an der Ferse weh? Dann ist es wahrscheinlich ein unterer Fersensporn. - Tut es hinten oben an der Ferse weh? Dann ist es wahrscheinlich ein oberer Fersensporn. Die Stelle kann auch dick und rot werden. Manche Menschen merken den Fersensporn gar nicht. Dann entdeckt vielleicht ein Arzt den Fersensporn, zum Beispiel bei einer Röntgenaufnahme. Wenn der Fersensporn keine Schmerzen macht, muss er meistens nicht behandelt werden. **Was verursacht einen Fersensporn?** Wenn man älter wird, wird das Fußgewölbe oft flacher. Das macht mehr Spannung für die Sehnen unter dem Fuß. An den Stellen können Reizungen entstehen. Der Körper lagert Kalk an diesen Stellen ab, um sie zu stärken. Bei zu viel Belastung entstehen Entzündungen und Schmerzen. **Das belastet die Füße:** - Übergewicht - Schwache Muskeln - Fehlstellungen der Wirbelsäule oder des Beckens - Falsche Schuhe - Viel Sport - Viel Stehen oder Gehen **Was kann man bei einem Fersensporn tun?** Der Arzt hat festgestellt, dass Sie einen Fersensporn haben? Dann sollten Sie Ihren Fuß für eine Weile schonen. Machen Sie keinen schweren Sport und gehen Sie keine langen Strecken zu Fuß. Weiche Fersenkissen können helfen. Manchmal hilft auch ein etwas höherer Absatz am Schuh. Wenn Sie starke Schmerzen haben, können Schmerzmittel helfen. **Wichtig:** Lassen Sie sich vom Arzt beraten! **Langfristige Tipps:** - Ihr Arzt kann Ihnen vielleicht Schuh-Einlagen geben. Sie werden für Sie gemacht und helfen Ihrem Fuß. - Versuchen Sie abzunehmen, wenn Sie Übergewicht haben. So werden die Füße weniger belastet. - Lassen Sie sich vom Arzt untersuchen, wenn Sie Schmerzen haben. Vielleicht liegt es an der Wirbelsäule oder am Becken. - Wärmen Sie die Füße vor dem Sport auf. - Machen Sie Pausen für die Füße. - Tragen Sie bequeme, gut gepolsterte Schuhe. Keine harten oder ganz flachen Schuhe. - Ein Physiotherapeut kann Ihnen Übungen zeigen. Die helfen Ihren Füßen und machen die Muskeln und Sehnen stärker. **Wo bekommen Sie noch mehr Informationen?** Sie wollen mehr über Fersensporn wissen? Mehr Informationen finden Sie [hier]. Achtung: Der Link ist nicht in Leichter Sprache. **Hinweis:** Die Informationen in diesem Text sind allgemein. Ein Arztbesuch wird dadurch nicht ersetzt. Wenn Sie sich krank fühlen oder Fragen zu Ihrer Gesundheit haben, gehen Sie bitte immer zum Arzt. --- Wenn Sie weitere Anpassungen für Leichte Sprache brauchen, sagen Sie gern Bescheid!</t>
+          <t>Hier ist der Text nach Ihrem linguistischen Ansatz, vereinfacht auf Textebene, Satzebene und mit Worterklärungen: --- **Fersensporn** **Was ist ein Fersensporn?** Im Fuß gibt es viele Knochen. Die Ferse ist ein Teil des Fußes. Das Fersenbein ist der Knochen in der Ferse. Ein Fersensporn ist ein kleiner, harter Vorsprung am Fersenbein. Ein Vorsprung ist ein Teil, der heraussteht. Meist entsteht der Fersensporn durch starke Belastung. Belastung bedeutet, dass etwas stark benutzt wird. Dabei wird das Gewebe gereizt. Gewebe sind alle festen und weichen Teile im Körper. Die Stelle kann sich entzünden. Entzündung bedeutet: Die Stelle schwillt an und tut weh. **Wie erkennt man einen Fersensporn?** Ein Fersensporn macht Schmerzen in der Ferse. Schmerzen können stechen oder brennen. Die Stelle ist oft dick und rot. Das passiert oft nach viel Gehen oder Stehen. Der Schmerz ist morgens oft schlimmer. Manchmal fühlt man nichts und merkt den Fersensporn nicht. **Was sind die Ursachen?** - Viel Gewicht auf dem Fuß. - Schwache Muskeln. - Krummes Rückgrat oder Becken. Rückgrat ist der lange Knochen in der Mitte vom Rücken. Becken sind die Knochen im unteren Bauch. - Falsche Schuhe. - Viel Sport. - Lange stehen oder lange gehen. **Was kann man tun?** Fuß schonen heißt: wenig laufen und wenig Sport machen. Fersenkissen sind weiche Einlagen für die Schuhe. Ein Einlage ist etwas, das man in den Schuh legt. Hohe Absätze entlasten die Ferse manchmal. Entlasten heißt: Es gibt weniger Druck. Bei starken Schmerzen helfen Schmerzmittel. Fragen Sie immer den Arzt. Oft helfen Übungen für den Fuß. Ein Physiotherapeut zeigt die Übungen. Physiotherapeut ist ein Fachmann für Bewegung und Muskeln. Bequeme Schuhe sind wichtig. **Hinweis:** Der Arzt hilft Ihnen am besten. Die Informationen hier ersetzen keinen Arztbesuch. **Wo bekommt man mehr Informationen?** Mehr Informationen gibt es im Internet. Achtung: Die Informationen dort sind nicht in Leichter Sprache. --- Möchten Sie diesen Text noch weiter vereinfachen?</t>
         </is>
       </c>
     </row>
@@ -754,12 +754,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Hier ist der Text in Leichter Sprache: Herzinfarkt – Informationen in Leichter Sprache Was ist ein Herzinfarkt? Das Herz ist ein Muskel. Das Herz pumpt Blut durch den Körper. Das Herz braucht aber auch selbst Blut, damit es arbeiten kann. Um das Herz herum sind drei große Blutgefäße. Die Blutgefäße bringen Blut zum Herz. Im Blut sind Sauerstoff und Nährstoffe für das Herz. Bei einem Herzinfarkt ist eines dieser Blutgefäße verstopft. Das Herz bekommt dann nicht genug Blut. Das ist gefährlich. Die Verstopfung muss schnell wieder gelöst werden. Sonst sterben Teile vom Herz ab und das Herz kann nicht mehr gut arbeiten. Das kann lebensgefährlich sein. Was passiert bei einem Herzinfarkt? Blutgefäße kann man sich vorstellen wie Wasserrohre. In den Blutgefäßen gibt es manchmal Ablagerungen. Diese Ablagerungen nennt man Plaques. Sie bestehen aus Fett, Kalk oder entzündeten Zellen. Die Plaques sind zuerst mit einer dünnen Schicht bedeckt. Manchmal reißt diese Schicht ein. Dann heften sich sehr viele Blutzellen an die Stelle. Es entsteht ein Blutklumpen. Dieser Blutklumpen kann das Blutgefäß komplett verschließen. Das Herz bekommt dann kein Blut mehr. Das nennt man Herzinfarkt. Wie erkennt man einen Herzinfarkt? Ein Herzinfarkt kann verschiedene Anzeichen haben. Zum Beispiel: - Sehr starke Schmerzen in der Brust - Ein starkes Druckgefühl in der Brust - Schmerzen im linken Arm - Schmerzen im Hals oder im Kiefer - Kalter Schweiß - Übelkeit - Atemnot (schwere Luft bekommen) - Blasse Haut im Gesicht - Angst Achtung: Denken Sie, dass jemand einen Herzinfarkt hat? Dann rufen Sie sofort den Notarzt unter der Nummer 112. Was sind die Ursachen für einen Herzinfarkt? Es gibt Dinge, die machen einen Herzinfarkt wahrscheinlicher. Zum Beispiel: - Hohe Blutfette - Hoher Blutdruck - Diabetes (Zuckerkrankheit) - Rauchen - Ungesunde Ernährung - Übergewicht und wenig Bewegung - Stress Wie kann man einen Herzinfarkt vermeiden? Man kann selbst etwas gegen einen Herzinfarkt tun. Zum Beispiel: - Nicht rauchen - Gesund essen (wenig Fleisch, viel Obst und Gemüse, Pflanzenöl, Fisch) - Sich viel bewegen (spazieren gehen, Sport machen) Haben Sie hohen Blutdruck oder Diabetes? Dann sprechen Sie mit Ihrem Arzt. Diese Krankheiten können zu einem Herzinfarkt führen. Wo gibt es mehr Informationen? Möchten Sie mehr zum Thema Herzinfarkt lesen? Im Internet gibt es weitere Informationen. Manchmal sind diese Informationen nicht in Leichter Sprache. Wichtig: Dieser Text gibt nur allgemeine Hinweise. Der Text ersetzt keinen Arztbesuch. Wenn Sie sich krank fühlen oder Fragen haben, gehen Sie bitte immer zum Arzt. Nur der Arzt kann Ihnen genau helfen. --- Falls Sie den Text noch weiter vereinfachen oder kürzen möchten, geben Sie bitte Bescheid!</t>
+          <t>Natürlich, hier ist der Text in Deutscher Leichter Sprache: Herzinfarkt Dieser Text erklärt das Thema Herzinfarkt in Leichter Sprache. **Was ist ein Herzinfarkt?** Das Herz ist ein Muskel. Das Herz pumpt Blut durch den Körper. Das Herz braucht auch selbst Blut. Große Blutgefäße bringen Blut zum Herz. Mit dem Blut bekommt das Herz Sauerstoff und wichtige Stoffe. Bei einem Herzinfarkt ist ein Blutgefäß verstopft. Das Herz bekommt dann nicht genug Blut. Die Verstopfung muss schnell entfernt werden. Sonst sterben Teile vom Herz ab. Das ist gefährlich. **Was passiert bei einem Herzinfarkt?** Blutgefäße sind wie kleine Röhren im Körper. Blut fließt durch diese Röhren. An den Innenwänden von den Blutgefäßen können sich Ablagerungen bilden. Das heißt auch: Plaques. Plaques bestehen aus Fett, Kalk oder anderen Stoffen. Manchmal reißt die Oberfläche von so einer Ablagerung auf. Dann kommen viele Blutplättchen dazu. Es entsteht ein Blutklumpen. Das Blutgefäß wird verstopft. Jetzt bekommt das Herz nicht mehr genug Blut. Das ist ein Herzinfarkt. Ein Blutklumpen ist die häufigste Ursache für einen Herzinfarkt. **Wie erkennt man einen Herzinfarkt?** Ein Herzinfarkt hat oft diese Anzeichen: - starke Schmerzen in der Brust - Druck in der Brust - Schmerzen im linken Arm - Schmerzen im Hals oder Kiefer - kalter Schweiß - Übelkeit - Atemnot - blasses Gesicht - Angst Wichtig: Denken Sie, eine Person hat einen Herzinfarkt? Rufen Sie den Notruf: 112. **Was sind die Ursachen für einen Herzinfarkt?** Einige Sachen machen einen Herzinfarkt wahrscheinlicher: - Hohe Blutfett-Werte - hoher Blutdruck - Diabetes - Rauchen - ungesundes Essen - zu viel Gewicht und wenig Bewegung - Stress **Wie können Sie einen Herzinfarkt vermeiden?** Jeder Mensch kann etwas tun: - nicht rauchen - gesund essen (zum Beispiel wenig Fleisch, viel Obst und Gemüse, pflanzliche Öle, Fisch) - sich bewegen (spazieren gehen, Sport machen) Haben Sie hohen Blutdruck oder Diabetes? Sprechen Sie mit dem Arzt. Diese Krankheiten können zu einem Herzinfarkt führen. **Wo bekommen Sie noch mehr Informationen?** Sie möchten mehr wissen? Hier gibt es mehr Informationen über Herzinfarkt. Aber: Die Informationen sind nicht in Leichter Sprache. Wichtig: Dieser Text gibt nur allgemeine Informationen. Ein Besuch beim Arzt ist wichtig. Nur ein Arzt kann Ihnen genau helfen. Fühlen Sie sich krank? Haben Sie Fragen zu einer Krankheit? Sprechen Sie immer mit einem Arzt.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Hier ist der Text in Leichter Sprache: Herzinfarkt – Informationen in Leichter Sprache Was ist ein Herzinfarkt? Das Herz ist ein Muskel. Das Herz pumpt Blut durch den Körper. Das Herz braucht aber auch selbst Blut, damit es arbeiten kann. Um das Herz herum sind drei große Blutgefäße. Die Blutgefäße bringen Blut zum Herz. Im Blut sind Sauerstoff und Nährstoffe für das Herz. Bei einem Herzinfarkt ist eines dieser Blutgefäße verstopft. Das Herz bekommt dann nicht genug Blut. Das ist gefährlich. Die Verstopfung muss schnell wieder gelöst werden. Sonst sterben Teile vom Herz ab und das Herz kann nicht mehr gut arbeiten. Das kann lebensgefährlich sein. Was passiert bei einem Herzinfarkt? Blutgefäße kann man sich vorstellen wie Wasserrohre. In den Blutgefäßen gibt es manchmal Ablagerungen. Diese Ablagerungen nennt man Plaques. Sie bestehen aus Fett, Kalk oder entzündeten Zellen. Die Plaques sind zuerst mit einer dünnen Schicht bedeckt. Manchmal reißt diese Schicht ein. Dann heften sich sehr viele Blutzellen an die Stelle. Es entsteht ein Blutklumpen. Dieser Blutklumpen kann das Blutgefäß komplett verschließen. Das Herz bekommt dann kein Blut mehr. Das nennt man Herzinfarkt. Wie erkennt man einen Herzinfarkt? Ein Herzinfarkt kann verschiedene Anzeichen haben. Zum Beispiel: - Sehr starke Schmerzen in der Brust - Ein starkes Druckgefühl in der Brust - Schmerzen im linken Arm - Schmerzen im Hals oder im Kiefer - Kalter Schweiß - Übelkeit - Atemnot (schwere Luft bekommen) - Blasse Haut im Gesicht - Angst Achtung: Denken Sie, dass jemand einen Herzinfarkt hat? Dann rufen Sie sofort den Notarzt unter der Nummer 112. Was sind die Ursachen für einen Herzinfarkt? Es gibt Dinge, die machen einen Herzinfarkt wahrscheinlicher. Zum Beispiel: - Hohe Blutfette - Hoher Blutdruck - Diabetes (Zuckerkrankheit) - Rauchen - Ungesunde Ernährung - Übergewicht und wenig Bewegung - Stress Wie kann man einen Herzinfarkt vermeiden? Man kann selbst etwas gegen einen Herzinfarkt tun. Zum Beispiel: - Nicht rauchen - Gesund essen (wenig Fleisch, viel Obst und Gemüse, Pflanzenöl, Fisch) - Sich viel bewegen (spazieren gehen, Sport machen) Haben Sie hohen Blutdruck oder Diabetes? Dann sprechen Sie mit Ihrem Arzt. Diese Krankheiten können zu einem Herzinfarkt führen. Wo gibt es mehr Informationen? Möchten Sie mehr zum Thema Herzinfarkt lesen? Im Internet gibt es weitere Informationen. Manchmal sind diese Informationen nicht in Leichter Sprache. Wichtig: Dieser Text gibt nur allgemeine Hinweise. Der Text ersetzt keinen Arztbesuch. Wenn Sie sich krank fühlen oder Fragen haben, gehen Sie bitte immer zum Arzt. Nur der Arzt kann Ihnen genau helfen. --- Falls Sie den Text noch weiter vereinfachen oder kürzen möchten, geben Sie bitte Bescheid!</t>
+          <t>Gerne, hier ist der Text in einer stark vereinfachten und erklärenden Form, angepasst auf die Ebenen: --- **Herzinfarkt** **Was ist ein Herzinfarkt?** Das Herz ist ein Muskel. Muskel heißt: Er kann sich bewegen und etwas tun. Das Herz pumpt Blut durch den Körper. Blut bringt Sauerstoff und Nährstoffe. Nährstoffe sind wichtige Stoffe für unseren Körper. Das Herz braucht auch Blut für sich selbst. Ein Blutgefäß kann verstopfen. Blutgefäß ist ein Rohr für das Blut. Dann bekommt das Herz kein frisches Blut. Das nennt man Herzinfarkt. Die Zellen im Herz sterben ab. Zellen sind kleine Bausteine im Körper. Das ist gefährlich. **Was passiert bei einem Herzinfarkt?** Blutgefäße sind wie kleine Röhren. Im Inneren kann sich etwas ansammeln. Das nennt man Ablagerungen. Ablagerungen heißen auch Plaques. Plaques sind Fett, Kalk oder Entzündungszellen. Fett ist ein Stoff aus Nahrung. Kalk ist ein harter Stoff. Entzündungszellen sind Zellen, die helfen, wenn etwas krank wird. Manchmal reißt die Oberfläche von den Plaques. Dann entsteht ein Blutgerinnsel. Blutgerinnsel ist ein Klumpen aus Blut. Ein Blutgerinnsel verstopft das Blutgefäß. Das Herz bekommt kein Blut. Das ist ein Herzinfarkt. **Wie merkt man einen Herzinfarkt?** Es gibt Zeichen für einen Herzinfarkt: - Schmerzen in der Brust - Druck in der Brust - Schmerzen im linken Arm - Schmerzen im Hals oder Kiefer - Schweiß, der kalt ist - Übelkeit (schlechtes Gefühl im Bauch) - Atemnot (schwer Luft holen) - Blasses Gesicht (helle Haut) - Angst (schlechtes Gefühl) Wichtig: Sofort die Nummer 112 anrufen. Das ist der Notruf. **Was sind die Ursachen?** Verschiedene Dinge können einen Herzinfarkt machen: - Hohe Blutfette (viel Fett im Blut) - Hoher Blutdruck (das Blut drückt stark) - Diabetes (Krankheit mit Zucker im Blut) - Rauchen (Zigaretten) - Ungesundes Essen (zum Beispiel viel Fett, wenig Gemüse) - Viel Gewicht (Übergewicht) - Wenig Bewegung - Stress (zu viel Druck und Sorgen) **Wie kann man einen Herzinfarkt verhindern?** Jeder kann etwas tun: - Nicht rauchen - Gesund essen. Gesund essen heißt: wenig Fleisch, viel Obst, viel Gemüse, Pflanzenöl, Fisch. - Sich bewegen. Das heißt: Sport machen oder spazieren gehen. Wer hohen Blutdruck oder Diabetes hat, muss mit dem Arzt sprechen. Arzt ist ein Mensch, der Erkrankungen behandelt. **Mehr Informationen** Wer mehr wissen will, kann im Internet lesen. Wichtig: Dieser Text ersetzt keinen Besuch beim Arzt. Bei Krankheit immer zum Arzt gehen. --- Ich habe unwichtige Informationen entfernt, schwierige Wörter kurz erklärt und die Sätze stark vereinfacht.</t>
         </is>
       </c>
     </row>
@@ -776,12 +776,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Hier ist Ihre Übersetzung in Leichte Sprache (Leichte Sprache ist noch einfacher als Einfache Sprache): --- **Gutartige Prostata-Vergrößerung** Dieser Text erklärt die gutartige Prostata-Vergrößerung in Leichter Sprache. **Was ist eine gutartige Prostata-Vergrößerung?** Die Prostata ist eine Drüse im Körper. Nur Männer haben eine Prostata. Die Prostata ist unter der Blase, ganz nah bei der Harnröhre. Die Prostata ist ungefähr so groß wie eine Kastanie. Die Prostata hilft, das Sperma zu machen. Sperma ist wichtig, damit ein Mann ein Kind bekommen kann. Wenn Männer älter werden, wird die Prostata oft größer. Fast alle Männer über 75 Jahre haben eine größere Prostata. Manche Männer bekommen das schon ab 35 Jahren. Die Prostata liegt wie ein Ring um die Harnröhre. Wenn die Prostata größer wird, drückt sie auf die Harnröhre. Das kann Probleme beim Wasserlassen machen. Eine gutartige Prostata-Vergrößerung ist **keine** schlimme Krankheit. Sie ist nicht gefährlich. **Was sind die Ursachen für eine gutartige Prostata-Vergrößerung?** Die Forscher wissen nicht genau, warum manche Männer eine größere Prostata bekommen. Vielleicht gibt es diese Gründe: - Ein bestimmtes Hormon im Körper (es heißt Dihydro-Testosteron). - Wenn andere Männer in der Familie eine große Prostata haben, bekommt man es vielleicht auch. - Auch das Abwehrsystem im Körper kann ein Grund sein. **Wie merkt man, dass man eine gutartige Prostata-Vergrößerung hat?** Männer mit einer großen Prostata haben oft Probleme, wenn sie auf die Toilette gehen. Zum Beispiel: - Es ist schwer, mit dem Wasserlassen anzufangen. - Der Urinstrahl ist nicht so stark wie früher. - Es dauert länger, bis die Blase leer ist. - Nach dem Wasserlassen kommt manchmal noch ein bisschen Urin. - Man denkt, die Blase ist immer noch nicht ganz leer. Manche Männer haben auch Probleme, den Urin zu halten: - Sie müssen sehr dringend und oft auf die Toilette. - Sie schaffen es manchmal nicht rechtzeitig. Manche Männer haben auch andere Probleme. Zum Beispiel: - Probleme mit der Erektion (steifer Penis). - Probleme beim Samenerguss. Achtung: Diese Beschwerden können auch andere Ursachen haben. Wenn Sie solche Probleme haben, gehen Sie bitte zum Arzt. **Was kann man bei einer gutartigen Prostata-Vergrößerung tun?** Eine gutartige Prostata-Vergrößerung ist **nicht** gefährlich. Aber es können andere Krankheiten entstehen. Zum Beispiel: - Infektionen in der Harnröhre. - Harnsteine. Wenn Sie denken, Sie haben eine große Prostata: Gehen Sie zu Ihrem Arzt oder Ihrer Ärztin. Der Arzt kann Sie untersuchen und helfen. Meistens gibt es Medikamente gegen die Beschwerden. Wenn Sie nur wenig Beschwerden haben, brauchen Sie vielleicht keine Behandlung. Ihr Arzt sollte die Prostata regelmäßig kontrollieren. Wenn die Beschwerden schlimmer werden, sprechen Sie mit Ihrem Arzt. **Wo finden Sie mehr Informationen?** Sie möchten noch mehr wissen? Weitere Informationen finden Sie auch im Internet. Achtung: Diese Informationen sind vielleicht nicht in Leichter Sprache. --- Bitte sagen Sie Bescheid, wenn Sie den Text noch einfacher oder ausführlicher brauchen!</t>
+          <t>Hier ist der Text in Leichter Sprache: Gutartige Prostata-Vergrößerung Dieser Text erklärt in Leichter Sprache das Thema: gutartige Prostata-Vergrößerung. Stand: 12.06.2020 Inhalt: - Was ist eine gutartige Prostata-Vergrößerung? - Was sind die Ursachen? - Wie kann man sie erkennen? - Was kann man tun? - Wo gibt es mehr Informationen? --- **Was ist eine gutartige Prostata-Vergrößerung?** Die Prostata ist eine Drüse im Körper. Nur Männer haben eine Prostata. Frauen haben keine Prostata. Die Prostata liegt unter der Blase und umschließt die Harnröhre. Sie ist ungefähr so groß wie eine Kastanie. Die Prostata hilft, dass Samenflüssigkeit gemacht wird. Wenn Männer älter werden, wird die Prostata oft größer. Fast alle Männer mit 75 Jahren haben eine vergrößerte Prostata. Manche Männer bekommen schon ab 35 Jahren eine vergrößerte Prostata. Wenn die Prostata wächst, kann sie auf die Harnröhre drücken. Dadurch kann das Wasserlassen schwerer werden. Eine gutartige Prostata-Vergrößerung ist keine schlimme Krankheit. Sie ist nicht gefährlich. --- **Was sind die Ursachen für eine gutartige Prostata-Vergrößerung?** Forscher wissen nicht genau, warum die Prostata größer wird. Das könnten die Gründe sein: - Ein bestimmtes Hormon im Körper (Dihydro-Testosteron). - Vererbung: Wenn andere Männer in der Familie eine große Prostata haben, kann das Risiko höher sein. - Das Immunsystem: Vielleicht reagiert es anders auf die Prostata. --- **Wie kann man eine gutartige Prostata-Vergrößerung erkennen?** Viele Männer haben dann Beschwerden beim Wasserlassen oder beim Wasserhalten. Probleme beim Wasserlassen: - Es ist schwer, mit dem Wasserlassen zu beginnen. - Der Urinstrahl ist schwach. - Das Wasserlassen dauert lange. - Nach dem Wasserlassen tropft noch Urin nach. - Die Blase fühlt sich nach dem Wasserlassen nicht ganz leer an. Probleme beim Wasserhalten: - Plötzlich muss man ganz dringend zur Toilette. - Man schafft es vielleicht nicht rechtzeitig. - Man muss sehr oft auf die Toilette. Es können auch andere Beschwerden auftreten: - Probleme mit einer Erektion - Probleme beim Samenerguss Achtung: Solche Beschwerden können auch andere Ursachen haben. Wenn Sie Beschwerden haben oder unsicher sind, gehen Sie bitte zum Arzt. Nur der Arzt kann feststellen, was Sie haben. --- **Was können Sie tun?** Eine gutartige Prostata-Vergrößerung ist keine Krankheit und meistens nicht gefährlich. Aber durch eine Vergrößerung gibt es ein höheres Risiko für Infektionen und Harnsteine. Wenn Sie denken, dass Sie eine vergrößerte Prostata haben: Gehen Sie bitte zum Arzt. Der Arzt kann Sie untersuchen und die richtige Behandlung empfehlen. Manchmal helfen Medikamente gegen die Beschwerden. Wenn die Beschwerden nur gering sind, muss vielleicht gar nichts gemacht werden. Trotzdem sollte der Arzt regelmäßig prüfen, wie es Ihrer Prostata geht. --- **Wo gibt es mehr Informationen?** Sie möchten noch mehr wissen? Es gibt weitere Informationen im Internet. Achtung: Die weiteren Informationen sind nicht in Leichter Sprache.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Hier ist Ihre Übersetzung in Leichte Sprache (Leichte Sprache ist noch einfacher als Einfache Sprache): --- **Gutartige Prostata-Vergrößerung** Dieser Text erklärt die gutartige Prostata-Vergrößerung in Leichter Sprache. **Was ist eine gutartige Prostata-Vergrößerung?** Die Prostata ist eine Drüse im Körper. Nur Männer haben eine Prostata. Die Prostata ist unter der Blase, ganz nah bei der Harnröhre. Die Prostata ist ungefähr so groß wie eine Kastanie. Die Prostata hilft, das Sperma zu machen. Sperma ist wichtig, damit ein Mann ein Kind bekommen kann. Wenn Männer älter werden, wird die Prostata oft größer. Fast alle Männer über 75 Jahre haben eine größere Prostata. Manche Männer bekommen das schon ab 35 Jahren. Die Prostata liegt wie ein Ring um die Harnröhre. Wenn die Prostata größer wird, drückt sie auf die Harnröhre. Das kann Probleme beim Wasserlassen machen. Eine gutartige Prostata-Vergrößerung ist **keine** schlimme Krankheit. Sie ist nicht gefährlich. **Was sind die Ursachen für eine gutartige Prostata-Vergrößerung?** Die Forscher wissen nicht genau, warum manche Männer eine größere Prostata bekommen. Vielleicht gibt es diese Gründe: - Ein bestimmtes Hormon im Körper (es heißt Dihydro-Testosteron). - Wenn andere Männer in der Familie eine große Prostata haben, bekommt man es vielleicht auch. - Auch das Abwehrsystem im Körper kann ein Grund sein. **Wie merkt man, dass man eine gutartige Prostata-Vergrößerung hat?** Männer mit einer großen Prostata haben oft Probleme, wenn sie auf die Toilette gehen. Zum Beispiel: - Es ist schwer, mit dem Wasserlassen anzufangen. - Der Urinstrahl ist nicht so stark wie früher. - Es dauert länger, bis die Blase leer ist. - Nach dem Wasserlassen kommt manchmal noch ein bisschen Urin. - Man denkt, die Blase ist immer noch nicht ganz leer. Manche Männer haben auch Probleme, den Urin zu halten: - Sie müssen sehr dringend und oft auf die Toilette. - Sie schaffen es manchmal nicht rechtzeitig. Manche Männer haben auch andere Probleme. Zum Beispiel: - Probleme mit der Erektion (steifer Penis). - Probleme beim Samenerguss. Achtung: Diese Beschwerden können auch andere Ursachen haben. Wenn Sie solche Probleme haben, gehen Sie bitte zum Arzt. **Was kann man bei einer gutartigen Prostata-Vergrößerung tun?** Eine gutartige Prostata-Vergrößerung ist **nicht** gefährlich. Aber es können andere Krankheiten entstehen. Zum Beispiel: - Infektionen in der Harnröhre. - Harnsteine. Wenn Sie denken, Sie haben eine große Prostata: Gehen Sie zu Ihrem Arzt oder Ihrer Ärztin. Der Arzt kann Sie untersuchen und helfen. Meistens gibt es Medikamente gegen die Beschwerden. Wenn Sie nur wenig Beschwerden haben, brauchen Sie vielleicht keine Behandlung. Ihr Arzt sollte die Prostata regelmäßig kontrollieren. Wenn die Beschwerden schlimmer werden, sprechen Sie mit Ihrem Arzt. **Wo finden Sie mehr Informationen?** Sie möchten noch mehr wissen? Weitere Informationen finden Sie auch im Internet. Achtung: Diese Informationen sind vielleicht nicht in Leichter Sprache. --- Bitte sagen Sie Bescheid, wenn Sie den Text noch einfacher oder ausführlicher brauchen!</t>
+          <t>Hier ist der Text mit sprachlicher Vereinfachung nach Ihren Vorgaben: --- **Gutartige Prostata-Vergrößerung** **Was ist das?** Die Prostata ist eine Drüse. Eine Drüse ist ein Organ, das eine Flüssigkeit herstellt. Nur Männer haben eine Prostata. Sie liegt unter der Blase und umschließt die Harnröhre. Die Harnröhre ist ein Kanal. Durch sie kommt der Urin aus dem Körper. Die Prostata hilft, Sperma zu bilden. Sperma ist die Flüssigkeit, mit der ein Mann Kinder bekommen kann. Wenn Männer älter werden, wird die Prostata oft größer. Viele ältere Männer haben eine größere Prostata. Eine vergrößerte Prostata ist meist nicht gefährlich. **Ursachen** Die genaue Ursache ist nicht bekannt. Ein Grund kann ein Hormon sein. Ein Hormon ist ein Botenstoff im Körper. Das Hormon nennt man Dihydro-Testosteron. Manche Männer haben öfter eine große Prostata, weil es in der Familie schon vorkam. Das Immunsystem kann eine Rolle spielen. Das Immunsystem schützt den Körper vor Krankheiten. **Anzeichen (Beschwerden)** Manche Männer merken folgende Beschwerden: - Probleme beim Wasserlassen. Man kann nur schwer oder langsam Wasser lassen. Das Wasserlassen dauert länger. Manchmal fühlt sich die Blase danach nicht leer an. - Probleme beim Wasserhalten. Man muss sehr plötzlich und oft auf die Toilette. Man schafft es manchmal nicht rechtzeitig. - Selten gibt es Erektionsprobleme. Eine Erektion ist, wenn der Penis steif wird. - Selten gibt es Probleme beim Samenerguss. Samenerguss heißt, Sperma kommt aus dem Penis. Die Beschwerden können auch von anderen Krankheiten kommen. Wer Beschwerden hat, sollte zum Arzt gehen. **Was kann man tun?** Eine vergrößerte Prostata ist meistens nicht gefährlich. Man geht zum Arzt, wenn es Beschwerden gibt. Der Arzt prüft, ob und welche Behandlung notwendig ist. Es gibt Medikamente, die helfen können. Manchmal ist keine Behandlung nötig. Man sollte trotzdem regelmäßig zum Arzt gehen. **Mehr Informationen** Weitere Informationen gibt es im Internet. Die meisten Informationen sind nicht in Leichter Sprache. --- Mögliche schwierige Wörter wurden erklärt: - Drüse = Organ, das eine Flüssigkeit macht - Harnröhre = Kanal, durch den Urin aus dem Körper kommt - Sperma = Flüssigkeit für Kinder - Hormon = Botenstoff im Körper - Immunsystem = Schutz des Körpers - Erektion = Penis wird steif - Samenerguss = Sperma kommt raus</t>
         </is>
       </c>
     </row>
@@ -798,12 +798,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Gerne, hier ist der Text in Leichter Sprache: **Krampfadern** Dieser Text erklärt das Thema Krampfadern in Leichter Sprache. **Was sind Krampfadern?** Krampfadern sind besondere Blutgefäße. Diese Blutgefäße heißen Venen. Venen bringen das Blut zurück zum Herzen. Bei Krampfadern sind die Venen zu weit geworden. Man sieht Krampfadern oft als dicke, blaue Linien unter der Haut. Sie sehen manchmal aus wie Knoten oder Stränge. Krampfadern sind meist an den Beinen. Man kann aber auch am Becken Krampfadern bekommen. Manchmal bekommen auch junge Menschen Krampfadern. **Was ist die Ursache für Krampfadern?** Es gibt verschiedene Gründe für Krampfadern. Manchmal bekommt man Krampfadern, weil es andere Menschen in der Familie gibt, die auch Krampfadern haben. Frauen bekommen öfter Krampfadern als Männer. In der Schwangerschaft bekommen Frauen leichter Krampfadern. Wer viel im Stehen arbeitet, kann auch eher Krampfadern bekommen. Auch Übergewicht und wenig Bewegung machen Krampfadern wahrscheinlicher. Manchmal entstehen Krampfadern auch, weil man eine andere Krankheit hat. Zum Beispiel nach einer Thrombose. Das ist ein Blutpfropf in einer Vene. Oder bei einer Herzschwäche. Dann funktioniert das Herz nicht richtig. **Wie erkennt man Krampfadern?** Das sind mögliche Anzeichen für Krampfadern: - Die Beine fühlen sich schwer an. - Die Beine spannen oder brennen. - Man spürt Kribbeln oder Wärme in den Beinen. - Die Beine sind am Abend geschwollen oder unruhig. Die Beschwerden werden oft abends oder bei Wärme stärker. **Wichtig:** Haben Sie starke Schmerzen oder große Schwellungen im Bein? Rufen Sie sofort einen Arzt an! Haben Sie Atemnot oder Schmerzen in der Brust? Rufen Sie sofort den Notarzt an! Die Nummer ist 112. **Wie kann man Krampfadern vermeiden?** - Achten Sie auf Ihr Gewicht. - Bewegen Sie sich viel, gehen Sie zum Beispiel öfter Treppen. - Machen Sie besondere Übungen für die Beine (Venen-Gymnastik). - Duschen Sie die Beine kurz mit kaltem Wasser. **Achtung:** Bitte sprechen Sie immer erst mit Ihrem Arzt, bevor Sie etwas Neues ausprobieren. **Was kann man gegen Krampfadern tun?** Wenn Sie glauben, Sie haben Krampfadern: Gehen Sie zum Arzt. Der Arzt findet heraus, ob Sie Krampfadern haben und erklärt, welche Behandlung möglich ist. Behandlungs-Möglichkeiten sind zum Beispiel: - Massagen für die Beine (Lymphdrainage) - Cremes, Sprays oder Tabletten für die Venen - Spezielle Strümpfe oder Verbände (Kompressionstherapie) - Eine Behandlung, bei der die Krampfader verklebt wird (Sklerosierung) - Eine Behandlung mit Wärme - Eine kleine Operation, bei der der Arzt die Krampfadern entfernt **Wo gibt es mehr Informationen?** Sie möchten noch mehr über Krampfadern wissen? Sprechen Sie mit Ihrem Arzt! Oder lesen Sie weiter im Internet. Achtung: Im Internet sind die Informationen oft nicht in Leichter Sprache. **Wichtig:** Dieser Text gibt Ihnen allgemeine Informationen. Er ersetzt nicht den Besuch beim Arzt. Wenn Sie sich nicht wohl fühlen, gehen Sie immer zum Arzt. --- Soll ich den Text noch kürzer oder einfacher machen?</t>
+          <t>Hier ist der Text in Deutsche Leichte Sprache übersetzt: **Krampfadern** Dieser Text erklärt das Thema Krampfadern in Leichter Sprache. **Was sind Krampfadern?** Krampfadern sind Adern. Sie liegen unter der Haut. Sie bringen das Blut zurück zum Herzen. Krampfadern sind krankhafte Venen. Sie sind größer und dicker als normale Venen. Man sieht Krampfadern oft als blaue oder dicke Linien unter der Haut, meistens an den Beinen. Ärzte nennen Krampfadern auch „Varikose“. Krampfadern können bei jungen Menschen und Erwachsenen vorkommen. **Was sind die Ursachen für Krampfadern?** Es gibt viele Gründe für Krampfadern. Zum Beispiel: - Manche Menschen bekommen durch Vererbung leichter Krampfadern. - Frauen bekommen öfter Krampfadern als Männer. - Schwangere Frauen haben ein größeres Risiko. - Wer viel steht oder wenig Bewegung hat, kann Krampfadern bekommen. - Zu viel Körpergewicht kann Krampfadern verursachen. Manchmal entstehen Krampfadern durch andere Krankheiten, wie Thrombose oder Herzprobleme. **Wie erkennt man Krampfadern?** Krampfadern können verschiedene Beschwerden machen, zum Beispiel: - Die Beine fühlen sich schwer an. - Die Haut spannt. - Es kribbelt oder brennt. - Die Beine schwellen an. - Man fühlt sich am Abend oder in der Nacht unruhig. Die Beschwerden können abends schlimmer werden. Bei Frauen können die Beschwerden vor der Monatsblutung stärker sein. **Achtung:** Haben Sie starke Schmerzen oder eine dicke Schwellung am Bein? Rufen Sie einen Arzt an oder den Bereitschaftsdienst (116 117). Haben Sie Atemnot oder Schmerzen in der Brust? Rufen Sie sofort den Notruf (112). **Wie kann man Krampfadern vermeiden?** So können Sie weniger Risiko haben: - Versuchen Sie, nicht zu schwer zu sein. - Bewegen Sie sich regelmäßig; gehen Sie öfter die Treppe. - Machen Sie Übungen für die Beine. - Duschen Sie Ihre Unterschenkel manchmal mit kaltem Wasser. **Wichtig:** Fragen Sie Ihren Arzt, bevor Sie etwas tun. **Was können Sie gegen Krampfadern tun?** Wenn Sie denken, Sie haben Krampfadern, gehen Sie zum Arzt. Der Arzt untersucht Sie und sagt Ihnen, was Sie tun können. Zum Beispiel: - Eine besondere Massage (Lymphdrainage), die hilft, das Blut besser fließen zu lassen. - Medikamente oder Cremes, die gegen Schwellungen helfen. Sie ersetzen aber keine spezielle Kompressionsstrümpfe. - Kompressionsstrümpfe oder Verbände – diese drücken die Beine, so fließt das Blut besser. - Manche Krampfadern kann der Arzt mit einer besonderen Flüssigkeit behandeln. Diese verklebt die Ader, danach wird sie nicht mehr gebraucht. - Manchmal werden Krampfadern mit Wärme behandelt. - Der Arzt kann Krampfadern auch operativ entfernen. **Wo gibt es mehr Informationen?** Sie möchten mehr wissen? Sie finden weitere Informationen im Internet. Achten Sie darauf: Im Internet sind die Texte oft nicht in Leichter Sprache geschrieben. **Achtung:** Dieser Text ersetzt nicht den Besuch beim Arzt. Wenn Sie krank sind oder Fragen haben, gehen Sie immer zum Arzt!</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Gerne, hier ist der Text in Leichter Sprache: **Krampfadern** Dieser Text erklärt das Thema Krampfadern in Leichter Sprache. **Was sind Krampfadern?** Krampfadern sind besondere Blutgefäße. Diese Blutgefäße heißen Venen. Venen bringen das Blut zurück zum Herzen. Bei Krampfadern sind die Venen zu weit geworden. Man sieht Krampfadern oft als dicke, blaue Linien unter der Haut. Sie sehen manchmal aus wie Knoten oder Stränge. Krampfadern sind meist an den Beinen. Man kann aber auch am Becken Krampfadern bekommen. Manchmal bekommen auch junge Menschen Krampfadern. **Was ist die Ursache für Krampfadern?** Es gibt verschiedene Gründe für Krampfadern. Manchmal bekommt man Krampfadern, weil es andere Menschen in der Familie gibt, die auch Krampfadern haben. Frauen bekommen öfter Krampfadern als Männer. In der Schwangerschaft bekommen Frauen leichter Krampfadern. Wer viel im Stehen arbeitet, kann auch eher Krampfadern bekommen. Auch Übergewicht und wenig Bewegung machen Krampfadern wahrscheinlicher. Manchmal entstehen Krampfadern auch, weil man eine andere Krankheit hat. Zum Beispiel nach einer Thrombose. Das ist ein Blutpfropf in einer Vene. Oder bei einer Herzschwäche. Dann funktioniert das Herz nicht richtig. **Wie erkennt man Krampfadern?** Das sind mögliche Anzeichen für Krampfadern: - Die Beine fühlen sich schwer an. - Die Beine spannen oder brennen. - Man spürt Kribbeln oder Wärme in den Beinen. - Die Beine sind am Abend geschwollen oder unruhig. Die Beschwerden werden oft abends oder bei Wärme stärker. **Wichtig:** Haben Sie starke Schmerzen oder große Schwellungen im Bein? Rufen Sie sofort einen Arzt an! Haben Sie Atemnot oder Schmerzen in der Brust? Rufen Sie sofort den Notarzt an! Die Nummer ist 112. **Wie kann man Krampfadern vermeiden?** - Achten Sie auf Ihr Gewicht. - Bewegen Sie sich viel, gehen Sie zum Beispiel öfter Treppen. - Machen Sie besondere Übungen für die Beine (Venen-Gymnastik). - Duschen Sie die Beine kurz mit kaltem Wasser. **Achtung:** Bitte sprechen Sie immer erst mit Ihrem Arzt, bevor Sie etwas Neues ausprobieren. **Was kann man gegen Krampfadern tun?** Wenn Sie glauben, Sie haben Krampfadern: Gehen Sie zum Arzt. Der Arzt findet heraus, ob Sie Krampfadern haben und erklärt, welche Behandlung möglich ist. Behandlungs-Möglichkeiten sind zum Beispiel: - Massagen für die Beine (Lymphdrainage) - Cremes, Sprays oder Tabletten für die Venen - Spezielle Strümpfe oder Verbände (Kompressionstherapie) - Eine Behandlung, bei der die Krampfader verklebt wird (Sklerosierung) - Eine Behandlung mit Wärme - Eine kleine Operation, bei der der Arzt die Krampfadern entfernt **Wo gibt es mehr Informationen?** Sie möchten noch mehr über Krampfadern wissen? Sprechen Sie mit Ihrem Arzt! Oder lesen Sie weiter im Internet. Achtung: Im Internet sind die Informationen oft nicht in Leichter Sprache. **Wichtig:** Dieser Text gibt Ihnen allgemeine Informationen. Er ersetzt nicht den Besuch beim Arzt. Wenn Sie sich nicht wohl fühlen, gehen Sie immer zum Arzt. --- Soll ich den Text noch kürzer oder einfacher machen?</t>
+          <t>Hier ist der Text, reformuliert nach Ihren linguistischen Vorgaben: --- **Krampfadern** Krampfadern sind Adern. Krampfadern liegen unter der Haut. Sie sind dick und blau. Sie sieht man oft an den Beinen. Adern bringen Blut zurück zum Herzen. Bei Krampfadern sind Adern größer als normal. Diese Adern heißen Venen. **Ursachen für Krampfadern** Es gibt verschiedene Gründe: - Vererbung: Man bekommt Krampfadern leichter, wenn andere in der Familie sie haben. *(Vererbung bedeutet: Man bekommt etwas von den Eltern oder Großeltern.)* - Frauen bekommen öfter Krampfadern als Männer. - Schwangerschaft: Schwangere bekommen manchmal Krampfadern. *(Schwangerschaft bedeutet: Eine Frau bekommt ein Kind.)* - Viel stehen oder wenig Bewegung kann Krampfadern machen. - Übergewicht kann Krampfadern machen. *(Übergewicht bedeutet: Man wiegt zu viel.)* - Krankheit: Manche Krankheiten machen Krampfadern. Beispiel: Thrombose. *(Thrombose bedeutet: Es gibt ein Blutgerinnsel in einer Ader. Die Ader ist dann verstopft.)* Beispiel: Herzschwäche. *(Herzschwäche bedeutet: Das Herz arbeitet nicht gut.)* **Wie erkennt man Krampfadern?** Es gibt Zeichen: - Die Beine sind schwer oder dick. - Die Beine spannen. - Die Beine kribbeln oder brennen. - Die Beine sind warm. - Die Beine sind abends oder nachts unruhig. **Achtung:** Haben Sie Schmerzen oder eine dicke Schwellung? Dann rufen Sie den Arzt. Müssen Sie schwer atmen oder haben Sie Schmerzen in der Brust? Rufen Sie den Notarzt. **Wie kann man Krampfadern vermeiden?** Hier gibt es Hilfen: - Weniger wiegen. - Viel bewegen. - Übungen für die Beine machen. - Beine mit kaltem Wasser abduschen. Sprechen Sie vorher mit dem Arzt. **Was kann man gegen Krampfadern tun?** Gehen Sie zum Arzt. Der Arzt hilft. Es gibt verschiedene Möglichkeiten: - Lymphdrainage ist eine Massage. *(Lymphdrainage bedeutet: Der Arzt massiert das Bein, das hilft dem Blut.)* - Venenmittel sind Cremes oder Tabletten. *(Venenmittel bedeutet: Ein Medikament hilft dem Blut.)* - Kompressionsstrümpfe drücken die Beine. *(Kompression bedeutet: Druck auf das Bein.)* - Der Arzt kann die Adern verkleben oder entfernen. *(Verkleben heißt: Die Ader wird mit einer Flüssigkeit geschlossen.)* *(Entfernen heißt: Die Ader wird herausgenommen.)* **Wichtiger Hinweis:** Der Text ersetzt nicht den Arztbesuch. Gehen Sie immer zum Arzt bei Beschwerden. ---</t>
         </is>
       </c>
     </row>
@@ -820,12 +820,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Hier ist Ihr Text in Deutsche Leichte Sprache übersetzt: --- **Hexenschuss** Dieser Text gibt Ihnen einfache Informationen über Hexenschuss. **Was ist ein Hexenschuss?** Ein Hexenschuss ist ein starker Schmerz im unteren Rücken. Der Schmerz kommt plötzlich. Die meisten Menschen bekommen einmal in ihrem Leben einen Hexenschuss. Menschen zwischen 30 und 50 Jahren haben oft einen Hexenschuss. Manchmal geht der Hexenschuss nach ein paar Tagen von selbst weg. Manchmal dauert es länger. Dann kann es vier bis sechs Wochen dauern, bis der Schmerz weg ist. **Was sind die Ursachen für einen Hexenschuss?** Es gibt viele Gründe für einen Hexenschuss. Beispiele sind: - schweres Tragen oder Heben, - falsche Bewegungen. Auch wenig Bewegung, Stress oder kaltes Wetter können den Schmerz schlimmer machen. **Wie merkt man einen Hexenschuss?** Nach einer falschen Bewegung oder schwerem Heben kommt der Schmerz oft erst nach ein paar Stunden oder Tagen. Die Schmerzen sind stark und oft stechend oder bohrend. Die Schmerzen sind unten im Rücken. Viele Menschen können sich dann nicht mehr gut bewegen. Manche können nicht mehr gerade stehen. **Was können Sie bei Hexenschuss tun?** - Bewegen Sie sich vorsichtig. - Legen Sie eine Wärmflasche auf den Rücken. - Bei starken Schmerzen kann eine Schmerztablette helfen. Sprechen Sie vorher immer mit einem Arzt. - Sie können sich auch ins Stufenbett legen: Legen Sie sich auf den Rücken. Legen Sie die Unterschenkel auf einen Stuhl oder Hocker. Dann entspannen Sie sich. Wenn die Schmerzen nach drei Tagen noch da sind oder schlimmer werden, gehen Sie bitte zum Arzt. Gehen Sie sofort zum Arzt, wenn: - Ihre Beine weh tun oder taub sind, - Ihre Beine kribbeln, - Sie Fieber oder Schüttelfrost haben, - Sie eine andere Krankheit wie Diabetes oder Osteoporose haben. Rufen Sie den Notarzt, wenn: - Sie Ihre Beine nicht mehr bewegen können (Lähmung), - Sie im Unterleib nichts mehr fühlen, - Sie Probleme mit Wasserlassen oder Stuhlgang haben. **Wie können Sie einen Hexenschuss vermeiden?** Sie können etwas tun, damit Sie keinen Hexenschuss bekommen: - Bewegen Sie sich regelmäßig. - Machen Sie Übungen für Rücken und Bauch. - Wärmen Sie sich vor dem Sport gut auf. - Heben Sie keine schweren Sachen. - Vermeiden Sie falsche Bewegung oder Belastung der Wirbelsäule. - Versuchen Sie, kein Übergewicht zu bekommen. - Machen Sie Ihren Arbeitsplatz rückenfreundlich. **Wo gibt es mehr Informationen?** Sie wollen mehr wissen? Hier gibt es mehr Informationen: (Achtung: Der Link ist nicht mehr in Leichter Sprache.) **Wichtig:** Dieser Text gibt Ihnen nur allgemeine Informationen. Der Text ersetzt nicht den Besuch beim Arzt. Wenn Sie krank sind oder Fragen haben, gehen Sie bitte immer zu einem Arzt. --- Gerne kann ich noch weitere Passagen vereinfachen oder kürzen.</t>
+          <t>Hier ist der Text in Deutscher Leichter Sprache: Hexenschuss Was ist ein Hexenschuss? Ein Hexenschuss ist ein starker Schmerz im unteren Rücken. Die Schmerzen kommen meistens plötzlich. Fast alle Menschen haben einmal im Leben einen Hexenschuss. Besonders Menschen zwischen 30 und 50 Jahren bekommen oft einen Hexenschuss. Manchmal geht der Schmerz nach ein paar Tagen wieder weg. Manchmal dauert es länger, bis es besser wird. Was sind die Ursachen von einem Hexenschuss? Ein Hexenschuss kann viele Gründe haben, zum Beispiel: - Sie heben etwas Schweres - Sie machen eine falsche Bewegung Auch Stress, wenig Bewegung und kaltes oder nasses Wetter können den Schmerz schlimmer machen. Wie kann man einen Hexenschuss erkennen? Ein Hexenschuss tut plötzlich sehr weh. Die Schmerzen sind im unteren Rücken. Der Schmerz kann bohrend oder stechend sein. Viele Menschen können sich schlecht bewegen und stehen nicht gerade. Sie nehmen automatisch eine Haltung, die etwas hilft. Was können Sie gegen einen Hexenschuss tun? Wenn Sie Rückenschmerzen haben, probieren Sie zum Beispiel: - Bewegen Sie sich vorsichtig und bleiben Sie aktiv. - Legen Sie eine warme Flasche oder ein warmes Tuch auf Ihren Rücken. - Sie können auch eine Schmerztablette nehmen. Sprechen Sie vorher immer mit einem Arzt und lesen Sie die Packungsbeilage. Eine gute Haltung beim Liegen kann helfen: - Legen Sie sich auf den Rücken. - Legen Sie ein gerolltes Handtuch unter Ihren Hals. - Legen Sie Ihre Unterschenkel auf einen Stuhl, Hocker oder auf ein Kissen. Wann sollten Sie zum Arzt gehen? Gehen Sie zum Arzt, wenn - die Schmerzen schlimmer werden, - die Schmerzen nach drei Tagen immer noch da sind, - Ihre Beine weh tun, - Ihre Beine taub sind, - Ihre Beine kribbeln, - Sie Fieber oder Schüttelfrost haben, - Sie eine schwere Krankheit wie Diabetes oder Osteoporose haben. Rufen Sie sofort den Notarzt, wenn - Sie eine Lähmung in den Beinen bekommen, - Sie ein taubes Gefühl im Unterleib haben, - Sie die Blase oder den Darm nicht kontrollieren können. Wie können Sie einen Hexenschuss vermeiden? Sie wollen weniger Risiko für einen Hexenschuss? Dann: - Bewegen Sie sich regelmäßig, - machen Sie Übungen für Bauch und Rücken, - wärmen Sie sich vor dem Sport auf, - heben Sie nichts Schweres, - achten Sie auf eine gute Haltung, - vermeiden Sie Übergewicht, - machen Sie Ihren Arbeitsplatz rückenfreundlich. Wo bekommen Sie noch mehr Informationen? Sie wollen noch mehr wissen? Es gibt viele Informationen im Internet oder beim Arzt. Achtung: Dieser Text ist nur eine allgemeine Information. Wenn Sie krank sind, gehen Sie zum Arzt. Nur der Arzt kann Ihnen genau helfen. Gerne kann ich weitere Teile so übersetzen, oder andere Texte in Leichte Sprache umwandeln.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Hier ist Ihr Text in Deutsche Leichte Sprache übersetzt: --- **Hexenschuss** Dieser Text gibt Ihnen einfache Informationen über Hexenschuss. **Was ist ein Hexenschuss?** Ein Hexenschuss ist ein starker Schmerz im unteren Rücken. Der Schmerz kommt plötzlich. Die meisten Menschen bekommen einmal in ihrem Leben einen Hexenschuss. Menschen zwischen 30 und 50 Jahren haben oft einen Hexenschuss. Manchmal geht der Hexenschuss nach ein paar Tagen von selbst weg. Manchmal dauert es länger. Dann kann es vier bis sechs Wochen dauern, bis der Schmerz weg ist. **Was sind die Ursachen für einen Hexenschuss?** Es gibt viele Gründe für einen Hexenschuss. Beispiele sind: - schweres Tragen oder Heben, - falsche Bewegungen. Auch wenig Bewegung, Stress oder kaltes Wetter können den Schmerz schlimmer machen. **Wie merkt man einen Hexenschuss?** Nach einer falschen Bewegung oder schwerem Heben kommt der Schmerz oft erst nach ein paar Stunden oder Tagen. Die Schmerzen sind stark und oft stechend oder bohrend. Die Schmerzen sind unten im Rücken. Viele Menschen können sich dann nicht mehr gut bewegen. Manche können nicht mehr gerade stehen. **Was können Sie bei Hexenschuss tun?** - Bewegen Sie sich vorsichtig. - Legen Sie eine Wärmflasche auf den Rücken. - Bei starken Schmerzen kann eine Schmerztablette helfen. Sprechen Sie vorher immer mit einem Arzt. - Sie können sich auch ins Stufenbett legen: Legen Sie sich auf den Rücken. Legen Sie die Unterschenkel auf einen Stuhl oder Hocker. Dann entspannen Sie sich. Wenn die Schmerzen nach drei Tagen noch da sind oder schlimmer werden, gehen Sie bitte zum Arzt. Gehen Sie sofort zum Arzt, wenn: - Ihre Beine weh tun oder taub sind, - Ihre Beine kribbeln, - Sie Fieber oder Schüttelfrost haben, - Sie eine andere Krankheit wie Diabetes oder Osteoporose haben. Rufen Sie den Notarzt, wenn: - Sie Ihre Beine nicht mehr bewegen können (Lähmung), - Sie im Unterleib nichts mehr fühlen, - Sie Probleme mit Wasserlassen oder Stuhlgang haben. **Wie können Sie einen Hexenschuss vermeiden?** Sie können etwas tun, damit Sie keinen Hexenschuss bekommen: - Bewegen Sie sich regelmäßig. - Machen Sie Übungen für Rücken und Bauch. - Wärmen Sie sich vor dem Sport gut auf. - Heben Sie keine schweren Sachen. - Vermeiden Sie falsche Bewegung oder Belastung der Wirbelsäule. - Versuchen Sie, kein Übergewicht zu bekommen. - Machen Sie Ihren Arbeitsplatz rückenfreundlich. **Wo gibt es mehr Informationen?** Sie wollen mehr wissen? Hier gibt es mehr Informationen: (Achtung: Der Link ist nicht mehr in Leichter Sprache.) **Wichtig:** Dieser Text gibt Ihnen nur allgemeine Informationen. Der Text ersetzt nicht den Besuch beim Arzt. Wenn Sie krank sind oder Fragen haben, gehen Sie bitte immer zu einem Arzt. --- Gerne kann ich noch weitere Passagen vereinfachen oder kürzen.</t>
+          <t>Gerne, hier eine Überarbeitung nach Ihrem linguistischen Ansatz (sprachlich vereinfacht, ohne unwichtige Informationen, mit erklärten Begriffen): --- # Hexenschuss ## Was ist ein Hexenschuss? Ein Hexenschuss ist ein starker Schmerz im Rücken. Schmerz ist ein unangenehmes Gefühl. Rücken ist der Teil des Körpers hinter dem Bauch, also der Teil, auf dem man sitzt oder liegt. Die Schmerzen sind meistens im unteren Rücken (der Bereich über dem Gesäß). Oft kommt der Schmerz plötzlich. Viele Menschen zwischen 30 und 50 Jahren bekommen einen Hexenschuss. ## Ursachen von Hexenschuss Ursache ist der Grund für etwas. Ein Hexenschuss kann durch schweres Heben kommen. Schwer bedeutet, etwas wiegt viel. Es gibt den Hexenschuss auch nach einer falschen Bewegung. Bewegung heißt, man verändert seine Körperhaltung. Manchmal gibt es noch andere Gründe: - Stress (das bedeutet: viel seelischer Druck), - wenig Bewegung, - kaltes Wetter oder Feuchtigkeit (Feuchtigkeit bedeutet: es ist nass). ## Wie erkennt man einen Hexenschuss? Plötzlich tut der Rücken stark weh. Der Schmerz ist stechend oder bohrend. Stechend heißt: Der Schmerz fühlt sich scharf an. Bohrend heißt: Der Schmerz ist ständig da. Man kann sich schwer bewegen. Viele Menschen stehen krumm, weil das weniger Schmerzen macht. ## Was hilft bei Hexenschuss? Das können Sie tun: - Bewegen Sie sich vorsichtig weiter. - Legen Sie Wärme auf den Rücken, zum Beispiel eine warme Flasche. - Wenn der Schmerz sehr stark ist, können Sie eine Schmerztablette nehmen. Tablette ist eine Medizin gegen Schmerzen. Sprechen Sie davor mit dem Arzt. Manchmal hilft das sogenannte Stufenbett: - Legen Sie sich auf den Rücken. - Rollen Sie ein Handtuch und legen Sie es unter Ihren Hals. - Legen Sie die Unterschenkel im rechten Winkel auf einen Stuhl. (Der rechte Winkel ist eine Form, bei der Ober- und Unterschenkel wie ein "L" sind.) ## Wann muss ich zum Arzt gehen? Ein Arzt ist eine Person, die Krankheiten erkennt und behandelt. Gehen Sie zum Arzt, wenn: - Die Schmerzen nach drei Tagen nicht besser werden. - Die Beine schmerzen. - Die Beine sind taub (also Sie fühlen das Bein nicht mehr). - Die Beine kribbeln (das bedeutet: es fühlt sich wie kleine Nadeln an). - Sie Fieber oder Schüttelfrost haben. Fieber ist, wenn der Körper sehr warm ist. Schüttelfrost ist Zittern, weil einem plötzlich kalt ist. - Sie Diabetes oder Osteoporose haben. Diabetes ist eine Krankheit mit hohem Zucker im Blut. Osteoporose ist eine Krankheit mit schwachen Knochen. Rufen Sie den Notarzt: - Wenn Sie Lähmungen haben (Lähmung heißt: Sie können Ihren Körperteil nicht mehr bewegen). - Wenn Sie im Unterleib ein taubes Gefühl haben. Der Unterleib ist der Körperteil unter dem Bauch. - Wenn Sie Wasser lassen oder Stuhlgang nicht kontrollieren können. Blase ist der Teil von Körper, wo Urin gemacht wird. Darm ist der Teil, wo Stuhl gemacht wird. ## Wie vermeidet man einen Hexenschuss? Das können Sie tun: - Bewegen Sie sich oft. - Machen Sie Übungen für Bauch und Rücken (Gymnastik). Gymnastik ist Sport für Kraft und Bewegung. - Heben Sie keine schweren Dinge. - Halten Sie Ihren Körper in guter Stellung. - Haben Sie gesundes Gewicht. Übergewicht heißt: zu schwer sein. - Machen Sie Ihr Büro rückenschonend. ## Wo bekomme ich mehr Infos? Mehr Informationen gibt es im Internet oder beim Arzt. --- **Wichtige Info:** Dieser Text ist nur eine Hilfe. Wenn Sie Schmerzen haben, gehen Sie zum Arzt! Nur ein Arzt kann genau helfen.</t>
         </is>
       </c>
     </row>
@@ -842,12 +842,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Hier ist der Text in Deutscher Leichter Sprache: --- **Wechseljahre** Dieser Text erklärt die Wechseljahre in Leichter Sprache. **Was sind die Wechseljahre?** Die Wechseljahre sind ein Abschnitt im Leben einer Frau. Die Wechseljahre sind keine Krankheit. In dieser Zeit verändert sich der Körper der Frau. Es gibt weniger Hormone. Nach den Wechseljahren kann eine Frau keine Kinder mehr bekommen. Manchmal bekommen Frauen Beschwerden, zum Beispiel starkes Schwitzen. Die Wechseljahre sind ganz normal. Alle Frauen erleben die Wechseljahre. Die Wechseljahre beginnen meist mit etwa 45 Jahren und dauern ungefähr 5 Jahre. Bei manchen Frauen beginnen sie später oder dauern länger. **Was passiert in den Wechseljahren?** Im Körper einer Frau gibt es wichtige Hormone: - Progesteron - Östrogen Diese Hormone sind wichtig für eine Schwangerschaft. In den Wechseljahren werden diese Hormone weniger. Darum können Frauen nach den Wechseljahren nicht mehr schwanger werden. **Woran erkennt man die Wechseljahre?** Es gibt verschiedene Zeichen für die Wechseljahre. Typische Beschwerden sind: - Hitzewallungen (plötzliche Wärme im Körper) - starkes Schwitzen Andere Beschwerden können sein: - Trockenheit in der Scheide - Probleme beim Schlafen - Stimmungsschwankungen (Laune ändert sich oft) - mehr Gewicht Achtung: Diese Beschwerden können auch andere Gründe haben. Ein Arzt kann herausfinden, woher die Beschwerden kommen. Frauen haben in den Wechseljahren auch ein höheres Risiko für Osteoporose (Knochenschwund). Die Knochen werden schwächer und können leichter brechen. Das hilft: - gesunde Ernährung - viel Bewegung Die Monatsblutung (Periode) verändert sich in den Wechseljahren. Sie kommt nicht mehr regelmäßig. Die Abstände zwischen den Blutungen können kürzer oder länger werden. Manchmal wird die Blutung stärker. Am Ende der Wechseljahre hört die Monatsblutung ganz auf. **Was kann man gegen Beschwerden tun?** Die Wechseljahre sind keine Krankheit. Viele Frauen brauchen keine Behandlung. Wenn die Beschwerden sehr stark sind, kann eine Hormon-Therapie helfen. **Hormon-Therapie** Frauen bekommen in der Hormon-Therapie spezielle Hormone als Medikamente, zum Beispiel Tabletten oder Pflaster. Diese Hormone können die Beschwerden verringern. Aber: Die Hormon-Therapie ist nicht immer gut. Sie kann Nebenwirkungen haben, zum Beispiel: - höheres Risiko für Blutgerinnsel - höheres Risiko für Brustkrebs Deshalb entscheidet der Arzt zusammen mit der Frau, ob eine Hormon-Therapie notwendig ist. **Andere Hilfen** Es gibt auch pflanzliche Mittel gegen Beschwerden. Zum Beispiel: - Traubensilberkerze - Mönchspfeffer Ob diese Mittel helfen, ist nicht sicher. Bei Schlafproblemen können helfen: - Baldrian - Melisse - Passionsblume Achtung: Auch pflanzliche Mittel können Nebenwirkungen haben. Fragen Sie immer zuerst den Arzt! Ein gesunder Lebensstil hilft auch: - gesund essen - viel Bewegung - genug Entspannung **Wo bekommt man mehr Informationen?** Sie möchten mehr über die Wechseljahre wissen? Oder Sie haben starke Beschwerden? Sprechen Sie mit Ihrem Arzt. Nur Ihr Arzt kann Ihnen genau helfen. Sie wollen mehr lesen? Weitere Infos finden Sie im Internet. Aber: Nicht alle Informationen sind in Leichter Sprache. Achtung: Dieser Text gibt nur allgemeine Tipps. Wenn Sie sich krank fühlen, gehen Sie bitte immer zum Arzt! --- Soll dieser Text noch kürzer oder einfacher werden?</t>
+          <t>Hier ist Ihr Text in Deutscher Leichter Sprache: --- **Wechseljahre** Hier finden Sie Informationen über die Wechseljahre in Leichter Sprache.&lt;br&gt; (Stand: 10.02.2023) **Was sind die Wechseljahre?** Wechseljahre sind eine besondere Zeit im Leben einer Frau. Sie sind keine Krankheit. Im Körper verändert sich das Zusammenspiel der Hormone. Deshalb können Frauen nach den Wechseljahren keine Kinder mehr bekommen. In den Wechseljahren können Frauen Beschwerden haben, zum Beispiel: starkes Schwitzen. Wechseljahre sind ganz normal. Alle Frauen erleben sie. Meist beginnen die Wechseljahre ab Mitte 40 oder etwas später. Sie dauern ungefähr 5 Jahre. Aber das ist bei jeder Frau verschieden. **Was passiert in den Wechseljahren?** Jeder Mensch hat Hormone. Die wichtigsten Hormone bei Frauen heißen: - Progesteron - Östrogen Diese Hormone sind wichtig für eine Schwangerschaft. In den Wechseljahren gibt es weniger von diesen Hormonen. Deshalb können Frauen danach nicht mehr schwanger werden. **Woran erkennen Sie die Wechseljahre?** Es gibt verschiedene Anzeichen für die Wechseljahre. Typische Beschwerden sind zum Beispiel: - Hitzewallungen - starkes Schwitzen Andere Beschwerden können sein: - trockene Scheide - Schlafstörungen - Stimmungsschwankungen - Gewichtszunahme Achtung: Diese Beschwerden kommen oft in den Wechseljahren vor. Es gibt aber auch andere Gründe für diese Beschwerden. Ein Arzt kann genau untersuchen, was die Ursache ist. In den Wechseljahren werden die Knochen vielleicht weniger stabil. Das heißt: Sie können leichter brechen. Das nennt man Osteoporose. Deshalb ist wichtig: - Essen Sie gesund. - Bewegen Sie sich. **Veränderte Monatsblutung** Die Monatsblutung verändert sich in den Wechseljahren. Sie kommt dann nicht mehr regelmäßig: - Die Abstände können kürzer oder länger werden. - Die Blutung kann manchmal stärker sein als vorher. Am Ende der Wechseljahre hören die Monatsblutungen ganz auf. **Was können Sie gegen Beschwerden in den Wechseljahren tun?** Die Wechseljahre sind keine Krankheit. Viele Frauen brauchen keine Behandlung. Aber manche haben starke Beschwerden. Ein Arzt kann helfen und eine Behandlung empfehlen. **Die Hormon-Therapie** In den Wechseljahren macht der Körper weniger Hormone. Das führt zu Beschwerden. Mit einer Hormon-Therapie bekommt die Frau Hormone als Medikament, zum Beispiel als Tablette oder Pflaster. Das kann helfen, die Beschwerden zu verringern. Achtung: Eine Hormon-Therapie kann Nebenwirkungen haben. Sie kann zum Beispiel das Risiko für Blutgerinnsel oder Brustkrebs erhöhen. Deshalb entscheidet ein Arzt gemeinsam mit der Frau, ob eine Hormon-Therapie sinnvoll und nötig ist. **Andere Mittel gegen Beschwerden** Manche Pflanzen können gegen die Beschwerden helfen. Zum Beispiel: - Traubensilberkerze - Mönchspfeffer Es ist aber nicht sicher, ob sie wirklich helfen. Bei Schlafstörungen können helfen: - Baldrian - Melisse - Passionsblume Achtung: Auch pflanzliche Mittel können Nebenwirkungen haben. Fragen Sie immer zuerst Ihren Arzt! Auch ein gesunder Lebensstil hilft: - Gesunde Ernährung - Viel Bewegung - Entspannung **Wo bekommen Sie mehr Informationen?** Wenn Sie mehr über die Wechseljahre wissen wollen oder starke Beschwerden haben, gehen Sie zum Arzt. Der Arzt untersucht Sie und gibt Ihnen wichtige Informationen. Sie möchten mehr lesen? Weitere Informationen zu den Wechseljahren finden Sie im Internet. Achtung: Die Infos sind dann oft nicht in Leichter Sprache. Achtung: Dieser Text gibt nur allgemeine Informationen. Er ersetzt nicht den Arztbesuch. Nur ein Arzt kann Ihnen ganz genau sagen, was los ist. Wenn Sie sich krank fühlen oder Fragen zu Ihrer Gesundheit haben, gehen Sie immer zum Arzt.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Hier ist der Text in Deutscher Leichter Sprache: --- **Wechseljahre** Dieser Text erklärt die Wechseljahre in Leichter Sprache. **Was sind die Wechseljahre?** Die Wechseljahre sind ein Abschnitt im Leben einer Frau. Die Wechseljahre sind keine Krankheit. In dieser Zeit verändert sich der Körper der Frau. Es gibt weniger Hormone. Nach den Wechseljahren kann eine Frau keine Kinder mehr bekommen. Manchmal bekommen Frauen Beschwerden, zum Beispiel starkes Schwitzen. Die Wechseljahre sind ganz normal. Alle Frauen erleben die Wechseljahre. Die Wechseljahre beginnen meist mit etwa 45 Jahren und dauern ungefähr 5 Jahre. Bei manchen Frauen beginnen sie später oder dauern länger. **Was passiert in den Wechseljahren?** Im Körper einer Frau gibt es wichtige Hormone: - Progesteron - Östrogen Diese Hormone sind wichtig für eine Schwangerschaft. In den Wechseljahren werden diese Hormone weniger. Darum können Frauen nach den Wechseljahren nicht mehr schwanger werden. **Woran erkennt man die Wechseljahre?** Es gibt verschiedene Zeichen für die Wechseljahre. Typische Beschwerden sind: - Hitzewallungen (plötzliche Wärme im Körper) - starkes Schwitzen Andere Beschwerden können sein: - Trockenheit in der Scheide - Probleme beim Schlafen - Stimmungsschwankungen (Laune ändert sich oft) - mehr Gewicht Achtung: Diese Beschwerden können auch andere Gründe haben. Ein Arzt kann herausfinden, woher die Beschwerden kommen. Frauen haben in den Wechseljahren auch ein höheres Risiko für Osteoporose (Knochenschwund). Die Knochen werden schwächer und können leichter brechen. Das hilft: - gesunde Ernährung - viel Bewegung Die Monatsblutung (Periode) verändert sich in den Wechseljahren. Sie kommt nicht mehr regelmäßig. Die Abstände zwischen den Blutungen können kürzer oder länger werden. Manchmal wird die Blutung stärker. Am Ende der Wechseljahre hört die Monatsblutung ganz auf. **Was kann man gegen Beschwerden tun?** Die Wechseljahre sind keine Krankheit. Viele Frauen brauchen keine Behandlung. Wenn die Beschwerden sehr stark sind, kann eine Hormon-Therapie helfen. **Hormon-Therapie** Frauen bekommen in der Hormon-Therapie spezielle Hormone als Medikamente, zum Beispiel Tabletten oder Pflaster. Diese Hormone können die Beschwerden verringern. Aber: Die Hormon-Therapie ist nicht immer gut. Sie kann Nebenwirkungen haben, zum Beispiel: - höheres Risiko für Blutgerinnsel - höheres Risiko für Brustkrebs Deshalb entscheidet der Arzt zusammen mit der Frau, ob eine Hormon-Therapie notwendig ist. **Andere Hilfen** Es gibt auch pflanzliche Mittel gegen Beschwerden. Zum Beispiel: - Traubensilberkerze - Mönchspfeffer Ob diese Mittel helfen, ist nicht sicher. Bei Schlafproblemen können helfen: - Baldrian - Melisse - Passionsblume Achtung: Auch pflanzliche Mittel können Nebenwirkungen haben. Fragen Sie immer zuerst den Arzt! Ein gesunder Lebensstil hilft auch: - gesund essen - viel Bewegung - genug Entspannung **Wo bekommt man mehr Informationen?** Sie möchten mehr über die Wechseljahre wissen? Oder Sie haben starke Beschwerden? Sprechen Sie mit Ihrem Arzt. Nur Ihr Arzt kann Ihnen genau helfen. Sie wollen mehr lesen? Weitere Infos finden Sie im Internet. Aber: Nicht alle Informationen sind in Leichter Sprache. Achtung: Dieser Text gibt nur allgemeine Tipps. Wenn Sie sich krank fühlen, gehen Sie bitte immer zum Arzt! --- Soll dieser Text noch kürzer oder einfacher werden?</t>
+          <t>Hier ist der Text nach Ihrem linguistischen Ansatz. Ich habe unwichtige Informationen entfernt, Hauptsätze verwendet und schwierige Wörter erklärt (in Klammern): --- **Wechseljahre** Was sind die Wechseljahre? Wechseljahre sind eine besondere Zeit im Leben von Frauen. Wechseljahre sind keine Krankheit. Im Körper verändern sich Hormone (Hormone: Botenstoffe im Körper). Frauen können dann keine Kinder mehr bekommen. Was passiert? Frauen haben Östrogen und Progesteron (Östrogen/Progesteron: wichtige Hormone für die Schwangerschaft). In den Wechseljahren gibt es weniger Östrogen und Progesteron. Deshalb kann die Frau nicht mehr schwanger werden. Woran erkennt man die Wechseljahre? Viele Frauen schwitzen viel. Viele Frauen bekommen Hitzewallungen (Hitzewallungen: plötzlich sehr warm am Körper). Manche Frauen haben eine trockene Scheide (Scheide: Körperteil einer Frau). Manche Frauen schlafen schlecht. Manche Frauen sind häufiger traurig oder ärgerlich. Manche Frauen nehmen Gewicht zu. (Gewicht: wie schwer jemand ist) Die Monatsblutung (Monatsblutung: Blut aus der Scheide einmal im Monat) kommt nicht mehr regelmäßig. Manchmal wird die Monatsblutung stärker. Am Ende gibt es keine Monatsblutung mehr. Die Knochen werden oft schwächer (schwächer: leicht kaputt). Das nennt man Osteoporose (Osteoporose: Krankheiten der Knochen). Gesunde Ernährung und Bewegung helfen. Ernährung: Was und wie man isst. Bewegung: Sport oder Spazierengehen. Was kann man tun? Oft braucht man keine Behandlung. Bei starken Beschwerden kann eine Hormon-Therapie helfen (Therapie: Behandlung). Bei der Hormon-Therapie bekommt die Frau Hormone als Tablette oder Pflaster. Achtung: Die Hormon-Therapie kann gefährlich sein. Die Frau kann Brustkrebs bekommen (Brustkrebs: ernste Krankheit in der Brust). Die Frau kann Blutgerinnsel bekommen (Blutgerinnsel: Klumpen aus Blut, die gefährlich sein können). Ein Arzt entscheidet zusammen mit der Frau. Es gibt auch Pflanzen als Mittel. Traubensilberkerze und Mönchspfeffer sind Beispiele. Ob sie helfen, ist nicht sicher. Pflanzen gegen Schlafstörungen sind Baldrian, Melisse und Passionsblume. Auch sie können Nebenwirkungen haben (Nebenwirkungen: etwas, das man nicht will). Immer erst mit dem Arzt sprechen. Gesunde Ernährung, viel Bewegung und Entspannung helfen oft. Wo bekommt man mehr Informationen? Gehen Sie bei starken Beschwerden oder Fragen zum Arzt. Der Arzt hilft. Internet-Links enthalten oft schwere Sprache. Dieser Text gibt nur allgemeine Infos. Ein Arzt kann genau helfen. Fühlen Sie sich krank, gehen Sie zum Arzt.</t>
         </is>
       </c>
     </row>
@@ -864,12 +864,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Hier ist Ihr Text in Leichter Sprache: **Schwarzer Hautkrebs** Dieser Text erklärt das Thema: Schwarzer Hautkrebs in Leichter Sprache. **Was ist schwarzer Hautkrebs?** Der menschliche Körper besteht aus ganz vielen kleinen Bausteinen. Diese Bausteine heißen „Zellen“. Zellen können sich teilen. Das heißt: Aus einer Zelle werden zwei Zellen. Dadurch kann der Körper neu wachsen und sich erneuern. Zum Beispiel wachsen so neue Haut-Zellen. Manchmal teilen sich die Zellen zu schnell und zu oft. Dann entstehen zu viele neue Zellen. Diese vielen neuen Zellen nennt man „Tumor“. Nicht jeder Tumor ist schlimm. Doch ein Tumor kann gesundes Gewebe verdrängen. Ein Tumor kann überall im Körper entstehen. Bei Hautkrebs gibt es einen Tumor auf der Haut. Es gibt verschiedene Arten von Hautkrebs. Es gibt weißen Hautkrebs und schwarzen Hautkrebs. Schwarzer Hautkrebs heißt mit Fachwort: „Malignes Melanom“. Das Melanom entsteht aus Haut-Zellen, die Farbe machen. **Wie erkennt man schwarzen Hautkrebs?** Bei schwarzem Hautkrebs entsteht ein dunkler Fleck auf der Haut. So ein Fleck sieht oft aus wie ein Muttermal. Das Melanom kann aus einem alten Muttermal entstehen. Oder es ist ein ganz neuer Fleck. Diese Dinge können ein Zeichen für schwarzen Hautkrebs sein: - Sie bekommen ein neues Muttermal. - Ein altes Muttermal verändert seine Form oder Farbe. - Ein Muttermal sieht ungleichmäßig aus. - Ein Muttermal blutet, obwohl Sie sich nicht verletzt haben. - Ein Muttermal juckt stark oder ist rot. Denken Sie: Ich habe vielleicht schwarzen Hautkrebs? Gehen Sie sofort zum Hautarzt. Der Arzt schaut das Muttermal genau an. **Was sind die Ursachen für schwarzen Hautkrebs?** Immer mehr Menschen bekommen schwarzen Hautkrebs. Häufig ist die UV-Strahlung der Grund. UV-Strahlung kommt von der Sonne. Sind Sie oft in der Sonne? Dann benutzen Sie Sonnencreme mit hohem Schutz. Manche Menschen bekommen leichter schwarzen Hautkrebs. Das Risiko wird größer, wenn Sie: - sehr helle Haut haben - viele Muttermale haben - als Kind oft Sonnenbrand hatten - schon einmal Hautkrebs hatten - Veranlagung haben (zum Beispiel: andere Menschen in Ihrer Familie haben schwarzen Hautkrebs) **Was können Sie gegen schwarzen Hautkrebs tun?** Schwarzer Hautkrebs muss schnell behandelt werden. Wird der Krebs früh entdeckt, können Sie oft ganz gesund werden. Sie sehen ein verdächtiges Muttermal? Gehen Sie schnell zum Hautarzt. Der Arzt schaut sich alles an und bespricht die Behandlung. Ist es vielleicht ein Melanom? Dann wird der Fleck mit einer kleinen Operation entfernt. Sie bekommen eine Betäubung, damit es nicht weh tut. Danach untersucht der Arzt das entfernte Hautstück. Manchmal prüft der Arzt auch andere Organe, ob der Krebs sich ausgebreitet hat. Wenn der Krebs gewandert ist, nennt man das „Metastasen“. Metastasen können auch an anderen Stellen im Körper entstehen. Findet der Arzt Metastasen? Dann bespricht er mit Ihnen die nächsten Behandlungsschritte, wie weitere Operationen oder Medikamente. Wenn Sie schon einmal schwarzen Hautkrebs hatten, müssen Sie oft zum Arzt zur Kontrolle. So kann der Arzt schnell sehen, ob Sie wieder Krebs haben. **Wie kann man schwarzen Hautkrebs vermeiden?** Sonnenschutz ist sehr wichtig! Damit verringern Sie Ihr Risiko für schwarzen Hautkrebs. Das können Sie tun: - Bleiben Sie zwischen 11 und 15 Uhr im Schatten. - Tragen Sie Kleidung, die Arme und Beine bedeckt, und einen Hut. - Tragen Sie Sonnencreme mit hohem Schutz auf. Am besten eine halbe Stunde bevor Sie in die Sonne gehen, und immer wieder nachcremen. - Benutzen Sie eine Sonnenbrille mit UV-Schutz. Auch mit gutem Schutz können Sie Hautkrebs bekommen. Sind Sie 35 Jahre oder älter? Dann gehen Sie alle zwei Jahre zum Hautarzt zur Vorsorge. Die Krankenkasse bezahlt die Kontrolle. **Wo bekommen Sie mehr Informationen?** Sie wollen noch mehr über schwarzen Hautkrebs wissen? Es gibt weitere Informationen im Internet. Diese Infos sind aber nicht mehr in Leichter Sprache. Wichtig: Dieser Text gibt nur allgemeine Infos. Er ersetzt nicht den Besuch beim Arzt. Nur ein Arzt kann Ihnen genau helfen. Sind Sie krank? Haben Sie Fragen? Gehen Sie zum Arzt. --- Wenn Sie möchten, kann ich diesen Text noch weiter vereinfachen oder kürzen.</t>
+          <t>Hier ist der Text in Leichter Sprache: **Schwarzer Hautkrebs** Dieser Text gibt einfache Informationen über schwarzen Hautkrebs. **Was ist schwarzer Hautkrebs?** Ihr Körper besteht aus vielen kleinen Teilen, das nennt man: Zellen. Zellen können sich teilen. Das heißt: Es gibt neue Zellen. Zum Beispiel bei der Haut. So bleibt die Haut gesund. Manchmal teilen sich die Zellen zu viel und zu schnell. Es entstehen dann zu viele Zellen. Das nennt man: Tumor. Nicht jeder Tumor ist gefährlich. Aber ein Tumor kann gesundes Gewebe wegschieben. Ein Tumor kann überall im Körper wachsen. Bei Hautkrebs ist der Tumor auf der Haut. Es gibt verschiedene Arten von Hautkrebs: weißen Hautkrebs und schwarzen Hautkrebs. Das schwere Wort für schwarzen Hautkrebs ist: malignes Melanom. Ein Melanom entsteht aus bestimmten Hautzellen. Diese Zellen machen die Farbe der Haut. **Wie erkennen Sie schwarzen Hautkrebs?** Schwarzer Hautkrebs zeigt sich als dunkler Fleck auf der Haut. Ein Melanom sieht aus wie ein dunkles Muttermal. Oft kann ein Melanom aus einem Muttermal wachsen. Oder es entsteht neu. Das sind Zeichen für ein Melanom: - Sie bekommen ein neues Muttermal. - Ein Muttermal ändert die Form oder die Farbe. - Ein Muttermal sieht unregelmäßig aus. - Ein Muttermal blutet und Sie sind nicht verletzt. - Ein Muttermal juckt stark oder ist rot. Sie denken, Sie haben schwarzen Hautkrebs? Gehen Sie zum Hautarzt. Der Hautarzt schaut sich Ihre Haut genau an. **Was sind die Ursachen für schwarzen Hautkrebs?** Immer mehr Menschen bekommen schwarzen Hautkrebs. Oft ist die Sonne schuld. Die Sonne hat UV-Strahlen. Die sind für die Haut gefährlich. Wenn Sie viel Sonne abbekommen, benutzen Sie immer eine Sonnencreme mit hohem Schutz. Manche Menschen haben ein höheres Risiko: - Sehr helle Haut. - Viele Muttermale. - Oft Sonnenbrand als Kind. - Sie hatten schon einmal Hautkrebs. - Andere Menschen in Ihrer Familie hatten Hautkrebs. **Was können Sie gegen schwarzen Hautkrebs tun?** Gehen Sie früh zum Arzt. Je früher der Hautkrebs entdeckt wird, desto besser sind die Heilungschancen. Haben Sie ein auffälliges Muttermal? Dann machen Sie sofort einen Termin beim Hautarzt. Der Hautarzt entscheidet über Ihre Behandlung. Oft wird der Hautkrebs in einer kleinen Operation entfernt. Sie bekommen eine Spritze, dann tut es nicht weh. Danach wird das entfernte Stück untersucht. Manchmal müssen andere Körperteile untersucht werden, ob der Krebs sich ausgebreitet hat. Das nennt man: Metastasen. Haben Sie Metastasen? Dann brauchen Sie vielleicht mehr Behandlungen oder Medikamente. Der Arzt spricht mit Ihnen darüber, was für Sie am besten ist. Sie hatten schon einmal schwarzen Hautkrebs? Dann müssen Sie regelmäßig zur Kontrolle zum Arzt gehen. **Wie kann man schwarzen Hautkrebs vermeiden?** Die Sonne erhöht das Risiko für Hautkrebs. Sie möchten sich schützen? Dann achten Sie auf diese Tipps: - Meiden Sie die Sonne zwischen 11 und 15 Uhr. - Tragen Sie lange Kleidung und einen Sonnenhut. - Benutzen Sie Sonnencreme mit hohem Schutz. Tragen Sie die Creme dick auf und regelmäßig nach. - Tragen Sie eine Sonnenbrille mit UV-Schutz. Auch wenn Sie sich gut schützen, können Sie Hautkrebs bekommen. Sind Sie 35 Jahre oder älter? Gehen Sie alle zwei Jahre zur Kontrolle zum Hautarzt. Die Krankenkasse zahlt das. **Wo bekommen Sie mehr Informationen?** Sie möchten mehr wissen? Lesen Sie dazu auf dieser Internet-Seite mehr. Die Informationen sind dort nicht in Leichter Sprache. Wichtig: Dieser Text gibt nur allgemeine Infos. Er ersetzt nicht den Arztbesuch. Nur ein Arzt kann Ihnen genau helfen. Fühlen Sie sich krank oder haben Sie Fragen? Gehen Sie immer zum Arzt.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Hier ist Ihr Text in Leichter Sprache: **Schwarzer Hautkrebs** Dieser Text erklärt das Thema: Schwarzer Hautkrebs in Leichter Sprache. **Was ist schwarzer Hautkrebs?** Der menschliche Körper besteht aus ganz vielen kleinen Bausteinen. Diese Bausteine heißen „Zellen“. Zellen können sich teilen. Das heißt: Aus einer Zelle werden zwei Zellen. Dadurch kann der Körper neu wachsen und sich erneuern. Zum Beispiel wachsen so neue Haut-Zellen. Manchmal teilen sich die Zellen zu schnell und zu oft. Dann entstehen zu viele neue Zellen. Diese vielen neuen Zellen nennt man „Tumor“. Nicht jeder Tumor ist schlimm. Doch ein Tumor kann gesundes Gewebe verdrängen. Ein Tumor kann überall im Körper entstehen. Bei Hautkrebs gibt es einen Tumor auf der Haut. Es gibt verschiedene Arten von Hautkrebs. Es gibt weißen Hautkrebs und schwarzen Hautkrebs. Schwarzer Hautkrebs heißt mit Fachwort: „Malignes Melanom“. Das Melanom entsteht aus Haut-Zellen, die Farbe machen. **Wie erkennt man schwarzen Hautkrebs?** Bei schwarzem Hautkrebs entsteht ein dunkler Fleck auf der Haut. So ein Fleck sieht oft aus wie ein Muttermal. Das Melanom kann aus einem alten Muttermal entstehen. Oder es ist ein ganz neuer Fleck. Diese Dinge können ein Zeichen für schwarzen Hautkrebs sein: - Sie bekommen ein neues Muttermal. - Ein altes Muttermal verändert seine Form oder Farbe. - Ein Muttermal sieht ungleichmäßig aus. - Ein Muttermal blutet, obwohl Sie sich nicht verletzt haben. - Ein Muttermal juckt stark oder ist rot. Denken Sie: Ich habe vielleicht schwarzen Hautkrebs? Gehen Sie sofort zum Hautarzt. Der Arzt schaut das Muttermal genau an. **Was sind die Ursachen für schwarzen Hautkrebs?** Immer mehr Menschen bekommen schwarzen Hautkrebs. Häufig ist die UV-Strahlung der Grund. UV-Strahlung kommt von der Sonne. Sind Sie oft in der Sonne? Dann benutzen Sie Sonnencreme mit hohem Schutz. Manche Menschen bekommen leichter schwarzen Hautkrebs. Das Risiko wird größer, wenn Sie: - sehr helle Haut haben - viele Muttermale haben - als Kind oft Sonnenbrand hatten - schon einmal Hautkrebs hatten - Veranlagung haben (zum Beispiel: andere Menschen in Ihrer Familie haben schwarzen Hautkrebs) **Was können Sie gegen schwarzen Hautkrebs tun?** Schwarzer Hautkrebs muss schnell behandelt werden. Wird der Krebs früh entdeckt, können Sie oft ganz gesund werden. Sie sehen ein verdächtiges Muttermal? Gehen Sie schnell zum Hautarzt. Der Arzt schaut sich alles an und bespricht die Behandlung. Ist es vielleicht ein Melanom? Dann wird der Fleck mit einer kleinen Operation entfernt. Sie bekommen eine Betäubung, damit es nicht weh tut. Danach untersucht der Arzt das entfernte Hautstück. Manchmal prüft der Arzt auch andere Organe, ob der Krebs sich ausgebreitet hat. Wenn der Krebs gewandert ist, nennt man das „Metastasen“. Metastasen können auch an anderen Stellen im Körper entstehen. Findet der Arzt Metastasen? Dann bespricht er mit Ihnen die nächsten Behandlungsschritte, wie weitere Operationen oder Medikamente. Wenn Sie schon einmal schwarzen Hautkrebs hatten, müssen Sie oft zum Arzt zur Kontrolle. So kann der Arzt schnell sehen, ob Sie wieder Krebs haben. **Wie kann man schwarzen Hautkrebs vermeiden?** Sonnenschutz ist sehr wichtig! Damit verringern Sie Ihr Risiko für schwarzen Hautkrebs. Das können Sie tun: - Bleiben Sie zwischen 11 und 15 Uhr im Schatten. - Tragen Sie Kleidung, die Arme und Beine bedeckt, und einen Hut. - Tragen Sie Sonnencreme mit hohem Schutz auf. Am besten eine halbe Stunde bevor Sie in die Sonne gehen, und immer wieder nachcremen. - Benutzen Sie eine Sonnenbrille mit UV-Schutz. Auch mit gutem Schutz können Sie Hautkrebs bekommen. Sind Sie 35 Jahre oder älter? Dann gehen Sie alle zwei Jahre zum Hautarzt zur Vorsorge. Die Krankenkasse bezahlt die Kontrolle. **Wo bekommen Sie mehr Informationen?** Sie wollen noch mehr über schwarzen Hautkrebs wissen? Es gibt weitere Informationen im Internet. Diese Infos sind aber nicht mehr in Leichter Sprache. Wichtig: Dieser Text gibt nur allgemeine Infos. Er ersetzt nicht den Besuch beim Arzt. Nur ein Arzt kann Ihnen genau helfen. Sind Sie krank? Haben Sie Fragen? Gehen Sie zum Arzt. --- Wenn Sie möchten, kann ich diesen Text noch weiter vereinfachen oder kürzen.</t>
+          <t>Hier finden Sie den Text, sprachlich vereinfacht und nach dem linguistischen Ansatz bearbeitet: --- **Schwarzer Hautkrebs** **Was ist schwarzer Hautkrebs?** Der Körper besteht aus Zellen. Zellen sind winzige Bausteine. Zellen können sich teilen. Das heißt: Es entstehen neue Zellen. Haut besteht aus Zellen. Zellen teilen sich manchmal zu oft. Dann entsteht ein Tumor. Tumor ist ein Knoten im Körper. Manche Tumoren sind gefährlich, manche nicht. Hautkrebs ist ein gefährlicher Tumor auf der Haut. Es gibt zwei Haupt-Arten von Hautkrebs: weißen Hautkrebs und schwarzen Hautkrebs. Schwarzer Hautkrebs heißt auch „malignes Melanom“. Melanom ist ein Tumor aus Pigmentzellen. Pigmentzellen geben der Haut ihre Farbe. - **Zelle:** Baustein des Körpers - **Tumor:** Knoten oder Wucherung - **Pigment:** Farbstoff **Wie erkennen Sie schwarzen Hautkrebs?** Schwarzer Hautkrebs sieht aus wie ein dunkler Fleck auf der Haut. Der Fleck sieht ähnlich aus wie ein Muttermal. Ein Muttermal ist ein brauner Fleck auf der Haut. Das sind Zeichen für schwarzen Hautkrebs: - Ein neuer dunkler Fleck entsteht. - Ein alter Fleck verändert die Form oder die Farbe. - Ein Fleck sieht unregelmäßig aus. - Ein Fleck blutet, obwohl Sie sich nicht verletzt haben. - Ein Fleck juckt stark oder ist rot. Gehen Sie zum Hautarzt, wenn Sie solche Veränderungen sehen. - **Hautarzt:** Arzt für Hautkrankheiten **Was ist die Ursache von schwarzem Hautkrebs?** Schwarzer Hautkrebs entsteht oft durch Sonnenstrahlen. Sonnenstrahlen enthalten UV-Strahlen. UV-Strahlen sind für die Haut gefährlich. Diese Dinge erhöhen das Risiko für schwarzen Hautkrebs: - Helle Haut - Viele Muttermale - Häufig Sonnenbrand als Kind - Hautkrebs in der Familie - **UV-Strahlen:** Unsichtbare Strahlen vom Sonnenlicht, die die Haut schädigen - **Risiko:** Gefahr **Was können Sie gegen schwarzen Hautkrebs tun?** Gehen Sie früh zum Arzt, wenn Sie einen auffälligen Fleck erkennen. Der Arzt untersucht Ihren Fleck. Wenn der Arzt vermutet, der Fleck ist Hautkrebs, dann entfernt er den Fleck. Sie bekommen eine Spritze, damit Sie keine Schmerzen haben. Nach der Operation untersucht der Arzt den entfernten Tumor. Der Arzt prüft, ob sich der Krebs ausgebreitet hat. Ausbreitung heißt, der Krebs ist auch in andere Organe gekommen. Das nennt man: Metastasen. Manchmal brauchen Sie weitere Behandlung mit Medikamenten oder eine zweite Operation. Gehen Sie regelmäßig zur Kontrolle, wenn Sie schon einmal Hautkrebs hatten. - **Operation:** Eingriff durch den Arzt zur Entfernung vom Tumor - **Metastasen:** Krebszellen in anderen Organen - **Medikamente:** Arznei gegen Krankheiten **Wie können Sie schwarzen Hautkrebs vermeiden?** Schützen Sie Ihre Haut vor der Sonne. - Meiden Sie die Sonne zwischen 11 und 15 Uhr. - Tragen Sie lange Kleidung und einen Hut. - Benutzen Sie Sonnencreme mit hohem Schutz. - Tragen Sie eine Sonnenbrille mit UV-Schutz. - Lassen Sie Ihre Haut regelmäßig vom Hautarzt kontrollieren, besonders ab 35 Jahren. - **Sonnencreme:** Creme zum Schutz der Haut vor der Sonne - **Schutz:** Bewahrung vor Gefahr **Wo bekommen Sie mehr Informationen?** Suchen Sie weitere Infos über schwarzen Hautkrebs im Internet. Dieser Text ersetzt nicht den Besuch beim Arzt. Gehen Sie immer zum Arzt, wenn Sie Fragen oder Beschwerden haben. --- Möchten Sie bestimmte Abschnitte noch weiter verkürzt oder verändert?</t>
         </is>
       </c>
     </row>
@@ -886,12 +886,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Hier ist Ihr Text in Leichter Sprache: --- **Alkohol-Sucht** Dieser Text gibt Informationen zum Thema Alkohol-Sucht in Leichter Sprache. **Was ist Alkohol-Sucht?** Manche Menschen trinken gerne Alkohol. Alkohol ist eine Droge und macht betrunken. Alkohol kann dazu führen, dass man süchtig wird. Alkohol kann auch krank machen. Trinkt ein Mensch sehr viel Alkohol? Und kann dieser Mensch nicht mehr ohne Alkohol leben? Dann sagt man: Dieser Mensch ist süchtig nach Alkohol. Das nennt man Alkohol-Sucht. Alkohol-Sucht ist eine Krankheit. In Deutschland sind ungefähr 1,6 Millionen Menschen alkoholsüchtig. **Was passiert bei einer Alkohol-Sucht?** Alkohol wirkt im Körper. Wenn Sie Alkohol trinken, kommt der Alkohol ins Blut. Alkohol verteilt sich mit dem Blut im ganzen Körper. Das kann verschiedene Folgen haben: * Manche Menschen werden fröhlich. * Manche werden aggressiv. Die Leber baut den Alkohol wieder ab. Auch kleine Mengen Alkohol sind schädlich, weil Alkohol giftig für die Zellen ist. Wer viel Alkohol trinkt, wird leichter krank. Für weniger Risiko: * Frauen sollten höchstens 12 Gramm Alkohol pro Tag trinken. Das ist etwa ein kleines Glas Bier. * Männer sollten höchstens 24 Gramm Alkohol pro Tag trinken. Das ist etwa ein großes Glas Bier. * Trinken Sie an höchstens drei Tagen in der Woche Alkohol. So viel Alkohol steckt zum Beispiel in diesen Getränken: * Whisky, 0,02 Liter: 7 Gramm Alkohol * Korn, 0,02 Liter: 7 Gramm Alkohol * Bier, 0,33 Liter: 13 Gramm Alkohol * Wein, 0,2 Liter: 16 Gramm Alkohol * Sherry, 0,1 Liter: 16 Gramm Alkohol * Likör, 0,02 Liter: 5 Gramm Alkohol Wer mehr als ein Glas Bier am Tag trinkt, kann krank werden. Sie können zum Beispiel: * Fettleber bekommen * Krebs bekommen * Bluthochdruck bekommen **Woran erkennt man eine Alkohol-Sucht?** Es gibt verschiedene Anzeichen für Alkohol-Sucht: * Die Menschen trinken sehr viel und können nicht aufhören. * Sie brauchen immer mehr Alkohol, um die gleiche Wirkung zu spüren. * Sie wissen, dass Alkohol schlecht ist, trinken aber trotzdem weiter. * Sie kümmern sich weniger um Familie und Freunde. * Sie gehen ihrer Arbeit nicht mehr richtig nach. * Trinken sie keinen Alkohol, fühlen sie sich schlecht. Sie bekommen Entzugs-Erscheinungen wie: * Unruhe * Übelkeit * Zittern * Herzrasen * Reizbarkeit Glauben Sie, dass Sie alkoholsüchtig sind? Dann sprechen Sie mit Ihrem Arzt. Ihr Arzt kann Ihnen helfen. **Was sind die Ursachen für eine Alkohol-Sucht?** Es gibt verschiedene Gründe, warum Menschen alkoholsüchtig werden können: * Ihr soziales Umfeld: Trinken viele Menschen in Ihrer Nähe Alkohol, ist das Risiko größer. * Alkohol macht manche Menschen fröhlich. Wer diese Wirkung oft will, trinkt vielleicht mehr. * Vererbung: Wenn es Alkohol-Sucht in der Familie gibt, haben Sie ein höheres Risiko. * Schlechte Erlebnisse im Leben: Wer schwere Zeiten hat, kann leichter suchtkrank werden. Diese Dinge führen nicht immer direkt zur Sucht. Aber es kann dazu beitragen. **Was kann man gegen Alkohol-Sucht tun?** Ein Arzt kann helfen. Es gibt eine Therapie. Die Therapie kann man zu Hause oder in einer Klinik machen. Die Therapie besteht aus verschiedenen Schritten: 1. Kontakt: Suchen Sie Hilfe beim Arzt. Sie können auch Familie einbeziehen. 2. Reduktion: Sie trinken bewusst weniger Alkohol. Der Arzt hilft dabei. 3. Entzug: Bei starkem Alkohol-Konsum macht man eine Entgiftung. Das ist oft im Krankenhaus, weil der Entzug Probleme machen kann. 4. Entwöhnung: Diese Phase dauert Wochen oder Monate. Sie lernen, ohne Alkohol zu leben. Ein Psychologe hilft Ihnen. 5. Nachsorge: Sie gehen wieder in Ihren Alltag zurück. Hier hilft zum Beispiel eine Suchtberatung oder eine Selbsthilfe-Gruppe. In der Gruppe sprechen Sie mit anderen Menschen mit Alkohol-Sucht. Glauben Sie, Sie trinken zu viel? Oder sagt jemand anderes das? Dann holen Sie sich Hilfe beim Arzt oder bei einer Beratungs-Stelle. **Wo bekommen Sie noch mehr Informationen?** Sie wollen mehr wissen? Es gibt auch andere Texte über Alkohol-Sucht. Aber: Diese Texte sind nicht mehr in Leichter Sprache. Achtung: Dieser Text ist nur allgemein. Nur Ihr Arzt kann Sie genau beraten. Wenn Sie sich krank fühlen oder Fragen haben, sprechen Sie immer mit Ihrem Arzt. ---</t>
+          <t>Hier ist der Text in Leichter Sprache, wie gewünscht: --- **Alkohol-Sucht** Dieser Text gibt Ihnen Informationen zum Thema Alkohol-Sucht. Die Informationen sind in Leichter Sprache. **Inhalt:** - Was ist eine Alkohol-Sucht? - Was passiert bei Alkohol-Sucht? - Woran erkennt man Alkohol-Sucht? - Was sind die Gründe für Alkohol-Sucht? - Was können Sie gegen Alkohol-Sucht tun? - Wo finden Sie mehr Informationen? --- **Was ist Alkohol-Sucht?** Manche Menschen trinken gern Alkohol. Alkohol ist ein Rauschmittel. Das bedeutet: Alkohol macht betrunken. Alkohol kann auch süchtig machen. Das bedeutet: Manche Menschen können nicht mehr mit dem Trinken aufhören. Dann sind sie abhängig. Das nennt man Alkohol-Sucht. Alkohol-Sucht ist eine Krankheit. In Deutschland sind etwa 1,6 Millionen Menschen alkohol-süchtig. --- **Was passiert bei Alkohol-Sucht?** Alkohol wirkt im Körper. Wenn Sie Alkohol trinken, kommt Alkohol ins Blut und in den ganzen Körper. Wer Alkohol trinkt, fühlt sich oft fröhlicher. Manche Menschen werden aber auch aggressiv. Die Leber baut den Alkohol langsam wieder ab. Auch kleine Mengen Alkohol sind ungesund. Alkohol ist Gift für den Körper und kann krank machen. Wer sehr viel Alkohol trinkt, kann noch kränker werden. Wer gesund bleiben will, sollte wenig Alkohol trinken: - Frauen: nicht mehr als 12 Gramm Alkohol pro Tag (zum Beispiel ein kleines Glas Bier) - Männer: nicht mehr als 24 Gramm Alkohol pro Tag (zum Beispiel ein großes Glas Bier) - An höchstens 3 Tagen pro Woche Alkohol trinken Hier einige Beispiele, wie viel Alkohol in Getränken ist: - Whisky, 0,02 Liter: 7 Gramm Alkohol - Korn, 0,02 Liter: 7 Gramm Alkohol - Bier, 0,33 Liter: 13 Gramm Alkohol - Wein, 0,2 Liter: 16 Gramm Alkohol - Sherry, 0,1 Liter: 16 Gramm Alkohol - Likör, 0,02 Liter: 5 Gramm Alkohol Trinken Sie mehr als ein Glas Bier am Tag? Dann ist das schlecht für Ihre Gesundheit. Sie haben dann ein höheres Risiko für Krankheiten, zum Beispiel: - Fettleber (Leberkrankheit) - Krebs - zu hoher Blutdruck --- **Woran erkennt man eine Alkohol-Sucht?** Menschen mit Alkohol-Sucht haben oft die folgenden Probleme: - Sie trinken sehr viel Alkohol. - Sie können nicht aufhören, Alkohol zu trinken. - Sie brauchen immer mehr Alkohol, um die gleiche Wirkung zu spüren. - Sie wissen, dass Alkohol schädlich ist, trinken aber weiter. - Sie vernachlässigen ihre Familie und Freunde. - Sie vernachlässigen ihre Arbeit. - Wenn sie längere Zeit keinen Alkohol trinken, fühlen sie sich nicht gut. Sie haben dann sogenannte Entzugserscheinungen, wie zum Beispiel: - Unruhe - Übelkeit - Zittern - Herzklopfen - Reizbarkeit Sie denken, Sie sind vielleicht alkohol-süchtig? Dann sprechen Sie mit Ihrem Arzt. --- **Was sind die Gründe für Alkohol-Sucht?** Es gibt verschiedene Gründe für eine Alkohol-Sucht: - Das Umfeld: Wenn viele Menschen um Sie herum Alkohol trinken. - Die Wirkung: Alkohol macht manche Menschen fröhlicher. Deshalb trinken sie öfter Alkohol. - Die Familie: Andere in der Familie sind auch alkohol-süchtig? Dann ist das eigene Risiko höher. - Die Lebensgeschichte: Wer schwere Zeiten erlebt hat, kann leichter alkohol-süchtig werden. Diese Gründe führen nicht immer zu einer Alkohol-Sucht. Aber sie können das Risiko erhöhen. --- **Was können Sie gegen Alkohol-Sucht tun?** Ärzte können helfen. Es gibt dafür eine Therapie. Die Therapie besteht aus mehreren Schritten: 1. **Kontaktphase:** Die Person holt Hilfe beim Arzt. Der Arzt gibt Informationen und spricht auch mit der Familie. 2. **Reduktionsphase:** Die Person versucht mit Hilfe des Arztes, weniger Alkohol zu trinken. 3. **Entzugsphase:** Die Person hört ganz mit dem Alkohol auf. Der Entzug ist für den Körper schwer und findet oft im Krankenhaus statt. 4. **Entwöhnungsphase:** Die Person lernt, ohne Alkohol zu leben. Ein Psychologe hilft dabei. 5. **Nachsorge und Anpassung:** Die Person geht zurück in den Alltag. Dabei helfen Beratungsstellen, Fachärzte, Sucht-Ambulanzen und Selbsthilfe-Gruppen. In Selbsthilfe-Gruppen sprechen Menschen mit Alkohol-Sucht miteinander. Das hilft, mit der Krankheit umzugehen und nicht wieder rückfällig zu werden. Sie denken: Ich trinke zu viel Alkohol? Oder Freunde sagen das zu Ihnen? Suchen Sie Hilfe bei einer Beratungsstelle oder gehen Sie zu Ihrem Arzt. --- **Wo bekommen Sie mehr Informationen?** Sie möchten noch mehr über Alkohol-Sucht wissen? Informationen finden Sie zum Beispiel im Internet oder in Beratungsstellen. Achtung: Hier stehen nur allgemeine Informationen. Diese ersetzen nicht das Gespräch mit einem Arzt. Sie fühlen sich krank? Oder Sie haben Fragen zu einer Krankheit? Dann sprechen Sie immer mit einem Arzt. Rufen Sie in der Arztpraxis an! --- **Wichtiger Hinweis:** Bei Alkohol-Sucht sollten Sie immer professionelle Hilfe in Anspruch nehmen. Nur ein Arzt kann Sie richtig beraten.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Hier ist Ihr Text in Leichter Sprache: --- **Alkohol-Sucht** Dieser Text gibt Informationen zum Thema Alkohol-Sucht in Leichter Sprache. **Was ist Alkohol-Sucht?** Manche Menschen trinken gerne Alkohol. Alkohol ist eine Droge und macht betrunken. Alkohol kann dazu führen, dass man süchtig wird. Alkohol kann auch krank machen. Trinkt ein Mensch sehr viel Alkohol? Und kann dieser Mensch nicht mehr ohne Alkohol leben? Dann sagt man: Dieser Mensch ist süchtig nach Alkohol. Das nennt man Alkohol-Sucht. Alkohol-Sucht ist eine Krankheit. In Deutschland sind ungefähr 1,6 Millionen Menschen alkoholsüchtig. **Was passiert bei einer Alkohol-Sucht?** Alkohol wirkt im Körper. Wenn Sie Alkohol trinken, kommt der Alkohol ins Blut. Alkohol verteilt sich mit dem Blut im ganzen Körper. Das kann verschiedene Folgen haben: * Manche Menschen werden fröhlich. * Manche werden aggressiv. Die Leber baut den Alkohol wieder ab. Auch kleine Mengen Alkohol sind schädlich, weil Alkohol giftig für die Zellen ist. Wer viel Alkohol trinkt, wird leichter krank. Für weniger Risiko: * Frauen sollten höchstens 12 Gramm Alkohol pro Tag trinken. Das ist etwa ein kleines Glas Bier. * Männer sollten höchstens 24 Gramm Alkohol pro Tag trinken. Das ist etwa ein großes Glas Bier. * Trinken Sie an höchstens drei Tagen in der Woche Alkohol. So viel Alkohol steckt zum Beispiel in diesen Getränken: * Whisky, 0,02 Liter: 7 Gramm Alkohol * Korn, 0,02 Liter: 7 Gramm Alkohol * Bier, 0,33 Liter: 13 Gramm Alkohol * Wein, 0,2 Liter: 16 Gramm Alkohol * Sherry, 0,1 Liter: 16 Gramm Alkohol * Likör, 0,02 Liter: 5 Gramm Alkohol Wer mehr als ein Glas Bier am Tag trinkt, kann krank werden. Sie können zum Beispiel: * Fettleber bekommen * Krebs bekommen * Bluthochdruck bekommen **Woran erkennt man eine Alkohol-Sucht?** Es gibt verschiedene Anzeichen für Alkohol-Sucht: * Die Menschen trinken sehr viel und können nicht aufhören. * Sie brauchen immer mehr Alkohol, um die gleiche Wirkung zu spüren. * Sie wissen, dass Alkohol schlecht ist, trinken aber trotzdem weiter. * Sie kümmern sich weniger um Familie und Freunde. * Sie gehen ihrer Arbeit nicht mehr richtig nach. * Trinken sie keinen Alkohol, fühlen sie sich schlecht. Sie bekommen Entzugs-Erscheinungen wie: * Unruhe * Übelkeit * Zittern * Herzrasen * Reizbarkeit Glauben Sie, dass Sie alkoholsüchtig sind? Dann sprechen Sie mit Ihrem Arzt. Ihr Arzt kann Ihnen helfen. **Was sind die Ursachen für eine Alkohol-Sucht?** Es gibt verschiedene Gründe, warum Menschen alkoholsüchtig werden können: * Ihr soziales Umfeld: Trinken viele Menschen in Ihrer Nähe Alkohol, ist das Risiko größer. * Alkohol macht manche Menschen fröhlich. Wer diese Wirkung oft will, trinkt vielleicht mehr. * Vererbung: Wenn es Alkohol-Sucht in der Familie gibt, haben Sie ein höheres Risiko. * Schlechte Erlebnisse im Leben: Wer schwere Zeiten hat, kann leichter suchtkrank werden. Diese Dinge führen nicht immer direkt zur Sucht. Aber es kann dazu beitragen. **Was kann man gegen Alkohol-Sucht tun?** Ein Arzt kann helfen. Es gibt eine Therapie. Die Therapie kann man zu Hause oder in einer Klinik machen. Die Therapie besteht aus verschiedenen Schritten: 1. Kontakt: Suchen Sie Hilfe beim Arzt. Sie können auch Familie einbeziehen. 2. Reduktion: Sie trinken bewusst weniger Alkohol. Der Arzt hilft dabei. 3. Entzug: Bei starkem Alkohol-Konsum macht man eine Entgiftung. Das ist oft im Krankenhaus, weil der Entzug Probleme machen kann. 4. Entwöhnung: Diese Phase dauert Wochen oder Monate. Sie lernen, ohne Alkohol zu leben. Ein Psychologe hilft Ihnen. 5. Nachsorge: Sie gehen wieder in Ihren Alltag zurück. Hier hilft zum Beispiel eine Suchtberatung oder eine Selbsthilfe-Gruppe. In der Gruppe sprechen Sie mit anderen Menschen mit Alkohol-Sucht. Glauben Sie, Sie trinken zu viel? Oder sagt jemand anderes das? Dann holen Sie sich Hilfe beim Arzt oder bei einer Beratungs-Stelle. **Wo bekommen Sie noch mehr Informationen?** Sie wollen mehr wissen? Es gibt auch andere Texte über Alkohol-Sucht. Aber: Diese Texte sind nicht mehr in Leichter Sprache. Achtung: Dieser Text ist nur allgemein. Nur Ihr Arzt kann Sie genau beraten. Wenn Sie sich krank fühlen oder Fragen haben, sprechen Sie immer mit Ihrem Arzt. ---</t>
+          <t>Hier ist der Text, reformuliert nach Ihrem linguistischen Ansatz auf Text-, Satz- und Wortebene: --- **Alkohol-Sucht** Alkohol-Sucht ist eine Krankheit. Bei Alkohol-Sucht kann eine Person nicht aufhören, Alkohol zu trinken. Alkohol macht abhängig. **Abhängig** bedeutet: Man braucht Alkohol und kann ohne Alkohol nicht mehr leben. Alkohol ist ein **Rauschmittel**. Rauschmittel heißen Stoffe, die das Denken und Gefühl verändern. Alkohol kann den Körper krank machen. **Was passiert bei Alkohol-Sucht?** Wenn man Alkohol trinkt, kommt der Alkohol in das Blut. Das Blut verteilt den Alkohol im Körper. Alkohol macht zum Beispiel fröhlich. Manche Menschen werden durch Alkohol aber auch aggressiv. Die **Leber** baut den Alkohol ab. Die Leber ist ein Organ. Ein Organ ist ein wichtiger Teil im Körper. Auch kleine Mengen Alkohol schaden dem Körper. Alkohol ist ein Gift. **Gift** ist etwas, das den Körper zerstören kann. Wer zu viel Alkohol trinkt, wird leichter krank. Krankheiten durch Alkohol sind zum Beispiel **Fettleber** (kranke Leber durch Fett), **Krebs** (bösartige Wucherung von Zellen) und **Bluthochdruck** (zu hoher Druck im Blut). Es gibt Grenzen für Alkohol: - Frauen: höchstens 12 Gramm Alkohol am Tag. 12 Gramm sind ein kleines Glas Bier. - Männer: höchstens 24 Gramm Alkohol am Tag. 24 Gramm sind ein großes Glas Bier. - Trinken Sie nur an drei Tagen pro Woche Alkohol. **Wie erkennt man Alkohol-Sucht?** Alkohol-Sucht hat viele Anzeichen: - Die Person trinkt sehr viel Alkohol. - Die Person verliert die Kontrolle über das Trinken. Kontrolle bedeutet: Man kann etwas steuern. - Die Person braucht immer mehr Alkohol, um sich zu spüren. Das ist **Toleranz**. Toleranz bedeutet: Man gewöhnt sich an Alkohol und braucht dann mehr davon. - Die Person weiß, dass Alkohol schädlich ist. Trotzdem hört sie nicht auf. - Die Person vernachlässigt Familie oder Arbeit. **Vernachlässigen** heißt: Man kümmert sich nicht mehr. - Wenn die Person keinen Alkohol hat, fühlt sie sich schlecht. Sie hat dann **Entzugserscheinungen**. Entzugserscheinungen sind Symptome ohne Alkohol. Das sind zum Beispiel: Unruhe (kein ruhiges Gefühl), Zittern, Übelkeit (schlechtes Gefühl im Magen), schneller Herzschlag, Reizbarkeit (man wird schnell wütend). Wenn Sie denken, dass Sie zu viel Alkohol trinken, sprechen Sie mit einem Arzt. Ein Arzt kann helfen. **Warum wird man alkohol-süchtig?** Es gibt mehrere Gründe: - Viele Menschen in der Umgebung trinken viel Alkohol. **Umgebung** sind Freunde oder Familie. - Alkohol macht manche Menschen glücklicher. Deshalb trinken sie öfter. - Manchmal gibt es eine Veranlagung in der Familie. **Veranlagung** heißt: Das Problem liegt in den Genen. - Menschen mit schweren Erlebnissen können eher Alkohol-Sucht bekommen. **Schwere Erlebnisse** sind zum Beispiel schlimme Ereignisse im Leben. Oft wirken mehrere Gründe zusammen. **Was kann man tun?** Alkohol-Sucht wird mit Therapie behandelt. **Therapie** ist eine Behandlung gegen Krankheit. Therapie kann im Krankenhaus oder zu Hause sein. Die Therapie hat mehrere Teile: - **Kontaktphase:** Die Person sucht Hilfe beim Arzt. Die Familie kann helfen. - **Reduktionsphase:** Die Person trinkt weniger Alkohol. - **Entzugsphase:** Der Arzt hilft, Alkohol ganz wegzulassen. Das kann schwer oder gefährlich sein. - **Entwöhnungsphase:** Die Person lernt, ohne Alkohol zu leben. Ein **Psychologe** kann helfen. Ein Psychologe ist ein seelischer Helfer. - **Nachsorge:** Nach der Therapie helfen Ärzte oder Beratungsstellen weiter. Nachsorge heißt: weiter helfen, damit man gesund bleibt. Eine **Selbsthilfe-Gruppe** ist gut. Das ist eine Gruppe von Menschen mit dem gleichen Problem. Die Gruppe unterstützt sich. **Wichtiger Hinweis:** Dieser Text ist nur zur Information. Der Text ersetzt nicht den Besuch beim Arzt. Sprechen Sie mit einem Arzt, wenn Sie Fragen haben oder sich krank fühlen. ---</t>
         </is>
       </c>
     </row>
@@ -908,12 +908,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Hier ist der Text in Leichter Sprache: **Schlafstörungen** Dieser Text gibt Informationen zum Thema Schlafstörungen. Stand: 14.01.2023 **Inhalt:** - Was sind Schlafstörungen? - Welche Arten von Schlafstörungen gibt es? - Woran erkennt man Schlafstörungen? - Was sind die Ursachen für Schlafstörungen? - Was kann man gegen Schlafstörungen tun? - Wo gibt es noch mehr Informationen? --- **Was sind Schlafstörungen?** Schlafen ist wichtig für jeden Menschen. Manche Menschen brauchen mehr Schlaf als andere. Die meisten Menschen schlafen 7 bis 8 Stunden. Beim Schlaf verarbeitet das Gehirn die Eindrücke vom Tag. Die Organe und der Stoffwechsel arbeiten im Schlaf gut. Schlaf stärkt das Abwehrsystem vom Körper. Manche Menschen können nicht genug schlafen. Sie können nicht einschlafen oder wachen oft in der Nacht auf. Diese Menschen haben vielleicht eine Schlafstörung. Schlafstörungen können ein Zeichen für eine Krankheit sein. Oder Schlafstörungen können Krankheiten beeinflussen, zum Beispiel Bluthochdruck oder Depression. --- **Welche Arten von Schlafstörungen gibt es?** Es gibt verschiedene Schlafstörungen: - Schlafmangel (Fachwort: Insomnie): Man schläft schlecht ein oder wacht oft auf. - Schnarchen: Eine Person schnarcht und der Partner schläft schlecht. Oder sie wacht vom eigenen Schnarchen auf. - Schlafapnoe: Die Atmung ist in der Nacht gestört, oft durch eine blockierte Zunge oder Gaumen. Die Person bekommt schlecht Luft, wacht aber oft nicht ganz auf. - Restless Legs („Ruhelose Beine“): Die Beine kribbeln und ziehen im Bett. Betroffene schlafen schlecht oder müssen immer wieder aufstehen. - Narkolepsie („Schlafsucht“): Betroffene schlafen am Tag plötzlich ein und haben nachts Probleme mit dem Schlaf. --- **Woran erkennt man Schlafstörungen?** Viele Menschen schlafen manchmal schlecht. Wer eine Schlafstörung hat, schläft mindestens 3-mal pro Woche schlecht. Und das mindestens für 1 Monat. Die Probleme sind zum Beispiel: - Man kann nicht einschlafen. - Man wacht oft in der Nacht auf. - Man wacht früh am Morgen auf und kann nicht wieder einschlafen. Betroffene fühlen sich morgens nicht ausgeruht. Sie haben oft: - Müdigkeit am Tag - schlechte Laune, Reizbarkeit und Nervosität - wenig Kraft und wenig Antrieb Wenn Sie schlecht schlafen oder tagsüber sehr müde sind, sprechen Sie mit Ihrem Arzt. Der Arzt kann Sie untersuchen. --- **Was sind die Ursachen für Schlafstörungen?** Es gibt viele Ursachen für Schlafstörungen. Krankheiten können ein Grund sein. Oder Dinge aus dem Alltag: - Koffein, zum Beispiel durch Kaffee, schwarzen Tee oder Cola - Alkohol am Abend - zu viel oder zu wenig Essen am Abend - Rauchen - wenig Bewegung am Tag - Stress und Ärger - zu helles oder zu lautes Schlafzimmer - zu warmes oder zu kaltes Schlafzimmer - Arbeiten im Schichtdienst zu verschiedenen Zeiten Auch manche Medikamente können Schlafstörungen machen. Zum Beispiel Medikamente gegen: - Bluthochdruck - Herz-Krankheiten - Depressionen Wenn Sie glauben, Ihre Schlafstörung kommt durch ein Medikament, setzen Sie das Medikament nicht selbst ab. Sprechen Sie zuerst mit Ihrem Arzt. Auch viele Schlafmittel können Schlafstörungen machen, besonders chemische Schlafmittel. Der Körper gewöhnt sich daran und ohne das Mittel kann man vielleicht gar nicht mehr schlafen. Wenn Frauen in die Wechseljahre kommen, verändert sich der Hormonhaushalt. Auch das kann Schlafstörungen machen. Körperliche Krankheiten wie Schilddrüsen-Überfunktion, Prostata-Probleme oder Sodbrennen können Schlafstörungen verursachen. Psychische Krankheiten wie Depression, Angst, Alkoholsucht oder Schizophrenie können ebenfalls zu Schlafproblemen führen. --- **Was kann man gegen Schlafstörungen tun?** Nehmen Sie Ihre Schlafprobleme ernst. Suchen Sie einen Arzt auf. Der Arzt untersucht Sie. Das können Sie tun: - Achten Sie auf eine gesunde Lebensweise: Bewegen Sie sich genug, trinken Sie wenig oder keinen Alkohol und rauchen Sie nicht. - Ihr Schlafzimmer soll nicht zu warm, nicht zu kalt und nicht zu hell sein. - Entspannungsübungen helfen oft. - Hilfreich kann auch eine Verhaltenstherapie sein. Dort lernen Sie, wie Sie besser schlafen können und was Sie ändern können. Wenn Sie Sorgen oder Ängste haben, sprechen Sie mit einem Psychotherapeuten. Wenn Sie Schlafmittel nehmen möchten, fragen Sie vorher Ihren Arzt. --- **Wo gibt es noch mehr Informationen?** Mehr Informationen zu Schlafstörungen finden Sie im Internet. Aber achten Sie darauf: Die Informationen sind manchmal nicht in Leichter Sprache. --- Soll ich einen bestimmten Abschnitt noch einfacher oder kürzer zusammenfassen?</t>
+          <t>Hier ist der Text in Leichter Sprache: --- **Schlafstörungen** Dieser Text ist in Leichter Sprache. Er erklärt: Was ist eine Schlafstörung? Was können Sie tun? **Was sind Schlafstörungen?** Schlafen ist wichtig für jeden Menschen. Im Schlaf kann sich der Körper erholen. Das Gehirn kann Dinge vom Tag verarbeiten. Die Organe und der Stoffwechsel arbeiten besser. Das Immunsystem wird im Schlaf stärker. Das Immunsystem schützt den Körper vor Krankheiten. Viele Menschen brauchen 7 bis 8 Stunden Schlaf. Manche Menschen schlafen aber schlecht. Sie können nicht einschlafen. Oder sie wachen nachts oft auf. Diese Menschen haben eine Schlafstörung. Schlafstörungen können ein Zeichen für eine Krankheit sein. Oder Schlafstörungen können eine Krankheit schlimmer machen. Zum Beispiel bei Bluthochdruck oder bei Depressionen. **Welche Arten von Schlafstörungen gibt es?** Es gibt verschiedene Schlafstörungen: - Insomnie. Menschen können nicht einschlafen. Oder sie wachen oft auf. - Schnarchen. Wer schnarcht, kann selbst oder andere beim Schlafen stören. - Schlafapnoe. Hier bekommt eine Person beim Schlafen zu wenig Luft. Die Person muss nach Luft schnappen. - Restless Legs. Die Beine kribbeln oder ziehen beim Liegen. Deshalb können diese Personen schlecht schlafen. - Narkolepsie. Hier schlafen Menschen am Tag plötzlich ein. Nachts schlafen sie dann schlecht. **Wie merken Sie, dass Sie eine Schlafstörung haben?** Viele Menschen schlafen manchmal schlecht. Aber wenn Sie mindestens 3 Mal pro Woche und für einen Monat schlecht schlafen, kann das eine Schlafstörung sein. Typische Zeichen sind: - Sie können nicht einschlafen - Sie wachen oft nachts auf - Sie wachen morgens zu früh auf Sie fühlen sich morgens nicht erholt. Sie sind tagsüber müde. Sie haben schlechte Laune, sind gereizt oder nervös. Sie fühlen sich schwach und haben wenig Energie. Wenn Sie denken, Sie haben eine Schlafstörung, gehen Sie zum Arzt. **Was sind die Ursachen von Schlafstörungen?** Es gibt viele Gründe für Schlafstörungen: - Krankheiten - Koffein (zum Beispiel aus Kaffee, Tee oder Cola) - Alkohol am Abend - zu viel oder zu wenig Essen am Abend - Rauchen - wenig Bewegung - Stress und Ärger - Zu helles oder lautes Schlafzimmer - Zu warmes oder zu kaltes Schlafzimmer - Schichtarbeit (Arbeiten zu verschiedenen Zeiten) Auch manche Medikamente können Schlafstörungen machen, zum Beispiel bei: - Bluthochdruck - Herzkrankheiten - Depressionen Setzen Sie Medikamente nicht einfach ab. Sprechen Sie zuerst mit Ihrem Arzt. Auch Schlafmittel können Schlafstörungen machen. Mit der Zeit gewöhnt sich der Körper daran. Dann kann man ohne das Mittel nicht mehr gut schlafen. Die Wechseljahre bei Frauen können auch Schlafstörungen verursachen. Dabei verändern sich die Hormone im Körper. Manche Krankheiten können auch Schuld an Schlafstörungen sein: - Schilddrüsenüberfunktion - Prostata-Erkrankungen - Sodbrennen Auch seelische Krankheiten können eine Ursache sein: - Depressionen - Angststörungen - Alkoholsucht - Schizophrenie **Was können Sie gegen Schlafstörungen tun?** Nehmen Sie Schlafstörungen ernst. Vielleicht haben Sie eine Krankheit. Gehen Sie zum Arzt. Das können Sie tun: - Gesund leben: Viel bewegen, wenig Alkohol, nicht rauchen. - Achten Sie auf das Schlafzimmer: Nicht zu warm, nicht zu kalt, nicht zu hell. - Entspannungsübungen machen. - Verhaltenstherapie machen. Haben Sie Sorgen oder Ängste? Sprechen Sie mit einem Psychotherapeuten. Möchten Sie ein Schlafmittel nehmen? Fragen Sie vorher Ihren Arzt. **Wo bekommen Sie noch mehr Informationen?** Sie wollen mehr wissen? Mehr Informationen gibt es hier. Achtung: Die Informationen sind nicht in Leichter Sprache. --- Wenn Sie noch Fragen haben, helfe ich Ihnen gerne weiter!</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Hier ist der Text in Leichter Sprache: **Schlafstörungen** Dieser Text gibt Informationen zum Thema Schlafstörungen. Stand: 14.01.2023 **Inhalt:** - Was sind Schlafstörungen? - Welche Arten von Schlafstörungen gibt es? - Woran erkennt man Schlafstörungen? - Was sind die Ursachen für Schlafstörungen? - Was kann man gegen Schlafstörungen tun? - Wo gibt es noch mehr Informationen? --- **Was sind Schlafstörungen?** Schlafen ist wichtig für jeden Menschen. Manche Menschen brauchen mehr Schlaf als andere. Die meisten Menschen schlafen 7 bis 8 Stunden. Beim Schlaf verarbeitet das Gehirn die Eindrücke vom Tag. Die Organe und der Stoffwechsel arbeiten im Schlaf gut. Schlaf stärkt das Abwehrsystem vom Körper. Manche Menschen können nicht genug schlafen. Sie können nicht einschlafen oder wachen oft in der Nacht auf. Diese Menschen haben vielleicht eine Schlafstörung. Schlafstörungen können ein Zeichen für eine Krankheit sein. Oder Schlafstörungen können Krankheiten beeinflussen, zum Beispiel Bluthochdruck oder Depression. --- **Welche Arten von Schlafstörungen gibt es?** Es gibt verschiedene Schlafstörungen: - Schlafmangel (Fachwort: Insomnie): Man schläft schlecht ein oder wacht oft auf. - Schnarchen: Eine Person schnarcht und der Partner schläft schlecht. Oder sie wacht vom eigenen Schnarchen auf. - Schlafapnoe: Die Atmung ist in der Nacht gestört, oft durch eine blockierte Zunge oder Gaumen. Die Person bekommt schlecht Luft, wacht aber oft nicht ganz auf. - Restless Legs („Ruhelose Beine“): Die Beine kribbeln und ziehen im Bett. Betroffene schlafen schlecht oder müssen immer wieder aufstehen. - Narkolepsie („Schlafsucht“): Betroffene schlafen am Tag plötzlich ein und haben nachts Probleme mit dem Schlaf. --- **Woran erkennt man Schlafstörungen?** Viele Menschen schlafen manchmal schlecht. Wer eine Schlafstörung hat, schläft mindestens 3-mal pro Woche schlecht. Und das mindestens für 1 Monat. Die Probleme sind zum Beispiel: - Man kann nicht einschlafen. - Man wacht oft in der Nacht auf. - Man wacht früh am Morgen auf und kann nicht wieder einschlafen. Betroffene fühlen sich morgens nicht ausgeruht. Sie haben oft: - Müdigkeit am Tag - schlechte Laune, Reizbarkeit und Nervosität - wenig Kraft und wenig Antrieb Wenn Sie schlecht schlafen oder tagsüber sehr müde sind, sprechen Sie mit Ihrem Arzt. Der Arzt kann Sie untersuchen. --- **Was sind die Ursachen für Schlafstörungen?** Es gibt viele Ursachen für Schlafstörungen. Krankheiten können ein Grund sein. Oder Dinge aus dem Alltag: - Koffein, zum Beispiel durch Kaffee, schwarzen Tee oder Cola - Alkohol am Abend - zu viel oder zu wenig Essen am Abend - Rauchen - wenig Bewegung am Tag - Stress und Ärger - zu helles oder zu lautes Schlafzimmer - zu warmes oder zu kaltes Schlafzimmer - Arbeiten im Schichtdienst zu verschiedenen Zeiten Auch manche Medikamente können Schlafstörungen machen. Zum Beispiel Medikamente gegen: - Bluthochdruck - Herz-Krankheiten - Depressionen Wenn Sie glauben, Ihre Schlafstörung kommt durch ein Medikament, setzen Sie das Medikament nicht selbst ab. Sprechen Sie zuerst mit Ihrem Arzt. Auch viele Schlafmittel können Schlafstörungen machen, besonders chemische Schlafmittel. Der Körper gewöhnt sich daran und ohne das Mittel kann man vielleicht gar nicht mehr schlafen. Wenn Frauen in die Wechseljahre kommen, verändert sich der Hormonhaushalt. Auch das kann Schlafstörungen machen. Körperliche Krankheiten wie Schilddrüsen-Überfunktion, Prostata-Probleme oder Sodbrennen können Schlafstörungen verursachen. Psychische Krankheiten wie Depression, Angst, Alkoholsucht oder Schizophrenie können ebenfalls zu Schlafproblemen führen. --- **Was kann man gegen Schlafstörungen tun?** Nehmen Sie Ihre Schlafprobleme ernst. Suchen Sie einen Arzt auf. Der Arzt untersucht Sie. Das können Sie tun: - Achten Sie auf eine gesunde Lebensweise: Bewegen Sie sich genug, trinken Sie wenig oder keinen Alkohol und rauchen Sie nicht. - Ihr Schlafzimmer soll nicht zu warm, nicht zu kalt und nicht zu hell sein. - Entspannungsübungen helfen oft. - Hilfreich kann auch eine Verhaltenstherapie sein. Dort lernen Sie, wie Sie besser schlafen können und was Sie ändern können. Wenn Sie Sorgen oder Ängste haben, sprechen Sie mit einem Psychotherapeuten. Wenn Sie Schlafmittel nehmen möchten, fragen Sie vorher Ihren Arzt. --- **Wo gibt es noch mehr Informationen?** Mehr Informationen zu Schlafstörungen finden Sie im Internet. Aber achten Sie darauf: Die Informationen sind manchmal nicht in Leichter Sprache. --- Soll ich einen bestimmten Abschnitt noch einfacher oder kürzer zusammenfassen?</t>
+          <t>Hier ist Ihr Text nach dem gewünschten linguistischen Ansatz: --- **Schlafstörungen** **Was sind Schlafstörungen?** Schlaf ist wichtig. Im Schlaf erholt sich der Körper. Viele Menschen schlafen sieben bis acht Stunden. Manche Menschen schlafen schlecht. Schlafstörung bedeutet: Man kann nicht gut schlafen. **Erklärung: Schlafstörung** Probleme mit dem Schlaf. Man schläft nicht genug. Man wacht oft auf. **Welche Arten von Schlafstörungen gibt es?** - Insomnie: Man kann nicht einschlafen. - Schnarchen: Man macht Geräusche beim Schlafen. Das stört andere im Bett. - Schlafapnoe: Die Atmung setzt aus. Atmung = Luft holen. - Restless Legs: Die Beine bewegen sich oder kribbeln. Kribbeln = es fühlt sich komisch an. - Narkolepsie: Man schläft plötzlich am Tag ein. **Wie erkennt man Schlafstörungen?** - Man kann nicht einschlafen. - Man wacht nachts oft auf. - Man wacht zu früh auf. - Man ist am Tag müde. - Man hat schlechte Laune. - Man ist gereizt oder nervös. Gereizt = schnell wütend. **Was sind die Ursachen von Schlafstörungen?** - Koffein. Koffein ist ein Stoff in Kaffee, Tee oder Cola. Er macht wach. - Alkohol am Abend. - Zu viel oder zu wenig essen. - Rauchen. - Zu wenig Bewegung. - Stress. Stress = Druck im Leben. - Helles oder lautes Schlafzimmer. - Schlafzimmer ist zu warm oder zu kalt. - Schichtarbeit. Schichtarbeit = Arbeit zu wechselnden Zeiten, auch nachts. **Medikamente und Schlafstörungen** - Manche Medikamente können Schlafstörungen machen. - Medikamente sind Mittel gegen Krankheiten. - Setzen Sie Medikamente nicht alleine ab. Absetzen = nicht mehr nehmen. - Sprechen Sie mit Ihrem Arzt. Arzt = jemand, der bei Krankheiten hilft. **Schlafmittel** - Schlafmittel sind Mittel, um schneller einzuschlafen. - Chemische Schlafmittel sind künstlich. - Pflanzliche Schlafmittel sind aus Pflanzen. - Man kann abhängig werden. Abhängig = Man braucht das Mittel immer mehr. **Krankheiten als Ursache** - Schilddrüsenüberfunktion. Schilddrüse = Organ im Hals. - Prostata-Erkrankung. Prostata = Organ bei Männern. - Sodbrennen. Sodbrennen = unangenehmes Gefühl im Bauch. - Depression, Angst, Alkohol-Sucht, Schizophrenie. Depression = lange traurig; Angst = oft Angst haben; Sucht = man braucht etwas immer; Schizophrenie = man hört oder sieht Dinge, die nicht da sind. **Was hilft gegen Schlafstörungen?** - Achten Sie auf Gesundheit. Viel bewegen. Wenig Alkohol. Nicht rauchen. - Das Schlafzimmer soll dunkel, ruhig und nicht zu warm oder kalt sein. - Entspannungsübungen machen. Entspannungsübungen = Übungen zum Abschalten. - Verhaltenstherapie machen. Verhaltenstherapie = Gespräche mit einem Experten über Gewohnheiten. - Bei Problemen, zum Beispiel Sorgen, mit einem Psychotherapeuten reden. Psychotherapeut = hilft bei seelischen Problemen. - Schlafmittel nur nach Absprache mit dem Arzt nehmen. **Wo gibt es weitere Informationen?** - Mehr Infos gibt es im Internet. - Achtung: Die Infos im Internet sind oft nicht in Einfacher Sprache. ---</t>
         </is>
       </c>
     </row>
@@ -930,12 +930,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Hier ist der Text in Deutscher Leichter Sprache: **Lebensmittel-Vergiftung** Dieser Text erklärt Lebensmittel-Erkrankungen in Leichter Sprache. --- **Was ist der Unterschied zwischen Vergiftung und Infektion?** - Es gibt zwei Arten von Krankheiten durch Lebensmittel: Lebensmittel-Vergiftung und Lebensmittel-Infektion. - Beide Krankheiten entstehen durch Essen. Aber sie sind nicht gleich. - Viele Menschen wissen nicht, was der Unterschied ist. --- **Lebensmittel-Vergiftung** - Eine Lebensmittel-Vergiftung entsteht, weil Gift im Essen ist. - Die Gifte kommen meistens von Bakterien oder von Schimmelpilzen. - Oft machen Bakterien das Gift. - Ein typisches Bakterium ist: Staphylococcus aureus. - Die Gifte können sich nicht weiter verbreiten. Man steckt niemanden an. - Eine Lebensmittel-Vergiftung ist nicht ansteckend. **Lebensmittel-Infektion** - Eine Lebensmittel-Infektion ist ansteckend. - Sie entsteht durch Bakterien oder Viren im Essen. - Diese Bakterien oder Viren sind anders als bei der Vergiftung. - Die Bakterien oder Viren vermehren sich im Körper. - Typische Bakterien bei einer Lebensmittel-Infektion sind: Campylobacter, Salmonellen, Listerien. - Auch Viren können eine Infektion machen, z.B.: Hepatitis-Viren, Noro-Viren, Rota-Viren. --- **Woran erkennen Sie eine Lebensmittel-Erkrankung?** **Lebensmittel-Vergiftung** - Typische Beschwerden sind: - Übelkeit (Ihnen wird schlecht) - Bauchschmerzen - Erbrechen (Sie müssen sich übergeben) - Durchfall - Die Beschwerden kommen meistens schnell, nach ein paar Stunden. - Die Beschwerden gehen oft schnell wieder weg. - Manchmal dauern die Beschwerden länger. Das kommt auf die Menge ab und auf das Gift. **Lebensmittel-Infektion** - Die Beschwerden sind oft gleich wie bei der Vergiftung. - Die Beschwerden kommen aber oft später, manchmal erst nach einigen Tagen. - Menschen mit einer Infektion können andere anstecken. --- **Warum kann eine Lebensmittel-Erkrankung gefährlich sein?** - Diese Krankheit kann sehr gefährlich sein. - Besonders gefährdet sind: - kleine Kinder und Babys - schwangere Frauen - alte Menschen - kranke Menschen - Achtung: Diese Menschen sollten bei Beschwerden sofort zum Arzt gehen! - Auch gesunde Menschen müssen zum Arzt, wenn: - die Beschwerden länger als 3 Tage dauern, - Sie Fieber bekommen, - der Durchfall blutig ist, - Sie Probleme beim Sehen haben, - Sie Lähmungen bekommen, also Körperteile nicht mehr bewegen können. - Es kann auch eine andere Krankheit sein. Nur ein Arzt kann das prüfen. --- **Welche Lebensmittel machen oft krank?** - Manche Lebensmittel machen besonders oft krank. Dazu gehören: - rohes Fleisch - rohes Geflügel - roher Fisch - rohe Eier - Rohmilch - Rohe Eier und Rohmilch sind oft auch in anderen Produkten, z.B.: - Mayonnaise - Kuchenfüllungen - Milcheis - viele Käsesorten - Auch in aufgeblähten Dosen können gefährliche Keime sein. - Essen Sie nie Essen aus aufgeblähten (dicken) Dosen. --- **Wie können Sie eine Lebensmittel-Erkrankung vermeiden?** - Kochen, Braten oder Garen Sie das Essen lange genug. Durch starkes Erhitzen sterben viele krankmachende Keime. - Waschen Sie Ihre Hände gründlich mit Wasser und Seife. Besonders nach Kontakt mit rohem Fleisch oder rohem Fisch. - Verarbeiten Sie verschiedene Lebensmittel getrennt. Rohes Fleisch und Fisch dürfen andere Lebensmittel nicht berühren. Nutzen Sie extra Messer und Bretter. - Putzen Sie die Arbeitsfläche in der Küche immer gut. - Tauschen Sie oft Putzlappen, Schwämme und Bürsten aus. - Schütten Sie Wasser von aufgetauten Lebensmitteln sofort weg. - Lagern Sie Fleisch, Wurst, Fisch, Rohmilch, Käse immer im Kühlschrank. Halten Sie die Lebensmittel getrennt. --- **Wo bekommen Sie mehr Informationen?** - Wenn Sie denken, Sie sind vielleicht krank wegen Lebensmitteln: Gehen Sie zum Arzt! Nur der Arzt kann Ihnen sicher helfen. - Sie möchten mehr wissen? Hier gibt es noch mehr Infos (Achtung: Die Infos sind dann nicht mehr in Leichter Sprache). - Dieser Text ist nur allgemein. Er ersetzt keinen Arzt. Wenn Sie krank sind oder Fragen haben, gehen Sie zum Arzt. --- Wenn Sie noch etwas schwierige Wörter erklärt haben möchten, schreiben Sie gerne!</t>
+          <t>Hier ist der Text in Deutscher Leichter Sprache: --- **Lebensmittel-Vergiftung** Dieser Text informiert in Leichter Sprache über: Krankheiten durch Lebensmittel. **Inhalt:** - Was ist der Unterschied zwischen einer Lebensmittel-Vergiftung und einer Lebensmittel-Infektion? - Woran erkennen Sie eine Krankheit durch Lebensmittel? - Warum kann eine Krankheit durch Lebensmittel gefährlich sein? - Welche Lebensmittel machen oft krank? - Wie können Sie Krankheiten durch Lebensmittel vermeiden? - Wo bekommen Sie mehr Informationen? --- ### Was ist der Unterschied zwischen Lebensmittel-Vergiftung und Lebensmittel-Infektion? **Lebensmittel-Vergiftung und Lebensmittel-Infektion sind Krankheiten. Man bekommt sie vom Essen. Sie sind aber verschieden.** #### Lebensmittel-Vergiftung - Eine Lebensmittel-Vergiftung ist eine Vergiftung. - Gifte im Essen machen die Krankheit. - Oft kommen die Gifte von Bakterien oder Schimmel. - Bakterien machen manchmal Gifte. Zum Beispiel das Bakterium Staphylococcus aureus. - Die Gifte in einer Lebensmittel-Vergiftung kann man nicht weitergeben. - Die Krankheit ist nicht ansteckend. #### Lebensmittel-Infektion - Bei einer Lebensmittel-Infektion kommt die Krankheit von Bakterien oder Viren im Essen. - Die Bakterien oder Viren vermehren sich im Körper. - Typische Bakterien sind: Campylobacter, Salmonellen, Listerien. - Typische Viren sind: Hepatitis-Viren, Noro-Viren, Rota-Viren. - Lebensmittel-Infektion ist ansteckend. --- ### Woran erkennen Sie eine Krankheit durch Lebensmittel? **Lebensmittel-Vergiftung:** - Typische Beschwerden sind: - Übelkeit (schlechtes Gefühl im Magen) - Bauchschmerzen - Erbrechen - Durchfall - Beschwerden kommen oft schnell, nach ein paar Stunden. - Beschwerden gehen oft schnell weg, manchmal in ein paar Stunden. - Beschwerden können aber auch länger dauern, je nach Gift im Essen. **Lebensmittel-Infektion:** - Beschwerden sind oft gleich wie bei Vergiftung. - Beschwerden kommen aber oft später, manchmal erst nach Tagen. - Menschen mit Lebensmittel-Infektion sind ansteckend. --- ### Warum kann eine Krankheit durch Lebensmittel gefährlich sein? **Für manche Menschen ist eine Krankheit durch Lebensmittel sehr gefährlich.** - Besonders gefährlich ist es für: - Babys und kleine Kinder - Schwangere Frauen - Alte Menschen - Kranke Menschen - Diese Menschen müssen bei Verdacht auf Krankheit sofort zum Arzt gehen. - Auch gesunde Menschen sollen zum Arzt gehen, wenn: - Beschwerden länger als 3 Tage sind. - Fieber dazu kommt. - Durchfall mit Blut dabei ist. - Sie schlecht sehen können. - Sie Lähmungen (keine Kraft in Muskeln) bekommen. - Es können auch andere Krankheiten sein. Ein Arzt kann helfen. --- ### Welche Lebensmittel machen oft krank? **Besonders oft gefährlich sind:** - Rohes Fleisch - Rohes Geflügel - Roher Fisch - Rohe Eier - Rohmilch **Achtung:** In vielen anderen Lebensmitteln sind auch rohe Eier oder Rohmilch, zum Beispiel: - Mayonnaise - Kuchenfüllungen - Milcheis - Käse **Auch Konservendosen können gefährlich sein. Wenn die Dose dick und aufgebläht ist, essen Sie sie nicht!** --- ### Wie können Sie Krankheiten durch Lebensmittel vermeiden? - Lebensmittel gut kochen, braten oder garen. - Hitze tötet die meisten Keime ab. - Hände immer mit Wasser und Seife waschen, vor und nach dem Kochen. - Nach Kontakt mit rohem Fleisch oder Fisch immer Hände waschen. - Rohes Fleisch oder Fisch von anderen Lebensmitteln fern halten. - Verschiedene Teller und Brettchen benutzen. - Arbeitsflächen sauber machen. - Küchenschwämme und Lappen oft wechseln. - Tauwasser (Wasser von aufgetauten Lebensmitteln) immer wegschütten. - Lagern Sie Lebensmittel, Fleisch, Fisch, Wurst und Rohmilch im Kühlschrank. - Lebensmittel getrennt im Kühlschrank lagern. --- ### Wo bekommen Sie noch mehr Informationen? - Wenn Sie denken, Sie haben eine Krankheit durch Lebensmittel: Gehen Sie zum Arzt. - Der Arzt kann Sie untersuchen und helfen. - Mehr Informationen finden Sie im Internet. - **Achtung:** Diese Informationen hier sind nur allgemein. Sie ersetzen keinen Arzt-Besuch. - Wenn Sie sich krank fühlen oder Fragen haben: Gehen Sie immer zum Arzt. --- **Ende des Textes in Leichter Sprache.**</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Hier ist der Text in Deutscher Leichter Sprache: **Lebensmittel-Vergiftung** Dieser Text erklärt Lebensmittel-Erkrankungen in Leichter Sprache. --- **Was ist der Unterschied zwischen Vergiftung und Infektion?** - Es gibt zwei Arten von Krankheiten durch Lebensmittel: Lebensmittel-Vergiftung und Lebensmittel-Infektion. - Beide Krankheiten entstehen durch Essen. Aber sie sind nicht gleich. - Viele Menschen wissen nicht, was der Unterschied ist. --- **Lebensmittel-Vergiftung** - Eine Lebensmittel-Vergiftung entsteht, weil Gift im Essen ist. - Die Gifte kommen meistens von Bakterien oder von Schimmelpilzen. - Oft machen Bakterien das Gift. - Ein typisches Bakterium ist: Staphylococcus aureus. - Die Gifte können sich nicht weiter verbreiten. Man steckt niemanden an. - Eine Lebensmittel-Vergiftung ist nicht ansteckend. **Lebensmittel-Infektion** - Eine Lebensmittel-Infektion ist ansteckend. - Sie entsteht durch Bakterien oder Viren im Essen. - Diese Bakterien oder Viren sind anders als bei der Vergiftung. - Die Bakterien oder Viren vermehren sich im Körper. - Typische Bakterien bei einer Lebensmittel-Infektion sind: Campylobacter, Salmonellen, Listerien. - Auch Viren können eine Infektion machen, z.B.: Hepatitis-Viren, Noro-Viren, Rota-Viren. --- **Woran erkennen Sie eine Lebensmittel-Erkrankung?** **Lebensmittel-Vergiftung** - Typische Beschwerden sind: - Übelkeit (Ihnen wird schlecht) - Bauchschmerzen - Erbrechen (Sie müssen sich übergeben) - Durchfall - Die Beschwerden kommen meistens schnell, nach ein paar Stunden. - Die Beschwerden gehen oft schnell wieder weg. - Manchmal dauern die Beschwerden länger. Das kommt auf die Menge ab und auf das Gift. **Lebensmittel-Infektion** - Die Beschwerden sind oft gleich wie bei der Vergiftung. - Die Beschwerden kommen aber oft später, manchmal erst nach einigen Tagen. - Menschen mit einer Infektion können andere anstecken. --- **Warum kann eine Lebensmittel-Erkrankung gefährlich sein?** - Diese Krankheit kann sehr gefährlich sein. - Besonders gefährdet sind: - kleine Kinder und Babys - schwangere Frauen - alte Menschen - kranke Menschen - Achtung: Diese Menschen sollten bei Beschwerden sofort zum Arzt gehen! - Auch gesunde Menschen müssen zum Arzt, wenn: - die Beschwerden länger als 3 Tage dauern, - Sie Fieber bekommen, - der Durchfall blutig ist, - Sie Probleme beim Sehen haben, - Sie Lähmungen bekommen, also Körperteile nicht mehr bewegen können. - Es kann auch eine andere Krankheit sein. Nur ein Arzt kann das prüfen. --- **Welche Lebensmittel machen oft krank?** - Manche Lebensmittel machen besonders oft krank. Dazu gehören: - rohes Fleisch - rohes Geflügel - roher Fisch - rohe Eier - Rohmilch - Rohe Eier und Rohmilch sind oft auch in anderen Produkten, z.B.: - Mayonnaise - Kuchenfüllungen - Milcheis - viele Käsesorten - Auch in aufgeblähten Dosen können gefährliche Keime sein. - Essen Sie nie Essen aus aufgeblähten (dicken) Dosen. --- **Wie können Sie eine Lebensmittel-Erkrankung vermeiden?** - Kochen, Braten oder Garen Sie das Essen lange genug. Durch starkes Erhitzen sterben viele krankmachende Keime. - Waschen Sie Ihre Hände gründlich mit Wasser und Seife. Besonders nach Kontakt mit rohem Fleisch oder rohem Fisch. - Verarbeiten Sie verschiedene Lebensmittel getrennt. Rohes Fleisch und Fisch dürfen andere Lebensmittel nicht berühren. Nutzen Sie extra Messer und Bretter. - Putzen Sie die Arbeitsfläche in der Küche immer gut. - Tauschen Sie oft Putzlappen, Schwämme und Bürsten aus. - Schütten Sie Wasser von aufgetauten Lebensmitteln sofort weg. - Lagern Sie Fleisch, Wurst, Fisch, Rohmilch, Käse immer im Kühlschrank. Halten Sie die Lebensmittel getrennt. --- **Wo bekommen Sie mehr Informationen?** - Wenn Sie denken, Sie sind vielleicht krank wegen Lebensmitteln: Gehen Sie zum Arzt! Nur der Arzt kann Ihnen sicher helfen. - Sie möchten mehr wissen? Hier gibt es noch mehr Infos (Achtung: Die Infos sind dann nicht mehr in Leichter Sprache). - Dieser Text ist nur allgemein. Er ersetzt keinen Arzt. Wenn Sie krank sind oder Fragen haben, gehen Sie zum Arzt. --- Wenn Sie noch etwas schwierige Wörter erklärt haben möchten, schreiben Sie gerne!</t>
+          <t>Hier ist der Text nach deinem gewünschten linguistischen Ansatz reformuliert: --- **Lebensmittel-Vergiftung** **Was ist eine Lebensmittel-Vergiftung?** Eine Lebensmittel-Vergiftung ist eine Krankheit. Man bekommt die Krankheit durch Gift im Essen. Gift heißt: Der Körper verträgt das Essen nicht. Das Gift kann von Bakterien oder Schimmel stammen. Bakterien sind sehr kleine Lebewesen. Man kann sie nicht sehen. Schimmel sind Pilze. Sie wachsen zum Beispiel auf altem Brot. **Eine Lebensmittel-Vergiftung ist nicht ansteckend.** Das heißt: Man kann niemanden mit der Vergiftung anstecken. **Was ist eine Lebensmittel-Infektion?** Bei einer Lebensmittel-Infektion sind Bakterien oder Viren im Essen. Viren sind sehr kleine Teilchen. Sie machen Menschen krank. Die Bakterien oder Viren vermehren sich im Körper. Man kann andere Menschen anstecken. **Typische Bakterien oder Viren sind:** - Campylobacter - Salmonellen - Listerien - Hepatitis-Viren - Noro-Viren - Rota-Viren **Woran erkennt man eine Krankheit durch Lebensmittel?** Typische Beschwerden sind: - Übelkeit (schlechtes Bauchgefühl, vielleicht muss man sich übergeben) - Bauchschmerzen - Erbrechen (das Essen kommt wieder aus dem Mund) - Durchfall (man muss oft zur Toilette, der Stuhl ist flüssig) Bei Vergiftung kommen die Beschwerden oft schnell. Bei Infektion kommen die Beschwerden später, manchmal nach ein paar Tagen. Manche Menschen mit einer Infektion können andere anstecken. **Wann ist eine Krankheit durch Lebensmittel gefährlich?** Für manche Menschen ist die Krankheit sehr gefährlich: - Babys und kleine Kinder - Schwangere Frauen (Frauen mit Baby im Bauch) - Alte Menschen - Kranke Menschen Diese Menschen sollen schnell zum Arzt gehen. Auch gesunde Menschen sollen zum Arzt gehen, wenn: - Die Beschwerden sind länger als 3 Tage. - Es kommt Fieber dazu. Fieber heißt: Die Körpertemperatur ist zu hoch. - Der Durchfall ist blutig. - Man sieht schlecht oder hat Lähmungen (man kann Teile vom Körper nicht mehr bewegen). **Welche Lebensmittel sind oft gefährlich?** In manchen Lebensmitteln sind oft Bakterien oder Viren: - Rohes Fleisch (Fleisch, das nicht gekocht, gebraten oder gebacken ist) - Rohes Geflügel (zum Beispiel rohes Hähnchen) - Roher Fisch - Rohe Eier - Rohmilch (Milch, die nicht gekocht oder pasteurisiert ist) Oft sind auch Eier oder Rohmilch in Mayonnaise, Kuchenfüllungen, Milcheis, Käse. Konservendosen können selten gefährlich sein. Ist die Dose aufgebläht? Dann essen Sie den Inhalt nicht. **Wie kann man die Krankheiten vermeiden?** - Essen gut kochen oder braten. * Kochen heißt: Das Essen wird mit Hitze gar gemacht. - Hände waschen vor und nach dem Kochen. Benutzen Sie Seife. - Nach rohem Fleisch oder Fisch immer Hände waschen. - Rohes Fleisch oder Fisch niemals mit anderen Lebensmitteln zusammenlegen. - Verschiedene Teller und Schneidebretter benutzen. - Arbeitsflächen sauber machen. - Putztücher und Schwämme oft wechseln. - Wasser von aufgetautem Fleisch oder Fisch immer wegschütten. - Fleisch, Fisch, Wurst, Rohmilch und Käse immer im Kühlschrank lagern. - Alle Lebensmittel im Kühlschrank getrennt lagern. **Wo gibt es mehr Informationen?** Wenn Sie denken, Sie sind krank durch Essen: Gehen Sie zum Arzt. Nur der Arzt kann helfen. Dieser Text ersetzt keinen Arzt-Besuch. Fühlen Sie sich krank, gehen Sie immer zum Arzt. --- **Erklärung schwieriger Wörter:** - Bakterien: Kleine Lebewesen, die Krankheiten machen können. - Viren: Sehr kleine Teilchen, die Krankheiten machen können. - Schimmel: Pilz, wächst zum Beispiel auf altem Essen. - Roh: Nicht gekocht oder gebraten. - Pasteurisiert: Milch wurde erhitzt, damit keine Bakterien mehr im Getränk sind. - Immunsystem: Schutz im Körper gegen Krankheiten. - Lähmung: Man kann ein Körperteil nicht mehr bewegen. - Fieber: Körper ist wärmer als normal.</t>
         </is>
       </c>
     </row>
@@ -952,12 +952,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Hier ist der Text in Leichter Sprache: **Hämorrhoiden** Dieser Text erklärt Hämorrhoiden in Leichter Sprache. ### Was sind Hämorrhoiden? Jeder Mensch hat Hämorrhoiden. Das ist ganz normal. Hämorrhoiden sind kleine Polster im Körper. Sie liegen am Ende vom Darm, am Darmausgang. Hämorrhoiden helfen dabei, den Darmausgang zu schließen, damit kein Stuhl herauskommt, wenn man es nicht möchte. Beim Stuhlgang werden Hämorrhoiden kleiner. Danach sind sie wieder größer. ### Wann machen Hämorrhoiden Probleme? Manchmal werden Hämorrhoiden sehr groß. Das ist für viele Menschen unangenehm. Viele Menschen haben Probleme mit Hämorrhoiden. ### Wie merken Sie, ob Sie vergrößerte Hämorrhoiden haben? Große Hämorrhoiden können Beschwerden machen. Das heißt: Sie merken etwas am Po. Typische Beschwerden sind: - Juckreiz am Po - Der Po ist nass - Schleim kommt aus dem Po - Blut kommt aus dem Po - Druckgefühl am Po - Schmerzen Wichtig: Diese Beschwerden können auch andere Gründe haben. Gehen Sie immer zum Arzt, wenn Sie solche Beschwerden haben. Es gibt verschiedene Stufen bei großen Hämorrhoiden: - **Stufe 1:** Hämorrhoiden sind größer, aber bleiben im Körper. Meist sind die Beschwerden gering. - **Stufe 2:** Hämorrhoiden kommen manchmal beim Stuhlgang aus dem Körper heraus, gehen aber von allein zurück. - **Stufe 3:** Hämorrhoiden kommen heraus, gehen nicht alleine zurück, aber Sie können sie mit dem Finger zurückschieben. - **Stufe 4:** Hämorrhoiden sind immer draußen und können nicht zurückgeschoben werden. Dann sind die Beschwerden oft stark. ### Wie entstehen vergrößerte Hämorrhoiden? In Hämorrhoiden gibt es viele Blutgefäße. Wenn die Blutgefäße zu groß werden, dehnt sich das Gewebe aus. Dann werden die Hämorrhoiden größer. ### Warum bekommt man vergrößerte Hämorrhoiden? Die genauen Gründe sind nicht ganz sicher. Ärzte denken: Wichtigster Grund ist starkes Pressen beim Stuhlgang. Oft ist Verstopfung daran schuld. Auch langes Sitzen auf der Toilette, häufiger Durchfall, starker Husten, schweres Heben, Übergewicht oder eine Schwangerschaft können das Problem auslösen. Manche Menschen haben ein höheres Risiko, zum Beispiel: - Menschen mit Verstopfung - Menschen mit ständigem Durchfall - Menschen, die oft husten - Menschen mit Übergewicht - Menschen mit schwachem Bindegewebe - ältere Menschen - Schwangere Frauen ### Was tun bei Beschwerden? Gehen Sie zum Arzt. Andere Krankheiten können ähnliche Beschwerden machen. Nur ein Arzt kann klären, was los ist. Der Arzt fragt: - Welche Beschwerden haben Sie? - Wie groß sind die Hämorrhoiden? - Haben Sie andere Krankheiten? Der Arzt sucht eine passende Behandlung für Sie. ### Wie kann man Hämorrhoiden verhindern? Sie können einiges tun: - Pressen Sie nicht stark beim Stuhlgang. - Nehmen Sie sich Zeit und warten Sie, bis der Stuhl von allein kommt. Viele Ärzte empfehlen einen kleinen Hocker für die Füße beim Stuhlgang. Das macht den Stuhlgang leichter. Wichtig: - Ihr Stuhlgang sollte regelmäßig sein. Manche Menschen haben täglich Stuhlgang, andere seltener. - Der Stuhl sollte nicht zu hart und nicht zu weich sein. - Wenn Sie oft Verstopfung oder Durchfall haben, gehen Sie zum Arzt. - Gesunde Ernährung hilft. ### Wo gibt es mehr Informationen? Sie wollen noch mehr über Hämorrhoiden wissen? Es gibt mehr Infos im Internet. Achtung: Oft sind diese Infos nicht in Leichter Sprache. Achtung: Dieser Text ersetzt nicht den Arztbesuch. Wenn Sie Beschwerden haben, gehen Sie bitte immer zum Arzt. --- Falls Sie Anpassungen wünschen oder der Text noch weiter vereinfacht werden soll, lassen Sie es mich wissen.</t>
+          <t>Hier ist der Text in Leichter Sprache (vereinfachte und barrierearme Version): **Hämorrhoiden** Dieser Text erklärt Hämorrhoiden in Leichter Sprache. **Was sind Hämorrhoiden?** Fast alle Menschen haben Hämorrhoiden. Hämorrhoiden sind kleine Polster aus Gewebe und Blutgefäßen. Sie sind am Ausgang vom Darm, also dort, wo das „große Geschäft“ herauskommt. Hämorrhoiden helfen, den Ausgang zu verschließen. Sie sind meist angeschwollen. Beim Stuhlgang (also wenn man auf Toilette geht), werden sie kleiner. Dann kann der Stuhl herauskommen. **Vergrößerte Hämorrhoiden** Manchmal werden Hämorrhoiden größer. Das kann unangenehm sein. Viele Menschen haben vergrößerte Hämorrhoiden. **Wie merkt man vergrößerte Hämorrhoiden?** Man kann verschiedene Beschwerden spüren: - Es juckt am Po. - Es ist nass am Po. - Es kommt Schleim heraus. - Es kommt Blut heraus. - Es tut weh am Po. - Man spürt Druck am Po. Wichtig: Diese Beschwerden können auch andere Krankheiten sein. Gehen Sie bei Beschwerden immer zum Arzt. **Es gibt verschiedene Stufen von vergrößerten Hämorrhoiden:** - Stufe 1: Sie sind nur etwas größer, bleiben aber im Körper. Meist tut nichts weh. - Stufe 2: Sie kommen manchmal ein wenig heraus, zum Beispiel beim Stuhlgang. Danach gehen sie von alleine wieder zurück. - Stufe 3: Sie kommen heraus und gehen nicht von selbst zurück. Man kann sie aber mit dem Finger zurückschieben. - Stufe 4: Sie bleiben immer draußen. Man kann sie nicht zurückschieben. Das ist sehr unangenehm. **Wie entstehen vergrößerte Hämorrhoiden?** Hämorrhoiden haben viele Blutgefäße. Wenn viel Blut hineinfließt, werden sie größer. Das passiert oft beim starken Pressen auf Toilette. **Was sind die Ursachen?** Man weiß nicht immer, warum Hämorrhoiden größer werden. Oft sind die Gründe: - Starkes Pressen beim Stuhlgang. - Verstopfung. - Viel und starkes Husten. - Schwanger sein. - Kraftsport. - Übergewicht. - Langes Sitzen auf der Toilette. - Häufiger Durchfall. Manche Menschen bekommen leichter Hämorrhoiden: - Wenn man oft Verstopfung hat. - Wenn man oft Durchfall hat. - Bei Übergewicht. - Bei schwachem Bindegewebe. - Wenn man älter ist. - Wenn man schwanger ist. **Was kann man dagegen tun?** Wenn Sie Beschwerden haben, gehen Sie zum Arzt. Vielleicht ist es etwas anderes. Der Arzt sagt Ihnen, was zu tun ist. Der Arzt macht eine Untersuchung und schlägt dann eine Behandlung vor. **Wie kann man Hämorrhoiden vermeiden?** - Gehen Sie zur Toilette, wenn Sie müssen. - Pressen Sie nicht zu stark beim Stuhlgang. - Ein Toilettenhocker kann helfen. Stellen Sie Ihre Füße beim Stuhlgang auf den Hocker, das ist leichter. **Wichtig ist ein gesunder Stuhlgang:** - Haben Sie regelmäßig Stuhlgang. - Der Stuhl sollte nicht zu hart oder zu weich sein. - Essen Sie gesund. - Bei Problemen mit Stuhlgang gehen Sie zum Arzt. **Wo gibt es mehr Informationen?** Sie wollen mehr wissen? Es gibt dazu weitere Informationen im Internet. Aber dieser Text ersetzt nicht den Besuch beim Arzt. Wenn Sie Beschwerden haben, gehen Sie immer zum Arzt. --- Wenn Sie möchten, kann ich den Text noch weiter vereinfachen oder bestimmte Abschnitte besonders betonen.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Hier ist der Text in Leichter Sprache: **Hämorrhoiden** Dieser Text erklärt Hämorrhoiden in Leichter Sprache. ### Was sind Hämorrhoiden? Jeder Mensch hat Hämorrhoiden. Das ist ganz normal. Hämorrhoiden sind kleine Polster im Körper. Sie liegen am Ende vom Darm, am Darmausgang. Hämorrhoiden helfen dabei, den Darmausgang zu schließen, damit kein Stuhl herauskommt, wenn man es nicht möchte. Beim Stuhlgang werden Hämorrhoiden kleiner. Danach sind sie wieder größer. ### Wann machen Hämorrhoiden Probleme? Manchmal werden Hämorrhoiden sehr groß. Das ist für viele Menschen unangenehm. Viele Menschen haben Probleme mit Hämorrhoiden. ### Wie merken Sie, ob Sie vergrößerte Hämorrhoiden haben? Große Hämorrhoiden können Beschwerden machen. Das heißt: Sie merken etwas am Po. Typische Beschwerden sind: - Juckreiz am Po - Der Po ist nass - Schleim kommt aus dem Po - Blut kommt aus dem Po - Druckgefühl am Po - Schmerzen Wichtig: Diese Beschwerden können auch andere Gründe haben. Gehen Sie immer zum Arzt, wenn Sie solche Beschwerden haben. Es gibt verschiedene Stufen bei großen Hämorrhoiden: - **Stufe 1:** Hämorrhoiden sind größer, aber bleiben im Körper. Meist sind die Beschwerden gering. - **Stufe 2:** Hämorrhoiden kommen manchmal beim Stuhlgang aus dem Körper heraus, gehen aber von allein zurück. - **Stufe 3:** Hämorrhoiden kommen heraus, gehen nicht alleine zurück, aber Sie können sie mit dem Finger zurückschieben. - **Stufe 4:** Hämorrhoiden sind immer draußen und können nicht zurückgeschoben werden. Dann sind die Beschwerden oft stark. ### Wie entstehen vergrößerte Hämorrhoiden? In Hämorrhoiden gibt es viele Blutgefäße. Wenn die Blutgefäße zu groß werden, dehnt sich das Gewebe aus. Dann werden die Hämorrhoiden größer. ### Warum bekommt man vergrößerte Hämorrhoiden? Die genauen Gründe sind nicht ganz sicher. Ärzte denken: Wichtigster Grund ist starkes Pressen beim Stuhlgang. Oft ist Verstopfung daran schuld. Auch langes Sitzen auf der Toilette, häufiger Durchfall, starker Husten, schweres Heben, Übergewicht oder eine Schwangerschaft können das Problem auslösen. Manche Menschen haben ein höheres Risiko, zum Beispiel: - Menschen mit Verstopfung - Menschen mit ständigem Durchfall - Menschen, die oft husten - Menschen mit Übergewicht - Menschen mit schwachem Bindegewebe - ältere Menschen - Schwangere Frauen ### Was tun bei Beschwerden? Gehen Sie zum Arzt. Andere Krankheiten können ähnliche Beschwerden machen. Nur ein Arzt kann klären, was los ist. Der Arzt fragt: - Welche Beschwerden haben Sie? - Wie groß sind die Hämorrhoiden? - Haben Sie andere Krankheiten? Der Arzt sucht eine passende Behandlung für Sie. ### Wie kann man Hämorrhoiden verhindern? Sie können einiges tun: - Pressen Sie nicht stark beim Stuhlgang. - Nehmen Sie sich Zeit und warten Sie, bis der Stuhl von allein kommt. Viele Ärzte empfehlen einen kleinen Hocker für die Füße beim Stuhlgang. Das macht den Stuhlgang leichter. Wichtig: - Ihr Stuhlgang sollte regelmäßig sein. Manche Menschen haben täglich Stuhlgang, andere seltener. - Der Stuhl sollte nicht zu hart und nicht zu weich sein. - Wenn Sie oft Verstopfung oder Durchfall haben, gehen Sie zum Arzt. - Gesunde Ernährung hilft. ### Wo gibt es mehr Informationen? Sie wollen noch mehr über Hämorrhoiden wissen? Es gibt mehr Infos im Internet. Achtung: Oft sind diese Infos nicht in Leichter Sprache. Achtung: Dieser Text ersetzt nicht den Arztbesuch. Wenn Sie Beschwerden haben, gehen Sie bitte immer zum Arzt. --- Falls Sie Anpassungen wünschen oder der Text noch weiter vereinfacht werden soll, lassen Sie es mich wissen.</t>
+          <t>Hier finden Sie den Text reformuliert nach Ihrem linguistischen Ansatz: --- **Hämorrhoiden – Was ist das?** Hämorrhoiden sind kleine Polster aus Gewebe. Sie sind am Ausgang vom Darm. Sie verschließen den Darmausgang. Polster bedeutet: eine weiche Stelle im Körper. Der Darm ist das Organ für die Verdauung. Hämorrhoiden sind keine Krankheit. **Woran erkennt man vergrößerte Hämorrhoiden?** Man kann folgende Beschwerden haben: - Juckreiz (es kratzt am Po) - Nässe (es ist feucht am Po) - Schleim (es kommt eine klebrige Flüssigkeit heraus) - Blut (es kommt Blut beim Stuhlgang) - Druck (man spürt etwas drückt am Po) - Schmerzen (es tut weh am Po) Manchmal sind die Beschwerden stärker. Gehen Sie immer zum Arzt, wenn Sie Beschwerden haben. **Wie entstehen vergrößerte Hämorrhoiden?** In den Hämorrhoiden sind viele Blutgefäße. Blutgefäße sind Röhren für Blut im Körper. Wenn viel Blut in die Hämorrhoiden kommt, werden sie größer. **Was sind die Ursachen für vergrößerte Hämorrhoiden?** Häufig passiert das beim starken Pressen beim Stuhlgang. Pressen heißt: Man drückt sehr stark. Stuhlgang ist das „große Geschäft“ auf Toilette. Andere Ursachen sind: - langes Sitzen auf Toilette - häufiger Durchfall (flüssiger Stuhl) - starker Husten (man hustet oft und lange) - Krafttraining (Sport mit schweren Gewichten) - Übergewicht (man wiegt zu viel) - Schwangerschaft (man erwartet ein Baby) Manche Menschen bekommen leichter vergrößerte Hämorrhoiden: - Menschen mit Verstopfung (Stuhlgang geht schwer) - Menschen mit Durchfall - Menschen mit Übergewicht - Schwangere Frauen - Alte Menschen **Was kann man gegen vergrößerte Hämorrhoiden tun?** Gehen Sie zu einem Arzt bei Beschwerden. Der Arzt kann helfen. Der Arzt prüft, wo die Beschwerden herkommen. Es gibt verschiedene Behandlungen. **Wie kann man Hämorrhoiden vermeiden?** Man kann das Risiko senken: - Nicht stark Pressen beim Stuhlgang. - Nicht lange auf Toilette sitzen. - Hocker für die Füße benutzen. - Regelmäßigen Stuhlgang haben. - Gesund essen. Gesunde Ernährung bedeutet viel Obst, Gemüse und Ballaststoffe essen. Ballaststoffe sind zum Beispiel in Vollkornbrot, Gemüse und Obst. **Weitere Informationen** Für mehr Infos fragen Sie eine Ärztin oder einen Arzt. Dieser Text ist nur eine kurze Erklärung. Der Arzt weiß mehr und kann helfen. --- Schwere Wörter sind jeweils direkt kurz erklärt. Die Sätze sind einfach und ohne Nebensätze. Unwichtige Details sind weggelassen.</t>
         </is>
       </c>
     </row>
@@ -974,12 +974,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Gern übersetze ich den Text in Leichte Sprache: --- **Seelsorge** Dieser Text erklärt das Thema Seelsorge in Leichter Sprache. **Was ist Seelsorge?** Manchmal bekommen Menschen große Probleme. Manchmal wissen Menschen nicht mehr weiter. Dann möchten sie mit jemandem sprechen. Vielleicht haben Sie auch Sorgen oder Kummer. Dann können Sie zur Seelsorge gehen. Bei der Seelsorge arbeiten Menschen, die zuhören. Sie helfen Ihnen bei Ihren Problemen. Sie dürfen alles sagen. Sie müssen nicht Ihren Namen sagen. Das nennt man: anonym bleiben. Die Seelsorge kostet kein Geld. Sie müssen nichts bezahlen. Sie können die Seelsorge immer anrufen. Auch nachts und am Wochenende. **Wie erreichen Sie die Seelsorge?** Sie haben ein Problem? Oder Sie brauchen Hilfe? Sie können dort anrufen. Die Nummern sind: - 0800 111 0 111 - 0800 111 0 222 - 116 123 Sie können auch der Seelsorge eine E-Mail schreiben. Dafür müssen Sie sich anmelden. Sie können auch mit der Seelsorge im Chat schreiben. Dafür müssen Sie sich auch anmelden. Achtung: Die Anmeldung ist nicht in Leichter Sprache. **Wo bekommen Sie noch mehr Informationen?** Sie möchten mehr wissen? Es gibt noch mehr Informationen zur Seelsorge im Internet. Achtung: Diese Informationen sind nicht in Leichter Sprache. ---</t>
+          <t>Hier ist der Text in Leichter Sprache: --- **Seelsorge** In diesem Text bekommen Sie Infos über Seelsorge. Stand: 14.07.2021 - Was ist Seelsorge? - Wie können Sie die Seelsorge erreichen? - Wo gibt es mehr Infos? --- **Was ist Seelsorge?** Manchmal geht es Menschen nicht gut. Vielleicht haben Sie ein Problem. Oder Sie machen sich viele Sorgen. Sie wissen nicht, wie es weitergeht. Dann möchten Sie vielleicht mit jemandem sprechen. Sie fragen sich: Wer kann mir zuhören? Wer kann mir helfen? Dann rufen Sie bei der Seelsorge an. Die Menschen von der Seelsorge hören Ihnen zu. Sie versuchen, Ihnen zu helfen. Seelsorge kostet kein Geld. Bei der Seelsorge bleibt alles anonym. Niemand erfährt, was Sie erzählen. Sie können die Seelsorge immer anrufen. Auch nachts und am Wochenende ist jemand da. --- **Wie können Sie die Seelsorge erreichen?** Haben Sie ein Problem? Dann rufen Sie die Seelsorge an. Die Telefon-Nummern sind: - 0800 111 0 111 - 0800 111 0 222 - 116 123 Sie können der Seelsorge auch eine E-Mail schreiben. Hier können Sie sich für die E-Mail-Seelsorge anmelden. Es gibt auch einen Chat mit der Seelsorge. Hier können Sie sich für den Chat anmelden. Achtung! Die Links führen auf andere Webseiten. Dort gibt es keine Leichte Sprache. --- **Wo gibt es mehr Informationen?** Sie wollen mehr über Seelsorge wissen? Hier bekommen Sie mehr Infos. Auch hier ist ein Link auf eine andere Webseite. Dort gibt es keine Leichte Sprache.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Gern übersetze ich den Text in Leichte Sprache: --- **Seelsorge** Dieser Text erklärt das Thema Seelsorge in Leichter Sprache. **Was ist Seelsorge?** Manchmal bekommen Menschen große Probleme. Manchmal wissen Menschen nicht mehr weiter. Dann möchten sie mit jemandem sprechen. Vielleicht haben Sie auch Sorgen oder Kummer. Dann können Sie zur Seelsorge gehen. Bei der Seelsorge arbeiten Menschen, die zuhören. Sie helfen Ihnen bei Ihren Problemen. Sie dürfen alles sagen. Sie müssen nicht Ihren Namen sagen. Das nennt man: anonym bleiben. Die Seelsorge kostet kein Geld. Sie müssen nichts bezahlen. Sie können die Seelsorge immer anrufen. Auch nachts und am Wochenende. **Wie erreichen Sie die Seelsorge?** Sie haben ein Problem? Oder Sie brauchen Hilfe? Sie können dort anrufen. Die Nummern sind: - 0800 111 0 111 - 0800 111 0 222 - 116 123 Sie können auch der Seelsorge eine E-Mail schreiben. Dafür müssen Sie sich anmelden. Sie können auch mit der Seelsorge im Chat schreiben. Dafür müssen Sie sich auch anmelden. Achtung: Die Anmeldung ist nicht in Leichter Sprache. **Wo bekommen Sie noch mehr Informationen?** Sie möchten mehr wissen? Es gibt noch mehr Informationen zur Seelsorge im Internet. Achtung: Diese Informationen sind nicht in Leichter Sprache. ---</t>
+          <t>Hier ist die gewünschte Überarbeitung auf drei Ebenen: --- **Seelsorge** **Was ist Seelsorge?** Seelsorge hilft Menschen. Seelsorge ist da, wenn jemand Probleme hat. Seelsorge hört Ihnen zu. Sie können sprechen, wenn Sie Sorgen haben. Sorge heißt: Man denkt viel an etwas Schlimmes. Krise heißt: Man weiß nicht mehr weiter. Seelsorge kostet kein Geld. Seelsorge ist anonym. Anonym heißt: Niemand erfährt Ihren Namen. **Wie erreichen Sie die Seelsorge?** Sie können die Seelsorge anrufen. Die Nummern sind: - 0800 111 0 111 - 0800 111 0 222 - 116 123 Sie können auch eine E-Mail an die Seelsorge schicken. E-Mail heißt: Sie schreiben über das Internet. Es gibt auch einen Chat mit der Seelsorge. Chat heißt: Sie schreiben sofort Nachrichten am Computer. **Wo bekommen Sie Informationen?** Mehr über Seelsorge steht im Internet. Internet heißt: Informationen auf dem Computer. --- Worterklärungen: - **Sorge**: Angst oder schlechte Gedanken - **Krise**: Schwierige Zeit - **Anonym**: Ohne Namen - **E-Mail**: Nachricht per Computer - **Chat**: Schnelles Schreiben am Computer - **Internet**: Weltweites Computernetz</t>
         </is>
       </c>
     </row>
@@ -996,12 +996,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Hier ist Ihr Text in Leichter Sprache: **Erste Hilfe: Das müssen Sie tun, wenn ein Notfall passiert** Dieser Text erklärt in einfacher Sprache, was Erste Hilfe ist und was Sie tun sollen, wenn ein Unfall passiert. Stand: 13.02.2023 **Inhalt:** - Was ist Erste Hilfe? - Was tun Sie zuerst nach einem Unfall? - Wie helfen Sie einer bewusstlosen Person? - Wie unterstützen Sie eine verletzte Person? - Wo bekommen Sie mehr Informationen? --- **Was ist Erste Hilfe?** Erste Hilfe heißt: Jemand ist verletzt oder in Gefahr. Dann helfen Sie schnell. Jeder Mensch kann Erste Hilfe machen. Zu Erster Hilfe gehört zum Beispiel: - Bringen Sie die verletzte Person aus der Gefahr. - Rufen Sie die Notrufnummer 112 an. - Legen Sie die verletzte Person in die stabile Seitenlage. - Versuchen Sie, die verletzte Person wiederzubeleben. - Helfen und beruhigen Sie die verletzte Person. --- **Was machen Sie zuerst nach einem Unfall?** Diese Dinge sind wichtig: - Bringen Sie sich selbst in Sicherheit. Zum Beispiel: Bei einem Autounfall stellen Sie ein Warndreieck auf und ziehen eine Warnweste an. - Bringen Sie verletzte Personen aus der Gefahr. Aber achten Sie auf Ihre eigene Sicherheit! - Sie möchten eine verletzte Person bewegen? Seien Sie sehr vorsichtig! Wenden Sie zum Beispiel den Rautek-Griff an: - Greifen Sie die verletzte Person unter den Achseln. - Fassen Sie mit beiden Händen den Unterarm der verletzten Person. - Legen Sie den Unterarm quer über die Brust. - Gehen Sie in die Knie und ziehen Sie die Person vorsichtig zurück. - Ziehen Sie die verletzte Person an einen sicheren Ort. - Legen Sie die Person vorsichtig ab. --- **Wie rufen Sie Hilfe?** - Sie sind in Sicherheit? Rufen Sie die Notrufnummer 112 an. - Das Telefonat kostet kein Geld. - Sagen Sie am Telefon: - Wo ist der Unfall? - Was ist passiert? - Wie viele Menschen sind verletzt? - Welche Verletzungen gibt es? - Legen Sie nicht sofort auf. Warten Sie, ob der Mitarbeiter noch Fragen hat. --- **Wie helfen Sie einer bewusstlosen Person?** - Manche Menschen sind nach einem Unfall bewusstlos. - Bewusstlos heißt: Die Person ist da, aber sie reagiert nicht mehr. Sie atmet aber noch. - Bringen Sie die bewusstlose Person in die stabile Seitenlage. - So ist die Person besser geschützt. --- **Wie können Sie eine Person wiederbeleben?** - Die Person atmet nicht mehr? Oder atmet sehr ungewöhnlich? - Dann rufen Sie sofort die Notrufnummer 112. - Beginnen Sie direkt mit der Hilfe: - Drücken Sie 30 Mal kräftig auf den Brustkorb der Person. Drücken Sie schnell, ungefähr 2 Mal</t>
+          <t>Gerne! Hier ist die Übersetzung Ihres Textes in Leichte Sprache: --- **Erste Hilfe: So verhalten Sie sich im Notfall richtig (Leichte Sprache)** Dieser Text erklärt: Was ist Erste Hilfe? Was müssen Sie beim Unfall tun? * Stand: 13.02.2023 **Inhalt:** - Was ist Erste Hilfe? - Was tun Sie zuerst nach einem Unfall? - Wie helfen Sie bewusstlosen Menschen? - Wie helfen Sie verletzten Menschen? - Wo finden Sie mehr Infos? --- ### Was ist Erste Hilfe? Nach einem Unfall sind Menschen verletzt. Schnelle Hilfe ist sehr wichtig. Die erste schnelle Hilfe heißt: Erste Hilfe. Jeder Mensch soll Erste Hilfe können. Zur Ersten Hilfe gehören wichtige Regeln. Diese Regeln muss jeder kennen. Wichtige Regeln sind zum Beispiel: - Bringen Sie die verletzte Person an einen sicheren Ort. - Rufen Sie die Notrufnummer 112 an. - Legen Sie bewusstlose Personen in die stabile Seitenlage. - Versuchen Sie, das Leben der Person zu retten (Wiederbelebung). - Unterstützen Sie verletzte Personen. --- ### Was tun Sie zuerst nach einem Unfall? 1. **Bringen Sie sich selbst in Sicherheit.** Zum Beispiel: Nach einem Autounfall stellen Sie ein Warndreieck auf. Ziehen Sie eine Warnweste an. Sie möchten helfen? Bringen Sie sich nicht in Gefahr. 2. **Bringen Sie verletzte Menschen in Sicherheit.** Ist die verletzte Person noch in Gefahr? Dann bringen Sie die Person vorsichtig an einen sicheren Ort. Sie müssen die Person bewegen? Gehen Sie vorsichtig vor. Dafür gibt es einen Griff: den Rautek-Griff. So geht der Rautek-Griff: - Fassen Sie die Person unter den Achseln. - Greifen Sie mit beiden Händen einen Arm der Person. - Legen Sie diesen Arm quer vor die Brust der Person. - Gehen Sie in die Knie. - Ziehen Sie die Person auf Ihren Oberschenkel. - Gehen Sie rückwärts mit der Person an einen sicheren Ort. - Legen Sie die Person vorsichtig auf den Boden. (Bilder können dazu helfen. In diesem Text gibt es keine Bilder.) --- ### Wie holen Sie Hilfe? Sie und andere sind in Sicherheit? Dann rufen Sie den Notruf an. Die Notrufnummer ist: 112. - Der Notruf ist kostenlos. - Sie können den Notruf auch mit einem gesperrten Handy anrufen. Diese Angaben sind wichtig am Telefon: - Wo ist der Unfall? - Was ist passiert? - Wie viele Menschen sind verletzt? - Welche Verletzungen haben die Menschen? Legen Sie nicht direkt auf. Warten Sie auf Rückfragen. --- ### Wie helfen Sie einer bewusstlosen Person? Manche Menschen werden durch den Unfall bewusstlos. Das heißt: Die Person wacht nicht mehr auf. Die Person atmet aber noch. Legen Sie die Person in die stabile Seitenlage. Das schützt die Person. (Mehr Infos dazu finden Sie in anderen Texten.) --- ### Wie beleben Sie eine Person wieder? Atmet die Person nicht mehr? Oder nicht normal? Rufen Sie zuerst die 112 an. Danach machen Sie sofort eine Wiederbelebung: - Drücken Sie mit beiden Händen 30 Mal kräftig auf die Mitte vom Brustkorb. Drücken Sie etwa 2 Mal pro Sekunde. - Pusten Sie der Person 2 Mal Luft in den Mund oder die Nase (Atemspende). - Drücken Sie wieder 30 Mal auf den Brustkorb. - Wiederholen Sie alles, bis Hilfe kommt. Wichtig bei der Wiederbelebung: - Beginnen Sie sofort mit dem Drücken (Herzdruckmassage). - Drücken Sie lieber zu fest als zu leicht. - Machen Sie möglichst keine Pausen beim Drücken. Haben Sie keine Angst: Sie können nichts falsch machen, wenn Sie helfen. (Mehr Infos finden Sie in anderen Texten.) --- ### Wie unterstützen Sie verletzte Menschen noch?</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Hier ist Ihr Text in Leichter Sprache: **Erste Hilfe: Das müssen Sie tun, wenn ein Notfall passiert** Dieser Text erklärt in einfacher Sprache, was Erste Hilfe ist und was Sie tun sollen, wenn ein Unfall passiert. Stand: 13.02.2023 **Inhalt:** - Was ist Erste Hilfe? - Was tun Sie zuerst nach einem Unfall? - Wie helfen Sie einer bewusstlosen Person? - Wie unterstützen Sie eine verletzte Person? - Wo bekommen Sie mehr Informationen? --- **Was ist Erste Hilfe?** Erste Hilfe heißt: Jemand ist verletzt oder in Gefahr. Dann helfen Sie schnell. Jeder Mensch kann Erste Hilfe machen. Zu Erster Hilfe gehört zum Beispiel: - Bringen Sie die verletzte Person aus der Gefahr. - Rufen Sie die Notrufnummer 112 an. - Legen Sie die verletzte Person in die stabile Seitenlage. - Versuchen Sie, die verletzte Person wiederzubeleben. - Helfen und beruhigen Sie die verletzte Person. --- **Was machen Sie zuerst nach einem Unfall?** Diese Dinge sind wichtig: - Bringen Sie sich selbst in Sicherheit. Zum Beispiel: Bei einem Autounfall stellen Sie ein Warndreieck auf und ziehen eine Warnweste an. - Bringen Sie verletzte Personen aus der Gefahr. Aber achten Sie auf Ihre eigene Sicherheit! - Sie möchten eine verletzte Person bewegen? Seien Sie sehr vorsichtig! Wenden Sie zum Beispiel den Rautek-Griff an: - Greifen Sie die verletzte Person unter den Achseln. - Fassen Sie mit beiden Händen den Unterarm der verletzten Person. - Legen Sie den Unterarm quer über die Brust. - Gehen Sie in die Knie und ziehen Sie die Person vorsichtig zurück. - Ziehen Sie die verletzte Person an einen sicheren Ort. - Legen Sie die Person vorsichtig ab. --- **Wie rufen Sie Hilfe?** - Sie sind in Sicherheit? Rufen Sie die Notrufnummer 112 an. - Das Telefonat kostet kein Geld. - Sagen Sie am Telefon: - Wo ist der Unfall? - Was ist passiert? - Wie viele Menschen sind verletzt? - Welche Verletzungen gibt es? - Legen Sie nicht sofort auf. Warten Sie, ob der Mitarbeiter noch Fragen hat. --- **Wie helfen Sie einer bewusstlosen Person?** - Manche Menschen sind nach einem Unfall bewusstlos. - Bewusstlos heißt: Die Person ist da, aber sie reagiert nicht mehr. Sie atmet aber noch. - Bringen Sie die bewusstlose Person in die stabile Seitenlage. - So ist die Person besser geschützt. --- **Wie können Sie eine Person wiederbeleben?** - Die Person atmet nicht mehr? Oder atmet sehr ungewöhnlich? - Dann rufen Sie sofort die Notrufnummer 112. - Beginnen Sie direkt mit der Hilfe: - Drücken Sie 30 Mal kräftig auf den Brustkorb der Person. Drücken Sie schnell, ungefähr 2 Mal</t>
+          <t>Hier ist die Reformulierung des Textes nach Ihrem linguistischen Ansatz: --- **Erste Hilfe: Was tun im Notfall?** **Was ist Erste Hilfe?** Erste Hilfe ist schnelle Hilfe nach einem Unfall. Unfall bedeutet: Es ist etwas Schlimmes passiert. Menschen sind verletzt. Jeder soll Erste Hilfe leisten. Wichtige Aufgaben sind: - Bringen Sie die verletzte Person an einen sicheren Ort. (Sicherheit = Der Ort ist nicht gefährlich.) - Rufen Sie die Notrufnummer 112. (Notruf = Telefon-Hilfe bei Notfällen.) - Legen Sie bewusstlose Personen in die stabile Seitenlage. (Bewusstlos = Person wacht nicht auf.) - Versuchen Sie die Person zu retten, zum Beispiel mit Wiederbelebung. (Wiederbelebung = Leben retten durch Drücken und Pusten.) - Sprechen Sie beruhigend mit der verletzten Person. --- **Was tun nach einem Unfall?** - Zuerst: Seien Sie selbst sicher. - Sichern Sie die Unfallstelle. (Unfallstelle = Der Ort des Unfalls.) - Ziehen Sie eine Warnweste an. (Warnweste = Auffällige Sicherheitskleidung.) - Holen Sie Hilfe. - Bringen Sie verletzte Personen in Sicherheit. Wenn Sie eine verletzte Person bewegen müssen, machen Sie das langsam. Dabei können Sie den Rautek-Griff verwenden. (Rautek-Griff = eine Art, Menschen zu tragen.) So geht der Griff: - Gehen Sie hinter die Person. - Greifen Sie unter die Arme. - Fassen Sie den Arm quer über die Brust. - Ziehen Sie die Person vorsichtig zurück. --- **Wie rufen Sie Hilfe?** - Wählen Sie 112. - Sagen Sie: - Wo ist der Unfall? - Was ist passiert? - Wie viele Menschen sind verletzt? - Welche Verletzungen gibt es? - Legen Sie nicht sofort auf. Warten Sie auf Rückfragen. --- **Wie helfen Sie bewusstlosen Personen?** - Prüfen Sie: Atmet die Person noch? (Atmen = Luft holen.) - Wenn ja: Legen Sie die Person in die stabile Seitenlage. - Stabile Seitenlage schützt vor Ersticken. (Ersticken = Nicht mehr atmen können.) --- **Wie machen Sie die Wiederbelebung?** - Atmet die Person nicht? - Rufen Sie 112. - Drücken Sie mit beiden Händen 30 Mal fest auf den Brustkorb. (Brustkorb = Der Bereich über dem Herzen.) - Geben Sie 2 Mal Luft in Mund oder Nase. - Wiederholen Sie das Drücken. - Machen Sie weiter, bis Hilfe kommt. --- **Wie unterstützen Sie verletzte Personen?** - Bleiben Sie bei der Person. - Sagen Sie: Hilfe ist unterwegs. - Schützen Sie die Person vor Zuschauern. (Zuschauer = Andere Menschen am Unfallort.) - Halten Sie vorsichtig die Hand. - Hören Sie der Person zu. --- **Erklärung schwieriger Wörter:** - Unfall: Ein schlimmes Ereignis, bei dem Menschen verletzt werden. - Notruf: Ein wichtiges Telefon für Notfälle, die Nummer ist 112. - Bewusstlos: Eine Person wacht nicht auf, reagiert nicht. - Wiederbelebung: Eine Person zurück ins Leben bringen, durch Drücken und Pusten. - Sicherheit: Ein Ort ohne Gefahr. - Rautek-Griff: Eine Technik, um verletzte Menschen zu bewegen. --- **Mehr Informationen** Mehr Infos finden Sie auf speziellen Internetseiten. (Link wird hier nicht angezeigt.) --- So erklären Sie Erste Hilfe ohne unwichtige Infos, mit einfachen Sätzen und Worterklärungen.</t>
         </is>
       </c>
     </row>
@@ -1018,12 +1018,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Hier ist Ihr Text in Deutscher Leichter Sprache: **Insektenstich** Dieser Text erklärt: Was tun bei einem Insektenstich? Was ist Erste Hilfe? **Was tun bei einem Insektenstich?** Meist sind Insektenstiche in Deutschland nicht gefährlich. Sie können meistens selbst helfen. So gehen Sie vor: - Ist der Stachel von einer Biene noch in der Haut? Nehmen Sie den Stachel vorsichtig heraus. Schieben Sie ihn zum Beispiel mit einer Kreditkarte seitlich aus der Haut. Seien Sie dabei vorsichtig. Ziehen Sie möglichst nicht an der Giftblase. In der Giftblase ist das Gift vom Insekt. Kommt das Gift in die Wunde, kann es mehr wehtun. - Kühlen Sie den Stich. Wickeln Sie ein Kühlpack oder Eiswürfel in ein Tuch. Legen Sie das Tuch auf den Stich. Wichtig: Eiswürfel oder Kühlpacks nicht direkt auf die Haut legen! Die Haut kann sonst Schaden nehmen. - Sie können ein Gel oder eine Salbe gegen Insektenstiche aus der Apotheke benutzen. Das hilft gegen Jucken. - Hitze hilft manchmal auch. Es gibt dafür spezielle Geräte namens Hitze-Stift. Hitze kann den Juckreiz verringern. **Wann müssen Sie den Rettungsdienst rufen?** Manchmal sind Insektenstiche gefährlich. Rufen Sie den Rettungsdienst (112), wenn: - Der Stich ist im Mund oder Hals. - Die Person hat sehr viele Stiche auf einmal. - Die Person reagiert allergisch. **Stich im Mund oder Hals** Das ist sehr gefährlich. Die Stelle kann stark anschwellen. Die Person bekommt vielleicht keine Luft mehr. Rufen Sie sofort den Rettungsdienst (112). Sie können helfen: - Geben Sie der Person ein Eiswürfel zum Lutschen. - Machen Sie kühle Umschläge um den Hals. **Viele Stiche** Die Person wurde von vielen Bienen, Wespen oder Hornissen gestochen? Rufen Sie sofort 112! Viel Gift auf einmal ist gefährlich. **Allergische Reaktion** Reagiert eine Person allergisch? Handeln Sie schnell. Rufen Sie 112! Zeichen für eine Allergie: - Die Person bekommt schlecht Luft - Der Person ist schwindlig - Das Herz schlägt schnell - Die Haut schwillt stark an - Auf der Haut sind rote, dicke Flecken (Quaddeln) Manche Menschen haben ein Notfall-Set für Allergien. Das Set enthält: - Kortison (gegen Entzündung) - Antihistaminikum (gegen Allergie) - Eine Adrenalin-Spritze (hilft dem Kreislauf) So benutzen Sie das Set: - Entfernen Sie den Stachel - Geben Sie Kortison und Antihistaminikum - Entsichern Sie die Adrenalin-Spritze. Setzen Sie sie seitlich auf den Oberschenkel. Auslösen. Wichtig: Atmet die Person nicht mehr? Dann beginnen Sie mit der Wiederbelebung. **Mehr Informationen** Es gibt ein Erklärvideo zu Insektenstichen. Sie finden das Video und mehr Infos im Internet. Manche Infos sind nicht in Leichter Sprache.</t>
+          <t>Hier ist die Übersetzung in Deutsche Leichte Sprache: **Insekten-Stich** Dieser Text gibt Informationen zur Ersten Hilfe bei einem Insekten-Stich. Stand: 19.10.2021 **Was machen Sie bei einem Insekten-Stich?** **Wann rufen Sie den Rettungs-Dienst an?** **Wo finden Sie mehr Informationen?** --- **Was machen Sie bei einem Insekten-Stich?** In Deutschland ist ein Insekten-Stich meistens nicht gefährlich. Meistens können Sie selbst helfen. Das ist wichtig bei einem Insekten-Stich: - Ein Stachel von der Biene steckt noch in der Haut? Dann nehmen Sie den Stachel vorsichtig aus der Haut. Am besten mit einer Karte, zum Beispiel einer Kredit-Karte. Schieben Sie den Stachel seitlich heraus. Sie wollen den Stachel mit einer Pinzette herausziehen? Seien Sie sehr vorsichtig. An dem Stachel ist ein Gift-Beutel. Wenn Sie den Gift-Beutel berühren, kommt mehr Gift in die Haut. - Kühlen Sie die Stelle vom Stich. Wickeln Sie Eiswürfel oder ein Kühl-Pack in ein Tuch. Legen Sie das Tuch auf den Stich. Legen Sie Eis oder Kühl-Packs nicht direkt auf die Haut. Die Haut kann sonst kaputt gehen. - Sie können ein Gel oder eine Salbe gegen Jucken auf die Stelle geben. Sie bekommen diese in der Apotheke. - Hitze kann auch helfen. Es gibt spezielle Hitze-Stifte gegen Jucken. --- **Wann rufen Sie den Rettungs-Dienst an?** Manchmal ist ein Insekten-Stich gefährlich. Sie müssen den Rettungs-Dienst rufen: - Der Stich ist im Mund oder im Hals. - Die Person wurde sehr oft gestochen. - Die Person ist allergisch gegen Insekten-Stiche. **Stich im Mund oder Hals** Achtung: Ein Stich im Mund oder Hals ist sehr gefährlich. Die Stelle kann sehr dick werden. Vielleicht kann die Person nicht mehr atmen. Rufen Sie schnell den Rettungs-Dienst: 112. Sie können helfen: - Geben Sie der Person einen Eiswürfel zum Lutschen. - Legen Sie einen kühlen Umschlag um den Hals. **Viele Stiche auf einmal** Eine Person wurde oft von einer Wespe, Biene oder Hornisse gestochen? Rufen Sie sofort den Rettungs-Dienst: 112. **Allergie gegen Insekten-Stiche** Eine Person hat eine Allergie gegen Insekten-Stiche? Rufen Sie schnell den Rettungs-Dienst: 112. Anzeichen für eine Allergie können sein: - Die Person bekommt schlecht Luft. - Der Person ist schwindelig. - Das Herz schlägt schnell. - Die Haut schwillt stark an. - Es gibt rote, dicke Flecken auf der Haut. Diese heißen Quaddeln. Viele Menschen mit Allergie haben ein Notfall-Set. Das Set hat: - Ein Medikament mit Kortison. Es hilft gegen Entzündung. - Ein Medikament gegen Allergie. Es hilft gegen Juckreiz und Schwellungen. - Eine Spritze mit Adrenalin. Sie hilft, wenn das Herz und der Kreislauf Probleme machen. So helfen Sie mit dem Notfall-Set: - Nehmen Sie den Stachel aus der Haut. - Geben Sie der Person die Medikamente. - Machen Sie die Spritze bereit. - Spritzen Sie die Spritze in den Oberschenkel. - Die Person atmet nicht mehr? Dann machen Sie Wiederbelebung. --- **Wo finden Sie mehr Informationen?** Es gibt ein Video zu diesem Thema: „Insekten-Stiche richtig behandeln“ zeigt Ihnen, was Sie tun können. Sie wollen mehr lesen? Hier finden Sie mehr Informationen über Insekten-Stiche. Achtung: Der Link ist nicht in Leichter Sprache.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Hier ist Ihr Text in Deutscher Leichter Sprache: **Insektenstich** Dieser Text erklärt: Was tun bei einem Insektenstich? Was ist Erste Hilfe? **Was tun bei einem Insektenstich?** Meist sind Insektenstiche in Deutschland nicht gefährlich. Sie können meistens selbst helfen. So gehen Sie vor: - Ist der Stachel von einer Biene noch in der Haut? Nehmen Sie den Stachel vorsichtig heraus. Schieben Sie ihn zum Beispiel mit einer Kreditkarte seitlich aus der Haut. Seien Sie dabei vorsichtig. Ziehen Sie möglichst nicht an der Giftblase. In der Giftblase ist das Gift vom Insekt. Kommt das Gift in die Wunde, kann es mehr wehtun. - Kühlen Sie den Stich. Wickeln Sie ein Kühlpack oder Eiswürfel in ein Tuch. Legen Sie das Tuch auf den Stich. Wichtig: Eiswürfel oder Kühlpacks nicht direkt auf die Haut legen! Die Haut kann sonst Schaden nehmen. - Sie können ein Gel oder eine Salbe gegen Insektenstiche aus der Apotheke benutzen. Das hilft gegen Jucken. - Hitze hilft manchmal auch. Es gibt dafür spezielle Geräte namens Hitze-Stift. Hitze kann den Juckreiz verringern. **Wann müssen Sie den Rettungsdienst rufen?** Manchmal sind Insektenstiche gefährlich. Rufen Sie den Rettungsdienst (112), wenn: - Der Stich ist im Mund oder Hals. - Die Person hat sehr viele Stiche auf einmal. - Die Person reagiert allergisch. **Stich im Mund oder Hals** Das ist sehr gefährlich. Die Stelle kann stark anschwellen. Die Person bekommt vielleicht keine Luft mehr. Rufen Sie sofort den Rettungsdienst (112). Sie können helfen: - Geben Sie der Person ein Eiswürfel zum Lutschen. - Machen Sie kühle Umschläge um den Hals. **Viele Stiche** Die Person wurde von vielen Bienen, Wespen oder Hornissen gestochen? Rufen Sie sofort 112! Viel Gift auf einmal ist gefährlich. **Allergische Reaktion** Reagiert eine Person allergisch? Handeln Sie schnell. Rufen Sie 112! Zeichen für eine Allergie: - Die Person bekommt schlecht Luft - Der Person ist schwindlig - Das Herz schlägt schnell - Die Haut schwillt stark an - Auf der Haut sind rote, dicke Flecken (Quaddeln) Manche Menschen haben ein Notfall-Set für Allergien. Das Set enthält: - Kortison (gegen Entzündung) - Antihistaminikum (gegen Allergie) - Eine Adrenalin-Spritze (hilft dem Kreislauf) So benutzen Sie das Set: - Entfernen Sie den Stachel - Geben Sie Kortison und Antihistaminikum - Entsichern Sie die Adrenalin-Spritze. Setzen Sie sie seitlich auf den Oberschenkel. Auslösen. Wichtig: Atmet die Person nicht mehr? Dann beginnen Sie mit der Wiederbelebung. **Mehr Informationen** Es gibt ein Erklärvideo zu Insektenstichen. Sie finden das Video und mehr Infos im Internet. Manche Infos sind nicht in Leichter Sprache.</t>
+          <t>Hier ist der Text nach Ihrem linguistischen Ansatz umformuliert: --- **Insektenstich** Dieser Text erklärt Erste Hilfe bei einem Insektenstich. Datum: 19.10.2021 --- **Was tun bei einem Insektenstich?** Ein Insektenstich ist oft nicht gefährlich. Sie können meistens selbst helfen. - Ein Stachel steckt in der Haut. Sie nehmen den Stachel vorsichtig heraus. Benutzen Sie eine Karte mit glatter Kante. Schieben Sie die Karte seitlich unter den Stachel. „Stachel“ bedeutet: scharfer Teil von Biene oder Wespe, der in die Haut sticht. „Giftblase“ ist ein kleines Bläschen am Stachel. Dort ist das Gift. Berühren Sie die Giftblase nicht. „Gift“ ist eine schädliche Flüssigkeit. - Kühlen Sie den Stich. Wickeln Sie Eis oder ein Kühlpack in ein Tuch. Legen Sie das Tuch auf die Haut. „Kühlen“ bedeutet: etwas kalt machen. - Cremen Sie die Stelle ein. Sie bekommen das Gel oder die Salbe in der Apotheke. „Apotheke“ ist ein Laden für Medikamente. - Hitze hilft auch bei Juckreiz. Sie können einen Hitze-Stift benutzen. „Hitze-Stift“ ist ein Gerät, das warm wird. --- **Wann Hilfe rufen?** Manchmal ist ein Insektenstich gefährlich. Sie rufen den Rettungsdienst bei: - Stich im Mund oder Hals. - Viele Stiche auf einmal. - Die Person hat eine Allergie. „Rettungsdienst“ ist die Hilfe bei Notfällen. Die Nummer ist 112. --- **Stich im Mund oder Hals** Der Mund oder Hals schwillt an. Die Person kann schwer atmen. Rufen Sie 112. Geben Sie der Person einen Eiswürfel zum Lutschen. Machen Sie einen kühlen Umschlag für den Hals. „Schwellung“ ist, wenn die Haut dick wird. „Atmen“ bedeutet: Luft holen. --- **Viele Stiche** Die Person wurde oft gestochen. Rufen Sie 112. Zu viel Gift ist gefährlich. --- **Allergie** Die Person hat eine Allergie gegen Insektenstiche. Das ist gefährlich. Rufen Sie 112. Anzeichen für Allergie sind: - Die Person bekommt schwer Luft. - Der Person ist schwindelig. - Das Herz schlägt schnell. - Es gibt dicke Flecken auf der Haut, die rot sind. Das heißt „Quaddeln“. Manche Menschen haben ein Notfall-Set dabei. Im Set sind Medikamente: - Kortison: hilft gegen Entzündung. „Entzündung“ ist, wenn die Haut rot und dick wird. - Antihistamin: hilft gegen Juckreiz. - Adrenalin-Spritze: hilft, wenn Kreislauf schlecht ist. „Kreislauf“ bedeutet: Blut fließt durch den Körper. Sie geben der Person die Medikamente. Sie spritzen Adrenalin in den Oberschenkel. Wenn die Person nicht mehr atmet: Machen Sie Wiederbelebung. „Wiederbelebung“ ist, wenn das Herz nicht schlägt, und Sie drücken auf den Brustkorb. --- **Weitere Informationen** Es gibt ein Video zu Insektenstich. Das Video zeigt, was Sie tun können. Mehr Infos finden Sie im Internet. Manche Infos sind nicht in einfacher Sprache.</t>
         </is>
       </c>
     </row>
@@ -1040,12 +1040,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Hier ist der Text in Leichter Sprache. Leichte Sprache ist noch einfacher als Einfache Sprache. Die Sätze sind kurz. Schwierige Wörter sind erklärt. Manche Informationen sind zusammengefasst. --- **Diabetes Typ 2** Dieser Text erklärt: Was ist Diabetes Typ 2? **Was ist Diabetes Typ 2?** Diabetes Typ 2 ist eine Krankheit. Das spricht man: Diabet-es Typ Zwei. Die Krankheit bleibt lange. Man kann Diabetes Typ 2 nicht ganz heilen. Bei Diabetes Typ 2 ist zu viel Zucker im Blut. Das Blut ist eine Flüssigkeit im Körper. Der Arzt misst: Wie viel Zucker ist im Blut? Das nennt man: Blutzucker-Spiegel. Zu viel Zucker im Blut ist nicht gut. Der Körper kann den Zucker nicht richtig benutzen. **Warum ist zu viel Zucker im Blut?** Im Körper gibt es eine Flüssigkeit. Diese heißt Insulin. Insulin hilft, dass Zucker in die Körper-Zellen kommt. Bei Diabetes Typ 2 hilft Insulin aber nicht richtig. Dann bleibt zu viel Zucker im Blut. **Wie merkt man Diabetes Typ 2?** Viele Menschen merken zuerst nichts. Erst später gibt es Anzeichen. Zum Beispiel: - Man ist oft sehr durstig. - Man muss oft zur Toilette. - Man ist oft müde. - Die Haut ist trocken und juckt. - Wunden heilen langsam. - Im Intimbereich gibt es öfter Entzündungen. - Man ist oft krank. Wenn Sie denken: Ich habe Diabetes Typ 2? Gehen Sie zum Arzt. Nur der Arzt kann das sicher sagen. **Was kann passieren bei Diabetes Typ 2?** Zu viel Zucker im Blut ist gefährlich. Es kann viele Probleme geben, zum Beispiel: - Die Nerven im Körper werden kaputt. - Die Augen können schlechter sehen. - Das Herz kann krank werden. - Die Nieren können kaputt gehen. Manchmal tut der Fuß nicht mehr weh, wenn man sich verletzt. Das nennt man: diabetischer Fuß. **Warum bekommt man Diabetes Typ 2?** - Es gibt viele Gründe. Zum Beispiel: - Diabetes Typ 2 kommt öfter, wenn es schon in der Familie ist. - Man isst oft süße Sachen oder fettes Essen. - Man bewegt sich wenig. - Man hat Übergewicht (zu viel Körpergewicht). **Was kann ich tun bei Diabetes Typ 2?** - Gesünder essen. - Mehr bewegen, zum Beispiel: Spazierengehen. - Abnehmen, wenn man zu schwer ist. - Mit anderen Betroffenen sprechen, zum Beispiel in einer Gruppe. - Manchmal gibt der Arzt Medikamente. Der Arzt hilft Ihnen. Fragen Sie immer Ihren Arzt. **Wie kann ich Diabetes Typ 2 vermeiden?** - Gesundes Essen ist wichtig. - Bewegung ist wichtig. - Nicht zu viel wiegen. **Brauchen Sie mehr Informationen?** Sie wollen mehr wissen? Fragen Sie Ihren Arzt. Oder suchen Sie eine Selbsthilfe-Gruppe. Achtung: Dieser Text ist nur eine Information. Er ersetzt nicht den Besuch beim Arzt. Nur Ihr Arzt kann Ihnen genau helfen. --- Wenn Sie möchten, kann ich bestimmte Abschnitte noch mehr vereinfachen oder mit Symbolen unterstützen. Lassen Sie mich wissen, wenn Sie weitere Hilfe möchten!</t>
+          <t>Hier ist der Text in Leichter Sprache: --- **Diabetes Typ 2** Dieser Text erklärt das Thema Diabetes Typ 2 in Leichter Sprache. **Inhalt:** - Was ist Diabetes Typ 2? - Was passiert bei Diabetes Typ 2? - Wie merkt man Diabetes Typ 2? - Was sind die Ursachen von Diabetes Typ 2? - Was kann man gegen Diabetes Typ 2 machen? - Wie kann man Diabetes Typ 2 vermeiden? - Wo gibt es mehr Informationen? --- **Was ist Diabetes Typ 2?** Diabetes Typ 2 ist eine Krankheit. Sie gehört zu den Stoffwechsel-Krankheiten. Das heißt: Der Körper kann das Essen nicht richtig verarbeiten. Bei Diabetes Typ 2 kann der Körper den Zucker aus dem Essen nicht gut aufnehmen. Deshalb ist zu viel Zucker im Blut. Das nennt man: Hoher Blutzucker. Diabetes Typ 2 bleibt meistens ein Leben lang. Die Krankheit heilt nicht. Aber: Man kann sie gut behandeln. Gesunde Ernährung hilft. --- **Was passiert bei Diabetes Typ 2?** Bei Diabetes Typ 2 kommt der Zucker aus dem Essen nicht in die Körperzellen. Aber die Zellen brauchen Zucker für Energie. Das Hormon Insulin hilft eigentlich, den Zucker in die Zellen zu bringen. Bei Diabetes Typ 2 wirkt Insulin nicht richtig. Dann bleibt der Zucker im Blut. Der Blutzucker wird zu hoch. Zu viel Zucker im Blut kann viele Folgen haben: - Die Nerven werden geschädigt. Manche Menschen spüren zum Beispiel an den Füßen keinen Schmerz mehr. Verletzungen heilen schlecht. Das nennt man: Diabetischer Fuß. - Die Blutgefäße werden geschädigt. Dann kann das Blut nicht mehr richtig fließen. Es kann zu Herzinfarkt oder Schlaganfall kommen. - Die Augen werden geschädigt. Dann sieht man schlechter oder kann sogar blind werden. - Die Organe können geschädigt werden. Zum Beispiel die Nieren. Oft haben Menschen mit Diabetes Typ 2 auch andere Krankheiten. Zum Beispiel: - Depressionen (sie fühlen sich lange Zeit traurig) - zu hoher Blutdruck - zu viel Fett im Blut - Übergewicht - Fettleber (zu viel Fett in der Leber) Deshalb müssen Menschen mit Diabetes Typ 2 regelmäßig zum Arzt gehen. --- **Wie merkt man Diabetes Typ 2?** Diabetes Typ 2 macht am Anfang oft keine Beschwerden. Der Arzt kann einen Blut-Test machen und Diabetes finden. Manchmal merkt man einen hohen Blutzucker an diesen Zeichen: - Man muss oft auf die Toilette. - Man hat oft Durst. - Man ist müde und schnell erschöpft. - Die Haut ist trocken und juckt. - Man ist oft krank. - Im Genital-Bereich gibt es öfter Entzündungen. - Wunden heilen langsam. Denken Sie: Ich habe vielleicht Diabetes? Dann gehen Sie zum Arzt! --- **Was sind die Ursachen von Diabetes Typ 2?** Die häufigsten Ursachen sind: - Andere Familienmitglieder haben Diabetes. Das Risiko ist dann höher. - Ungesundes Essen mit viel Zucker und Fett. - Übergewicht. Zu viel Fett macht es dem Körper schwerer, Insulin zu erkennen. - Zu wenig Bewegung. Wer sich wenig bewegt, bekommt leichter Diabetes. --- **Was kann man gegen Diabetes Typ 2 machen?** Sie haben Diabetes Typ 2? Sie können helfen: - Essen Sie gesund. - Nehmen Sie ab, wenn Sie übergewichtig sind. - Bewegen Sie sich mehr. Sie wissen nicht, wie? Dann besuchen Sie eine Schulung oder eine Selbsthilfe-Gruppe. Dort helfen andere Menschen. Manche Menschen brauchen Medikamente. Sie heißen: Anti-Diabetika. Sprechen Sie immer mit Ihrem Arzt. Der Arzt weiß, was wichtig für Sie ist. --- **Wie kann man Diabetes Typ 2 vermeiden?** Sie können vieles tun, damit Sie kein Diabetes bekommen: - Gesund essen. - Beweglich bleiben. - Nicht zu viel wiegen. --- **Wo gibt es mehr Informationen?** Sie möchten mehr wissen? Ihr Arzt kann Ihnen helfen. Im Internet gibt es viele Informationen, aber nicht alles ist in Leichter Sprache. **Achtung:** Dieser Text ist nur eine allgemeine Information. Der Text ersetzt keinen Arzt-Besuch. Fühlen Sie sich krank? Oder haben Sie Fragen? Dann gehen Sie immer zum Arzt. ---</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Hier ist der Text in Leichter Sprache. Leichte Sprache ist noch einfacher als Einfache Sprache. Die Sätze sind kurz. Schwierige Wörter sind erklärt. Manche Informationen sind zusammengefasst. --- **Diabetes Typ 2** Dieser Text erklärt: Was ist Diabetes Typ 2? **Was ist Diabetes Typ 2?** Diabetes Typ 2 ist eine Krankheit. Das spricht man: Diabet-es Typ Zwei. Die Krankheit bleibt lange. Man kann Diabetes Typ 2 nicht ganz heilen. Bei Diabetes Typ 2 ist zu viel Zucker im Blut. Das Blut ist eine Flüssigkeit im Körper. Der Arzt misst: Wie viel Zucker ist im Blut? Das nennt man: Blutzucker-Spiegel. Zu viel Zucker im Blut ist nicht gut. Der Körper kann den Zucker nicht richtig benutzen. **Warum ist zu viel Zucker im Blut?** Im Körper gibt es eine Flüssigkeit. Diese heißt Insulin. Insulin hilft, dass Zucker in die Körper-Zellen kommt. Bei Diabetes Typ 2 hilft Insulin aber nicht richtig. Dann bleibt zu viel Zucker im Blut. **Wie merkt man Diabetes Typ 2?** Viele Menschen merken zuerst nichts. Erst später gibt es Anzeichen. Zum Beispiel: - Man ist oft sehr durstig. - Man muss oft zur Toilette. - Man ist oft müde. - Die Haut ist trocken und juckt. - Wunden heilen langsam. - Im Intimbereich gibt es öfter Entzündungen. - Man ist oft krank. Wenn Sie denken: Ich habe Diabetes Typ 2? Gehen Sie zum Arzt. Nur der Arzt kann das sicher sagen. **Was kann passieren bei Diabetes Typ 2?** Zu viel Zucker im Blut ist gefährlich. Es kann viele Probleme geben, zum Beispiel: - Die Nerven im Körper werden kaputt. - Die Augen können schlechter sehen. - Das Herz kann krank werden. - Die Nieren können kaputt gehen. Manchmal tut der Fuß nicht mehr weh, wenn man sich verletzt. Das nennt man: diabetischer Fuß. **Warum bekommt man Diabetes Typ 2?** - Es gibt viele Gründe. Zum Beispiel: - Diabetes Typ 2 kommt öfter, wenn es schon in der Familie ist. - Man isst oft süße Sachen oder fettes Essen. - Man bewegt sich wenig. - Man hat Übergewicht (zu viel Körpergewicht). **Was kann ich tun bei Diabetes Typ 2?** - Gesünder essen. - Mehr bewegen, zum Beispiel: Spazierengehen. - Abnehmen, wenn man zu schwer ist. - Mit anderen Betroffenen sprechen, zum Beispiel in einer Gruppe. - Manchmal gibt der Arzt Medikamente. Der Arzt hilft Ihnen. Fragen Sie immer Ihren Arzt. **Wie kann ich Diabetes Typ 2 vermeiden?** - Gesundes Essen ist wichtig. - Bewegung ist wichtig. - Nicht zu viel wiegen. **Brauchen Sie mehr Informationen?** Sie wollen mehr wissen? Fragen Sie Ihren Arzt. Oder suchen Sie eine Selbsthilfe-Gruppe. Achtung: Dieser Text ist nur eine Information. Er ersetzt nicht den Besuch beim Arzt. Nur Ihr Arzt kann Ihnen genau helfen. --- Wenn Sie möchten, kann ich bestimmte Abschnitte noch mehr vereinfachen oder mit Symbolen unterstützen. Lassen Sie mich wissen, wenn Sie weitere Hilfe möchten!</t>
+          <t>Hier ist der Text nach Ihrem linguistischen Ansatz: --- **Diabetes Typ 2** Diabetes Typ 2 ist eine Krankheit. Sie betrifft den Stoffwechsel. **Stoffwechsel:** So nennt man die Verarbeitung von Essen im Körper. Bei Diabetes Typ 2 kann der Körper Zucker aus dem Essen nicht richtig verarbeiten. Zucker bleibt im Blut. Der Blutzucker ist zu hoch. **Blutzucker:** Die Menge an Zucker im Blut. Diabetes Typ 2 bleibt lange. Die Krankheit ist chronisch. **chronisch:** Die Krankheit bleibt für immer. Diabetes Typ 2 heilt nicht. Aber Ärzte können helfen. Gesundes Essen hilft. --- **Was passiert im Körper?** Die Zellen bekommen zu wenig Zucker. Die Zellen brauchen Zucker für Kraft. **Zellen:** Das sind kleine Bausteine im Körper. Insulin hilft eigentlich. Insulin ist ein Hormon. **Hormon:** Das sind Botenstoffe im Körper. Insulin bringt Zucker aus dem Blut in die Zellen. Bei Diabetes Typ 2 wirkt Insulin nicht gut. Zucker bleibt im Blut. Der Blutzucker wird immer höher. Zu viel Blutzucker schädigt den Körper: - Die Nerven werden kaputt. Man spürt Schmerzen nicht mehr gut. **Nerven:** Sie leiten Signale im Körper. - Die Blutgefäße gehen kaputt. Sie transportieren das Blut. **Blutgefäß:** Das sind Röhren im Körper für das Blut. - Die Augen können schlechter sehen. - Die Nieren können kaputtgehen. **Niere:** Sie machen das Blut sauber. Manche Menschen mit Diabetes Typ 2 haben auch: - Hoher Blutdruck. **Blutdruck:** Kraft, mit der das Blut durch den Körper fließt. - Zu viel Fett im Blut. - Übergewicht. **Übergewicht:** Man wiegt zu viel. - Fettleber. **Fettleber:** Die Leber hat zu viel Fett gespeichert. --- **Wie merkt man Diabetes Typ 2?** Am Anfang merkt man oft nichts. Typische Anzeichen sind: - Oft aufs Klo gehen. - Sehr durstig sein. - Müde sein. - Die Haut ist trocken und juckt. - Wunden heilen langsam. - Oft krank sein. Gehen Sie zum Arzt. Nur der Arzt kann testen, ob Sie Diabetes haben. --- **Warum bekommt man Diabetes Typ 2?** Mögliche Gründe sind: - Andere Familienmitglieder haben die Krankheit. - Ungesundes Essen. - Übergewicht. - Zu wenig Bewegung. --- **Was kann man tun?** - Gesund essen. - Abnehmen. - Mehr bewegen. Der Arzt kann Medikamente verschreiben. **Medikament:** Ein Mittel gegen Krankheiten. Eine Gruppe oder ein Kurs kann helfen. Dort trifft man andere Patienten. --- **Wie kann man Diabetes Typ 2 vermeiden?** - Gesund essen. - Viel bewegen. - Übergewicht vermeiden. --- **Wichtige Hinweise:** Dies ist eine Info. Wenn Sie sich krank fühlen, gehen Sie zum Arzt. Nur ein Arzt kann richtig helfen. ---</t>
         </is>
       </c>
     </row>
@@ -1062,12 +1062,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Hier ist der Text in Deutsche Leichte Sprache übersetzt: **Psychotherapie – Informationen in Leichter Sprache** **Was ist Psychotherapie?** Der Körper kann krank werden. Auch die Seele kann krank werden. Die Seele heißt auch: Psyche. Bei einer Psychotherapie hilft ein Fachmann oder eine Fachfrau Menschen mit seelischen Problemen. Seelische Krankheiten sind zum Beispiel: - Depressionen (Man fühlt sich oft sehr traurig) - Angststörungen (Man hat oft sehr große Angst) - Ess-Störungen (Man isst sehr wenig oder sehr viel) Oft können betroffene Menschen ihre Gefühle nicht alleine bewältigen. Sie haben vielleicht Probleme im Alltag. Dann kann eine Psychotherapie helfen. Sie denken: Vielleicht habe ich eine seelische Krankheit? Gehen Sie zum Hausarzt. Der Hausarzt prüft: Ist Ihr Körper krank? Dann bekommen Sie eine Behandlung für Ihre körperliche Krankheit. Sie können auch direkt zu einem Psychotherapeuten gehen. **Wer darf Psychotherapie machen?** Nicht jeder darf Psychotherapie anbieten. Das dürfen: - Psychiater (Das sind Ärzte für die Seele. Sie dürfen auch Medikamente geben) - Fachärzte für Psychotherapie oder Psychosomatik (Das sind auch spezielle Ärzte) - Psychologische Psychotherapeuten (Das sind keine Ärzte, sie haben Psychologie studiert und eine Ausbildung gemacht) - Kinder- und Jugendlichen-Psychotherapeuten (Sie helfen vor allem Kindern und Jugendlichen) **Welche Formen der Psychotherapie gibt es?** Es gibt vier Hauptarten von Psychotherapie: 1. Verhaltenstherapie: Der Therapeut hilft, das Verhalten zu ändern. Man übt neue Lösungen für den Alltag. 2. Tiefenpsychologisch fundierte Therapie: Hier spricht man über Probleme und Erfahrungen aus der Vergangenheit. So versteht man sich besser. 3. Psychoanalytische Therapie: Man spricht viel über die eigene Vergangenheit. Die Therapie dauert oft mehrere Jahre. 4. Systemische Therapie: Hier schaut man auf die Beziehungen zu anderen Menschen, zum Beispiel in der Familie. Diese Form ist oft hilfreich für Kinder und Jugendliche. Je nach Situation entscheiden Sie zusammen mit dem Therapeuten, welche Therapie am besten passt. Psychotherapie kann einzeln (nur Sie und der Therapeut) oder in der Gruppe stattfinden. **Wo findet Psychotherapie statt?** - Ambulant: In einer Praxis oder per Video - Stationär: In einer Klinik, Sie bleiben dort und schlafen dort - Teilstationär: Sie sind tagsüber in einer Klinik, abends zu Hause **Was tun bei einem Notfall?** Bei einem psychologischen Notfall soll man sofort in eine Klinik gehen. Ein Notfall ist zum Beispiel: - Sie möchten sich selbst verletzen oder töten - Sie sind sehr aggressiv oder für andere gefährlich - Sie haben etwas sehr Schlimmes erlebt **Wie läuft eine Psychotherapie ab?** - Sie sprechen bis zu 6 mal mit dem Therapeuten (je 25 Minuten) - Sie prüfen zusammen: Haben Sie eine seelische Krankheit? - Sie probieren 2 bis 4 Sitzungen aus (Probesitzungen, je 50 Minuten) - Passt die Therapie? Fühlen Sie sich wohl? - Dann beginnt die längere Therapie Sie können die Therapie wechseln, wenn Sie sich nicht wohl fühlen. **Wer bezahlt die Psychotherapie?** Die Krankenkasse bezahlt die Therapie, wenn Sie eine brauchen. Meistens müssen Sie einen Antrag stellen. Bringen Sie Ihre Krankenkassen-Karte zum Termin mit. Privatversicherte fragen bei ihrer Versicherung. **Wie finden Sie einen Therapieplatz?** Sie suchen eine Psychotherapie? Suchen Sie zum Beispiel im Internet unter www.dptv.de/suche. Oder bei der kassenärztlichen Vereinigung: https://www.116117.de/de/psychotherapie.php Achtung: Es gibt manchmal wenig Therapieplätze. Sie müssen vielleicht 4 bis 6 Monate warten. **Wo gibt es noch mehr Informationen?** Hier gibt es mehr Infos über Psychotherapie. Achtung: Das ist dann nicht mehr Leichte Sprache. **Wichtig** Das sind allgemeine Informationen. Sie ersetzen keinen Arztbesuch. Wenn Sie sich krank fühlen, gehen Sie bitte immer zum Arzt. --- Wenn Sie eine noch einfachere und gekürzte Version brauchen, sagen Sie Bescheid!</t>
+          <t>Gerne, hier ist Ihr Text in Leichter Sprache: **Psychotherapie** Dieser Text informiert in Leichter Sprache über das Thema Psychotherapie. **1. Was ist Psychotherapie?** Man kann mit dem Körper krank werden. Die Seele kann auch krank werden. Das nennt man psychische Krankheit. Psychotherapie ist eine Behandlung für Krankheiten der Seele. Manche Beispiele für psychische Krankheiten sind: - Depressionen - Angststörungen - Essstörungen (Probleme mit Essen, zum Beispiel zu viel oder zu wenig essen) Wer eine psychische Krankheit hat, fühlt sich oft schlecht. Diese Menschen brauchen Hilfe. Eine Psychotherapie kann helfen. **Was soll man tun, wenn man eine psychische Krankheit hat?** Gehen Sie zu Ihrem Hausarzt. Der Arzt sieht, ob Sie körperlich krank sind. Dann hilft Ihnen der Arzt. Sie können auch direkt zu einem Psychotherapeuten gehen. **2. Wer darf Psychotherapie machen?** Nicht alle dürfen Psychotherapie anbieten. Diese Fachleute dürfen Psychotherapie machen: - Psychiater (sind Ärzte, können Medikamente geben und den Körper untersuchen) - Fachärzte für psychosomatische Medizin und Psychotherapie (sind Ärzte, können Medikamente geben) - Psychologische Psychotherapeuten (haben Psychologie studiert, dürfen keine Medikamente geben) - Kinder- und Jugendpsychotherapeuten (haben eine spezielle Ausbildung für Kinder und Jugendliche) **3. Welche Arten von Psychotherapie gibt es?** Es gibt verschiedene Arten: - Verhaltenstherapie: Der Therapeut hilft dabei, das Verhalten zu ändern. Dazu gibt es Übungen. - Tiefenpsychologisch fundierte Therapie: Der Therapeut spricht mit dem Patienten über innere Konflikte und Erlebnisse. - Psychoanalytische Therapie: Die Behandlung dauert lange, oft zwei bis drei Jahre. Es geht um Probleme aus der Vergangenheit. - Systemische Therapie: Besonders für Familien und Kinder. Es geht um die Beziehungen zu anderen Menschen. Man bespricht zusammen mit dem Therapeuten, welche Art von Therapie passt. Psychotherapie kann einzeln oder in der Gruppe stattfinden. Sie kann ambulant (in einer Praxis oder per Video), stationär (in einer Klinik, mit Übernachtung) oder teilstationär (tagsüber in der Klinik, abends zu Hause) sein. **Notfall:** Manchmal muss man sofort in die Klinik, zum Beispiel: - Wenn man sich selbst verletzen will. - Wenn man für andere gefährlich ist. - Nach einem schlimmen Erlebnis. **4. Wie läuft eine Psychotherapie ab?** Zu Beginn geht man meist 1–6 Mal zum Kennenlernen (Sprechstunde, 25 Minuten). Man bespricht: Welche Therapie ist gut? Dann gibt es Probe-Sitzungen (2–4 Mal, je 50 Minuten). Man schaut, ob die Therapie und der Therapeut passen. Danach beginnt die richtige Therapie, die unterschiedlich lange dauert. Wenn man sich schlecht fühlt oder denkt, dass die Therapie nicht hilft, kann man den Therapeuten wechseln. **5. Wer zahlt die Psychotherapie?** Die Krankenkasse zahlt meist die Psychotherapie, wenn der Therapeut sagt, dass man sie braucht. Bringen Sie Ihre Krankenkassenkarte zum Termin mit. Wenn Sie privat versichert sind, fragen Sie Ihre Versicherung. **6. Wie findet man einen Therapieplatz?** Adressen finden Sie im Internet: - www.dptv.de/suche - https://www.116117.de/de/psychotherapie.php Wichtig: Sie müssen oft vier bis sechs Monate warten, bis Sie einen Platz bekommen. **7. Wo gibt es mehr Informationen?** Mehr Informationen finden Sie im Internet. Fragen Sie Ihren Arzt, wenn Sie Probleme haben oder sich krank fühlen. Ein Arzt kann gut helfen. **Achtung:** Dieser Text gibt nur allgemeine Informationen. Er ersetzt nicht den Besuch beim Arzt. Bei Fragen oder Krankheit gehen Sie immer zum Arzt. --- Hinweis: Ich habe den Text vereinfacht und noch weiter gekürzt, damit er gut verständlich bleibt. Falls gewünscht, kann ich ihn noch weiter vereinfachen oder kürzen.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Hier ist der Text in Deutsche Leichte Sprache übersetzt: **Psychotherapie – Informationen in Leichter Sprache** **Was ist Psychotherapie?** Der Körper kann krank werden. Auch die Seele kann krank werden. Die Seele heißt auch: Psyche. Bei einer Psychotherapie hilft ein Fachmann oder eine Fachfrau Menschen mit seelischen Problemen. Seelische Krankheiten sind zum Beispiel: - Depressionen (Man fühlt sich oft sehr traurig) - Angststörungen (Man hat oft sehr große Angst) - Ess-Störungen (Man isst sehr wenig oder sehr viel) Oft können betroffene Menschen ihre Gefühle nicht alleine bewältigen. Sie haben vielleicht Probleme im Alltag. Dann kann eine Psychotherapie helfen. Sie denken: Vielleicht habe ich eine seelische Krankheit? Gehen Sie zum Hausarzt. Der Hausarzt prüft: Ist Ihr Körper krank? Dann bekommen Sie eine Behandlung für Ihre körperliche Krankheit. Sie können auch direkt zu einem Psychotherapeuten gehen. **Wer darf Psychotherapie machen?** Nicht jeder darf Psychotherapie anbieten. Das dürfen: - Psychiater (Das sind Ärzte für die Seele. Sie dürfen auch Medikamente geben) - Fachärzte für Psychotherapie oder Psychosomatik (Das sind auch spezielle Ärzte) - Psychologische Psychotherapeuten (Das sind keine Ärzte, sie haben Psychologie studiert und eine Ausbildung gemacht) - Kinder- und Jugendlichen-Psychotherapeuten (Sie helfen vor allem Kindern und Jugendlichen) **Welche Formen der Psychotherapie gibt es?** Es gibt vier Hauptarten von Psychotherapie: 1. Verhaltenstherapie: Der Therapeut hilft, das Verhalten zu ändern. Man übt neue Lösungen für den Alltag. 2. Tiefenpsychologisch fundierte Therapie: Hier spricht man über Probleme und Erfahrungen aus der Vergangenheit. So versteht man sich besser. 3. Psychoanalytische Therapie: Man spricht viel über die eigene Vergangenheit. Die Therapie dauert oft mehrere Jahre. 4. Systemische Therapie: Hier schaut man auf die Beziehungen zu anderen Menschen, zum Beispiel in der Familie. Diese Form ist oft hilfreich für Kinder und Jugendliche. Je nach Situation entscheiden Sie zusammen mit dem Therapeuten, welche Therapie am besten passt. Psychotherapie kann einzeln (nur Sie und der Therapeut) oder in der Gruppe stattfinden. **Wo findet Psychotherapie statt?** - Ambulant: In einer Praxis oder per Video - Stationär: In einer Klinik, Sie bleiben dort und schlafen dort - Teilstationär: Sie sind tagsüber in einer Klinik, abends zu Hause **Was tun bei einem Notfall?** Bei einem psychologischen Notfall soll man sofort in eine Klinik gehen. Ein Notfall ist zum Beispiel: - Sie möchten sich selbst verletzen oder töten - Sie sind sehr aggressiv oder für andere gefährlich - Sie haben etwas sehr Schlimmes erlebt **Wie läuft eine Psychotherapie ab?** - Sie sprechen bis zu 6 mal mit dem Therapeuten (je 25 Minuten) - Sie prüfen zusammen: Haben Sie eine seelische Krankheit? - Sie probieren 2 bis 4 Sitzungen aus (Probesitzungen, je 50 Minuten) - Passt die Therapie? Fühlen Sie sich wohl? - Dann beginnt die längere Therapie Sie können die Therapie wechseln, wenn Sie sich nicht wohl fühlen. **Wer bezahlt die Psychotherapie?** Die Krankenkasse bezahlt die Therapie, wenn Sie eine brauchen. Meistens müssen Sie einen Antrag stellen. Bringen Sie Ihre Krankenkassen-Karte zum Termin mit. Privatversicherte fragen bei ihrer Versicherung. **Wie finden Sie einen Therapieplatz?** Sie suchen eine Psychotherapie? Suchen Sie zum Beispiel im Internet unter www.dptv.de/suche. Oder bei der kassenärztlichen Vereinigung: https://www.116117.de/de/psychotherapie.php Achtung: Es gibt manchmal wenig Therapieplätze. Sie müssen vielleicht 4 bis 6 Monate warten. **Wo gibt es noch mehr Informationen?** Hier gibt es mehr Infos über Psychotherapie. Achtung: Das ist dann nicht mehr Leichte Sprache. **Wichtig** Das sind allgemeine Informationen. Sie ersetzen keinen Arztbesuch. Wenn Sie sich krank fühlen, gehen Sie bitte immer zum Arzt. --- Wenn Sie eine noch einfachere und gekürzte Version brauchen, sagen Sie Bescheid!</t>
+          <t>Hier ist der Text gemäß Ihrem linguistischen Ansatz, klar auf den drei Ebenen bearbeitet: --- ### Psychotherapie **Was ist Psychotherapie?** Psychotherapie ist Hilfe für die Seele. Die Seele ist ein anderer Name für die Psyche. Psychotherapie hilft bei seelischen Krankheiten. Seelische Krankheiten sind zum Beispiel Depressionen. Depression bedeutet, man ist oft traurig und müde. Seelische Krankheiten sind auch Angststörungen. Angststörung bedeutet, man hat oft Angst. Oder Essstörung. Essstörung bedeutet, man isst zu viel oder zu wenig. Man schafft es alleine nicht, sich besser zu fühlen. Man hat Probleme im Alltag. Psychotherapie kann dann helfen. **Wer macht Psychotherapie?** Nur bestimmte Personen dürfen Psychotherapie machen. - Psychiater sind Ärzte für die Seele. Arzt bedeutet, die Person hat Medizin studiert. - Psychologische Psychotherapeuten haben Psychologie studiert. Psychologie ist die Wissenschaft von Gedanken und Gefühlen. - Kinder- und Jugendpsychotherapeuten helfen Kindern und Jugendlichen. Psychiater dürfen Medikamente geben. Medikament bedeutet, es ist eine Medizin zum Einnehmen oder Spritzen. **Welche Arten von Psychotherapie gibt es?** Es gibt verschiedene Arten von Psychotherapie. - Verhaltenstherapie. Therapie bedeutet Behandlung. Verhalten bedeutet, wie man etwas tut. Verhaltenstherapie hilft, das Verhalten zu ändern. - Tiefenpsychologische Therapie. Tief bedeutet, es geht um Gedanken und Gefühle tief im Inneren. Man spricht über Probleme und vergangene Erlebnisse. - Psychoanalytische Therapie. Analyse bedeutet, man schaut genau hin und spricht über die Vergangenheit. - Systemische Therapie. System bedeutet Gruppe. Hier geht es um Familien oder andere Gruppen. **Wie läuft Psychotherapie ab?** Zu Beginn gibt es Gespräche. Gespräch bedeutet, man redet miteinander. Therapeut prüft, welche Krankheit man hat. Es gibt Probesitzungen. Probe bedeutet, testen oder ausprobieren. Man sieht, ob es hilft und ob man sich wohl fühlt. Therapie kann alleine stattfinden. Oder in der Gruppe mit anderen. Manchmal macht man Therapie in der Praxis. Praxis bedeutet das Büro vom Therapeuten. Manchmal muss man in die Klinik. Klinik bedeutet Krankenhaus. **Wer bezahlt Psychotherapie?** Die Krankenkasse zahlt die Therapie. Krankenkasse ist eine Versicherung für Krankheiten. Man braucht oft einen Antrag. Antrag ist ein Formular zum Ausfüllen. Privat versichert? Dann die eigene Versicherung fragen. **Wie findet man einen Therapieplatz?** Man findet Therapeuten im Internet. Die Webseite heißt www.dptv.de/suche. Es gibt auch die Nummer 116117. Man muss oft warten. Warten bedeutet, man bekommt nicht sofort einen Termin. **Mehr Informationen** Bei Fragen immer zum Arzt gehen. Arzt ist Fachmann für Gesundheit. ---</t>
         </is>
       </c>
     </row>
@@ -1084,12 +1084,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Hier ist der Text in Leichter Sprache: Telemedizin Dieser Text erklärt das Thema Telemedizin in Leichter Sprache. Was ist Telemedizin? Telemedizin hilft, wenn Menschen nicht einfach zum Arzt gehen können. Bei Telemedizin sprechen Arzt und Patient meistens am Computer, Tablet oder Handy miteinander. Dafür müssen beide ein Gerät benutzen können. Sie brauchen auch eine gute Internetverbindung. Was kann ein Arzt bei Telemedizin machen? - Der Arzt kann Wunden nach einer Operation anschauen. - Der Arzt kann sich Hautprobleme oder Schwellungen anschauen. - Der Arzt kann Befunde von Untersuchungen erklären. - Der Arzt kann eine Behandlung vorschlagen. Mit Telemedizin muss man vielleicht nicht immer in die Arztpraxis kommen. Telemedizin kann auf viele Arten helfen. Welche Angebote gibt es bei Telemedizin? Es gibt verschiedene Möglichkeiten für Telemedizin: 1. Telemonitoring Menschen mit einer langen Krankheit bekommen ein besonderes Messgerät. Das Messgerät schickt die Daten automatisch an die Arztpraxis. Wenn ein Wert komisch ist, sagt das Gerät dem Arzt Bescheid. 2. Telediagnostik Hier schickt der Patient zum Beispiel ein Foto von seiner Haut an den Arzt. Der Arzt schaut das Foto an und sagt, was zu tun ist. 3. Teletherapie Der Arzt zeigt dem Patienten Übungen am Bildschirm. Der Patient macht die Übungen nach. Der Arzt kann sofort helfen, wenn etwas falsch gemacht wird. 4. Telekonsil Viele verschiedene Ärzte sprechen miteinander in einem Video-Gespräch. Sie beraten sich und entscheiden gemeinsam, was für den Patienten am besten ist. Welche Schwierigkeiten gibt es bei Telemedizin? - Nicht alle Krankenkassen bezahlen Telemedizin. - Es gibt noch nicht viele Angebote für Telemedizin. - Man braucht eine gute Internetverbindung, besonders auf dem Land gibt es da Probleme. - Manche Menschen können die Technik nicht so gut bedienen. - Manchmal muss man trotz Telemedizin noch in die Praxis gehen, zum Beispiel für ein Rezept. Wo kann ich mehr über Telemedizin erfahren? Sie können sich hier informieren: - Bei Ihrer Krankenkasse - Bei der Ärztekammer in Ihrer Nähe - Bei den Kassenärztlichen Vereinigungen Wo finde ich noch mehr Informationen? Wenn Sie noch mehr über Telemedizin wissen möchten, gibt es mehr Informationen im Internet. Die Texte dort sind aber schwerer zu verstehen.</t>
+          <t>Hier ist der Text in Deutscher Leichter Sprache: **Telemedizin** Dieser Text erklärt: Was ist Telemedizin? **Was ist Telemedizin?** Telemedizin bedeutet: Ein Arzt und ein Patient sprechen am Computer oder am Handy miteinander. Das geht über das Internet. Zum Beispiel in einer Video-Sprechstunde. **Für wen ist Telemedizin gut?** Telemedizin hilft Menschen, die nicht einfach zum Arzt gehen können. Zum Beispiel, weil sie weit weg wohnen. Oder weil sie krank sind und das Haus nicht verlassen können. **Was braucht man für Telemedizin?** Man braucht: - Einen Computer, ein Tablet oder ein Smartphone - Internet, das nicht kaputt geht - Man muss wissen, wie Computer und Internet funktionieren **Was können Ärzte in einer Video-Sprechstunde machen?** - Sich eine Wunde nach einer Operation anschauen - Die Haut anschauen oder Schwellungen prüfen - Über Untersuchungsergebnisse sprechen - Eine Behandlung vorschlagen Das sind Beispiele. Es gibt noch mehr Möglichkeiten. **Welche Angebote gibt es?** - **Telemonitoring:** Kranke Menschen bekommen ein Messgerät für Zuhause. Das Messgerät schickt die Messwerte zum Arzt. Wenn ein Wert auffällig ist, bekommt der Arzt eine Nachricht. - **Telediagnostik:** Man kann beim Arzt zum Beispiel ein Foto von der Haut schicken. Der Arzt sieht das Foto und kann sagen, was es ist. Er kann auch eine Behandlung empfehlen. - **Teletherapie:** Der Arzt zeigt dem Patienten am Computer, wie eine Übung geht. Der Patient kann die Übung nachmachen. Wenn etwas falsch ist, kann der Arzt gleich helfen. - **Telekonsil:** Mehrere Ärzte sprechen zusammen in einer Video-Konferenz. Sie besprechen gemeinsam eine Behandlung. So bekommt der Patient schneller und besser Hilfe. **Welche Schwierigkeiten gibt es?** - Noch nicht alle Menschen können Telemedizin nutzen. - Die Krankenkassen bezahlen nicht immer Telemedizin. - Nicht überall gibt es gutes Internet. - Manche Menschen wissen nicht, wie Computer oder Handy funktionieren. Telemedizin ersetzt nicht immer den Besuch beim Arzt. Manchmal muss der Patient trotzdem in die Praxis gehen. Zum Beispiel für ein Rezept oder einen Krankenschein. Das soll aber in Zukunft besser werden. **Wo kann ich mehr erfahren?** - Bei Ihrer Krankenkasse - Bei der Ärztekammer in Ihrer Nähe - Bei den Kassenärztlichen Vereinigungen **Wo bekomme ich noch mehr Informationen?** Möchten Sie mehr über Telemedizin wissen? Im Internet gibt es noch mehr Informationen. Aber Achtung: Die nächsten Informationen sind vielleicht nicht in Leichter Sprache.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Hier ist der Text in Leichter Sprache: Telemedizin Dieser Text erklärt das Thema Telemedizin in Leichter Sprache. Was ist Telemedizin? Telemedizin hilft, wenn Menschen nicht einfach zum Arzt gehen können. Bei Telemedizin sprechen Arzt und Patient meistens am Computer, Tablet oder Handy miteinander. Dafür müssen beide ein Gerät benutzen können. Sie brauchen auch eine gute Internetverbindung. Was kann ein Arzt bei Telemedizin machen? - Der Arzt kann Wunden nach einer Operation anschauen. - Der Arzt kann sich Hautprobleme oder Schwellungen anschauen. - Der Arzt kann Befunde von Untersuchungen erklären. - Der Arzt kann eine Behandlung vorschlagen. Mit Telemedizin muss man vielleicht nicht immer in die Arztpraxis kommen. Telemedizin kann auf viele Arten helfen. Welche Angebote gibt es bei Telemedizin? Es gibt verschiedene Möglichkeiten für Telemedizin: 1. Telemonitoring Menschen mit einer langen Krankheit bekommen ein besonderes Messgerät. Das Messgerät schickt die Daten automatisch an die Arztpraxis. Wenn ein Wert komisch ist, sagt das Gerät dem Arzt Bescheid. 2. Telediagnostik Hier schickt der Patient zum Beispiel ein Foto von seiner Haut an den Arzt. Der Arzt schaut das Foto an und sagt, was zu tun ist. 3. Teletherapie Der Arzt zeigt dem Patienten Übungen am Bildschirm. Der Patient macht die Übungen nach. Der Arzt kann sofort helfen, wenn etwas falsch gemacht wird. 4. Telekonsil Viele verschiedene Ärzte sprechen miteinander in einem Video-Gespräch. Sie beraten sich und entscheiden gemeinsam, was für den Patienten am besten ist. Welche Schwierigkeiten gibt es bei Telemedizin? - Nicht alle Krankenkassen bezahlen Telemedizin. - Es gibt noch nicht viele Angebote für Telemedizin. - Man braucht eine gute Internetverbindung, besonders auf dem Land gibt es da Probleme. - Manche Menschen können die Technik nicht so gut bedienen. - Manchmal muss man trotz Telemedizin noch in die Praxis gehen, zum Beispiel für ein Rezept. Wo kann ich mehr über Telemedizin erfahren? Sie können sich hier informieren: - Bei Ihrer Krankenkasse - Bei der Ärztekammer in Ihrer Nähe - Bei den Kassenärztlichen Vereinigungen Wo finde ich noch mehr Informationen? Wenn Sie noch mehr über Telemedizin wissen möchten, gibt es mehr Informationen im Internet. Die Texte dort sind aber schwerer zu verstehen.</t>
+          <t>Hier ist der Text nach den gewünschten Vorgaben (vereinfacht, kurze Sätze, schwierige Wörter erklärt): --- **Telemedizin** Telemedizin bedeutet: Ärzte und Patienten sprechen über das Internet. Dafür braucht man Computer oder Handy. Man braucht auch gutes Internet. Man muss wissen, wie man Computer und Handy benutzt. **Videosprechstunde** Eine Videosprechstunde ist ein Gespräch mit Bild über den Computer. Der Arzt sieht den Patienten im Video. Der Arzt schaut eine Wunde an. Oder der Arzt sieht auf die Haut. Der Arzt spricht über Untersuchungsergebnisse. Der Arzt sagt, welche Behandlung helfen kann. (Das ist ein Vorschlag vom Arzt, was gemacht werden soll.) **Angebote bei Telemedizin** - **Telemonitoring:** Kranke Menschen bekommen ein Mess-Gerät. (Das ist ein Gerät zum Messen, zum Beispiel von Blutzucker oder Blutdruck.) Das Gerät schickt die Werte zum Arzt. Ist ein Wert komisch? Dann bekommt der Arzt eine Nachricht. - **Telediagnostik:** Diagnose heißt: Der Arzt sagt, was ein Patient hat. Der Patient schickt ein Bild an den Arzt. Der Arzt schaut das Bild. Dann sagt der Arzt, was der Patient hat. - **Teletherapie:** Therapie ist eine Behandlung. Der Arzt zeigt dem Patienten eine Übung per Video. Der Patient macht die Übung nach. Macht der Patient einen Fehler? Der Arzt sagt das gleich. - **Telekonsil:** Konsil ist ein Gespräch zwischen vielen Ärzten. Verschiedene Ärzte sprechen im Video zusammen. Sie beraten über die beste Behandlung für den Patienten. **Schwierigkeiten bei Telemedizin** - Manche Menschen haben kein gutes Internet. - Manche Menschen kennen sich nicht gut mit Computern aus. - Die Krankenkasse bezahlt nicht alle Angebote. - Manchmal muss ein Patient trotzdem zum Arzt gehen. - Für ein Rezept oder eine Krankmeldung muss man noch zum Arzt. **Wo gibt es mehr Infos zu Telemedizin?** - Fragen Sie Ihre Krankenkasse. (Krankenkasse = Versicherung für Gesundheit) - Fragen Sie bei der Ärztekammer. (Ärztekammer = Organisation für Ärzte) - Fragen Sie bei der Kassenärztlichen Vereinigung. (Das ist eine Stelle für Ärzte, die mit der Krankenkasse zusammenarbeiten.) Man findet noch mehr Infos im Internet, aber nicht immer in Einfacher Sprache.</t>
         </is>
       </c>
     </row>
@@ -1106,12 +1106,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Hier ist der Text in Deutsche Leichte Sprache übersetzt: Digitales Blutdruck-Management Dieser Text erklärt das Thema: digitales Blutdruck-Management. Viele Menschen in Deutschland haben zu hohen Blutdruck. Deshalb gibt es Blutdruck-Apps. Diese Apps können Ihnen helfen, mit Ihrer Krankheit umzugehen. Apps und Blutdruck-Messgeräte Viele Apps lassen sich mit einem Blutdruck-Messgerät verbinden. Die App speichert Ihre Werte automatisch. Sie können die Werte auch selbst eintippen. Manche Apps merken, wenn Sie einen Wert falsch eingeben. Ihre Arztpraxis kann die gespeicherten Werte sehen, wenn Sie erlauben. Ihr Arzt sieht die Daten nicht ohne Ihre Zustimmung. Welche Daten speichert die App? Die Apps speichern oft mehr als nur den Blutdruck. Sie können zum Beispiel auch diese Werte eingeben: - Puls - Blutzucker - Bewegung - Gewicht - Kalorien - Schlaf - Temperatur Apps und Fitnessarmbänder Manche Apps funktionieren auch mit Fitnessarmbändern. So kann die App auch diese Werte speichern. Sie sehen alle Werte als Grafik oder Tabelle. Auffällige Werte werden oft farbig gezeigt. Wichtig: Ändern Sie Ihre Behandlung nicht selbst! Sprechen Sie immer erst mit Ihrem Arzt. Blutdruck messen mit Smartwatch Mit manchen Smartwatches kann man Blutdruck messen. Aber Smartwatches sind noch nicht genau genug. Benutzen Sie lieber weiter ein normales Blutdruck-Messgerät. Was sind die Vorteile? Die Apps erinnern Sie, Ihren Blutdruck zu messen. Oder sie erinnern Sie, Ihre Medikamente zu nehmen. Die App speichert Ihre Blutdruckwerte. Sie können Ihre Werte leicht anschauen und sehen, wenn sie besonders sind. Qualität ist unterschiedlich Es gibt viele Blutdruck-Apps. Aber sie sind nicht alle gut. Viele Apps sind kein geprüftes Medizin-Produkt. Das heißt: Sie werden oft nicht gut geprüft. Die Deutsche Hochdruckliga überprüft seit November 2019 Blutdruck-Apps und zeichnet gute Apps aus. Ergebnisse finden Sie auf www.hochdruckliga.de. Achtung: Die Informationen dort sind nicht in Leichter Sprache. Wo bekomme ich mehr Informationen? Sie möchten mehr über digitales Blutdruck-Management lesen? Weitere Informationen finden Sie hier. Achtung: Die Infos sind dann nicht in Leichter Sprache.</t>
+          <t>Hier ist der Text in Deutscher Leichter Sprache: Digitales Blutdruck-Management Dieser Text informiert über digitales Blutdruck-Management. Quelle: www.digital-ratgeber.de, 26.02.2020 Wichtige Themen: * Apps und Blutdruckmessgeräte * Welche Daten speichert die App? * Apps und Fitnessarmbänder * Blutdruck messen mit Smartwatch * Was sind die Vorteile? * Qualität ist unterschiedlich * Wo bekomme ich mehr Informationen? Viele Menschen in Deutschland haben zu hohen Blutdruck. Deshalb gibt es immer mehr Blutdruck-Apps. Blutdruck-Apps können Menschen helfen, ihre Krankheit besser zu kontrollieren. Apps und Blutdruckmessgeräte Viele Apps kann man mit einem Blutdruckmessgerät verbinden. Die App speichert die Messergebnisse. Man kann die Werte auch selbst eingeben. Manche Apps prüfen, ob ein Wert ungewöhnlich ist. Wenn der Wert falsch ist, merkt die App das manchmal. Die Arztpraxis kann Ihre Werte sehen. Dafür müssen Sie Ihr Einverständnis geben. Ihr Arzt kann Ihre Daten nicht ohne Ihre Erlaubnis sehen. Welche Daten speichert die App? Apps speichern oft viele Informationen: * Ihren Blutdruck * Ihren Puls * Ihren Blutzucker * Ihre Bewegung * Ihr Gewicht * Wie viele Kalorien Sie essen * Wie lange und wie Sie schlafen * Ihre Körpertemperatur Apps und Fitnessarmbänder Manche Apps kann man mit einem Fitnessarmband verbinden. Dann werden die Daten vom Armband gespeichert. Man kann die Werte in Tabellen und Grafiken sehen. Auffällige Werte sind oft bunt markiert. Wichtig: Ändern Sie Ihre Behandlung nicht ohne Ihren Arzt! Sprechen Sie immer mit Ihrem Arzt, wenn sich die Werte ändern! Blutdruck messen mit Smartwatch Mit einigen Smartwatches kann man Blutdruck messen. Diese Messungen sind noch nicht genau. Benutzen Sie besser ein normales Blutdruckmessgerät. Was sind die Vorteile? Apps können Sie erinnern, Ihren Blutdruck zu messen. Apps können Sie an Ihre Medikamente erinnern. Die App kann Ihre Werte speichern. So sehen Sie Ihre Werte besser. Sie erkennen schnell, wenn etwas nicht stimmt. Qualität ist unterschiedlich Es gibt viele Blutdruck-Apps. Nicht alle Apps sind gut. Viele Apps sind keine Medizinprodukte. Das heißt, sie werden nicht immer gut geprüft. Die Deutsche Hochdruckliga prüft Apps seit November 2019. Sie zeigt gute Apps auf ihrer Internetseite: www.hochdruckliga.de Achtung: Die Informationen dort sind nicht in Leichter Sprache. Wo bekomme ich mehr Informationen? Sie möchten mehr über digitales Blutdruck-Management wissen? Mehr Informationen finden Sie hier und auf anderen Internetseiten. Achtung: Diese Informationen sind dann nicht mehr in Leichter Sprache.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Hier ist der Text in Deutsche Leichte Sprache übersetzt: Digitales Blutdruck-Management Dieser Text erklärt das Thema: digitales Blutdruck-Management. Viele Menschen in Deutschland haben zu hohen Blutdruck. Deshalb gibt es Blutdruck-Apps. Diese Apps können Ihnen helfen, mit Ihrer Krankheit umzugehen. Apps und Blutdruck-Messgeräte Viele Apps lassen sich mit einem Blutdruck-Messgerät verbinden. Die App speichert Ihre Werte automatisch. Sie können die Werte auch selbst eintippen. Manche Apps merken, wenn Sie einen Wert falsch eingeben. Ihre Arztpraxis kann die gespeicherten Werte sehen, wenn Sie erlauben. Ihr Arzt sieht die Daten nicht ohne Ihre Zustimmung. Welche Daten speichert die App? Die Apps speichern oft mehr als nur den Blutdruck. Sie können zum Beispiel auch diese Werte eingeben: - Puls - Blutzucker - Bewegung - Gewicht - Kalorien - Schlaf - Temperatur Apps und Fitnessarmbänder Manche Apps funktionieren auch mit Fitnessarmbändern. So kann die App auch diese Werte speichern. Sie sehen alle Werte als Grafik oder Tabelle. Auffällige Werte werden oft farbig gezeigt. Wichtig: Ändern Sie Ihre Behandlung nicht selbst! Sprechen Sie immer erst mit Ihrem Arzt. Blutdruck messen mit Smartwatch Mit manchen Smartwatches kann man Blutdruck messen. Aber Smartwatches sind noch nicht genau genug. Benutzen Sie lieber weiter ein normales Blutdruck-Messgerät. Was sind die Vorteile? Die Apps erinnern Sie, Ihren Blutdruck zu messen. Oder sie erinnern Sie, Ihre Medikamente zu nehmen. Die App speichert Ihre Blutdruckwerte. Sie können Ihre Werte leicht anschauen und sehen, wenn sie besonders sind. Qualität ist unterschiedlich Es gibt viele Blutdruck-Apps. Aber sie sind nicht alle gut. Viele Apps sind kein geprüftes Medizin-Produkt. Das heißt: Sie werden oft nicht gut geprüft. Die Deutsche Hochdruckliga überprüft seit November 2019 Blutdruck-Apps und zeichnet gute Apps aus. Ergebnisse finden Sie auf www.hochdruckliga.de. Achtung: Die Informationen dort sind nicht in Leichter Sprache. Wo bekomme ich mehr Informationen? Sie möchten mehr über digitales Blutdruck-Management lesen? Weitere Informationen finden Sie hier. Achtung: Die Infos sind dann nicht in Leichter Sprache.</t>
+          <t>Hier ist der Text nach den gewünschten Vorgaben: --- **Digitales Blutdruck-Management** Viele Menschen haben zu hohen Blutdruck. Blutdruck heißt: Wie stark das Blut durch die Adern fließt. Zu hoher Blutdruck ist schlecht für den Körper. Es gibt Apps für den Blutdruck. Eine App ist ein Computerprogramm für das Handy. **Apps und Blutdruck-Messgerät** Ein Blutdruck-Messgerät misst den Blutdruck. Sie können das Gerät mit der App verbinden. Die App speichert die Messwerte. Sie können die Werte auch selbst aufschreiben in der App. App zeigt, wenn ein Wert falsch aussieht. **App und Arzt** Der Arzt kann die Daten sehen. Dafür müssen Sie erlauben. Erlauben heißt: Sie sagen "ja". **Welche Daten speichert die App?** Die App speichert viele Werte: - Blutdruck (Wie stark das Blut drückt) - Puls (Wie oft das Herz schlägt) - Blutzucker (Wie viel Zucker im Blut) - Bewegung (Wie viel Sie sich bewegen) - Gewicht (Wie schwer Sie sind) - Kalorien (Wie viel Energie Sie essen) - Schlaf (Wie Sie schlafen) - Temperatur (Wie warm Ihr Körper ist) **Apps und Fitnessarmbänder** Ein Fitnessarmband misst Schritte und andere Werte. Sie können das Armband mit der App verbinden. App zeigt die Werte in einer Liste oder als Bild. **Blutdruck messen mit Smartwatch** Eine Smartwatch ist eine elektronische Uhr. Manche Smartwatches messen auch Blutdruck. Sie sind oft nicht genau. **Vorteile von Apps** - App erinnert an Blutdruck-Messen. - App erinnert an Medikamente. - App zeigt die Werte. - Sie sehen schnell, ob Werte schlecht sind. **Qualität der Apps** Viele Apps sind nicht genau geprüft. Geprüft heißt: Eine Fachstelle schaut auf die App und entscheidet, ob sie gut ist. Die Deutsche Hochdruckliga prüft manche Apps seit 2019. Die Internetseite ist www.hochdruckliga.de **Mehr Informationen** Weitere Informationen gibt es im Internet. Viele Seiten sind nicht in einfacher Sprache. --- **Erklärungen schwieriger Wörter:** - Blutdruck: Wie stark das Blut auf die Adern drückt. - App: Programm auf dem Handy oder Computer. - Blutdruck-Messgerät: Gerät, das den Blutdruck misst. - Puls: Herzschlag pro Minute. - Blutzucker: Zucker im Blut. - Fitnessarmband: Elektronisches Armband, das Bewegung misst. - Smartwatch: Elektronische Uhr mit Computer-Funktionen. - Medikamente: Mittel zum Einnehmen bei Krankheiten. - Qualität: Wie gut etwas ist. - Deutsche Hochdruckliga: Verein, der sich mit Blutdruck beschäftigt. Wenn Sie etwas nicht verstehen, fragen Sie Ihren Arzt oder Apotheker.</t>
         </is>
       </c>
     </row>
